--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/Ressource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{371A2C5D-3604-4677-8A8B-2D61535048AC}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2439E782-5946-42B6-891B-FC2C74543175}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="217">
   <si>
     <t>Produit</t>
   </si>
@@ -683,6 +683,15 @@
   </si>
   <si>
     <t>idem pour unsigned int</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>V * 100</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1173,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2532,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2664,16 +2673,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2715,7 +2724,7 @@
       <c r="D14" t="s">
         <v>194</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="45" t="s">
         <v>40</v>
       </c>
       <c r="K14" t="s">
@@ -2739,17 +2748,17 @@
         <v>196</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B28" si="0">C14+1</f>
+        <f t="shared" ref="B15:B27" si="0">C14+1</f>
         <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C28" si="1">B15+3</f>
+        <f t="shared" ref="C15:C27" si="1">B15+3</f>
         <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>197</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" t="s">
         <v>34</v>
       </c>
@@ -2781,7 +2790,7 @@
       <c r="D16" t="s">
         <v>200</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" t="s">
         <v>81</v>
       </c>
@@ -2813,7 +2822,7 @@
       <c r="D17" t="s">
         <v>200</v>
       </c>
-      <c r="J17" s="44"/>
+      <c r="J17" s="45"/>
       <c r="K17" t="s">
         <v>35</v>
       </c>
@@ -2845,7 +2854,7 @@
       <c r="D18" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="44"/>
+      <c r="J18" s="45"/>
       <c r="K18" t="s">
         <v>80</v>
       </c>
@@ -2923,6 +2932,9 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2935,6 +2947,9 @@
       <c r="C23">
         <f t="shared" si="1"/>
         <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2956,11 +2971,14 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K25" s="44" t="s">
+      <c r="K25" s="45" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
       <c r="B26">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2969,7 +2987,10 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27">
@@ -2980,13 +3001,13 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K28" s="44"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K29" s="44"/>
+      <c r="K29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3100,7 +3121,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.952895328945421E-3</v>
+        <v>1.0320212544080004E-2</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -3115,7 +3136,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>100.47327606186701</v>
+        <v>96.897229173214185</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -3127,18 +3148,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.5686307534603842E-3</v>
+        <v>7.2489681839992435E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.5686307534603842E-3</v>
+        <v>7.2489681839992435E-3</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>4.7327606186701133E-3</v>
+        <v>-3.1027708267858146E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3147,11 +3168,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7318167089783967E-2</v>
+        <v>2.0166062676671075E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>9.7495363363235832E-3</v>
+        <v>1.2917094492671831E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3160,11 +3181,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5472735766296557E-2</v>
+        <v>3.3032356268755676E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.1545686765125899E-3</v>
+        <v>1.2866293592084601E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3173,11 +3194,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7682360570765114E-2</v>
+        <v>4.2352004049612861E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2209624804468557E-2</v>
+        <v>9.3196477808571848E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3186,11 +3207,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6432863297513387E-2</v>
+        <v>5.2455174761898961E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.750502726748273E-3</v>
+        <v>1.01031707122861E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3199,11 +3220,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.708062383552303E-2</v>
+        <v>6.4664556648420898E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0647760538009643E-2</v>
+        <v>1.2209381886521938E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3212,11 +3233,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5251284411696919E-2</v>
+        <v>7.3750400233650509E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1706605761738896E-3</v>
+        <v>9.085843585229611E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3225,11 +3246,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2713354941967734E-2</v>
+        <v>8.2936458109248712E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4620705302708146E-3</v>
+        <v>9.1860578755982025E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3238,11 +3259,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0410087831576257E-2</v>
+        <v>9.3707732327467277E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6967328896085235E-3</v>
+        <v>1.0771274218218566E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3251,11 +3272,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.190282244114821E-2</v>
+        <v>0.10247471228120737</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1492734609571953E-2</v>
+        <v>8.766979953740095E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3264,11 +3285,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10225299662925891</v>
+        <v>0.11473688184256559</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0350174188110697E-2</v>
+        <v>1.2262169561358213E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3277,11 +3298,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11179456605621105</v>
+        <v>0.12276645806227254</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5415694269521401E-3</v>
+        <v>8.0295762197069576E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3290,11 +3311,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12088968092358279</v>
+        <v>0.1303470798913936</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0951148673717452E-3</v>
+        <v>7.5806218291210592E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3303,11 +3324,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12890356708543987</v>
+        <v>0.14047067354004875</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0138861618570811E-3</v>
+        <v>1.0123593648655144E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3316,11 +3337,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14096342564395645</v>
+        <v>0.15143655635793915</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2059858558516573E-2</v>
+        <v>1.0965882817890404E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3329,11 +3350,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15321118218582214</v>
+        <v>0.16391569583856494</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.224775654186569E-2</v>
+        <v>1.2479139480625789E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3342,11 +3363,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16358677311293249</v>
+        <v>0.17572168593112203</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0375590927110351E-2</v>
+        <v>1.1805990092557089E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3355,11 +3376,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17648671166594662</v>
+        <v>0.18610996535522017</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2899938553014134E-2</v>
+        <v>1.0388279424098146E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3368,11 +3389,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18910501124996298</v>
+        <v>0.19608403833752008</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2618299584016363E-2</v>
+        <v>9.9740729822999086E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2439E782-5946-42B6-891B-FC2C74543175}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C697945-4425-427F-8628-0E5BA3DA59CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="3924" yWindow="2232" windowWidth="15240" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat a faire" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="222">
   <si>
     <t>Produit</t>
   </si>
@@ -493,15 +493,9 @@
     <t>convertisseur</t>
   </si>
   <si>
-    <t>batterie 2Ah</t>
-  </si>
-  <si>
     <t>capteur</t>
   </si>
   <si>
-    <t>semageek</t>
-  </si>
-  <si>
     <t>adafruit</t>
   </si>
   <si>
@@ -514,9 +508,6 @@
     <t>divers</t>
   </si>
   <si>
-    <t>NEMA box</t>
-  </si>
-  <si>
     <t>capteur luminosité</t>
   </si>
   <si>
@@ -692,6 +683,30 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>chinois</t>
+  </si>
+  <si>
+    <t>antenne</t>
+  </si>
+  <si>
+    <t>connecteur SMA pcb</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>batterie 5Ah</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>Mouser</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1515,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,15 +1530,15 @@
       </c>
       <c r="J1" s="2">
         <f>SUM(H3:H20)</f>
-        <v>128.6</v>
+        <v>166.11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1538,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1546,10 +1561,13 @@
         <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
       </c>
       <c r="F3">
         <f>55*1.2</f>
@@ -1566,13 +1584,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="F4" s="1">
         <f>15*1.2</f>
@@ -1582,25 +1600,30 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H16" si="0">G4*F4</f>
+        <f t="shared" ref="H4:H18" si="0">G4*F4</f>
         <v>18</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1"/>
       <c r="K5" s="3"/>
@@ -1617,19 +1640,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
         <v>151</v>
       </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="F8" s="1">
         <f>18*1.2</f>
@@ -1646,33 +1669,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" s="1"/>
@@ -1691,53 +1712,53 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="1">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
+      <c r="H14" s="1">
+        <f>G14*F14</f>
         <v>13</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
-      <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
       <c r="F16" s="1"/>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
@@ -1745,41 +1766,72 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.02</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.49</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F21" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F25" s="1">
         <v>25</v>
@@ -1791,10 +1843,13 @@
         <f>G25*F25</f>
         <v>25</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1" xr:uid="{D7F386F0-027E-4C87-B8D1-632360551444}"/>
+    <hyperlink ref="J25" r:id="rId1" xr:uid="{D7F386F0-027E-4C87-B8D1-632360551444}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2269,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2524,10 +2579,16 @@
       <c r="B26" t="s">
         <v>101</v>
       </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2557,7 +2618,7 @@
   <sheetData>
     <row r="3" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -2575,13 +2636,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -2595,13 +2656,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -2626,37 +2687,37 @@
     </row>
     <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.35">
@@ -2674,21 +2735,21 @@
     </row>
     <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2697,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -2711,7 +2772,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <f>C13+1</f>
@@ -2722,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J14" s="45" t="s">
         <v>40</v>
@@ -2745,7 +2806,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B27" si="0">C14+1</f>
@@ -2756,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J15" s="45"/>
       <c r="K15" t="s">
@@ -2777,7 +2838,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -2788,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J16" s="45"/>
       <c r="K16" t="s">
@@ -2809,7 +2870,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -2820,7 +2881,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J17" s="45"/>
       <c r="K17" t="s">
@@ -2836,12 +2897,12 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -2852,7 +2913,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J18" s="45"/>
       <c r="K18" t="s">
@@ -2861,7 +2922,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -2872,7 +2933,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -2880,7 +2941,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -2891,7 +2952,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -2902,7 +2963,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -2913,7 +2974,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N21">
         <f>SUM(N14:N17)+LEN(L14)+LEN(L15)+LEN(L16)+LEN(L17)</f>
@@ -2922,7 +2983,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -2933,12 +2994,12 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -2949,7 +3010,7 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2972,12 +3033,12 @@
         <v>51</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -2988,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K26" s="45"/>
     </row>
@@ -3121,7 +3182,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0320212544080004E-2</v>
+        <v>1.0318069364450014E-2</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -3136,7 +3197,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>96.897229173214185</v>
+        <v>96.917355822922701</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -3148,18 +3209,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.2489681839992435E-3</v>
+        <v>1.0363329666874683E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.2489681839992435E-3</v>
+        <v>1.0363329666874683E-2</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-3.1027708267858146E-2</v>
+        <v>-3.0826441770772987E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3168,11 +3229,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0166062676671075E-2</v>
+        <v>2.3091727940016231E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.2917094492671831E-2</v>
+        <v>1.2728398273141548E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3181,11 +3242,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3032356268755676E-2</v>
+        <v>3.043451298487165E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.2866293592084601E-2</v>
+        <v>7.342785044855419E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3194,11 +3255,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2352004049612861E-2</v>
+        <v>4.0184507481287934E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3196477808571848E-3</v>
+        <v>9.7499944964162845E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3207,11 +3268,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2455174761898961E-2</v>
+        <v>5.0069020673544691E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.01031707122861E-2</v>
+        <v>9.8845131922567567E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3220,11 +3281,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4664556648420898E-2</v>
+        <v>6.2248396758651681E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2209381886521938E-2</v>
+        <v>1.217937608510699E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3233,11 +3294,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3750400233650509E-2</v>
+        <v>7.4306631857063932E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.085843585229611E-3</v>
+        <v>1.2058235098412251E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,11 +3307,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2936458109248712E-2</v>
+        <v>8.5055113323021334E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1860578755982025E-3</v>
+        <v>1.0748481465957402E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3259,11 +3320,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3707732327467277E-2</v>
+        <v>9.3655983750694713E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0771274218218566E-2</v>
+        <v>8.6008704276733794E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3272,11 +3333,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10247471228120737</v>
+        <v>0.10262445219057113</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.766979953740095E-3</v>
+        <v>8.9684684398764203E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3285,11 +3346,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11473688184256559</v>
+        <v>0.11234689109873543</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2262169561358213E-2</v>
+        <v>9.7224389081642937E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3298,11 +3359,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12276645806227254</v>
+        <v>0.12148273148361138</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0295762197069576E-3</v>
+        <v>9.1358403848759567E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3311,11 +3372,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1303470798913936</v>
+        <v>0.13417324957995375</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5806218291210592E-3</v>
+        <v>1.2690518096342362E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3324,11 +3385,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14047067354004875</v>
+        <v>0.14589375402719429</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0123593648655144E-2</v>
+        <v>1.1720504447240543E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3337,11 +3398,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15143655635793915</v>
+        <v>0.1567348360445453</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0965882817890404E-2</v>
+        <v>1.0841082017351011E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3350,11 +3411,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16391569583856494</v>
+        <v>0.16689191394709177</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2479139480625789E-2</v>
+        <v>1.0157077902546469E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3363,11 +3424,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17572168593112203</v>
+        <v>0.1776887559238545</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1805990092557089E-2</v>
+        <v>1.0796841976762728E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3376,11 +3437,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18610996535522017</v>
+        <v>0.18717646262361545</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0388279424098146E-2</v>
+        <v>9.487706699760956E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3389,11 +3450,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19608403833752008</v>
+        <v>0.19604331792455026</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9740729822999086E-3</v>
+        <v>8.8668553009348117E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7419,30 +7480,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1">
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C697945-4425-427F-8628-0E5BA3DA59CD}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="2232" windowWidth="15240" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="3924" yWindow="2232" windowWidth="15240" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat a faire" sheetId="1" r:id="rId1"/>
@@ -2324,7 +2324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2602,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0318069364450014E-2</v>
+        <v>1.0214676635111204E-2</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>96.917355822922701</v>
+        <v>97.898351139444884</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -3209,18 +3209,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.0363329666874683E-2</v>
+        <v>1.0798235222289865E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.0363329666874683E-2</v>
+        <v>1.0798235222289865E-2</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-3.0826441770772987E-2</v>
+        <v>-2.1016488605551161E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3229,11 +3229,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3091727940016231E-2</v>
+        <v>2.0743279411307689E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.2728398273141548E-2</v>
+        <v>9.9450441890178241E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3242,11 +3242,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.043451298487165E-2</v>
+        <v>3.0916305199578373E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>7.342785044855419E-3</v>
+        <v>1.0173025788270684E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3255,11 +3255,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0184507481287934E-2</v>
+        <v>4.0949386712800948E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7499944964162845E-3</v>
+        <v>1.0033081513222575E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3268,11 +3268,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0069020673544691E-2</v>
+        <v>5.1549376536012055E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8845131922567567E-3</v>
+        <v>1.0599989823211108E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3281,11 +3281,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2248396758651681E-2</v>
+        <v>6.1989987034671866E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.217937608510699E-2</v>
+        <v>1.0440610498659811E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3294,11 +3294,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4306631857063932E-2</v>
+        <v>7.4579303870795449E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2058235098412251E-2</v>
+        <v>1.2589316836123583E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3307,11 +3307,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5055113323021334E-2</v>
+        <v>8.3999527742175492E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0748481465957402E-2</v>
+        <v>9.4202238713800429E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3320,11 +3320,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3655983750694713E-2</v>
+        <v>9.1708932887110045E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6008704276733794E-3</v>
+        <v>7.709405144934553E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3333,11 +3333,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10262445219057113</v>
+        <v>0.10118471894711333</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9684684398764203E-3</v>
+        <v>9.4757860600032801E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3346,11 +3346,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11234689109873543</v>
+        <v>0.11314828595968046</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7224389081642937E-3</v>
+        <v>1.1963567012567136E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3359,11 +3359,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12148273148361138</v>
+        <v>0.12108969957065843</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1358403848759567E-3</v>
+        <v>7.9414136109779709E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3372,11 +3372,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13417324957995375</v>
+        <v>0.12840878392307808</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2690518096342362E-2</v>
+        <v>7.3190843524196525E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3385,11 +3385,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14589375402719429</v>
+        <v>0.13634132462915621</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1720504447240543E-2</v>
+        <v>7.9325407060781283E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3398,11 +3398,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1567348360445453</v>
+        <v>0.14721150266704586</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0841082017351011E-2</v>
+        <v>1.0870178037889644E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3411,11 +3411,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16689191394709177</v>
+        <v>0.15929638582454173</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0157077902546469E-2</v>
+        <v>1.2084883157495868E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3424,11 +3424,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1776887559238545</v>
+        <v>0.17035582424017148</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0796841976762728E-2</v>
+        <v>1.1059438415629758E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3437,11 +3437,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18717646262361545</v>
+        <v>0.18227619785412977</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.487706699760956E-3</v>
+        <v>1.1920373613958285E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3450,11 +3450,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19604331792455026</v>
+        <v>0.19407885606711286</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8668553009348117E-3</v>
+        <v>1.1802658212983097E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DD4BB472-C5A0-4A48-829D-470B3A7BEF1D}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="3324" windowWidth="15240" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="7800" yWindow="3324" windowWidth="15240" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat a faire" sheetId="1" r:id="rId1"/>
@@ -1578,16 +1578,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -31677,7 +31677,7 @@
   <dimension ref="A2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -31687,7 +31687,7 @@
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="87" customWidth="1"/>
     <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31713,7 +31713,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="87" t="s">
         <v>9</v>
       </c>
     </row>
@@ -31724,7 +31724,7 @@
       <c r="B4" s="20"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="87" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31741,7 +31741,7 @@
       <c r="D5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -31756,7 +31756,7 @@
       <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="87" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
@@ -31772,7 +31772,7 @@
       <c r="D7" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="87" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
@@ -31788,7 +31788,7 @@
       <c r="D8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="G8" s="87" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
@@ -31804,7 +31804,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="87" t="s">
         <v>257</v>
       </c>
     </row>
@@ -31819,7 +31819,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="87" t="s">
         <v>258</v>
       </c>
     </row>
@@ -31830,7 +31830,7 @@
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="87" t="s">
         <v>259</v>
       </c>
     </row>
@@ -31843,7 +31843,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="87" t="s">
         <v>260</v>
       </c>
     </row>
@@ -31860,7 +31860,7 @@
       <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="87" t="s">
         <v>261</v>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       <c r="D14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="G14" s="87" t="s">
         <v>262</v>
       </c>
     </row>
@@ -31894,7 +31894,7 @@
       <c r="D15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="87" t="s">
         <v>263</v>
       </c>
     </row>
@@ -31911,7 +31911,7 @@
       <c r="D16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="87" t="s">
         <v>264</v>
       </c>
     </row>
@@ -31920,7 +31920,7 @@
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="87" t="s">
         <v>265</v>
       </c>
     </row>
@@ -31931,7 +31931,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="87" t="s">
         <v>266</v>
       </c>
     </row>
@@ -31942,7 +31942,7 @@
       <c r="B19" s="20"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="G19" s="89" t="s">
+      <c r="G19" s="87" t="s">
         <v>267</v>
       </c>
     </row>
@@ -31969,7 +31969,7 @@
       <c r="D21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="87">
         <v>1</v>
       </c>
     </row>
@@ -31980,7 +31980,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="G22" s="89">
+      <c r="G22" s="87">
         <v>2</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -31994,18 +31994,18 @@
       <c r="B23" s="22"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
-      <c r="G23" s="89">
+      <c r="G23" s="87">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
-      <c r="G24" s="89">
+      <c r="G24" s="87">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G25" s="89">
+      <c r="G25" s="87">
         <v>5</v>
       </c>
     </row>
@@ -32019,7 +32019,7 @@
       <c r="C26" t="s">
         <v>171</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="87">
         <v>6</v>
       </c>
     </row>
@@ -32030,22 +32030,22 @@
       <c r="C27" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="89">
+      <c r="G27" s="87">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G28" s="89">
+      <c r="G28" s="87">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G29" s="89">
+      <c r="G29" s="87">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G30" s="89">
+      <c r="G30" s="87">
         <v>10</v>
       </c>
       <c r="H30" t="s">
@@ -32053,37 +32053,37 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G31" s="89">
+      <c r="G31" s="87">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G32" s="89">
+      <c r="G32" s="87">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G33" s="89">
+      <c r="G33" s="87">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G34" s="89">
+      <c r="G34" s="87">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G35" s="89">
+      <c r="G35" s="87">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G36" s="89">
+      <c r="G36" s="87">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G37" s="89">
+      <c r="G37" s="87">
         <v>17</v>
       </c>
       <c r="H37" t="s">
@@ -32091,7 +32091,7 @@
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G38" s="89">
+      <c r="G38" s="87">
         <v>18</v>
       </c>
       <c r="H38" t="s">
@@ -32099,7 +32099,7 @@
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G39" s="89">
+      <c r="G39" s="87">
         <v>19</v>
       </c>
       <c r="H39" t="s">
@@ -32107,10 +32107,10 @@
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G40" s="89">
+      <c r="G40" s="87">
         <v>20</v>
       </c>
-      <c r="H40" s="90" t="s">
+      <c r="H40" s="88" t="s">
         <v>275</v>
       </c>
       <c r="I40" t="s">
@@ -32118,155 +32118,155 @@
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G41" s="89">
+      <c r="G41" s="87">
         <v>21</v>
       </c>
-      <c r="H41" s="90" t="s">
+      <c r="H41" s="88" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G42" s="89">
+      <c r="G42" s="87">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G43" s="89">
+      <c r="G43" s="87">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G44" s="89">
+      <c r="G44" s="87">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G45" s="89">
+      <c r="G45" s="87">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G46" s="89">
+      <c r="G46" s="87">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G47" s="89">
+      <c r="G47" s="87">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G48" s="89">
+      <c r="G48" s="87">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="89">
+      <c r="G49" s="87">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="89">
+      <c r="G50" s="87">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="89">
+      <c r="G51" s="87">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52" s="89">
+      <c r="G52" s="87">
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53" s="89">
+      <c r="G53" s="87">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G54" s="89">
+      <c r="G54" s="87">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55" s="89">
+      <c r="G55" s="87">
         <v>35</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G56" s="89">
+      <c r="G56" s="87">
         <v>36</v>
       </c>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G57" s="89">
+      <c r="G57" s="87">
         <v>37</v>
       </c>
     </row>
     <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58" s="89">
+      <c r="G58" s="87">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59" s="89">
+      <c r="G59" s="87">
         <v>39</v>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G60" s="89">
+      <c r="G60" s="87">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G61" s="89">
+      <c r="G61" s="87">
         <v>41</v>
       </c>
     </row>
     <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62" s="89">
+      <c r="G62" s="87">
         <v>42</v>
       </c>
     </row>
     <row r="63" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G63" s="89">
+      <c r="G63" s="87">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64" s="89">
+      <c r="G64" s="87">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G65" s="89">
+      <c r="G65" s="87">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G66" s="89">
+      <c r="G66" s="87">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G67" s="89">
+      <c r="G67" s="87">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G68" s="89">
+      <c r="G68" s="87">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G69" s="89">
+      <c r="G69" s="87">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G70" s="89">
+      <c r="G70" s="87">
         <v>50</v>
       </c>
       <c r="H70" t="s">
@@ -32274,7 +32274,7 @@
       </c>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G71" s="89">
+      <c r="G71" s="87">
         <v>51</v>
       </c>
       <c r="H71" t="s">
@@ -32282,7 +32282,7 @@
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G72" s="89">
+      <c r="G72" s="87">
         <v>52</v>
       </c>
       <c r="H72" t="s">
@@ -32290,12 +32290,12 @@
       </c>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G73" s="89">
+      <c r="G73" s="87">
         <v>53</v>
       </c>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G74" s="89">
+      <c r="G74" s="87">
         <v>54</v>
       </c>
     </row>
@@ -32325,13 +32325,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
       <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
@@ -32394,11 +32394,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
       <c r="D7" t="s">
         <v>210</v>
       </c>
@@ -32508,7 +32508,7 @@
       <c r="G14" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="89" t="s">
         <v>40</v>
       </c>
       <c r="K14" t="s">
@@ -32542,7 +32542,7 @@
       <c r="D15" t="s">
         <v>194</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="89"/>
       <c r="K15" t="s">
         <v>34</v>
       </c>
@@ -32574,7 +32574,7 @@
       <c r="D16" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="87"/>
+      <c r="J16" s="89"/>
       <c r="K16" t="s">
         <v>81</v>
       </c>
@@ -32606,7 +32606,7 @@
       <c r="D17" t="s">
         <v>197</v>
       </c>
-      <c r="J17" s="87"/>
+      <c r="J17" s="89"/>
       <c r="K17" t="s">
         <v>35</v>
       </c>
@@ -32638,7 +32638,7 @@
       <c r="D18" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="87"/>
+      <c r="J18" s="89"/>
       <c r="K18" t="s">
         <v>80</v>
       </c>
@@ -32755,7 +32755,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="89" t="s">
         <v>175</v>
       </c>
     </row>
@@ -32774,7 +32774,7 @@
       <c r="D26" t="s">
         <v>211</v>
       </c>
-      <c r="K26" s="87"/>
+      <c r="K26" s="89"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -32788,13 +32788,13 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K27" s="87"/>
+      <c r="K27" s="89"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K28" s="87"/>
+      <c r="K28" s="89"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K29" s="87"/>
+      <c r="K29" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -32908,7 +32908,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0352551792847858E-2</v>
+        <v>1.0787916392060205E-2</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -32923,7 +32923,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>96.594542100321377</v>
+        <v>92.696306094473414</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -32935,18 +32935,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.2074704134743196E-3</v>
+        <v>1.2303014081487625E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.2074704134743196E-3</v>
+        <v>1.2303014081487625E-2</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-3.4054578996786232E-2</v>
+        <v>-7.3036939055265857E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -32955,11 +32955,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7820630280110765E-2</v>
+        <v>2.4699063770361081E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.0613159866636445E-2</v>
+        <v>1.2396049688873456E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -32968,11 +32968,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0817672648950915E-2</v>
+        <v>3.2544779911512618E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.299704236884015E-2</v>
+        <v>7.8457161411515375E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -32981,11 +32981,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1058606305057151E-2</v>
+        <v>4.1312418461255933E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0240933656106236E-2</v>
+        <v>8.7676385497433146E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -32994,11 +32994,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1662060524272385E-2</v>
+        <v>5.216503885700384E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0603454219215235E-2</v>
+        <v>1.0852620395747907E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -33007,11 +33007,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1035316521562674E-2</v>
+        <v>6.445905439288184E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9.373255997290289E-3</v>
+        <v>1.2294015535878E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -33020,11 +33020,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3618079772825543E-2</v>
+        <v>7.4021969866322784E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2582763251262868E-2</v>
+        <v>9.5629154734409444E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33033,11 +33033,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2668465354426221E-2</v>
+        <v>8.6558036911726588E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0503855816006784E-3</v>
+        <v>1.2536067045403804E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -33046,11 +33046,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9858552925422788E-2</v>
+        <v>9.6962436025597523E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1900875709965673E-3</v>
+        <v>1.0404399113870935E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -33059,11 +33059,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10282967408457397</v>
+        <v>0.1051320072445472</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.297112115915118E-2</v>
+        <v>8.1695712189496783E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -33072,11 +33072,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11034698235980497</v>
+        <v>0.11369978335163825</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.517308275231005E-3</v>
+        <v>8.5677761070910435E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -33085,11 +33085,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12185613360341653</v>
+        <v>0.1243101345273718</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1509151243611557E-2</v>
+        <v>1.0610351175733557E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -33098,11 +33098,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1345643351820805</v>
+        <v>0.13396033582676142</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2708201578663966E-2</v>
+        <v>9.6502012993896213E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -33111,11 +33111,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1459852956080876</v>
+        <v>0.14686050733311476</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1420960426007098E-2</v>
+        <v>1.2900171506353336E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -33124,11 +33124,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15547688353854958</v>
+        <v>0.15633576872859523</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.491587930461981E-3</v>
+        <v>9.4752613954804665E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -33137,11 +33137,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16349091783092493</v>
+        <v>0.16854793038301677</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0140342923753494E-3</v>
+        <v>1.2212161654421544E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -33150,11 +33150,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17378110998433066</v>
+        <v>0.18135567129654717</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0290192153405736E-2</v>
+        <v>1.2807740913530402E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -33163,11 +33163,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18547577362339407</v>
+        <v>0.19397912321328886</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1694663639063407E-2</v>
+        <v>1.262345191674169E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -33176,11 +33176,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19669848406410931</v>
+        <v>0.20497041144914391</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1222710440715239E-2</v>
+        <v>1.0991288235855046E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B7F110C-B5AA-4935-92D8-4FDFA7EBDF16}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A905B60-7ED1-4575-AE3A-B5B7858F5AA1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat a faire" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="280">
   <si>
     <t>Produit</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>DS18B20</t>
+  </si>
+  <si>
+    <t>ref 3V3 du BME</t>
   </si>
 </sst>
 </file>
@@ -33649,8 +33652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -33779,6 +33782,9 @@
       <c r="D9" s="17"/>
       <c r="G9" s="87" t="s">
         <v>257</v>
+      </c>
+      <c r="H9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -34881,7 +34887,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.949415008538548E-3</v>
+        <v>9.9513062848477097E-3</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -34896,7 +34902,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>100.5084217656821</v>
+        <v>100.4893198315726</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -34908,18 +34914,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>8.4684453329703594E-3</v>
+        <v>7.3870317791040561E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>8.4684453329703594E-3</v>
+        <v>7.3870317791040561E-3</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>5.084217656821011E-3</v>
+        <v>4.893198315726011E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -34928,11 +34934,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.111678096128336E-2</v>
+        <v>1.4913853720893898E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.2648335628313001E-2</v>
+        <v>7.5268219417898418E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -34941,11 +34947,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2488148831591117E-2</v>
+        <v>2.5861292412549926E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.1371367870307757E-2</v>
+        <v>1.0947438691656028E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -34954,11 +34960,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0130542254254033E-2</v>
+        <v>3.5917839888635415E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6423934226629159E-3</v>
+        <v>1.0056547476085489E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -34967,11 +34973,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7824137780423645E-2</v>
+        <v>4.721618110971397E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6935955261696123E-3</v>
+        <v>1.1298341221078555E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -34980,11 +34986,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7277348096541766E-2</v>
+        <v>6.0186935203701421E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4532103161181213E-3</v>
+        <v>1.2970754093987451E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -34993,11 +34999,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9360639638281443E-2</v>
+        <v>7.2993736415432234E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2083291541739677E-2</v>
+        <v>1.2806801211730813E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -35006,11 +35012,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7909502935660679E-2</v>
+        <v>8.1930150984270422E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5488632973792361E-3</v>
+        <v>8.9364145688381885E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -35019,11 +35025,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6665713444741749E-2</v>
+        <v>9.1875706355069808E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7562105090810693E-3</v>
+        <v>9.945555370799386E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -35032,11 +35038,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4784712740401747E-2</v>
+        <v>0.10349301279324301</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1189992956599982E-3</v>
+        <v>1.16173064381732E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -35045,11 +35051,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10235501095773231</v>
+        <v>0.11090726053205326</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5702982173305594E-3</v>
+        <v>7.4142477388102479E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -35058,11 +35064,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1103828843933868</v>
+        <v>0.12338628823272681</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0278734356544895E-3</v>
+        <v>1.2479027700673551E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -35071,11 +35077,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1193792566247352</v>
+        <v>0.13179539583690508</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9963722313484012E-3</v>
+        <v>8.4091076041782759E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -35084,11 +35090,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13212296072094259</v>
+        <v>0.14382761581588852</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2743704096207398E-2</v>
+        <v>1.2032219978983433E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -35097,11 +35103,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14479062520578853</v>
+        <v>0.15159814445553349</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2667664484845936E-2</v>
+        <v>7.7705286396449746E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -35110,11 +35116,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15547344707225816</v>
+        <v>0.16253883728518614</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0682821866469627E-2</v>
+        <v>1.0940692829652654E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -35123,11 +35129,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16441894606032656</v>
+        <v>0.17150415354773396</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.945498988068401E-3</v>
+        <v>8.9653162625478178E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -35136,11 +35142,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17631721867530012</v>
+        <v>0.18004435886928849</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.189827261497356E-2</v>
+        <v>8.5402053215545282E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -35149,11 +35155,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18903888516223241</v>
+        <v>0.18907481941210649</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2721666486932293E-2</v>
+        <v>9.0304605428180029E-3</v>
       </c>
     </row>
   </sheetData>
@@ -35165,7 +35171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
   <dimension ref="A2:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="13_ncr:1_{49D4E897-6CFC-4372-BC7E-4324AD2FDE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28D7F924-DB4F-4026-ADCD-7279075E7E6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2A128-8236-496D-94AC-35A2ED5F2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste grandeur" sheetId="15" r:id="rId1"/>
     <sheet name="Achat" sheetId="11" r:id="rId2"/>
     <sheet name="conso" sheetId="3" r:id="rId3"/>
     <sheet name="Pin des Arduino" sheetId="4" r:id="rId4"/>
-    <sheet name="Radio" sheetId="9" r:id="rId5"/>
-    <sheet name="Ordre execution tache" sheetId="17" r:id="rId6"/>
-    <sheet name="Test mesure frequence" sheetId="5" r:id="rId7"/>
-    <sheet name="Direction Vent" sheetId="6" r:id="rId8"/>
-    <sheet name="dew frost point" sheetId="12" r:id="rId9"/>
-    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId10"/>
+    <sheet name="Design carte Station" sheetId="18" r:id="rId5"/>
+    <sheet name="Radio" sheetId="9" r:id="rId6"/>
+    <sheet name="Ordre execution tache" sheetId="17" r:id="rId7"/>
+    <sheet name="Test mesure frequence" sheetId="5" r:id="rId8"/>
+    <sheet name="Direction Vent" sheetId="6" r:id="rId9"/>
+    <sheet name="dew frost point" sheetId="12" r:id="rId10"/>
+    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="266">
   <si>
     <t>Produit</t>
   </si>
@@ -777,6 +778,108 @@
   <si>
     <t>°C</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Connecteur</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Nbre de pin</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Vent+pluie</t>
+  </si>
+  <si>
+    <t>3 signaux et 1G</t>
+  </si>
+  <si>
+    <t>DHT22</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>+5/S/G</t>
+  </si>
+  <si>
+    <t>BH1745</t>
+  </si>
+  <si>
+    <t>Radio Data</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Radion Alim</t>
+  </si>
+  <si>
+    <t>+5/G/+3,3</t>
+  </si>
+  <si>
+    <t>Alim General</t>
+  </si>
+  <si>
+    <t>Solar MPTT</t>
+  </si>
+  <si>
+    <t>Pour carte arduino :</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>Csradio</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>Wind dir</t>
+  </si>
+  <si>
+    <t>Wind Speed</t>
+  </si>
+  <si>
+    <t>Pluvio</t>
+  </si>
+  <si>
+    <t>Signaux</t>
+  </si>
+  <si>
+    <t>Sensor Nano</t>
+  </si>
+  <si>
+    <t>+X/G/SDA/SCL</t>
+  </si>
+  <si>
+    <t>+3,3/G/SDA/SCL</t>
+  </si>
+  <si>
+    <t>+5/G/SDA/SCL</t>
+  </si>
+  <si>
+    <t>+5/+3,3V/G</t>
+  </si>
 </sst>
 </file>
 
@@ -784,7 +887,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1266,7 +1369,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1365,7 +1468,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1374,22 +1477,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11937,16 +12049,130 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100244</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177665</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377DB948-6A07-4F5D-944F-F9328A8C7D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9853844" y="0"/>
+          <a:ext cx="3125421" cy="1765234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600"/>
+            <a:t>Connecteur largeur</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+            <a:t> : 0,587 = 2cm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+            <a:t>longueur : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+            <a:t> : 0,74 = 3cm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+            <a:t>3 : 0,99 = 4cm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+            <a:t>4 : 1,24 = 5cm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
+            <a:t>5 : 1,49 = 6cm</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>699655</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147551</xdr:rowOff>
+      <xdr:colOff>640020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191885</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:colOff>132250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>217456</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11961,8 +12187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3068782" y="923406"/>
-          <a:ext cx="1861358" cy="337358"/>
+          <a:off x="3025411" y="240316"/>
+          <a:ext cx="1877622" cy="348201"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11972,7 +12198,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -12011,15 +12237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>699655</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>84962</xdr:rowOff>
+      <xdr:colOff>640020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191885</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62102</xdr:rowOff>
+      <xdr:colOff>132250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12034,8 +12260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3068782" y="2121580"/>
-          <a:ext cx="1861358" cy="337358"/>
+          <a:off x="3025411" y="1476440"/>
+          <a:ext cx="1877622" cy="348201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12043,7 +12269,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -12081,69 +12307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>681991</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28403</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62102</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Connecteur droit 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5A8FB6-31E8-4A4C-9062-33A571362E43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3840827" y="2425239"/>
-          <a:ext cx="158634" cy="33699"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>26202</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3342</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12158,8 +12331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="1522493"/>
-          <a:ext cx="1858588" cy="337358"/>
+          <a:off x="3026796" y="861089"/>
+          <a:ext cx="1874852" cy="348201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12167,7 +12340,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -12206,15 +12379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22372</xdr:rowOff>
+      <xdr:colOff>275645</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29992</xdr:rowOff>
+      <xdr:colOff>496625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12229,8 +12402,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2712720" y="3359932"/>
-          <a:ext cx="2598420" cy="922020"/>
+          <a:off x="2661036" y="2712563"/>
+          <a:ext cx="2606372" cy="935273"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -12238,7 +12411,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -12312,16 +12485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>124691</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>217456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>26202</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12339,12 +12512,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="1260764"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="588517"/>
+          <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12365,16 +12542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3342</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>84962</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12392,12 +12569,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="1859851"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="1209290"/>
+          <a:ext cx="0" cy="267150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12419,15 +12600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>559031</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>94904</xdr:rowOff>
+      <xdr:colOff>499396</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>48491</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>72043</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>783986</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12442,12 +12623,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="559031" y="4653049"/>
-          <a:ext cx="1858587" cy="337358"/>
+          <a:off x="499396" y="4083808"/>
+          <a:ext cx="1874851" cy="348200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12487,15 +12669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>698616</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>115095</xdr:rowOff>
+      <xdr:colOff>638981</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>699655</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>113606</xdr:rowOff>
+      <xdr:colOff>640020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>159988</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12510,8 +12692,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="928480" y="2891667"/>
-          <a:ext cx="2700148" cy="1580457"/>
+          <a:off x="839027" y="2287188"/>
+          <a:ext cx="2781467" cy="1591300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -12519,7 +12701,7 @@
             <a:gd name="adj2" fmla="val -68748"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -12543,15 +12725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143722</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120861</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12566,8 +12748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="2720667"/>
-          <a:ext cx="1858588" cy="337358"/>
+          <a:off x="3026796" y="2091792"/>
+          <a:ext cx="1874852" cy="348200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12575,7 +12757,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -12613,16 +12795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62102</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>143722</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12640,12 +12822,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="2458938"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="1824641"/>
+          <a:ext cx="0" cy="267151"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12666,16 +12852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120861</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22372</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68754</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12693,13 +12879,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="3058025"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="2439992"/>
+          <a:ext cx="0" cy="272571"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -12724,15 +12910,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>698616</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>116237</xdr:rowOff>
+      <xdr:colOff>638981</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>94904</xdr:rowOff>
+      <xdr:colOff>275645</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141286</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12750,13 +12936,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1488325" y="3773837"/>
-          <a:ext cx="1216082" cy="879212"/>
+          <a:off x="1434111" y="3177489"/>
+          <a:ext cx="1226925" cy="906319"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -12780,15 +12966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51222</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>177991</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38843</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12803,12 +12989,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="5509913"/>
-          <a:ext cx="1858588" cy="667096"/>
+          <a:off x="3026796" y="4967779"/>
+          <a:ext cx="1874852" cy="683360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12849,16 +13036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>149711</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>51222</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97605</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12876,13 +13063,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="5248184"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="4695207"/>
+          <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -12907,15 +13094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>79502</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>125222</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171605</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12930,12 +13117,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="6438738"/>
-          <a:ext cx="1858588" cy="586048"/>
+          <a:off x="3026796" y="5923711"/>
+          <a:ext cx="1874852" cy="602311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12984,16 +13172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>177991</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>79502</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13011,13 +13199,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="6177009"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="5651139"/>
+          <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -13042,15 +13230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>26733</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>73116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>69682</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13065,12 +13253,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="7286515"/>
-          <a:ext cx="1858588" cy="583276"/>
+          <a:off x="3026796" y="6798594"/>
+          <a:ext cx="1874852" cy="599540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13120,15 +13309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>151302</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24533</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13143,12 +13332,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="8131520"/>
-          <a:ext cx="1858588" cy="233449"/>
+          <a:off x="3026796" y="7665285"/>
+          <a:ext cx="1874852" cy="244292"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13183,15 +13373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111612</xdr:rowOff>
+      <xdr:colOff>420425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>149711</xdr:rowOff>
+      <xdr:colOff>351845</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13206,8 +13396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="4546452"/>
-          <a:ext cx="2308860" cy="769619"/>
+          <a:off x="2805816" y="3914986"/>
+          <a:ext cx="2316812" cy="780221"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -13215,7 +13405,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -13275,16 +13465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29992</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>111612</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157995</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13303,13 +13493,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3999461" y="4227919"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="3647836"/>
+          <a:ext cx="0" cy="267150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
@@ -13334,15 +13524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191885</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73532</xdr:rowOff>
+      <xdr:colOff>132250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>130661</xdr:rowOff>
+      <xdr:colOff>351845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13360,14 +13550,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4930140" y="2290259"/>
-          <a:ext cx="219595" cy="2578657"/>
+          <a:off x="4903033" y="1650541"/>
+          <a:ext cx="219595" cy="2654555"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val -104101"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13389,15 +13583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>106153</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>22332</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13412,12 +13606,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="8626698"/>
-          <a:ext cx="1858588" cy="276398"/>
+          <a:off x="3026796" y="8176727"/>
+          <a:ext cx="1874852" cy="287240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13452,15 +13647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>103952</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>150334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>149672</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13475,12 +13670,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="9164825"/>
-          <a:ext cx="1858588" cy="586047"/>
+          <a:off x="3026796" y="8731117"/>
+          <a:ext cx="1874852" cy="602312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13524,15 +13720,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>51183</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>13083</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>59465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13547,12 +13743,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="10012601"/>
-          <a:ext cx="1858588" cy="322118"/>
+          <a:off x="3026796" y="9606001"/>
+          <a:ext cx="1874852" cy="332960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13587,15 +13784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>699655</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94703</xdr:rowOff>
+      <xdr:colOff>640020</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191885</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>94702</xdr:rowOff>
+      <xdr:colOff>132250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>141085</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13610,12 +13807,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3068782" y="10596448"/>
-          <a:ext cx="1861358" cy="360218"/>
+          <a:off x="3025411" y="10206112"/>
+          <a:ext cx="1877622" cy="371060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13650,15 +13848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>176322</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>37174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>176322</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>37174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13673,12 +13871,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="11218395"/>
-          <a:ext cx="1858588" cy="360218"/>
+          <a:off x="3026796" y="10844322"/>
+          <a:ext cx="1874852" cy="371061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13713,15 +13912,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>159453</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>20305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>159453</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13736,12 +13935,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="12462289"/>
-          <a:ext cx="1858588" cy="360219"/>
+          <a:off x="3026796" y="12126166"/>
+          <a:ext cx="1874852" cy="371061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13776,15 +13976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>77833</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>77833</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>124216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13799,12 +13999,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="11840342"/>
-          <a:ext cx="1858588" cy="360218"/>
+          <a:off x="3026796" y="11487955"/>
+          <a:ext cx="1874852" cy="371061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13839,15 +14040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>107343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>107343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13862,12 +14063,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3070167" y="13084233"/>
-          <a:ext cx="1858588" cy="360218"/>
+          <a:off x="3026796" y="12769795"/>
+          <a:ext cx="1874852" cy="371061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13901,16 +14103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>125222</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>26733</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>73116</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13928,14 +14130,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="7024786"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="6526022"/>
+          <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -13957,16 +14160,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>69682</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>151302</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13984,14 +14187,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="7869791"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="7398134"/>
+          <a:ext cx="0" cy="267151"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14013,16 +14217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24533</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>106153</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14040,14 +14244,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="8364969"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="7909577"/>
+          <a:ext cx="0" cy="267150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14069,16 +14274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>22332</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>103952</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>150334</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14096,14 +14301,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="8903096"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="8463967"/>
+          <a:ext cx="0" cy="267150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14125,16 +14331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>149672</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>51183</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97566</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14152,14 +14358,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="9750872"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="9333429"/>
+          <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14181,16 +14388,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>13083</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>59465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>94703</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14208,14 +14415,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="10334719"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="9938961"/>
+          <a:ext cx="0" cy="267151"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14237,16 +14445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>94702</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>141085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>176322</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>37174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14264,14 +14472,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="10956666"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="10577172"/>
+          <a:ext cx="0" cy="267150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14293,16 +14502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>176322</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>37174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>77833</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124216</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14320,14 +14529,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="11578613"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="11215383"/>
+          <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14349,16 +14559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>77833</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>124216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>159453</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>20305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14376,14 +14586,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="12200560"/>
-          <a:ext cx="0" cy="261729"/>
+          <a:off x="3966933" y="11859016"/>
+          <a:ext cx="0" cy="267150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14405,16 +14616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>159453</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50916</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786411</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>107343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14432,14 +14643,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3999461" y="12822508"/>
-          <a:ext cx="0" cy="261725"/>
+          <a:off x="3966933" y="12497227"/>
+          <a:ext cx="0" cy="272568"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14461,16 +14673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50915</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>73532</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>786410</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191884</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>132249</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>107343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14488,8 +14700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-1112296" y="7402015"/>
-          <a:ext cx="11154192" cy="930679"/>
+          <a:off x="-1310176" y="6927649"/>
+          <a:ext cx="11490315" cy="936100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -14497,8 +14709,9 @@
             <a:gd name="adj2" fmla="val 274917"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14553,7 +14766,7 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="accent2"/>
           </a:solidFill>
@@ -14626,6 +14839,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -14664,7 +14878,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14741,7 +14955,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15192,7 +15406,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15280,6 +15494,453 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <f>A4+273.15</f>
+        <v>263.14999999999998</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C22" si="0">POWER(B$1/100, 1/8)*(112+(0.9*A4)) + (0.1*A4) - 112</f>
+        <v>-12.833275335994472</v>
+      </c>
+      <c r="D4">
+        <f>C4+273.15</f>
+        <v>260.31672466400551</v>
+      </c>
+      <c r="E4">
+        <f>D4+2671.02/((2954.61/B4)+2.193665*LN(B4)-13.3448)-B4-273.15</f>
+        <v>-11.728485757879298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-7.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B22" si="1">A5+273.15</f>
+        <v>265.64999999999998</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-10.395167272945812</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D22" si="2">C5+273.15</f>
+        <v>262.75483272705418</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E22" si="3">D5+2671.02/((2954.61/B5)+2.193665*LN(B5)-13.3448)-B5-273.15</f>
+        <v>-9.5513855219751349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>268.14999999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-7.9570592098971389</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>265.19294079010285</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>-7.3840418502668399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-2.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>270.64999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-5.5189511468484795</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>267.63104885315147</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>-5.2265049497882501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>273.14999999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-3.0808430837998202</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>270.06915691620014</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>-3.0788229979063999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>275.64999999999998</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.64273502075114664</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>272.50726497924882</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>-0.94104217294557202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>278.14999999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.7953730422975127</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>274.94537304229749</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1.1867933154213688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>280.64999999999998</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>4.2334811053461721</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>277.38348110534616</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>3.3046411960151545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>6.6715891683948456</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>279.82158916839484</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>5.4124611062245549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12.5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>285.64999999999998</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9.109697231443505</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>282.25969723144351</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>7.5102145623131946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>11.547805294492164</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>284.69780529449213</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>9.5978649299599965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>17.5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>290.64999999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>13.985913357540838</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>287.1359133575408</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>11.675377395031092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>293.14999999999998</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>16.424021420589497</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>289.57402142058947</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>13.742718934587174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>22.5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>295.64999999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>18.862129483638171</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>292.01212948363815</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>15.799858288123687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>21.300237546686816</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>294.45023754668682</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>17.846765929045773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>27.5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>300.64999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>23.738345609735489</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>296.88834560973544</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>19.883414036378895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>303.14999999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>26.176453672784163</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>299.32645367278417</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>21.909776466715812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>32.5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>305.64999999999998</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>28.614561735832808</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>301.76456173583279</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>23.925828726399118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>308.14999999999998</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>31.052669798881482</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>304.20266979888146</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>25.931547943942633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEA360-918D-49DA-A94F-EC74570144D0}">
   <dimension ref="A1:R242"/>
   <sheetViews>
@@ -24512,7 +25173,7 @@
   <cols>
     <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="65"/>
+    <col min="6" max="6" width="11.5546875" style="63"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
@@ -24522,22 +25183,22 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69">
+      <c r="C2" s="70"/>
+      <c r="D2" s="66">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="68" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="66">
         <f>SUM(J5:J19)</f>
         <v>0</v>
       </c>
@@ -24717,7 +25378,7 @@
       <c r="D16" s="1">
         <v>8.02</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -24730,7 +25391,7 @@
       <c r="D17" s="1">
         <v>1.49</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -24743,7 +25404,7 @@
       <c r="D18" s="1">
         <v>57</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -25038,10 +25699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
-  <dimension ref="A2:I74"/>
+  <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -25055,7 +25716,7 @@
     <col min="8" max="8" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.4">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>4</v>
@@ -25069,8 +25730,11 @@
       <c r="H2" s="41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K2" s="69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>0</v>
       </c>
@@ -25080,8 +25744,11 @@
       <c r="G3" s="60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -25091,8 +25758,11 @@
       <c r="G4" s="60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -25108,8 +25778,11 @@
       <c r="G5" s="60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J5" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -25126,8 +25799,11 @@
       <c r="H6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J6" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -25142,8 +25818,11 @@
       <c r="H7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -25158,8 +25837,11 @@
       <c r="H8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J8" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -25174,8 +25856,11 @@
       <c r="H9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J9" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -25189,8 +25874,14 @@
       <c r="G10" s="60" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>8</v>
       </c>
@@ -25200,8 +25891,11 @@
       <c r="G11" s="60" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J11" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>9</v>
       </c>
@@ -25213,8 +25907,11 @@
       <c r="G12" s="60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J12" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>10</v>
       </c>
@@ -25230,8 +25927,11 @@
       <c r="G13" s="60" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J13" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>11</v>
       </c>
@@ -25247,8 +25947,11 @@
       <c r="G14" s="60" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J14" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>12</v>
       </c>
@@ -25264,8 +25967,11 @@
       <c r="G15" s="60" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J15" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -25281,8 +25987,11 @@
       <c r="G16" s="60" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J16" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -25290,8 +25999,9 @@
       <c r="G17" s="60" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
         <v>5</v>
       </c>
@@ -25301,8 +26011,11 @@
       <c r="G18" s="60" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J18" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>6</v>
       </c>
@@ -25312,8 +26025,11 @@
       <c r="G19" s="60" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J19" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>7</v>
       </c>
@@ -25322,8 +26038,11 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J20" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>8</v>
       </c>
@@ -25339,8 +26058,11 @@
       <c r="G21" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J21" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>9</v>
       </c>
@@ -25353,8 +26075,11 @@
       <c r="H22" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J22" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>10</v>
       </c>
@@ -25364,19 +26089,22 @@
       <c r="G23" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J23" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="G24" s="60">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G25" s="60">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
@@ -25390,7 +26118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>73</v>
       </c>
@@ -25401,17 +26129,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G28" s="60">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G29" s="60">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G30" s="60">
         <v>10</v>
       </c>
@@ -25419,12 +26147,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G31" s="60">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G32" s="60">
         <v>12</v>
       </c>
@@ -25674,10 +26402,261 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A664257A-0F67-44AC-9C68-02D0555FD849}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="J10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="71"/>
+      <c r="J11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="71"/>
+      <c r="J12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I10:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3:S9"/>
     </sheetView>
   </sheetViews>
@@ -25692,13 +26671,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
@@ -25746,11 +26725,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" t="s">
         <v>155</v>
       </c>
@@ -25841,7 +26820,7 @@
       <c r="G14" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="71"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -25858,7 +26837,7 @@
       <c r="D15" t="s">
         <v>225</v>
       </c>
-      <c r="J15" s="71"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -25875,7 +26854,7 @@
       <c r="D16" t="s">
         <v>226</v>
       </c>
-      <c r="J16" s="71"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -25892,7 +26871,7 @@
       <c r="D17" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="71"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -25909,7 +26888,7 @@
       <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="71"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -26010,7 +26989,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K25" s="63" t="s">
+      <c r="K25" s="73" t="s">
         <v>128</v>
       </c>
     </row>
@@ -26029,7 +27008,7 @@
       <c r="D26" t="s">
         <v>230</v>
       </c>
-      <c r="K26" s="63"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -26046,13 +27025,13 @@
       <c r="D27" t="s">
         <v>231</v>
       </c>
-      <c r="K27" s="63"/>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="63"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="63"/>
+      <c r="K29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -26065,12 +27044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26127,12 +27106,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD9B7D-59EE-42F5-ACB8-0201936EFCF0}">
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26164,7 +27143,7 @@
         <v>33</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
@@ -26184,9 +27163,9 @@
       <c r="I3" t="s">
         <v>104</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="62">
         <f>J2/2.4</f>
-        <v>20.833333333333336</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K3" t="s">
         <v>30</v>
@@ -26203,7 +27182,7 @@
         <v>105</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>32</v>
@@ -26216,9 +27195,9 @@
       <c r="I5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="62">
         <f>J4*J3</f>
-        <v>20.833333333333336</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -26227,7 +27206,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0209572168019073E-2</v>
+        <v>9.8894502343111253E-3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -26242,7 +27221,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>97.94729725624012</v>
+        <v>101.11785552350854</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -26254,18 +27233,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.2357677602499216E-2</v>
+        <v>8.8595918710927153E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.2357677602499216E-2</v>
+        <v>8.8595918710927153E-3</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-2.0527027437598804E-2</v>
+        <v>1.1178555235085383E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -26274,11 +27253,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3486363249095598E-2</v>
+        <v>1.980831956640882E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.1128685646596382E-2</v>
+        <v>1.0948727695316105E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -26287,11 +27266,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2264478755999915E-2</v>
+        <v>2.888398928715178E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.7781155069043167E-3</v>
+        <v>9.0756697207429599E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -26300,11 +27279,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3935029756184824E-2</v>
+        <v>3.6984410000599495E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1670551000184909E-2</v>
+        <v>8.1004207134477146E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -26313,11 +27292,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6264328333125148E-2</v>
+        <v>4.6161002997136692E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2329298576940324E-2</v>
+        <v>9.1765929965371973E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -26326,11 +27305,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7292520155880886E-2</v>
+        <v>5.8340780997231251E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1028191822755738E-2</v>
+        <v>1.2179778000094559E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -26339,11 +27318,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7946345865785902E-2</v>
+        <v>6.834475097287214E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0653825709905015E-2</v>
+        <v>1.0003969975640889E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -26352,11 +27331,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.829909646366757E-2</v>
+        <v>7.9979705101988124E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0352750597881669E-2</v>
+        <v>1.1634954129115985E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -26365,11 +27344,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6016361423321983E-2</v>
+        <v>9.1487338704004467E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7172649596544129E-3</v>
+        <v>1.1507633602016343E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -26378,11 +27357,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1051448386052615</v>
+        <v>0.10083838181827832</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.128477181939515E-3</v>
+        <v>9.3510431142738576E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -26391,11 +27370,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11461161871801594</v>
+        <v>0.10935803717226919</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4667801127544388E-3</v>
+        <v>8.5196553539908654E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -26404,11 +27383,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12485820460913265</v>
+        <v>0.12217681094268394</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0246585891116711E-2</v>
+        <v>1.2818773770414751E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -26417,11 +27396,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13230802783005957</v>
+        <v>0.13156841259405885</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4498232209269238E-3</v>
+        <v>9.3916016513749118E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -26430,11 +27409,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14356595945918296</v>
+        <v>0.14084780264036204</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1257931629123391E-2</v>
+        <v>9.279390046303182E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -26443,11 +27422,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15642525615800443</v>
+        <v>0.14839569097741886</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2859296698821465E-2</v>
+        <v>7.5478883370568295E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -26456,11 +27435,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16400270138311021</v>
+        <v>0.16048944377845203</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5774452251057833E-3</v>
+        <v>1.209375280103317E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -26469,11 +27448,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17552113432488706</v>
+        <v>0.16795301081001887</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1518432941776846E-2</v>
+        <v>7.4635670315668368E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -26482,11 +27461,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18333088970450756</v>
+        <v>0.17566480877959678</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8097553796205033E-3</v>
+        <v>7.7117979695779104E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -26495,11 +27474,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19398187119236238</v>
+        <v>0.18789955445191137</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0650981487854816E-2</v>
+        <v>1.2234745672314584E-2</v>
       </c>
     </row>
   </sheetData>
@@ -26507,12 +27486,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
   <dimension ref="A2:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27905,451 +28884,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-10</v>
-      </c>
-      <c r="B4">
-        <f>A4+273.15</f>
-        <v>263.14999999999998</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C22" si="0">POWER(B$1/100, 1/8)*(112+(0.9*A4)) + (0.1*A4) - 112</f>
-        <v>-12.833275335994472</v>
-      </c>
-      <c r="D4">
-        <f>C4+273.15</f>
-        <v>260.31672466400551</v>
-      </c>
-      <c r="E4">
-        <f>D4+2671.02/((2954.61/B4)+2.193665*LN(B4)-13.3448)-B4-273.15</f>
-        <v>-11.728485757879298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-7.5</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B22" si="1">A5+273.15</f>
-        <v>265.64999999999998</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-10.395167272945812</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D22" si="2">C5+273.15</f>
-        <v>262.75483272705418</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E22" si="3">D5+2671.02/((2954.61/B5)+2.193665*LN(B5)-13.3448)-B5-273.15</f>
-        <v>-9.5513855219751349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>268.14999999999998</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-7.9570592098971389</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>265.19294079010285</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>-7.3840418502668399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-2.5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>270.64999999999998</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-5.5189511468484795</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>267.63104885315147</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>-5.2265049497882501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-3.0808430837998202</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>270.06915691620014</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>-3.0788229979063999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2.5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>275.64999999999998</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.64273502075114664</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>272.50726497924882</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>-0.94104217294557202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>278.14999999999998</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.7953730422975127</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>274.94537304229749</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>1.1867933154213688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7.5</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>280.64999999999998</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>4.2334811053461721</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>277.38348110534616</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>3.3046411960151545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>283.14999999999998</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>6.6715891683948456</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>279.82158916839484</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>5.4124611062245549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12.5</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>285.64999999999998</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>9.109697231443505</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>282.25969723144351</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>7.5102145623131946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>288.14999999999998</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>11.547805294492164</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>284.69780529449213</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>9.5978649299599965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>17.5</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>290.64999999999998</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>13.985913357540838</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>287.1359133575408</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>11.675377395031092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>293.14999999999998</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>16.424021420589497</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>289.57402142058947</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>13.742718934587174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>22.5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>295.64999999999998</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>18.862129483638171</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>292.01212948363815</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>15.799858288123687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>298.14999999999998</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>21.300237546686816</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>294.45023754668682</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>17.846765929045773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>27.5</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>300.64999999999998</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>23.738345609735489</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>296.88834560973544</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>19.883414036378895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>30</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>303.14999999999998</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>26.176453672784163</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>299.32645367278417</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>21.909776466715812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>32.5</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>305.64999999999998</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>28.614561735832808</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>301.76456173583279</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>23.925828726399118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>308.14999999999998</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>31.052669798881482</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>304.20266979888146</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>25.931547943942633</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2A128-8236-496D-94AC-35A2ED5F2F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EFD74C-D2EE-4D08-8E3E-7BAC17C945B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name="Liste grandeur" sheetId="15" r:id="rId1"/>
     <sheet name="Achat" sheetId="11" r:id="rId2"/>
     <sheet name="conso" sheetId="3" r:id="rId3"/>
-    <sheet name="Pin des Arduino" sheetId="4" r:id="rId4"/>
-    <sheet name="Design carte Station" sheetId="18" r:id="rId5"/>
-    <sheet name="Radio" sheetId="9" r:id="rId6"/>
-    <sheet name="Ordre execution tache" sheetId="17" r:id="rId7"/>
-    <sheet name="Test mesure frequence" sheetId="5" r:id="rId8"/>
-    <sheet name="Direction Vent" sheetId="6" r:id="rId9"/>
-    <sheet name="dew frost point" sheetId="12" r:id="rId10"/>
-    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId11"/>
+    <sheet name="Liste connecteur" sheetId="19" r:id="rId4"/>
+    <sheet name="Pin des Arduino" sheetId="4" r:id="rId5"/>
+    <sheet name="Design carte Station" sheetId="18" r:id="rId6"/>
+    <sheet name="Radio" sheetId="9" r:id="rId7"/>
+    <sheet name="Ordre execution tache" sheetId="17" r:id="rId8"/>
+    <sheet name="Test mesure frequence" sheetId="5" r:id="rId9"/>
+    <sheet name="Direction Vent" sheetId="6" r:id="rId10"/>
+    <sheet name="dew frost point" sheetId="12" r:id="rId11"/>
+    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
   <si>
     <t>Produit</t>
   </si>
@@ -587,9 +588,6 @@
     <t xml:space="preserve">erreur </t>
   </si>
   <si>
-    <t>Sensor arduino mega</t>
-  </si>
-  <si>
     <t>Batterie temp</t>
   </si>
   <si>
@@ -617,42 +615,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>windDir</t>
-  </si>
-  <si>
-    <t>batteryTemp</t>
-  </si>
-  <si>
-    <t>batteryVoltage</t>
-  </si>
-  <si>
     <t>MISO</t>
   </si>
   <si>
@@ -662,9 +624,6 @@
     <t>SCK</t>
   </si>
   <si>
-    <t>SS radio</t>
-  </si>
-  <si>
     <t>SDA</t>
   </si>
   <si>
@@ -672,12 +631,6 @@
   </si>
   <si>
     <t>I²C</t>
-  </si>
-  <si>
-    <t>DS18B20</t>
-  </si>
-  <si>
-    <t>ref 3V3 du BME</t>
   </si>
   <si>
     <t>Vitesse vent</t>
@@ -779,9 +732,6 @@
     <t>°C</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Connecteur</t>
   </si>
   <si>
@@ -879,6 +829,96 @@
   </si>
   <si>
     <t>+5/+3,3V/G</t>
+  </si>
+  <si>
+    <t>WindDir</t>
+  </si>
+  <si>
+    <t>Ref 3,3V du low drop regulator</t>
+  </si>
+  <si>
+    <t>Pluviometre</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>BMP280</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>0x76</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>Battery temp</t>
+  </si>
+  <si>
+    <t>Battery Voltage</t>
+  </si>
+  <si>
+    <t>connecteur</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>grandeur</t>
+  </si>
+  <si>
+    <t>carte capteur</t>
+  </si>
+  <si>
+    <t>Masse</t>
+  </si>
+  <si>
+    <t>Pluie-vent sensor</t>
+  </si>
+  <si>
+    <t>RTC/BH1745/BMP280</t>
+  </si>
+  <si>
+    <t>Sensor to Nano</t>
+  </si>
+  <si>
+    <t>carte Nano</t>
+  </si>
+  <si>
+    <t>extremité 1</t>
+  </si>
+  <si>
+    <t>extrémité 2</t>
+  </si>
+  <si>
+    <t>capteur</t>
+  </si>
+  <si>
+    <t>carte nano</t>
+  </si>
+  <si>
+    <t>carte radio</t>
+  </si>
+  <si>
+    <t>radio data</t>
+  </si>
+  <si>
+    <t>radio Alim</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>Alim in</t>
+  </si>
+  <si>
+    <t>Bat T+V</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,12 +1057,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1403,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1472,16 +1506,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1502,6 +1532,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12049,6 +12087,480 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Groupe 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475246DD-692A-4B26-98EB-6870E6B2B78B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7886700" y="213360"/>
+          <a:ext cx="1577340" cy="3002280"/>
+          <a:chOff x="487680" y="266700"/>
+          <a:chExt cx="1577340" cy="3002280"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="ZoneTexte 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A2E65C-E5D7-423F-9513-494530AD368F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="487680" y="266700"/>
+            <a:ext cx="1577340" cy="510540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>Comment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+              <a:t> son numéroter les pins :</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADB40BB-453A-47BC-9FCC-8243D60C8C6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="708660" y="1036320"/>
+            <a:ext cx="815340" cy="2232660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C857DA02-9AC9-443F-A7EB-0152A00E00D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="716280" y="1424940"/>
+            <a:ext cx="228600" cy="502920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAC842E-7B5F-413F-B0A5-90CE2C8800C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="701040" y="2286000"/>
+            <a:ext cx="228600" cy="502920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88372451-957C-4DE2-AF95-3056AEA29958}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1051560" y="1493520"/>
+            <a:ext cx="152400" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68ACA57-4257-4588-B7F5-DBA1ED3083D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1043940" y="2034540"/>
+            <a:ext cx="152400" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3C5438-F7E8-4643-9D42-0CBA031E2CFD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1013460" y="2484120"/>
+            <a:ext cx="152400" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="ZoneTexte 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7977FD-B7CC-4B1B-8BD9-63322FE4BB97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1257300" y="1379220"/>
+            <a:ext cx="335280" cy="472440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2400"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1029A014-8457-44BB-9DF5-5683AB3471E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1424940" y="1859280"/>
+            <a:ext cx="7620" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>100244</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -12159,7 +12671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14878,7 +15390,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14955,7 +15467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15416,10 +15928,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -15427,7 +15939,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -15435,22 +15947,22 @@
         <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -15465,27 +15977,27 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -15494,6 +16006,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
+  <dimension ref="A2:S58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="B3" s="9">
+        <f>A3*1023/5</f>
+        <v>785.66399999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*1024/5</f>
+        <v>817.15200000000004</v>
+      </c>
+      <c r="F3" s="12">
+        <f>ABS(D3-A3)/A3</f>
+        <v>3.9062500000000097E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H18" si="0">INT(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(D20,",""", R3, """")</f>
+        <v>,"N"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:B17" si="1">A4*1023/5</f>
+        <v>405.108</v>
+      </c>
+      <c r="C4" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E18" si="2">D4*1024/5</f>
+        <v>421.88800000000003</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F18" si="3">ABS(D4-A4)/A4</f>
+        <v>4.0404040404040442E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, </v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="str">
+        <f>CONCATENATE(S3,",""", R4, """")</f>
+        <v>,"N","NNE"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="1"/>
+        <v>460.35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="2"/>
+        <v>479.23199999999997</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999938E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
+        <v>,"N","NNE","NE"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>83.885999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="2"/>
+        <v>86.015999999999991</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="5">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="1"/>
+        <v>92.070000000000007</v>
+      </c>
+      <c r="C7" s="9">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
+        <v>95.231999999999999</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="1"/>
+        <v>65.472000000000008</v>
+      </c>
+      <c r="C8" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="6">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="1"/>
+        <v>184.14000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>135</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>190.464</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="1"/>
+        <v>126.852</v>
+      </c>
+      <c r="C10" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>131.072</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129059E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="7">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="1"/>
+        <v>286.43999999999994</v>
+      </c>
+      <c r="C11" s="9">
+        <v>180</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>296.95999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="1"/>
+        <v>243.47399999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>202.5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>251.904</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3613445378151294E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="8">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3.08</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="1"/>
+        <v>630.16800000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>225</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>655.36</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>3.8961038961038995E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="R13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="1"/>
+        <v>599.47800000000007</v>
+      </c>
+      <c r="C14" s="9">
+        <v>247.5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3.04</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>622.59199999999998</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>3.754266211604091E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14" si="9">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="1"/>
+        <v>945.25200000000007</v>
+      </c>
+      <c r="C15" s="9">
+        <v>270</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.79</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>980.99199999999996</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>3.6796536796536779E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="1"/>
+        <v>826.58400000000006</v>
+      </c>
+      <c r="C16" s="9">
+        <v>292.5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>860.16000000000008</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9603960396039639E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16" si="10">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="1"/>
+        <v>885.91800000000001</v>
+      </c>
+      <c r="C17" s="9">
+        <v>315</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="2"/>
+        <v>921.6</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9260969976905293E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="B18" s="9">
+        <f>A18*1023/5</f>
+        <v>701.77800000000002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>337.5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3.57</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="2"/>
+        <v>731.13599999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>4.0816326530612151E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18" si="11">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW","NNW"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="9">
+        <v>360</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>65.471999999999994</v>
+      </c>
+      <c r="B22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22">
+        <f>(A23+A22)/2</f>
+        <v>74.679000000000002</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D22,0), ") return(", ROUND(B22, 1), ");")</f>
+        <v>if (WindAnalog &lt; 75) return(115);</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
+        <v>if(WindAngle &lt; 5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>83.885999999999996</v>
+      </c>
+      <c r="B23" s="7">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23">
+        <f t="shared" ref="D23:D37" si="12">(A24+A23)/2</f>
+        <v>87.978000000000009</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D23,0), ") return(", ROUND(B23, 1), ");")</f>
+        <v>if (WindAnalog &lt; 88) return(70);</v>
+      </c>
+      <c r="K23">
+        <v>22.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
+        <v>if(WindAngle &lt; 27,5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>92.070000000000007</v>
+      </c>
+      <c r="B24" s="7">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24">
+        <f t="shared" si="12"/>
+        <v>109.46100000000001</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="str">
+        <f t="shared" ref="G24:G37" si="14">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
+        <v>if (WindAnalog &lt; 109) return(90);</v>
+      </c>
+      <c r="K24">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>126.852</v>
+      </c>
+      <c r="B25" s="7">
+        <v>160</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25">
+        <f t="shared" si="12"/>
+        <v>155.49600000000001</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 155) return(160);</v>
+      </c>
+      <c r="K25">
+        <v>67.5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 72,5) return("Est");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>184.14000000000001</v>
+      </c>
+      <c r="B26" s="7">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26">
+        <f t="shared" si="12"/>
+        <v>213.80700000000002</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 214) return(135);</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="M26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 95) return("Est");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>243.47399999999999</v>
+      </c>
+      <c r="B27" s="7">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27">
+        <f t="shared" si="12"/>
+        <v>264.95699999999999</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 265) return(200);</v>
+      </c>
+      <c r="K27">
+        <v>112.5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 117,5) return("Est");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>286.43999999999994</v>
+      </c>
+      <c r="B28" s="7">
+        <v>180</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28">
+        <f t="shared" si="12"/>
+        <v>345.774</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 346) return(180);</v>
+      </c>
+      <c r="K28">
+        <v>135</v>
+      </c>
+      <c r="M28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>405.108</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29">
+        <f t="shared" si="12"/>
+        <v>432.72900000000004</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 433) return(20);</v>
+      </c>
+      <c r="K29">
+        <v>157.5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 162,5) return("Sud");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>460.35</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30">
+        <f t="shared" si="12"/>
+        <v>529.91399999999999</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 530) return(45);</v>
+      </c>
+      <c r="K30">
+        <v>180</v>
+      </c>
+      <c r="M30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 185) return("Sud");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>599.47800000000007</v>
+      </c>
+      <c r="B31" s="7">
+        <v>250</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31">
+        <f t="shared" si="12"/>
+        <v>614.82300000000009</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 615) return(250);</v>
+      </c>
+      <c r="K31">
+        <v>202.5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 207,5) return("Sud");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>630.16800000000001</v>
+      </c>
+      <c r="B32" s="7">
+        <v>225</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32">
+        <f t="shared" si="12"/>
+        <v>665.97299999999996</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 666) return(225);</v>
+      </c>
+      <c r="K32">
+        <v>225</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>701.77800000000002</v>
+      </c>
+      <c r="B33" s="7">
+        <v>340</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33">
+        <f t="shared" si="12"/>
+        <v>743.721</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 744) return(340);</v>
+      </c>
+      <c r="K33">
+        <v>247.5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>785.66399999999999</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34">
+        <f t="shared" si="12"/>
+        <v>806.12400000000002</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 806) return(0);</v>
+      </c>
+      <c r="K34">
+        <v>270</v>
+      </c>
+      <c r="M34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 275) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>826.58400000000006</v>
+      </c>
+      <c r="B35" s="7">
+        <v>290</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>856.25099999999998</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 856) return(290);</v>
+      </c>
+      <c r="K35">
+        <v>292.5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>885.91800000000001</v>
+      </c>
+      <c r="B36" s="7">
+        <v>315</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36">
+        <f t="shared" si="12"/>
+        <v>915.58500000000004</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 916) return(315);</v>
+      </c>
+      <c r="K36">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>945.25200000000007</v>
+      </c>
+      <c r="B37" s="7">
+        <v>270</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37">
+        <f t="shared" si="12"/>
+        <v>984.12599999999998</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 984) return(270);</v>
+      </c>
+      <c r="K37">
+        <v>337.5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 342,5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>65.536000000000001</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B57" si="15">(A43+A44)/2</f>
+        <v>75.775999999999996</v>
+      </c>
+      <c r="C43" s="7">
+        <v>112.5</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B43,0), ") return(", ROUND(C43, 1), ");")</f>
+        <v>if (WindAnalog &lt; 76) return(112,5);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>86.015999999999991</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="15"/>
+        <v>90.623999999999995</v>
+      </c>
+      <c r="C44" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="str">
+        <f t="shared" ref="G44:G58" si="16">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
+        <v>if (WindAnalog &lt; 91) return(67,5);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>95.231999999999999</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="15"/>
+        <v>113.152</v>
+      </c>
+      <c r="C45" s="7">
+        <v>90</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 113) return(90);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>131.072</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="15"/>
+        <v>160.768</v>
+      </c>
+      <c r="C46" s="7">
+        <v>157.5</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 161) return(157,5);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>190.464</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="15"/>
+        <v>221.184</v>
+      </c>
+      <c r="C47" s="7">
+        <v>135</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 221) return(135);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>251.904</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="15"/>
+        <v>274.43200000000002</v>
+      </c>
+      <c r="C48" s="7">
+        <v>202.5</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 274) return(202,5);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>296.95999999999998</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="15"/>
+        <v>359.42399999999998</v>
+      </c>
+      <c r="C49" s="7">
+        <v>180</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 359) return(180);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>421.88800000000003</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="15"/>
+        <v>450.56</v>
+      </c>
+      <c r="C50" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 451) return(22,5);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>479.23199999999997</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="15"/>
+        <v>550.91200000000003</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 551) return(45);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>622.59199999999998</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="15"/>
+        <v>638.976</v>
+      </c>
+      <c r="C52" s="7">
+        <v>247.5</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 639) return(247,5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>655.36</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="15"/>
+        <v>693.24800000000005</v>
+      </c>
+      <c r="C53" s="7">
+        <v>225</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 693) return(225);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>731.13599999999997</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="15"/>
+        <v>774.14400000000001</v>
+      </c>
+      <c r="C54" s="7">
+        <v>337.5</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 774) return(337,5);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>817.15200000000004</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>838.65600000000006</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 839) return(0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>860.16000000000008</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="15"/>
+        <v>890.88000000000011</v>
+      </c>
+      <c r="C56" s="7">
+        <v>292.5</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 891) return(292,5);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>921.6</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="15"/>
+        <v>951.29600000000005</v>
+      </c>
+      <c r="C57" s="7">
+        <v>315</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 951) return(315);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>980.99199999999996</v>
+      </c>
+      <c r="B58">
+        <v>1023</v>
+      </c>
+      <c r="C58" s="7">
+        <v>270</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 1023) return(270);</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B58">
+    <sortCondition ref="A43:A58"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -15940,7 +17852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEA360-918D-49DA-A94F-EC74570144D0}">
   <dimension ref="A1:R242"/>
   <sheetViews>
@@ -25173,7 +27085,7 @@
   <cols>
     <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="63"/>
+    <col min="6" max="6" width="11.5546875" style="61"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
@@ -25183,22 +27095,22 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="66">
+      <c r="B2" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="64">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="66">
+      <c r="E2" s="63"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
       </c>
@@ -25214,7 +27126,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>107</v>
@@ -25223,7 +27135,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -25349,7 +27261,7 @@
         <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -25378,7 +27290,7 @@
       <c r="D16" s="1">
         <v>8.02</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -25391,7 +27303,7 @@
       <c r="D17" s="1">
         <v>1.49</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -25399,12 +27311,12 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1">
         <v>57</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -25412,7 +27324,7 @@
         <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D19" s="1">
         <v>144</v>
@@ -25605,7 +27517,7 @@
       <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="60">
         <f>SUMPRODUCT(B11:B15,F11:F15)*0.05</f>
         <v>2.0833333333333335</v>
       </c>
@@ -25698,11 +27610,301 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
+  <dimension ref="B1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
-  <dimension ref="A2:K74"/>
+  <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -25711,12 +27913,10 @@
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="60" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="73"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.4">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
         <v>4</v>
@@ -25727,42 +27927,49 @@
       <c r="D2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="69" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H2" s="67" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>0</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
-      <c r="G3" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="26">
+      <c r="G3" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="G4" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="23">
+      <c r="G4" s="74">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" s="69"/>
+      <c r="K4" t="s">
+        <v>254</v>
+      </c>
+      <c r="L4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -25775,14 +27982,21 @@
       <c r="D5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="G5" s="74">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -25793,17 +28007,21 @@
       <c r="D6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="60" t="s">
-        <v>8</v>
+      <c r="G6" s="74">
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -25812,17 +28030,14 @@
       <c r="D7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>9</v>
+      <c r="G7" s="74">
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J7" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -25831,17 +28046,14 @@
       <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>10</v>
+      <c r="G8" s="74">
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -25850,17 +28062,11 @@
         <v>25</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="G9" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="G9" s="74">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -25871,31 +28077,22 @@
         <v>28</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="G10" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" t="s">
-        <v>232</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="G10" s="74">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>8</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
-      <c r="G11" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="G11" s="74">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>9</v>
       </c>
@@ -25904,14 +28101,11 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="G12" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="23">
+      <c r="G12" s="74">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>10</v>
       </c>
@@ -25924,14 +28118,14 @@
       <c r="D13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="23">
+      <c r="G13" s="74">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>11</v>
       </c>
@@ -25944,14 +28138,14 @@
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="G14" s="74">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>12</v>
       </c>
@@ -25964,14 +28158,14 @@
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="G15" s="74">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>13</v>
       </c>
@@ -25984,52 +28178,43 @@
       <c r="D16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="J16" s="33">
+      <c r="G16" s="74">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
-      <c r="G17" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
-      <c r="G18" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="37" t="s">
+      <c r="G18" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="G19" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="24" t="s">
+      <c r="G19" s="75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>7</v>
       </c>
@@ -26038,11 +28223,14 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="J20" s="24" t="s">
+      <c r="G20" s="75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>8</v>
       </c>
@@ -26055,56 +28243,59 @@
       <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="60">
-        <v>1</v>
-      </c>
-      <c r="J21" s="24" t="s">
+      <c r="G21" s="75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="G22" s="60">
-        <v>2</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="24" t="s">
+      <c r="G22" s="75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
-      <c r="G23" s="60">
-        <v>3</v>
-      </c>
-      <c r="J23" s="25" t="s">
+      <c r="G23" s="75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
-      <c r="G24" s="60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G25" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G24" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G25" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
@@ -26114,294 +28305,26 @@
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G28" s="60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G29" s="60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G30" s="60">
-        <v>10</v>
-      </c>
-      <c r="H30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G31" s="60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G32" s="60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G33" s="60">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G34" s="60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G35" s="60">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G36" s="60">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G37" s="60">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G38" s="60">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G39" s="60">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G40" s="60">
-        <v>20</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G41" s="60">
-        <v>21</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G42" s="60">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G43" s="60">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G44" s="60">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G45" s="60">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G46" s="60">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G47" s="60">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G48" s="60">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="60">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="60">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52" s="60">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53" s="60">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G54" s="60">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55" s="60">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G56" s="60">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G57" s="60">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58" s="60">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59" s="60">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G60" s="60">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G61" s="60">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62" s="60">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G63" s="60">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64" s="60">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G65" s="60">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G66" s="60">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G67" s="60">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G68" s="60">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G69" s="60">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G70" s="60">
-        <v>50</v>
-      </c>
-      <c r="H70" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G71" s="60">
-        <v>51</v>
-      </c>
-      <c r="H71" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G72" s="60">
-        <v>52</v>
-      </c>
-      <c r="H72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G73" s="60">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G74" s="60">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J3:J6"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A664257A-0F67-44AC-9C68-02D0555FD849}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -26421,16 +28344,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
@@ -26438,33 +28361,33 @@
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="I1" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="71" t="s">
-        <v>255</v>
+      <c r="I2" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -26472,20 +28395,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="71"/>
+      <c r="I3" s="69"/>
       <c r="J3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -26493,22 +28416,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="71" t="s">
-        <v>256</v>
+      <c r="I4" s="69" t="s">
+        <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -26516,20 +28439,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="71"/>
+      <c r="I5" s="69"/>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -26537,22 +28460,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>244</v>
+        <v>228</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -26560,20 +28483,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="71"/>
+        <v>228</v>
+      </c>
+      <c r="I7" s="69"/>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -26581,20 +28504,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="71"/>
+        <v>232</v>
+      </c>
+      <c r="I8" s="69"/>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -26608,34 +28531,34 @@
         <v>4</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="69"/>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="71" t="s">
-        <v>260</v>
+      <c r="I10" s="69" t="s">
+        <v>243</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="71"/>
+      <c r="I11" s="69"/>
       <c r="J11" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="71"/>
+      <c r="I12" s="69"/>
       <c r="J12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -26652,7 +28575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L29"/>
   <sheetViews>
@@ -26671,13 +28594,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
@@ -26725,11 +28648,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" t="s">
         <v>155</v>
       </c>
@@ -26776,7 +28699,7 @@
         <v>136</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -26790,13 +28713,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -26812,15 +28735,15 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -26835,9 +28758,9 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
-      </c>
-      <c r="J15" s="68"/>
+        <v>209</v>
+      </c>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -26852,9 +28775,9 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
-      </c>
-      <c r="J16" s="68"/>
+        <v>210</v>
+      </c>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -26869,9 +28792,9 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" s="68"/>
+        <v>211</v>
+      </c>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -26888,7 +28811,7 @@
       <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="68"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -26903,7 +28826,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -26935,7 +28858,7 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -26989,13 +28912,13 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="71" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -27006,13 +28929,13 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
-      </c>
-      <c r="K26" s="73"/>
+        <v>214</v>
+      </c>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -27023,15 +28946,15 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
-      </c>
-      <c r="K27" s="73"/>
+        <v>215</v>
+      </c>
+      <c r="K27" s="71"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="73"/>
+      <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="73"/>
+      <c r="K29" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -27044,7 +28967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
@@ -27056,7 +28979,7 @@
   <sheetData>
     <row r="3" spans="10:11" ht="18" x14ac:dyDescent="0.35">
       <c r="J3" s="5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.3">
@@ -27064,7 +28987,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.3">
@@ -27072,7 +28995,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.3">
@@ -27080,7 +29003,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.3">
@@ -27088,7 +29011,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.3">
@@ -27096,7 +29019,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -27106,7 +29029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD9B7D-59EE-42F5-ACB8-0201936EFCF0}">
   <dimension ref="A2:K26"/>
   <sheetViews>
@@ -27163,7 +29086,7 @@
       <c r="I3" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="60">
         <f>J2/2.4</f>
         <v>0.83333333333333337</v>
       </c>
@@ -27195,7 +29118,7 @@
       <c r="I5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="60">
         <f>J4*J3</f>
         <v>8.3333333333333339</v>
       </c>
@@ -27206,7 +29129,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.8894502343111253E-3</v>
+        <v>9.5245825484330734E-3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -27221,7 +29144,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>101.11785552350854</v>
+        <v>104.99147809522781</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -27233,18 +29156,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>8.8595918710927153E-3</v>
+        <v>9.2352095772295934E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>8.8595918710927153E-3</v>
+        <v>9.2352095772295934E-3</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>1.1178555235085383E-2</v>
+        <v>4.9914780952278054E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -27253,11 +29176,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.980831956640882E-2</v>
+        <v>1.7603398736014769E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.0948727695316105E-2</v>
+        <v>8.3681891587851758E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -27266,11 +29189,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.888398928715178E-2</v>
+        <v>2.9846376358314785E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>9.0756697207429599E-3</v>
+        <v>1.2242977622300016E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -27279,11 +29202,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6984410000599495E-2</v>
+        <v>3.9024191722007433E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1004207134477146E-3</v>
+        <v>9.1778153636926478E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -27292,11 +29215,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6161002997136692E-2</v>
+        <v>4.7473938253126124E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1765929965371973E-3</v>
+        <v>8.4497465311186917E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -27305,11 +29228,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8340780997231251E-2</v>
+        <v>5.7435826744969255E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2179778000094559E-2</v>
+        <v>9.9618884918431308E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -27318,11 +29241,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.834475097287214E-2</v>
+        <v>6.4556566171690921E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0003969975640889E-2</v>
+        <v>7.1207394267216659E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -27331,11 +29254,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9979705101988124E-2</v>
+        <v>7.5556309518636053E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1634954129115985E-2</v>
+        <v>1.0999743346945132E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -27344,11 +29267,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1487338704004467E-2</v>
+        <v>8.4286482942086821E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1507633602016343E-2</v>
+        <v>8.7301734234507683E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -27357,11 +29280,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10083838181827832</v>
+        <v>9.5762263920823848E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3510431142738576E-3</v>
+        <v>1.1475780978737027E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -27370,11 +29293,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10935803717226919</v>
+        <v>0.10641926327653511</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5196553539908654E-3</v>
+        <v>1.0656999355711266E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -27383,11 +29306,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12217681094268394</v>
+        <v>0.11580713793856016</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2818773770414751E-2</v>
+        <v>9.3878746620250503E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -27396,11 +29319,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13156841259405885</v>
+        <v>0.12467081723652605</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3916016513749118E-3</v>
+        <v>8.8636792979658874E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -27409,11 +29332,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14084780264036204</v>
+        <v>0.13167499216078848</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.279390046303182E-3</v>
+        <v>7.0041749242624324E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -27422,11 +29345,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14839569097741886</v>
+        <v>0.14377512625283054</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5478883370568295E-3</v>
+        <v>1.2100134092042053E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -27435,11 +29358,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16048944377845203</v>
+        <v>0.15246328463183106</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.209375280103317E-2</v>
+        <v>8.6881583790005268E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -27448,11 +29371,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16795301081001887</v>
+        <v>0.16023518596277386</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4635670315668368E-3</v>
+        <v>7.7719013309427987E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -27461,11 +29384,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17566480877959678</v>
+        <v>0.16997910870989233</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7117979695779104E-3</v>
+        <v>9.7439227471184664E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -27474,1414 +29397,14 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18789955445191137</v>
+        <v>0.18096706842022839</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2234745672314584E-2</v>
+        <v>1.0987959710336059E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
-  <dimension ref="A2:S58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>3.84</v>
-      </c>
-      <c r="B3" s="9">
-        <f>A3*1023/5</f>
-        <v>785.66399999999999</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3.99</v>
-      </c>
-      <c r="E3" s="11">
-        <f>D3*1024/5</f>
-        <v>817.15200000000004</v>
-      </c>
-      <c r="F3" s="12">
-        <f>ABS(D3-A3)/A3</f>
-        <v>3.9062500000000097E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H18" si="0">INT(C3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="str">
-        <f>CONCATENATE(D20,",""", R3, """")</f>
-        <v>,"N"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1.98</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" ref="B4:B17" si="1">A4*1023/5</f>
-        <v>405.108</v>
-      </c>
-      <c r="C4" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2.06</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E18" si="2">D4*1024/5</f>
-        <v>421.88800000000003</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F18" si="3">ABS(D4-A4)/A4</f>
-        <v>4.0404040404040442E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, </v>
-      </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="str">
-        <f>CONCATENATE(S3,",""", R4, """")</f>
-        <v>,"N","NNE"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="1"/>
-        <v>460.35</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
-        <v>479.23199999999997</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999938E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
-        <v>,"N","NNE","NE"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>0.41</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" si="1"/>
-        <v>83.885999999999996</v>
-      </c>
-      <c r="C6" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
-        <v>86.015999999999991</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="3"/>
-        <v>2.4390243902439046E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6" si="5">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
-      </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="1"/>
-        <v>92.070000000000007</v>
-      </c>
-      <c r="C7" s="9">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
-        <v>95.231999999999999</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333361E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="R7" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="1"/>
-        <v>65.472000000000008</v>
-      </c>
-      <c r="C8" s="9">
-        <v>112.5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" ref="J8" si="6">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="B9" s="9">
-        <f t="shared" si="1"/>
-        <v>184.14000000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>135</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>190.464</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333361E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="R9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="1"/>
-        <v>126.852</v>
-      </c>
-      <c r="C10" s="9">
-        <v>157.5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
-        <v>131.072</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129059E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" ref="J10" si="7">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
-      </c>
-      <c r="R10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="B11" s="9">
-        <f t="shared" si="1"/>
-        <v>286.43999999999994</v>
-      </c>
-      <c r="C11" s="9">
-        <v>180</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>296.95999999999998</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285747E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="R11" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="B12" s="9">
-        <f t="shared" si="1"/>
-        <v>243.47399999999999</v>
-      </c>
-      <c r="C12" s="9">
-        <v>202.5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>251.904</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3613445378151294E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" ref="J12" si="8">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
-      </c>
-      <c r="R12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3.08</v>
-      </c>
-      <c r="B13" s="9">
-        <f t="shared" si="1"/>
-        <v>630.16800000000001</v>
-      </c>
-      <c r="C13" s="9">
-        <v>225</v>
-      </c>
-      <c r="D13" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="2"/>
-        <v>655.36</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>3.8961038961038995E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="R13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>2.93</v>
-      </c>
-      <c r="B14" s="9">
-        <f t="shared" si="1"/>
-        <v>599.47800000000007</v>
-      </c>
-      <c r="C14" s="9">
-        <v>247.5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3.04</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="2"/>
-        <v>622.59199999999998</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>3.754266211604091E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" ref="J14" si="9">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
-      </c>
-      <c r="R14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="B15" s="9">
-        <f t="shared" si="1"/>
-        <v>945.25200000000007</v>
-      </c>
-      <c r="C15" s="9">
-        <v>270</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4.79</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="2"/>
-        <v>980.99199999999996</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>3.6796536796536779E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="R15" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4.04</v>
-      </c>
-      <c r="B16" s="9">
-        <f t="shared" si="1"/>
-        <v>826.58400000000006</v>
-      </c>
-      <c r="C16" s="9">
-        <v>292.5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="2"/>
-        <v>860.16000000000008</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9603960396039639E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16" si="10">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
-      </c>
-      <c r="R16" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>4.33</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" si="1"/>
-        <v>885.91800000000001</v>
-      </c>
-      <c r="C17" s="9">
-        <v>315</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="2"/>
-        <v>921.6</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9260969976905293E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="R17" t="s">
-        <v>56</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>3.43</v>
-      </c>
-      <c r="B18" s="9">
-        <f>A18*1023/5</f>
-        <v>701.77800000000002</v>
-      </c>
-      <c r="C18" s="9">
-        <v>337.5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>3.57</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="2"/>
-        <v>731.13599999999997</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>4.0816326530612151E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>337</v>
-      </c>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" ref="J18" si="11">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
-      </c>
-      <c r="R18" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW","NNW"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="9">
-        <v>360</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>65.471999999999994</v>
-      </c>
-      <c r="B22" s="7">
-        <v>115</v>
-      </c>
-      <c r="D22">
-        <f>(A23+A22)/2</f>
-        <v>74.679000000000002</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D22,0), ") return(", ROUND(B22, 1), ");")</f>
-        <v>if (WindAnalog &lt; 75) return(115);</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
-        <v>if(WindAngle &lt; 5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>83.885999999999996</v>
-      </c>
-      <c r="B23" s="7">
-        <v>70</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23">
-        <f t="shared" ref="D23:D37" si="12">(A24+A23)/2</f>
-        <v>87.978000000000009</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D23,0), ") return(", ROUND(B23, 1), ");")</f>
-        <v>if (WindAnalog &lt; 88) return(70);</v>
-      </c>
-      <c r="K23">
-        <v>22.5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
-        <v>if(WindAngle &lt; 27,5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>92.070000000000007</v>
-      </c>
-      <c r="B24" s="7">
-        <v>90</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24">
-        <f t="shared" si="12"/>
-        <v>109.46100000000001</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="str">
-        <f t="shared" ref="G24:G37" si="14">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
-        <v>if (WindAnalog &lt; 109) return(90);</v>
-      </c>
-      <c r="K24">
-        <v>45</v>
-      </c>
-      <c r="M24" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>126.852</v>
-      </c>
-      <c r="B25" s="7">
-        <v>160</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25">
-        <f t="shared" si="12"/>
-        <v>155.49600000000001</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 155) return(160);</v>
-      </c>
-      <c r="K25">
-        <v>67.5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 72,5) return("Est");</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>184.14000000000001</v>
-      </c>
-      <c r="B26" s="7">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26">
-        <f t="shared" si="12"/>
-        <v>213.80700000000002</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 214) return(135);</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="M26" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 95) return("Est");</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>243.47399999999999</v>
-      </c>
-      <c r="B27" s="7">
-        <v>200</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27">
-        <f t="shared" si="12"/>
-        <v>264.95699999999999</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 265) return(200);</v>
-      </c>
-      <c r="K27">
-        <v>112.5</v>
-      </c>
-      <c r="M27" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 117,5) return("Est");</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>286.43999999999994</v>
-      </c>
-      <c r="B28" s="7">
-        <v>180</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28">
-        <f t="shared" si="12"/>
-        <v>345.774</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 346) return(180);</v>
-      </c>
-      <c r="K28">
-        <v>135</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>405.108</v>
-      </c>
-      <c r="B29" s="7">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29">
-        <f t="shared" si="12"/>
-        <v>432.72900000000004</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 433) return(20);</v>
-      </c>
-      <c r="K29">
-        <v>157.5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 162,5) return("Sud");</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>460.35</v>
-      </c>
-      <c r="B30" s="7">
-        <v>45</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30">
-        <f t="shared" si="12"/>
-        <v>529.91399999999999</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 530) return(45);</v>
-      </c>
-      <c r="K30">
-        <v>180</v>
-      </c>
-      <c r="M30" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 185) return("Sud");</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>599.47800000000007</v>
-      </c>
-      <c r="B31" s="7">
-        <v>250</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31">
-        <f t="shared" si="12"/>
-        <v>614.82300000000009</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 615) return(250);</v>
-      </c>
-      <c r="K31">
-        <v>202.5</v>
-      </c>
-      <c r="M31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 207,5) return("Sud");</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>630.16800000000001</v>
-      </c>
-      <c r="B32" s="7">
-        <v>225</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32">
-        <f t="shared" si="12"/>
-        <v>665.97299999999996</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 666) return(225);</v>
-      </c>
-      <c r="K32">
-        <v>225</v>
-      </c>
-      <c r="M32" t="s">
-        <v>69</v>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>701.77800000000002</v>
-      </c>
-      <c r="B33" s="7">
-        <v>340</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33">
-        <f t="shared" si="12"/>
-        <v>743.721</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 744) return(340);</v>
-      </c>
-      <c r="K33">
-        <v>247.5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>70</v>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>785.66399999999999</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34">
-        <f t="shared" si="12"/>
-        <v>806.12400000000002</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 806) return(0);</v>
-      </c>
-      <c r="K34">
-        <v>270</v>
-      </c>
-      <c r="M34" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 275) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>826.58400000000006</v>
-      </c>
-      <c r="B35" s="7">
-        <v>290</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35">
-        <f t="shared" si="12"/>
-        <v>856.25099999999998</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 856) return(290);</v>
-      </c>
-      <c r="K35">
-        <v>292.5</v>
-      </c>
-      <c r="M35" t="s">
-        <v>70</v>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>885.91800000000001</v>
-      </c>
-      <c r="B36" s="7">
-        <v>315</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36">
-        <f t="shared" si="12"/>
-        <v>915.58500000000004</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 916) return(315);</v>
-      </c>
-      <c r="K36">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s">
-        <v>71</v>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>945.25200000000007</v>
-      </c>
-      <c r="B37" s="7">
-        <v>270</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37">
-        <f t="shared" si="12"/>
-        <v>984.12599999999998</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 984) return(270);</v>
-      </c>
-      <c r="K37">
-        <v>337.5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>64</v>
-      </c>
-      <c r="O37" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 342,5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>65.536000000000001</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ref="B43:B57" si="15">(A43+A44)/2</f>
-        <v>75.775999999999996</v>
-      </c>
-      <c r="C43" s="7">
-        <v>112.5</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B43,0), ") return(", ROUND(C43, 1), ");")</f>
-        <v>if (WindAnalog &lt; 76) return(112,5);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>86.015999999999991</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="15"/>
-        <v>90.623999999999995</v>
-      </c>
-      <c r="C44" s="7">
-        <v>67.5</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="str">
-        <f t="shared" ref="G44:G58" si="16">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
-        <v>if (WindAnalog &lt; 91) return(67,5);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>95.231999999999999</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="15"/>
-        <v>113.152</v>
-      </c>
-      <c r="C45" s="7">
-        <v>90</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 113) return(90);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>131.072</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="15"/>
-        <v>160.768</v>
-      </c>
-      <c r="C46" s="7">
-        <v>157.5</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 161) return(157,5);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>190.464</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="15"/>
-        <v>221.184</v>
-      </c>
-      <c r="C47" s="7">
-        <v>135</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 221) return(135);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>251.904</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="15"/>
-        <v>274.43200000000002</v>
-      </c>
-      <c r="C48" s="7">
-        <v>202.5</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 274) return(202,5);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>296.95999999999998</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="15"/>
-        <v>359.42399999999998</v>
-      </c>
-      <c r="C49" s="7">
-        <v>180</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 359) return(180);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>421.88800000000003</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="15"/>
-        <v>450.56</v>
-      </c>
-      <c r="C50" s="7">
-        <v>22.5</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 451) return(22,5);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>479.23199999999997</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="15"/>
-        <v>550.91200000000003</v>
-      </c>
-      <c r="C51" s="7">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 551) return(45);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>622.59199999999998</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="15"/>
-        <v>638.976</v>
-      </c>
-      <c r="C52" s="7">
-        <v>247.5</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 639) return(247,5);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>655.36</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="15"/>
-        <v>693.24800000000005</v>
-      </c>
-      <c r="C53" s="7">
-        <v>225</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 693) return(225);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>731.13599999999997</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="15"/>
-        <v>774.14400000000001</v>
-      </c>
-      <c r="C54" s="7">
-        <v>337.5</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 774) return(337,5);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>817.15200000000004</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="15"/>
-        <v>838.65600000000006</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 839) return(0);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>860.16000000000008</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="15"/>
-        <v>890.88000000000011</v>
-      </c>
-      <c r="C56" s="7">
-        <v>292.5</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 891) return(292,5);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>921.6</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="15"/>
-        <v>951.29600000000005</v>
-      </c>
-      <c r="C57" s="7">
-        <v>315</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 951) return(315);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>980.99199999999996</v>
-      </c>
-      <c r="B58">
-        <v>1023</v>
-      </c>
-      <c r="C58" s="7">
-        <v>270</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 1023) return(270);</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B58">
-    <sortCondition ref="A43:A58"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EFD74C-D2EE-4D08-8E3E-7BAC17C945B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFBCD2D-DF38-4ECF-B49F-B2B1C4A385F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="6696" yWindow="2784" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="6" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste grandeur" sheetId="15" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="276">
   <si>
     <t>Produit</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>Bus I2C</t>
-  </si>
-  <si>
-    <t>Pression</t>
   </si>
   <si>
     <t>Humidité</t>
@@ -506,37 +503,10 @@
     <t>vitesse vent</t>
   </si>
   <si>
-    <t>Temperature (DS18B20)</t>
-  </si>
-  <si>
-    <t>Temperature (BME280)</t>
-  </si>
-  <si>
-    <t>Humidité (BME280)</t>
-  </si>
-  <si>
-    <t>Pression (BME280)</t>
-  </si>
-  <si>
-    <t>Luminosité UV</t>
-  </si>
-  <si>
-    <t>Luminosité Visible</t>
-  </si>
-  <si>
-    <t>Luminosité IR</t>
-  </si>
-  <si>
-    <t>Altitude (BME280)</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>idem pour unsigned int</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>antenne</t>
@@ -636,21 +606,6 @@
     <t>Vitesse vent</t>
   </si>
   <si>
-    <t>temp DS18</t>
-  </si>
-  <si>
-    <t>temp BME</t>
-  </si>
-  <si>
-    <t>Light UV</t>
-  </si>
-  <si>
-    <t>Light visible</t>
-  </si>
-  <si>
-    <t>Light IR</t>
-  </si>
-  <si>
     <t>battery temp</t>
   </si>
   <si>
@@ -717,13 +672,7 @@
     <t>Temp  °C</t>
   </si>
   <si>
-    <t>Temp °C</t>
-  </si>
-  <si>
     <t>Pression Pa</t>
-  </si>
-  <si>
-    <t>indexUV</t>
   </si>
   <si>
     <t>V</t>
@@ -920,6 +869,48 @@
   <si>
     <t>Bat T+V</t>
   </si>
+  <si>
+    <t>tempDHT22</t>
+  </si>
+  <si>
+    <t>HumiditéDHT22</t>
+  </si>
+  <si>
+    <t>TempBMP280</t>
+  </si>
+  <si>
+    <t>PressionBMP</t>
+  </si>
+  <si>
+    <t>Luminosité</t>
+  </si>
+  <si>
+    <t>Temperature (DHT22)</t>
+  </si>
+  <si>
+    <t>Humidité (DHT22)</t>
+  </si>
+  <si>
+    <t>Température (BMP280)</t>
+  </si>
+  <si>
+    <t>Pression (BMP280)</t>
+  </si>
+  <si>
+    <t>Luminosité BH1745</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>DewPoint</t>
+  </si>
+  <si>
+    <t>Icing point</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
 </sst>
 </file>
 
@@ -929,7 +920,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,6 +1026,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1403,7 +1401,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1518,6 +1516,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,14 +1539,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -12111,7 +12110,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7886700" y="213360"/>
+          <a:off x="7612380" y="327660"/>
           <a:ext cx="1577340" cy="3002280"/>
           <a:chOff x="487680" y="266700"/>
           <a:chExt cx="1577340" cy="3002280"/>
@@ -15915,10 +15914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15928,10 +15927,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -15939,65 +15938,68 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>183</v>
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -16031,7 +16033,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>40</v>
@@ -16667,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="7" t="str">
         <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
@@ -16695,7 +16697,7 @@
         <v>22.5</v>
       </c>
       <c r="M23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O23" s="7" t="str">
         <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
@@ -16723,7 +16725,7 @@
         <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O24" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16751,7 +16753,7 @@
         <v>67.5</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O25" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16779,7 +16781,7 @@
         <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16807,7 +16809,7 @@
         <v>112.5</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O27" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16835,7 +16837,7 @@
         <v>135</v>
       </c>
       <c r="M28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O28" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16863,7 +16865,7 @@
         <v>157.5</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O29" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16891,7 +16893,7 @@
         <v>180</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O30" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16919,7 +16921,7 @@
         <v>202.5</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O31" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16947,7 +16949,7 @@
         <v>225</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O32" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16975,7 +16977,7 @@
         <v>247.5</v>
       </c>
       <c r="M33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O33" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17003,7 +17005,7 @@
         <v>270</v>
       </c>
       <c r="M34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O34" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17031,7 +17033,7 @@
         <v>292.5</v>
       </c>
       <c r="M35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O35" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17059,7 +17061,7 @@
         <v>315</v>
       </c>
       <c r="M36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O36" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17087,7 +17089,7 @@
         <v>337.5</v>
       </c>
       <c r="M37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17101,10 +17103,10 @@
     </row>
     <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -17422,30 +17424,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1">
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -17871,30 +17873,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D1" s="46"/>
       <c r="F1" s="48" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="46" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K1" s="47" t="s">
         <v>38</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
@@ -27095,21 +27097,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="68"/>
+      <c r="B2" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="72"/>
       <c r="D2" s="64">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="G2" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -27120,30 +27122,30 @@
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
       </c>
       <c r="D5" s="1">
         <v>163.81</v>
@@ -27156,7 +27158,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1">
         <v>2.72</v>
@@ -27169,7 +27171,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1">
         <v>6.69</v>
@@ -27183,7 +27185,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1">
         <v>2.35</v>
@@ -27196,7 +27198,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1">
         <v>3.7</v>
@@ -27209,7 +27211,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1">
         <v>6.99</v>
@@ -27222,7 +27224,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1">
         <v>40.76</v>
@@ -27235,7 +27237,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1">
         <v>7.99</v>
@@ -27248,7 +27250,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1">
         <v>8.99</v>
@@ -27258,10 +27260,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -27270,10 +27272,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -27282,10 +27284,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1">
         <v>8.02</v>
@@ -27295,10 +27297,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1">
         <v>1.49</v>
@@ -27311,7 +27313,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1">
         <v>57</v>
@@ -27321,10 +27323,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1">
         <v>144</v>
@@ -27375,25 +27377,25 @@
   <sheetData>
     <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <f>SUMPRODUCT(B11:B17,F11:F17)*3600/1000</f>
         <v>157.5</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="7">
         <f>B5/(B3-B4)</f>
@@ -27402,17 +27404,17 @@
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <f>D27</f>
         <v>129.6</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7">
         <f>G3/24</f>
@@ -27421,17 +27423,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <f>E20</f>
         <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7">
         <f>G4/365</f>
@@ -27440,29 +27442,29 @@
     </row>
     <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -27515,7 +27517,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="60">
         <f>SUMPRODUCT(B11:B15,F11:F15)*0.05</f>
@@ -27534,19 +27536,19 @@
     </row>
     <row r="19" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
       <c r="A19" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -27574,23 +27576,23 @@
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -27613,289 +27615,391 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" t="s">
-        <v>262</v>
+    <row r="1" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" t="s">
-        <v>265</v>
+      <c r="B2" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>248</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" t="s">
-        <v>222</v>
+      <c r="B6" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>205</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" t="s">
-        <v>266</v>
+      <c r="B9" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>249</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" t="s">
-        <v>267</v>
+      <c r="B13" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>250</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
+      <c r="B17" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>172</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" t="s">
-        <v>238</v>
+      <c r="B19" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>221</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
       <c r="E21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" t="s">
-        <v>274</v>
+      <c r="B22" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>257</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
       <c r="E24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
       <c r="E25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
       <c r="E26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" t="s">
-        <v>275</v>
+      <c r="B27" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>258</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" t="s">
-        <v>277</v>
+      <c r="B30" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>260</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
       <c r="E31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" t="s">
-        <v>278</v>
+      <c r="B32" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>261</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27903,7 +28007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -27913,7 +28017,7 @@
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="73"/>
+    <col min="7" max="7" width="11.5546875" style="68"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.4">
@@ -27925,10 +28029,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -27938,17 +28042,17 @@
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
-      <c r="G3" s="74">
+      <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>182</v>
+      <c r="J3" s="73" t="s">
+        <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="L3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -27958,15 +28062,15 @@
       <c r="B4" s="20"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="G4" s="74">
+      <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="69"/>
+      <c r="J4" s="73"/>
       <c r="K4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="L4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -27980,20 +28084,20 @@
         <v>17</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="74">
+        <v>75</v>
+      </c>
+      <c r="G5" s="69">
         <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="73"/>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -28007,18 +28111,18 @@
       <c r="D6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="69">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="69"/>
+        <v>75</v>
+      </c>
+      <c r="J6" s="73"/>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L6" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -28028,13 +28132,13 @@
       <c r="B7" s="21"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="74">
+        <v>76</v>
+      </c>
+      <c r="G7" s="69">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -28046,11 +28150,11 @@
       <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="69">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -28062,7 +28166,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="G9" s="74">
+      <c r="G9" s="69">
         <v>6</v>
       </c>
     </row>
@@ -28071,13 +28175,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="G10" s="74">
+      <c r="G10" s="69">
         <v>7</v>
       </c>
     </row>
@@ -28088,7 +28192,7 @@
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
-      <c r="G11" s="74">
+      <c r="G11" s="69">
         <v>8</v>
       </c>
     </row>
@@ -28101,7 +28205,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="G12" s="74">
+      <c r="G12" s="69">
         <v>9</v>
       </c>
     </row>
@@ -28118,7 +28222,7 @@
       <c r="D13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="69">
         <v>10</v>
       </c>
       <c r="H13" t="s">
@@ -28138,11 +28242,11 @@
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="69">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -28158,11 +28262,11 @@
       <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="69">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -28178,11 +28282,11 @@
       <c r="D16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="69">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -28190,7 +28294,7 @@
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
-      <c r="G17" s="74"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
@@ -28199,7 +28303,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -28210,7 +28314,7 @@
       <c r="B19" s="20"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="70" t="s">
         <v>6</v>
       </c>
     </row>
@@ -28223,11 +28327,11 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="70" t="s">
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -28243,11 +28347,11 @@
       <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="70" t="s">
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -28257,11 +28361,11 @@
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="70" t="s">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -28271,28 +28375,28 @@
       <c r="B23" s="22"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="70" t="s">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
-      <c r="G24" s="76" t="s">
-        <v>175</v>
+      <c r="G24" s="71" t="s">
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G25" s="76" t="s">
-        <v>176</v>
+      <c r="G25" s="71" t="s">
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -28300,18 +28404,18 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -28344,16 +28448,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
@@ -28361,33 +28465,33 @@
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="I1" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="69" t="s">
-        <v>238</v>
+      <c r="I2" s="73" t="s">
+        <v>221</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -28395,20 +28499,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="69"/>
+      <c r="I3" s="73"/>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -28416,22 +28520,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="69" t="s">
-        <v>239</v>
+      <c r="I4" s="73" t="s">
+        <v>222</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -28439,20 +28543,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="73"/>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -28460,22 +28564,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>210</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -28483,20 +28587,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="69"/>
+        <v>211</v>
+      </c>
+      <c r="I7" s="73"/>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -28504,20 +28608,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="69"/>
+        <v>215</v>
+      </c>
+      <c r="I8" s="73"/>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -28525,40 +28629,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="69"/>
+        <v>71</v>
+      </c>
+      <c r="I9" s="73"/>
       <c r="J9" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="69" t="s">
-        <v>243</v>
+      <c r="I10" s="73" t="s">
+        <v>226</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="69"/>
+      <c r="I11" s="73"/>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="69"/>
+      <c r="I12" s="73"/>
       <c r="J12" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -28577,10 +28681,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
-  <dimension ref="A3:L29"/>
+  <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:S9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28594,26 +28698,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -28624,13 +28728,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
@@ -28648,38 +28752,38 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -28687,24 +28791,24 @@
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>136</v>
-      </c>
       <c r="F12" s="42" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -28713,18 +28817,18 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <f>C13+1</f>
@@ -28735,36 +28839,36 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B27" si="0">C14+1</f>
+        <f t="shared" ref="B15:B26" si="0">C14+1</f>
         <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C27" si="1">B15+3</f>
+        <f t="shared" ref="C15:C26" si="1">B15+3</f>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -28775,13 +28879,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -28792,13 +28896,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -28809,13 +28913,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -28826,139 +28930,125 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B20:B26" si="2">C19+1</f>
         <v>28</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C20:C26" si="3">B20+3</f>
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D22" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="K25" s="71" t="s">
-        <v>128</v>
-      </c>
+      <c r="K25" s="75"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
-      </c>
-      <c r="K26" s="71"/>
+        <v>197</v>
+      </c>
+      <c r="K26" s="75"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B27" si="4">C26+1</f>
         <v>56</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C27" si="5">B27+3</f>
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" s="71"/>
+        <v>198</v>
+      </c>
+      <c r="K27" s="75"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="71"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="71"/>
+      <c r="K28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="K24:K28"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
@@ -28979,7 +29069,7 @@
   <sheetData>
     <row r="3" spans="10:11" ht="18" x14ac:dyDescent="0.35">
       <c r="J3" s="5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.3">
@@ -28987,7 +29077,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.3">
@@ -28995,7 +29085,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.3">
@@ -29003,7 +29093,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.3">
@@ -29011,7 +29101,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.3">
@@ -29019,7 +29109,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -29084,7 +29174,7 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="60">
         <f>J2/2.4</f>
@@ -29102,7 +29192,7 @@
         <v>0.3</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -29116,7 +29206,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="60">
         <f>J4*J3</f>
@@ -29129,7 +29219,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.5245825484330734E-3</v>
+        <v>1.0935177735114128E-2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -29144,7 +29234,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>104.99147809522781</v>
+        <v>91.447987789799114</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -29156,18 +29246,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>9.2352095772295934E-3</v>
+        <v>1.1757520068629701E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>9.2352095772295934E-3</v>
+        <v>1.1757520068629701E-2</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>4.9914780952278054E-2</v>
+        <v>-8.552012210200885E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -29176,11 +29266,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7603398736014769E-2</v>
+        <v>2.0572267434334088E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>8.3681891587851758E-3</v>
+        <v>8.8147473657043864E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -29189,11 +29279,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9846376358314785E-2</v>
+        <v>3.2543169481701058E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.2242977622300016E-2</v>
+        <v>1.197090204736697E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -29202,11 +29292,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9024191722007433E-2</v>
+        <v>4.5437253426693497E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1778153636926478E-3</v>
+        <v>1.2894083944992439E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -29215,11 +29305,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7473938253126124E-2</v>
+        <v>5.3657585431516816E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4497465311186917E-3</v>
+        <v>8.2203320048233192E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -29228,11 +29318,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7435826744969255E-2</v>
+        <v>6.6500477570086591E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9618884918431308E-3</v>
+        <v>1.2842892138569775E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -29241,11 +29331,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4556566171690921E-2</v>
+        <v>7.4121262666395127E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1207394267216659E-3</v>
+        <v>7.6207850963085355E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -29254,11 +29344,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5556309518636053E-2</v>
+        <v>8.4239760948427153E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0999743346945132E-2</v>
+        <v>1.0118498282032026E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -29267,11 +29357,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4286482942086821E-2</v>
+        <v>9.6889806305596154E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7301734234507683E-3</v>
+        <v>1.2650045357169001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -29280,11 +29370,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5762263920823848E-2</v>
+        <v>0.10906602552841144</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1475780978737027E-2</v>
+        <v>1.2176219222815282E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -29293,11 +29383,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10641926327653511</v>
+        <v>0.12132300657217431</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0656999355711266E-2</v>
+        <v>1.2256981043762868E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -29306,11 +29396,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11580713793856016</v>
+        <v>0.13413628220706258</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3878746620250503E-3</v>
+        <v>1.281327563488828E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -29319,11 +29409,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12467081723652605</v>
+        <v>0.14506434585102523</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8636792979658874E-3</v>
+        <v>1.0928063643962649E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -29332,11 +29422,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13167499216078848</v>
+        <v>0.15599208832399206</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0041749242624324E-3</v>
+        <v>1.0927742472966823E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -29345,11 +29435,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14377512625283054</v>
+        <v>0.16579887034236607</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2100134092042053E-2</v>
+        <v>9.8067820183740106E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -29358,11 +29448,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15246328463183106</v>
+        <v>0.17709148981304074</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6881583790005268E-3</v>
+        <v>1.129261947067467E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -29371,11 +29461,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16023518596277386</v>
+        <v>0.18606055973480384</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7719013309427987E-3</v>
+        <v>8.9690699217631065E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -29384,11 +29474,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16997910870989233</v>
+        <v>0.19483014618627309</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7439227471184664E-3</v>
+        <v>8.7695864514692468E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -29397,11 +29487,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18096706842022839</v>
+        <v>0.20776837696716843</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0987959710336059E-2</v>
+        <v>1.2938230780895343E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFBCD2D-DF38-4ECF-B49F-B2B1C4A385F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3848F8DE-BDDB-4EAD-8DA7-3B157AD7627B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6696" yWindow="2784" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="6" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste grandeur" sheetId="15" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="278">
   <si>
     <t>Produit</t>
   </si>
@@ -888,13 +888,7 @@
     <t>Temperature (DHT22)</t>
   </si>
   <si>
-    <t>Humidité (DHT22)</t>
-  </si>
-  <si>
     <t>Température (BMP280)</t>
-  </si>
-  <si>
-    <t>Pression (BMP280)</t>
   </si>
   <si>
     <t>Luminosité BH1745</t>
@@ -910,6 +904,18 @@
   </si>
   <si>
     <t>Altitude</t>
+  </si>
+  <si>
+    <t>Pression</t>
+  </si>
+  <si>
+    <t>Temperature RTC</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>carte</t>
   </si>
 </sst>
 </file>
@@ -1524,6 +1530,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1539,7 +1546,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -12110,8 +12116,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7612380" y="327660"/>
-          <a:ext cx="1577340" cy="3002280"/>
+          <a:off x="7610475" y="323850"/>
+          <a:ext cx="1571625" cy="2971800"/>
           <a:chOff x="487680" y="266700"/>
           <a:chExt cx="1577340" cy="3002280"/>
         </a:xfrm>
@@ -15917,7 +15923,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15954,12 +15960,12 @@
         <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -15984,7 +15990,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -16011,8 +16017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
   <dimension ref="A2:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27097,21 +27103,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="64">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -27362,8 +27368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A01A1-7AB8-40C2-A8AE-985E0D56E443}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27389,7 +27395,7 @@
       </c>
       <c r="B3">
         <f>SUMPRODUCT(B11:B17,F11:F17)*3600/1000</f>
-        <v>157.5</v>
+        <v>97.02000000000001</v>
       </c>
       <c r="C3" t="s">
         <v>102</v>
@@ -27399,7 +27405,7 @@
       </c>
       <c r="G3" s="7">
         <f>B5/(B3-B4)</f>
-        <v>6.4516129032258052</v>
+        <v>-5.5248618784530414</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -27418,7 +27424,7 @@
       </c>
       <c r="G4" s="7">
         <f>G3/24</f>
-        <v>0.2688172043010752</v>
+        <v>-0.23020257826887672</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -27437,7 +27443,7 @@
       </c>
       <c r="G5" s="7">
         <f>G4/365</f>
-        <v>7.3648549123582247E-4</v>
+        <v>-6.3069199525719649E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
@@ -27468,6 +27474,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
       <c r="B11">
         <v>100</v>
       </c>
@@ -27486,8 +27495,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
       <c r="B12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -27496,11 +27508,12 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ref="F12:F16" si="0">(E12*D12)/3600</f>
-        <v>0.33333333333333331</v>
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -27521,7 +27534,7 @@
       </c>
       <c r="B16" s="60">
         <f>SUMPRODUCT(B11:B15,F11:F15)*0.05</f>
-        <v>2.0833333333333335</v>
+        <v>1.2833333333333334</v>
       </c>
       <c r="D16">
         <v>3600</v>
@@ -27628,30 +27641,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="72" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>248</v>
       </c>
       <c r="E2">
@@ -27659,25 +27672,25 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5">
         <v>4</v>
       </c>
@@ -27686,13 +27699,13 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="74" t="s">
         <v>205</v>
       </c>
       <c r="E6">
@@ -27700,29 +27713,29 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="74" t="s">
         <v>249</v>
       </c>
       <c r="E9">
@@ -27730,37 +27743,37 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="74" t="s">
         <v>250</v>
       </c>
       <c r="E13">
@@ -27768,37 +27781,37 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="74" t="s">
         <v>172</v>
       </c>
       <c r="E17">
@@ -27806,21 +27819,21 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="74" t="s">
         <v>221</v>
       </c>
       <c r="E19">
@@ -27828,29 +27841,29 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
       <c r="E21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="74" t="s">
         <v>257</v>
       </c>
       <c r="E22">
@@ -27858,45 +27871,45 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
       <c r="E25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="74" t="s">
         <v>258</v>
       </c>
       <c r="E27">
@@ -27904,29 +27917,29 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="74" t="s">
         <v>260</v>
       </c>
       <c r="E30">
@@ -27934,21 +27947,21 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
       <c r="E31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="74" t="s">
         <v>261</v>
       </c>
       <c r="E32">
@@ -27956,20 +27969,24 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="C9:C12"/>
@@ -27986,15 +28003,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28007,8 +28020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -28045,7 +28058,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="74" t="s">
         <v>172</v>
       </c>
       <c r="K3" t="s">
@@ -28065,7 +28078,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" t="s">
         <v>237</v>
       </c>
@@ -28092,7 +28105,7 @@
       <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="74"/>
       <c r="K5" t="s">
         <v>71</v>
       </c>
@@ -28117,7 +28130,7 @@
       <c r="H6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="73"/>
+      <c r="J6" s="74"/>
       <c r="K6" t="s">
         <v>208</v>
       </c>
@@ -28465,11 +28478,11 @@
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -28487,7 +28500,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>221</v>
       </c>
       <c r="J2" s="59" t="s">
@@ -28510,7 +28523,7 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="74"/>
       <c r="J3" t="s">
         <v>218</v>
       </c>
@@ -28531,7 +28544,7 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="74" t="s">
         <v>222</v>
       </c>
       <c r="J4" t="s">
@@ -28554,7 +28567,7 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="73"/>
+      <c r="I5" s="74"/>
       <c r="J5" t="s">
         <v>171</v>
       </c>
@@ -28575,7 +28588,7 @@
       <c r="F6" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="74" t="s">
         <v>210</v>
       </c>
       <c r="J6" t="s">
@@ -28598,7 +28611,7 @@
       <c r="F7" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="74"/>
       <c r="J7" t="s">
         <v>167</v>
       </c>
@@ -28619,7 +28632,7 @@
       <c r="F8" t="s">
         <v>215</v>
       </c>
-      <c r="I8" s="73"/>
+      <c r="I8" s="74"/>
       <c r="J8" t="s">
         <v>169</v>
       </c>
@@ -28640,13 +28653,13 @@
       <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="73"/>
+      <c r="I9" s="74"/>
       <c r="J9" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="74" t="s">
         <v>226</v>
       </c>
       <c r="J10" t="s">
@@ -28654,13 +28667,13 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="73"/>
+      <c r="I11" s="74"/>
       <c r="J11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="73"/>
+      <c r="I12" s="74"/>
       <c r="J12" t="s">
         <v>225</v>
       </c>
@@ -28683,8 +28696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28698,13 +28711,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
       <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
@@ -28752,11 +28765,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
       <c r="D7" t="s">
         <v>146</v>
       </c>
@@ -28854,11 +28867,11 @@
         <v>144</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B26" si="0">C14+1</f>
+        <f t="shared" ref="B15:B19" si="0">C14+1</f>
         <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C26" si="1">B15+3</f>
+        <f t="shared" ref="C15:C19" si="1">B15+3</f>
         <v>11</v>
       </c>
       <c r="D15" t="s">
@@ -28885,7 +28898,7 @@
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -28902,7 +28915,7 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -28919,7 +28932,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -28935,7 +28948,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:B26" si="2">C19+1</f>
@@ -28951,7 +28964,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
@@ -28962,10 +28975,13 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>275</v>
+      </c>
       <c r="B22">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -28994,7 +29010,7 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -29007,7 +29023,7 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="K25" s="75"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -29024,7 +29040,7 @@
       <c r="D26" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="75"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -29041,10 +29057,10 @@
       <c r="D27" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="75"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="75"/>
+      <c r="K28" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29061,8 +29077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29219,7 +29235,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0935177735114128E-2</v>
+        <v>9.3227069802254321E-3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -29234,7 +29250,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>91.447987789799114</v>
+        <v>107.26498238345565</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -29246,18 +29262,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.1757520068629701E-2</v>
+        <v>7.3750049466117622E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.1757520068629701E-2</v>
+        <v>7.3750049466117622E-3</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-8.552012210200885E-2</v>
+        <v>7.2649823834556454E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -29266,11 +29282,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0572267434334088E-2</v>
+        <v>1.6020276033095963E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>8.8147473657043864E-3</v>
+        <v>8.6452710864842013E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -29279,11 +29295,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2543169481701058E-2</v>
+        <v>2.5873166906687325E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.197090204736697E-2</v>
+        <v>9.852890873591362E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -29292,11 +29308,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5437253426693497E-2</v>
+        <v>3.4890552629936539E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2894083944992439E-2</v>
+        <v>9.0173857232492133E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -29305,11 +29321,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3657585431516816E-2</v>
+        <v>4.3027780609397749E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2203320048233192E-3</v>
+        <v>8.1372279794612104E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -29318,11 +29334,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6500477570086591E-2</v>
+        <v>5.0262650359473859E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2842892138569775E-2</v>
+        <v>7.2348697500761103E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -29331,11 +29347,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4121262666395127E-2</v>
+        <v>6.3143583791651012E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6207850963085355E-3</v>
+        <v>1.2880933432177152E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -29344,11 +29360,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4239760948427153E-2</v>
+        <v>7.0574932630306161E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0118498282032026E-2</v>
+        <v>7.4313488386551496E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -29357,11 +29373,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6889806305596154E-2</v>
+        <v>7.812668830724287E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2650045357169001E-2</v>
+        <v>7.5517556769367084E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -29370,11 +29386,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10906602552841144</v>
+        <v>9.0780265023226656E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2176219222815282E-2</v>
+        <v>1.2653576715983786E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -29383,11 +29399,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12132300657217431</v>
+        <v>9.8283913054801456E-2</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2256981043762868E-2</v>
+        <v>7.5036480315748E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -29396,11 +29412,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13413628220706258</v>
+        <v>0.11104175857540015</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.281327563488828E-2</v>
+        <v>1.2757845520598693E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -29409,11 +29425,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14506434585102523</v>
+        <v>0.11855077326404544</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0928063643962649E-2</v>
+        <v>7.509014688645288E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -29422,11 +29438,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15599208832399206</v>
+        <v>0.13131034561625859</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0927742472966823E-2</v>
+        <v>1.2759572352213158E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -29435,11 +29451,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16579887034236607</v>
+        <v>0.14174551791671355</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8067820183740106E-3</v>
+        <v>1.0435172300454959E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -29448,11 +29464,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17709148981304074</v>
+        <v>0.15049792992819402</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.129261947067467E-2</v>
+        <v>8.7524120114804704E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -29461,11 +29477,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18606055973480384</v>
+        <v>0.15913561281313035</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9690699217631065E-3</v>
+        <v>8.6376828849363263E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -29474,11 +29490,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19483014618627309</v>
+        <v>0.16668166553763381</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7695864514692468E-3</v>
+        <v>7.5460527245034548E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -29487,11 +29503,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20776837696716843</v>
+        <v>0.17713143262428321</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2938230780895343E-2</v>
+        <v>1.0449767086649409E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3848F8DE-BDDB-4EAD-8DA7-3B157AD7627B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DCB3A-116D-4982-8FC2-61C3F91F7B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="2904" yWindow="-144" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="7" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste grandeur" sheetId="15" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="284">
   <si>
     <t>Produit</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Baterie</t>
-  </si>
-  <si>
-    <t>Pile AA</t>
   </si>
   <si>
     <t>Traitement</t>
@@ -302,9 +299,6 @@
     <t>Détails :</t>
   </si>
   <si>
-    <t>Résumé :</t>
-  </si>
-  <si>
     <t>Consommation</t>
   </si>
   <si>
@@ -332,37 +326,13 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Autonomie :</t>
-  </si>
-  <si>
     <t>Panneau solaire</t>
-  </si>
-  <si>
-    <t>En heures :</t>
-  </si>
-  <si>
-    <t>En jours :</t>
   </si>
   <si>
     <t>Puissance (W)</t>
   </si>
   <si>
-    <t>Pertes (5% de la conso)</t>
-  </si>
-  <si>
-    <t>En année :</t>
-  </si>
-  <si>
     <t>Voltage (V)</t>
-  </si>
-  <si>
-    <t>Consomation moyenne (J)</t>
-  </si>
-  <si>
-    <t>Production moyenne (J)</t>
-  </si>
-  <si>
-    <t>Stockage (J)</t>
   </si>
   <si>
     <t>Temps de fonctionnement par jour (heure)</t>
@@ -372,9 +342,6 @@
   </si>
   <si>
     <t>Energie totale (kJ)</t>
-  </si>
-  <si>
-    <t>kJ</t>
   </si>
   <si>
     <t>fréquence</t>
@@ -915,18 +882,70 @@
     <t>radio</t>
   </si>
   <si>
-    <t>carte</t>
+    <t>carte fonctionnement</t>
+  </si>
+  <si>
+    <t>carte veille</t>
+  </si>
+  <si>
+    <t>Evolution de la conso</t>
+  </si>
+  <si>
+    <t>Heure</t>
+  </si>
+  <si>
+    <t>% de prod solaire</t>
+  </si>
+  <si>
+    <t>Conso prodérer</t>
+  </si>
+  <si>
+    <t>Facteur de pondération</t>
+  </si>
+  <si>
+    <t>Conso (mAH)</t>
+  </si>
+  <si>
+    <t>prod (mAH)</t>
+  </si>
+  <si>
+    <t>Stockage (mAH)</t>
+  </si>
+  <si>
+    <t>Pertes (10% conso)</t>
+  </si>
+  <si>
+    <t>prix du kWH</t>
+  </si>
+  <si>
+    <t>kWH</t>
+  </si>
+  <si>
+    <t>CONSO (kWH)</t>
+  </si>
+  <si>
+    <t>prix/h</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>prix/jours</t>
+  </si>
+  <si>
+    <t>prix/an</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,6 +1058,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1407,7 +1434,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1531,6 +1558,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,6 +1575,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1568,6 +1598,1238 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>conso!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prod (mAH)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>conso!$K$4:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>conso!$M$4:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>68.906249999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1840277777777768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1840277777777768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.906249999999986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156.68402777777777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202.49999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>245.85069444444443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284.4444444444444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316.40625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.27777777777777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355.01736111111103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>355.01736111111103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340.27777777777777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>316.40625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>284.4444444444444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>245.85069444444443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>202.49999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>156.68402777777777</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111.1111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE78-4E1B-81F9-7B8A69952121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>conso!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conso (mAH)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>conso!$K$4:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>conso!$N$4:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100.22222222222223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE78-4E1B-81F9-7B8A69952121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="777455167"/>
+        <c:axId val="779890479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="777455167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="779890479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="779890479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777455167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Charge de la batterie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>conso!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stockage (mAH)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>conso!$K$4:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>conso!$P$4:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2968.6840277777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2902.072916666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2811.0347222222226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2710.8125000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2619.7743055555561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2553.1631944444453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2521.8472222222231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2532.7361111111122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2589.1979166666679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2691.4756944444457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2837.1041666666679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6ADB-47D9-B668-BEE9EF48954A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="850628079"/>
+        <c:axId val="523913759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="850628079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523913759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="523913759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Charge en mAH</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850628079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1966,7 +3228,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2351,7 +3613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3361,7 +4623,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5170,7 +6432,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6914,7 +8176,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -8966,6 +10228,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11586,6 +12928,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12092,6 +14466,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5758B22C-107A-478E-9A7E-F0D3E3FCDC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F64E963-3C72-465E-8B44-5002F1CE12F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -12116,8 +14567,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7610475" y="323850"/>
-          <a:ext cx="1571625" cy="2971800"/>
+          <a:off x="7612380" y="327660"/>
+          <a:ext cx="1577340" cy="3002280"/>
           <a:chOff x="487680" y="266700"/>
           <a:chExt cx="1577340" cy="3002280"/>
         </a:xfrm>
@@ -12562,7 +15013,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12676,7 +15127,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13484,142 +15935,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>641405</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>97605</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130865</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A66E303-8141-4703-B582-45CFD8359873}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3026796" y="4967779"/>
-          <a:ext cx="1874852" cy="683360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Mesure BME </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>(sort init pour avoir mesure stable après)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>97605</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Connecteur droit 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D5505C-EDAA-493A-A41D-6ADF20E4F44A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="101" idx="2"/>
-          <a:endCxn id="88" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3966933" y="4695207"/>
-          <a:ext cx="0" cy="272572"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>641405</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>125885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>130865</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171605</xdr:rowOff>
+      <xdr:rowOff>98720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13634,7 +15957,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3026796" y="5923711"/>
+          <a:off x="3026796" y="5294235"/>
           <a:ext cx="1874852" cy="602311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13690,15 +16013,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38843</xdr:rowOff>
+      <xdr:colOff>783700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125885</xdr:rowOff>
+      <xdr:colOff>783700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13710,14 +16033,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="88" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="101" idx="2"/>
           <a:endCxn id="91" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3966933" y="5651139"/>
-          <a:ext cx="0" cy="272572"/>
+          <a:off x="3964222" y="4695207"/>
+          <a:ext cx="0" cy="599028"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13748,14 +16072,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>641405</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>73116</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130865</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>116064</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13770,7 +16094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3026796" y="6798594"/>
+          <a:off x="3026796" y="6169118"/>
           <a:ext cx="1874852" cy="599540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13816,7 +16140,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>(5s)</a:t>
+            <a:t>(127 mesures)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13880,7 +16204,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Mesure BME</a:t>
+            <a:t>Mesure BMP</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14621,15 +16945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171605</xdr:rowOff>
+      <xdr:colOff>783700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>73116</xdr:rowOff>
+      <xdr:colOff>783700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>231</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14647,7 +16971,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3966933" y="6526022"/>
+          <a:off x="3964222" y="5896546"/>
           <a:ext cx="0" cy="272572"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -14678,13 +17002,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
+      <xdr:colOff>783700</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>116064</xdr:rowOff>
+      <xdr:rowOff>37785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786411</xdr:colOff>
+      <xdr:colOff>783700</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>12155</xdr:rowOff>
     </xdr:to>
@@ -14698,14 +17022,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="2"/>
+          <a:stCxn id="45" idx="2"/>
           <a:endCxn id="97" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3966933" y="7398134"/>
-          <a:ext cx="0" cy="267151"/>
+          <a:off x="3964222" y="7319855"/>
+          <a:ext cx="0" cy="345430"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15392,10 +17716,131 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>641405</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130865</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D731E50-78BD-4973-99FE-98FC08D7837D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3026796" y="7075563"/>
+          <a:ext cx="1874852" cy="244292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Mesure DHT22</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>783700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>783700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>164554</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connecteur droit avec flèche 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D843349-BB4C-4614-94DA-613761674C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3964222" y="6768658"/>
+          <a:ext cx="0" cy="306905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15472,7 +17917,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15933,79 +18378,79 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -16030,22 +18475,22 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -16075,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S3" t="str">
         <f>CONCATENATE(D20,",""", R3, """")</f>
@@ -16109,14 +18554,14 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="str">
         <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, </v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" t="str">
         <f>CONCATENATE(S3,",""", R4, """")</f>
@@ -16150,7 +18595,7 @@
         <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
@@ -16184,14 +18629,14 @@
         <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" ref="J6" si="5">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="4"/>
@@ -16225,7 +18670,7 @@
         <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="4"/>
@@ -16259,14 +18704,14 @@
         <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ref="J8" si="6">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="4"/>
@@ -16300,7 +18745,7 @@
         <v>135</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="4"/>
@@ -16334,14 +18779,14 @@
         <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ref="J10" si="7">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="4"/>
@@ -16375,7 +18820,7 @@
         <v>180</v>
       </c>
       <c r="R11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="4"/>
@@ -16409,14 +18854,14 @@
         <v>202</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ref="J12" si="8">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
       </c>
       <c r="R12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="4"/>
@@ -16450,7 +18895,7 @@
         <v>225</v>
       </c>
       <c r="R13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="4"/>
@@ -16484,14 +18929,14 @@
         <v>247</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ref="J14" si="9">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="4"/>
@@ -16525,7 +18970,7 @@
         <v>270</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="4"/>
@@ -16559,14 +19004,14 @@
         <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16" si="10">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="4"/>
@@ -16600,7 +19045,7 @@
         <v>315</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="4"/>
@@ -16634,14 +19079,14 @@
         <v>337</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ref="J18" si="11">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="4"/>
@@ -16675,7 +19120,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O22" s="7" t="str">
         <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
@@ -16703,7 +19148,7 @@
         <v>22.5</v>
       </c>
       <c r="M23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="7" t="str">
         <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
@@ -16731,7 +19176,7 @@
         <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O24" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16759,7 +19204,7 @@
         <v>67.5</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O25" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16787,7 +19232,7 @@
         <v>90</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O26" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16815,7 +19260,7 @@
         <v>112.5</v>
       </c>
       <c r="M27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O27" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16843,7 +19288,7 @@
         <v>135</v>
       </c>
       <c r="M28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O28" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16871,7 +19316,7 @@
         <v>157.5</v>
       </c>
       <c r="M29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O29" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16899,7 +19344,7 @@
         <v>180</v>
       </c>
       <c r="M30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O30" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16927,7 +19372,7 @@
         <v>202.5</v>
       </c>
       <c r="M31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O31" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16955,7 +19400,7 @@
         <v>225</v>
       </c>
       <c r="M32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O32" s="7" t="str">
         <f t="shared" si="13"/>
@@ -16983,7 +19428,7 @@
         <v>247.5</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O33" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17011,7 +19456,7 @@
         <v>270</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O34" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17039,7 +19484,7 @@
         <v>292.5</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O35" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17067,7 +19512,7 @@
         <v>315</v>
       </c>
       <c r="M36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O36" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17095,7 +19540,7 @@
         <v>337.5</v>
       </c>
       <c r="M37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O37" s="7" t="str">
         <f t="shared" si="13"/>
@@ -17109,10 +19554,10 @@
     </row>
     <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -17430,30 +19875,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B1">
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -17879,30 +20324,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D1" s="46"/>
       <c r="F1" s="48" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="46" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
@@ -27103,21 +29548,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="73"/>
+      <c r="B2" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="75"/>
       <c r="D2" s="64">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="G2" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -27128,30 +29573,30 @@
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1">
         <v>163.81</v>
@@ -27164,7 +29609,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>2.72</v>
@@ -27177,7 +29622,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1">
         <v>6.69</v>
@@ -27191,7 +29636,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>2.35</v>
@@ -27204,7 +29649,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1">
         <v>3.7</v>
@@ -27217,7 +29662,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1">
         <v>6.99</v>
@@ -27230,7 +29675,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1">
         <v>40.76</v>
@@ -27243,7 +29688,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1">
         <v>7.99</v>
@@ -27256,7 +29701,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1">
         <v>8.99</v>
@@ -27266,10 +29711,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -27278,10 +29723,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -27290,10 +29735,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1">
         <v>8.02</v>
@@ -27303,10 +29748,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1">
         <v>1.49</v>
@@ -27319,7 +29764,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D18" s="1">
         <v>57</v>
@@ -27329,10 +29774,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1">
         <v>144</v>
@@ -27366,10 +29811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A01A1-7AB8-40C2-A8AE-985E0D56E443}">
-  <dimension ref="A2:G27"/>
+  <dimension ref="A1:X367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27379,248 +29824,1933 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:24" ht="31.2" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="X2" s="73"/>
+    </row>
+    <row r="3" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" t="s">
+        <v>275</v>
+      </c>
+      <c r="X3" s="73"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(E4*D4)/3600</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6">
+        <f>-((K4-0)*(K4-24))^2/(144^2)</f>
+        <v>0.19140625</v>
+      </c>
+      <c r="M4" s="7">
+        <f>B$21/N$2*L4*M$2*1000</f>
+        <v>68.906249999999986</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N27" si="0">B$11</f>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O4" s="7">
+        <f>B14</f>
+        <v>3000</v>
+      </c>
+      <c r="P4" s="7">
+        <f>MAX(0, MIN(O4,O$4))</f>
+        <v>3000</v>
+      </c>
+      <c r="X4" s="73"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <f>(E5*D5)/3600</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="K5">
+        <f>MOD(K4+1,24)</f>
+        <v>22</v>
+      </c>
+      <c r="L5" s="6">
+        <f>-((K5-0)*(K5-24))^2/(144^2)</f>
+        <v>9.3364197530864196E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <f>B$21/N$2*L5*M$2*1000</f>
+        <v>33.611111111111107</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O5" s="7">
+        <f>O4-N4+M4</f>
+        <v>2968.6840277777778</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" ref="P5:P27" si="1">MAX(0, MIN(O5,O$4))</f>
+        <v>2968.6840277777778</v>
+      </c>
+      <c r="X5" s="73"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="6">
+        <f>(E6*D6)/3600</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K27" si="2">MOD(K5+1,24)</f>
+        <v>23</v>
+      </c>
+      <c r="L6" s="6">
+        <f>-((K6-0)*(K6-24))^2/(144^2)</f>
+        <v>2.5511188271604937E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <f>B$21/N$2*L6*M$2*1000</f>
+        <v>9.1840277777777768</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" ref="O6:O27" si="3">O5-N5+M5</f>
+        <v>2902.072916666667</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>2902.072916666667</v>
+      </c>
+      <c r="X6" s="73"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f>-((K7-0)*(K7-24))^2/(144^2)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f>B$21/N$2*L7*M$2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="3"/>
+        <v>2811.0347222222226</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="1"/>
+        <v>2811.0347222222226</v>
+      </c>
+      <c r="X7" s="73"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F8" s="6">
+        <f t="shared" ref="F8" si="4">(E8*D8)/3600</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <f>-((K8-0)*(K8-24))^2/(144^2)</f>
+        <v>2.5511188271604937E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <f>B$21/N$2*L8*M$2*1000</f>
+        <v>9.1840277777777768</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="3"/>
+        <v>2710.8125000000005</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="1"/>
+        <v>2710.8125000000005</v>
+      </c>
+      <c r="X8" s="73"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="60">
+        <f>SUMPRODUCT(B4:B8,F4:F8)*0.1</f>
+        <v>9.1111111111111125</v>
+      </c>
+      <c r="D9">
+        <v>3600</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <f>(E9*D9)/3600</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
+        <f>-((K9-0)*(K9-24))^2/(144^2)</f>
+        <v>9.3364197530864196E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f>B$21/N$2*L9*M$2*1000</f>
+        <v>33.611111111111107</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="3"/>
+        <v>2619.7743055555561</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="1"/>
+        <v>2619.7743055555561</v>
+      </c>
+      <c r="X9" s="73"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
+        <f>-((K10-0)*(K10-24))^2/(144^2)</f>
+        <v>0.19140625</v>
+      </c>
+      <c r="M10" s="7">
+        <f>B$21/N$2*L10*M$2*1000</f>
+        <v>68.906249999999986</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="3"/>
+        <v>2553.1631944444453</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="1"/>
+        <v>2553.1631944444453</v>
+      </c>
+      <c r="X10" s="73"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="60">
+        <f>SUMPRODUCT(B4:B9,F4:F9)</f>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <f>-((K11-0)*(K11-24))^2/(144^2)</f>
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="M11" s="7">
+        <f>B$21/N$2*L11*M$2*1000</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="3"/>
+        <v>2521.8472222222231</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="1"/>
+        <v>2521.8472222222231</v>
+      </c>
+      <c r="X11" s="73"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="6">
+        <f>-((K12-0)*(K12-24))^2/(144^2)</f>
+        <v>0.43523341049382713</v>
+      </c>
+      <c r="M12" s="7">
+        <f>B$21/N$2*L12*M$2*1000</f>
+        <v>156.68402777777777</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="3"/>
+        <v>2532.7361111111122</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="1"/>
+        <v>2532.7361111111122</v>
+      </c>
+      <c r="X12" s="73"/>
+    </row>
+    <row r="13" spans="1:24" ht="44.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3">
-        <f>SUMPRODUCT(B11:B17,F11:F17)*3600/1000</f>
-        <v>97.02000000000001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="6">
+        <f>-((K13-0)*(K13-24))^2/(144^2)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M13" s="7">
+        <f>B$21/N$2*L13*M$2*1000</f>
+        <v>202.49999999999997</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="3"/>
+        <v>2589.1979166666679</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="1"/>
+        <v>2589.1979166666679</v>
+      </c>
+      <c r="X13" s="73"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>D14*B14*C14/1000*3600/1000</f>
+        <v>54</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L14" s="6">
+        <f>-((K14-0)*(K14-24))^2/(144^2)</f>
+        <v>0.68291859567901236</v>
+      </c>
+      <c r="M14" s="7">
+        <f>B$21/N$2*L14*M$2*1000</f>
+        <v>245.85069444444443</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="3"/>
+        <v>2691.4756944444457</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="1"/>
+        <v>2691.4756944444457</v>
+      </c>
+      <c r="X14" s="73"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L15" s="6">
+        <f>-((K15-0)*(K15-24))^2/(144^2)</f>
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="M15" s="7">
+        <f>B$21/N$2*L15*M$2*1000</f>
+        <v>284.4444444444444</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="3"/>
+        <v>2837.1041666666679</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="1"/>
+        <v>2837.1041666666679</v>
+      </c>
+      <c r="X15" s="73"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L16" s="6">
+        <f>-((K16-0)*(K16-24))^2/(144^2)</f>
+        <v>0.87890625</v>
+      </c>
+      <c r="M16" s="7">
+        <f>B$21/N$2*L16*M$2*1000</f>
+        <v>316.40625</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="3"/>
+        <v>3021.3263888888901</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X16" s="73"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L17" s="6">
+        <f>-((K17-0)*(K17-24))^2/(144^2)</f>
+        <v>0.94521604938271608</v>
+      </c>
+      <c r="M17" s="7">
+        <f>B$21/N$2*L17*M$2*1000</f>
+        <v>340.27777777777777</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="3"/>
+        <v>3237.5104166666679</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X17" s="73"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="L18" s="6">
+        <f>-((K18-0)*(K18-24))^2/(144^2)</f>
+        <v>0.98615933641975306</v>
+      </c>
+      <c r="M18" s="7">
+        <f>B$21/N$2*L18*M$2*1000</f>
+        <v>355.01736111111103</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="3"/>
+        <v>3477.5659722222235</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X18" s="73"/>
+    </row>
+    <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L19" s="6">
+        <f>-((K19-0)*(K19-24))^2/(144^2)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <f>B$21/N$2*L19*M$2*1000</f>
+        <v>360</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="3"/>
+        <v>3732.3611111111122</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X19" s="73"/>
+    </row>
+    <row r="20" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="7">
-        <f>B5/(B3-B4)</f>
-        <v>-5.5248618784530414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4">
-        <f>D27</f>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L20" s="6">
+        <f>-((K20-0)*(K20-24))^2/(144^2)</f>
+        <v>0.98615933641975306</v>
+      </c>
+      <c r="M20" s="7">
+        <f>B$21/N$2*L20*M$2*1000</f>
+        <v>355.01736111111103</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="3"/>
+        <v>3992.1388888888901</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X20" s="73"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <f>B21*C21*3600/1000</f>
         <v>129.6</v>
       </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="7">
-        <f>G3/24</f>
-        <v>-0.23020257826887672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5">
-        <f>E20</f>
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="7">
-        <f>G4/365</f>
-        <v>-6.3069199525719649E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6">
-        <f>(E11*D11)/3600</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L21" s="6">
+        <f>-((K21-0)*(K21-24))^2/(144^2)</f>
+        <v>0.94521604938271608</v>
+      </c>
+      <c r="M21" s="7">
+        <f>B$21/N$2*L21*M$2*1000</f>
+        <v>340.27777777777777</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="3"/>
+        <v>4246.9340277777792</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X21" s="73"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L22" s="6">
+        <f>-((K22-0)*(K22-24))^2/(144^2)</f>
+        <v>0.87890625</v>
+      </c>
+      <c r="M22" s="7">
+        <f>B$21/N$2*L22*M$2*1000</f>
+        <v>316.40625</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="3"/>
+        <v>4486.9895833333339</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X22" s="73"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L23" s="6">
+        <f>-((K23-0)*(K23-24))^2/(144^2)</f>
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="M23" s="7">
+        <f>B$21/N$2*L23*M$2*1000</f>
+        <v>284.4444444444444</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="3"/>
+        <v>4703.1736111111113</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X23" s="73"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="L24" s="6">
+        <f>-((K24-0)*(K24-24))^2/(144^2)</f>
+        <v>0.68291859567901236</v>
+      </c>
+      <c r="M24" s="7">
+        <f>B$21/N$2*L24*M$2*1000</f>
+        <v>245.85069444444443</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="3"/>
+        <v>4887.395833333333</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X24" s="73"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L25" s="6">
+        <f>-((K25-0)*(K25-24))^2/(144^2)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M25" s="7">
+        <f>B$21/N$2*L25*M$2*1000</f>
+        <v>202.49999999999997</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="3"/>
+        <v>5033.0243055555547</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X25" s="73"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="L26" s="6">
+        <f>-((K26-0)*(K26-24))^2/(144^2)</f>
+        <v>0.43523341049382713</v>
+      </c>
+      <c r="M26" s="7">
+        <f>B$21/N$2*L26*M$2*1000</f>
+        <v>156.68402777777777</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="3"/>
+        <v>5135.3020833333321</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X26" s="73"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="80">
+        <f>B11/1000*C4/1000</f>
+        <v>5.0111111111111114E-4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L27" s="6">
+        <f>-((K27-0)*(K27-24))^2/(144^2)</f>
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="M27" s="7">
+        <f>B$21/N$2*L27*M$2*1000</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="0"/>
+        <v>100.22222222222223</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="3"/>
+        <v>5191.7638888888869</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X27" s="73"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>277</v>
       </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F16" si="0">(E12*D12)/3600</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="60">
-        <f>SUMPRODUCT(B11:B15,F11:F15)*0.05</f>
-        <v>1.2833333333333334</v>
-      </c>
-      <c r="D16">
-        <v>3600</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="44.4" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <f>D20*B20*C20/1000*3600/1000</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <f>B27*C27*3600/1000</f>
-        <v>129.6</v>
-      </c>
+      <c r="B28">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="X28" s="73"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="60">
+        <f>B28*B27</f>
+        <v>7.7471777777777775E-5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+      <c r="X29" s="73"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="60">
+        <f>B29*24</f>
+        <v>1.8593226666666666E-3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+      <c r="X30" s="73"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="60">
+        <f>B30*365</f>
+        <v>0.67865277333333329</v>
+      </c>
+      <c r="C31" t="s">
+        <v>281</v>
+      </c>
+      <c r="X31" s="73"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X32" s="73"/>
+    </row>
+    <row r="33" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X33" s="73"/>
+    </row>
+    <row r="34" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X34" s="73"/>
+    </row>
+    <row r="35" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X35" s="73"/>
+    </row>
+    <row r="36" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X36" s="73"/>
+    </row>
+    <row r="37" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X37" s="73"/>
+    </row>
+    <row r="38" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X38" s="73"/>
+    </row>
+    <row r="39" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X39" s="73"/>
+    </row>
+    <row r="40" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X40" s="73"/>
+    </row>
+    <row r="41" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X41" s="73"/>
+    </row>
+    <row r="42" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X42" s="73"/>
+    </row>
+    <row r="43" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X43" s="73"/>
+    </row>
+    <row r="44" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X44" s="73"/>
+    </row>
+    <row r="45" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X45" s="73"/>
+    </row>
+    <row r="46" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X46" s="73"/>
+    </row>
+    <row r="47" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X47" s="73"/>
+    </row>
+    <row r="48" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X48" s="73"/>
+    </row>
+    <row r="49" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X49" s="73"/>
+    </row>
+    <row r="50" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X50" s="73"/>
+    </row>
+    <row r="51" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X51" s="73"/>
+    </row>
+    <row r="52" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X52" s="73"/>
+    </row>
+    <row r="53" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X53" s="73"/>
+    </row>
+    <row r="54" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X54" s="73"/>
+    </row>
+    <row r="55" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X55" s="73"/>
+    </row>
+    <row r="56" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X56" s="73"/>
+    </row>
+    <row r="57" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X57" s="73"/>
+    </row>
+    <row r="58" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X58" s="73"/>
+    </row>
+    <row r="59" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X59" s="73"/>
+    </row>
+    <row r="60" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X60" s="73"/>
+    </row>
+    <row r="61" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X61" s="73"/>
+    </row>
+    <row r="62" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X62" s="73"/>
+    </row>
+    <row r="63" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X63" s="73"/>
+    </row>
+    <row r="64" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X64" s="73"/>
+    </row>
+    <row r="65" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X65" s="73"/>
+    </row>
+    <row r="66" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X66" s="73"/>
+    </row>
+    <row r="67" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X67" s="73"/>
+    </row>
+    <row r="68" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X68" s="73"/>
+    </row>
+    <row r="69" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X69" s="73"/>
+    </row>
+    <row r="70" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X70" s="73"/>
+    </row>
+    <row r="71" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X71" s="73"/>
+    </row>
+    <row r="72" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X72" s="73"/>
+    </row>
+    <row r="73" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X73" s="73"/>
+    </row>
+    <row r="74" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X74" s="73"/>
+    </row>
+    <row r="75" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X75" s="73"/>
+    </row>
+    <row r="76" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X76" s="73"/>
+    </row>
+    <row r="77" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X77" s="73"/>
+    </row>
+    <row r="78" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X78" s="73"/>
+    </row>
+    <row r="79" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X79" s="73"/>
+    </row>
+    <row r="80" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X80" s="73"/>
+    </row>
+    <row r="81" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X81" s="73"/>
+    </row>
+    <row r="82" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X82" s="73"/>
+    </row>
+    <row r="83" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X83" s="73"/>
+    </row>
+    <row r="84" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X84" s="73"/>
+    </row>
+    <row r="85" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X85" s="73"/>
+    </row>
+    <row r="86" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X86" s="73"/>
+    </row>
+    <row r="87" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X87" s="73"/>
+    </row>
+    <row r="88" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X88" s="73"/>
+    </row>
+    <row r="89" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X89" s="73"/>
+    </row>
+    <row r="90" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X90" s="73"/>
+    </row>
+    <row r="91" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X91" s="73"/>
+    </row>
+    <row r="92" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X92" s="73"/>
+    </row>
+    <row r="93" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X93" s="73"/>
+    </row>
+    <row r="94" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X94" s="73"/>
+    </row>
+    <row r="95" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X95" s="73"/>
+    </row>
+    <row r="96" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X96" s="73"/>
+    </row>
+    <row r="97" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X97" s="73"/>
+    </row>
+    <row r="98" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X98" s="73"/>
+    </row>
+    <row r="99" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X99" s="73"/>
+    </row>
+    <row r="100" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X100" s="73"/>
+    </row>
+    <row r="101" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X101" s="73"/>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X102" s="73"/>
+    </row>
+    <row r="103" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X103" s="73"/>
+    </row>
+    <row r="104" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X104" s="73"/>
+    </row>
+    <row r="105" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X105" s="73"/>
+    </row>
+    <row r="106" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X106" s="73"/>
+    </row>
+    <row r="107" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X107" s="73"/>
+    </row>
+    <row r="108" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X108" s="73"/>
+    </row>
+    <row r="109" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X109" s="73"/>
+    </row>
+    <row r="110" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X110" s="73"/>
+    </row>
+    <row r="111" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X111" s="73"/>
+    </row>
+    <row r="112" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X112" s="73"/>
+    </row>
+    <row r="113" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X113" s="73"/>
+    </row>
+    <row r="114" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X114" s="73"/>
+    </row>
+    <row r="115" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X115" s="73"/>
+    </row>
+    <row r="116" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X116" s="73"/>
+    </row>
+    <row r="117" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X117" s="73"/>
+    </row>
+    <row r="118" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X118" s="73"/>
+    </row>
+    <row r="119" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X119" s="73"/>
+    </row>
+    <row r="120" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X120" s="73"/>
+    </row>
+    <row r="121" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X121" s="73"/>
+    </row>
+    <row r="122" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X122" s="73"/>
+    </row>
+    <row r="123" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X123" s="73"/>
+    </row>
+    <row r="124" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X124" s="73"/>
+    </row>
+    <row r="125" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X125" s="73"/>
+    </row>
+    <row r="126" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X126" s="73"/>
+    </row>
+    <row r="127" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X127" s="73"/>
+    </row>
+    <row r="128" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X128" s="73"/>
+    </row>
+    <row r="129" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X129" s="73"/>
+    </row>
+    <row r="130" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X130" s="73"/>
+    </row>
+    <row r="131" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X131" s="73"/>
+    </row>
+    <row r="132" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X132" s="73"/>
+    </row>
+    <row r="133" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X133" s="73"/>
+    </row>
+    <row r="134" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X134" s="73"/>
+    </row>
+    <row r="135" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X135" s="73"/>
+    </row>
+    <row r="136" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X136" s="73"/>
+    </row>
+    <row r="137" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X137" s="73"/>
+    </row>
+    <row r="138" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X138" s="73"/>
+    </row>
+    <row r="139" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X139" s="73"/>
+    </row>
+    <row r="140" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X140" s="73"/>
+    </row>
+    <row r="141" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X141" s="73"/>
+    </row>
+    <row r="142" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X142" s="73"/>
+    </row>
+    <row r="143" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X143" s="73"/>
+    </row>
+    <row r="144" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X144" s="73"/>
+    </row>
+    <row r="145" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X145" s="73"/>
+    </row>
+    <row r="146" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X146" s="73"/>
+    </row>
+    <row r="147" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X147" s="73"/>
+    </row>
+    <row r="148" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X148" s="73"/>
+    </row>
+    <row r="149" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X149" s="73"/>
+    </row>
+    <row r="150" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X150" s="73"/>
+    </row>
+    <row r="151" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X151" s="73"/>
+    </row>
+    <row r="152" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X152" s="73"/>
+    </row>
+    <row r="153" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X153" s="73"/>
+    </row>
+    <row r="154" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X154" s="73"/>
+    </row>
+    <row r="155" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X155" s="73"/>
+    </row>
+    <row r="156" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X156" s="73"/>
+    </row>
+    <row r="157" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X157" s="73"/>
+    </row>
+    <row r="158" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X158" s="73"/>
+    </row>
+    <row r="159" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X159" s="73"/>
+    </row>
+    <row r="160" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X160" s="73"/>
+    </row>
+    <row r="161" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X161" s="73"/>
+    </row>
+    <row r="162" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X162" s="73"/>
+    </row>
+    <row r="163" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X163" s="73"/>
+    </row>
+    <row r="164" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X164" s="73"/>
+    </row>
+    <row r="165" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X165" s="73"/>
+    </row>
+    <row r="166" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X166" s="73"/>
+    </row>
+    <row r="167" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X167" s="73"/>
+    </row>
+    <row r="168" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X168" s="73"/>
+    </row>
+    <row r="169" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X169" s="73"/>
+    </row>
+    <row r="170" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X170" s="73"/>
+    </row>
+    <row r="171" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X171" s="73"/>
+    </row>
+    <row r="172" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X172" s="73"/>
+    </row>
+    <row r="173" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X173" s="73"/>
+    </row>
+    <row r="174" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X174" s="73"/>
+    </row>
+    <row r="175" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X175" s="73"/>
+    </row>
+    <row r="176" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X176" s="73"/>
+    </row>
+    <row r="177" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X177" s="73"/>
+    </row>
+    <row r="178" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X178" s="73"/>
+    </row>
+    <row r="179" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X179" s="73"/>
+    </row>
+    <row r="180" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X180" s="73"/>
+    </row>
+    <row r="181" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X181" s="73"/>
+    </row>
+    <row r="182" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X182" s="73"/>
+    </row>
+    <row r="183" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X183" s="73"/>
+    </row>
+    <row r="184" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X184" s="73"/>
+    </row>
+    <row r="185" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X185" s="73"/>
+    </row>
+    <row r="186" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X186" s="73"/>
+    </row>
+    <row r="187" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X187" s="73"/>
+    </row>
+    <row r="188" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X188" s="73"/>
+    </row>
+    <row r="189" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X189" s="73"/>
+    </row>
+    <row r="190" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X190" s="73"/>
+    </row>
+    <row r="191" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X191" s="73"/>
+    </row>
+    <row r="192" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X192" s="73"/>
+    </row>
+    <row r="193" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X193" s="73"/>
+    </row>
+    <row r="194" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X194" s="73"/>
+    </row>
+    <row r="195" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X195" s="73"/>
+    </row>
+    <row r="196" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X196" s="73"/>
+    </row>
+    <row r="197" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X197" s="73"/>
+    </row>
+    <row r="198" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X198" s="73"/>
+    </row>
+    <row r="199" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X199" s="73"/>
+    </row>
+    <row r="200" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X200" s="73"/>
+    </row>
+    <row r="201" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X201" s="73"/>
+    </row>
+    <row r="202" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X202" s="73"/>
+    </row>
+    <row r="203" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X203" s="73"/>
+    </row>
+    <row r="204" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X204" s="73"/>
+    </row>
+    <row r="205" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X205" s="73"/>
+    </row>
+    <row r="206" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X206" s="73"/>
+    </row>
+    <row r="207" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X207" s="73"/>
+    </row>
+    <row r="208" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X208" s="73"/>
+    </row>
+    <row r="209" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X209" s="73"/>
+    </row>
+    <row r="210" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X210" s="73"/>
+    </row>
+    <row r="211" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X211" s="73"/>
+    </row>
+    <row r="212" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X212" s="73"/>
+    </row>
+    <row r="213" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X213" s="73"/>
+    </row>
+    <row r="214" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X214" s="73"/>
+    </row>
+    <row r="215" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X215" s="73"/>
+    </row>
+    <row r="216" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X216" s="73"/>
+    </row>
+    <row r="217" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X217" s="73"/>
+    </row>
+    <row r="218" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X218" s="73"/>
+    </row>
+    <row r="219" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X219" s="73"/>
+    </row>
+    <row r="220" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X220" s="73"/>
+    </row>
+    <row r="221" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X221" s="73"/>
+    </row>
+    <row r="222" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X222" s="73"/>
+    </row>
+    <row r="223" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X223" s="73"/>
+    </row>
+    <row r="224" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X224" s="73"/>
+    </row>
+    <row r="225" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X225" s="73"/>
+    </row>
+    <row r="226" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X226" s="73"/>
+    </row>
+    <row r="227" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X227" s="73"/>
+    </row>
+    <row r="228" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X228" s="73"/>
+    </row>
+    <row r="229" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X229" s="73"/>
+    </row>
+    <row r="230" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X230" s="73"/>
+    </row>
+    <row r="231" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X231" s="73"/>
+    </row>
+    <row r="232" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X232" s="73"/>
+    </row>
+    <row r="233" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X233" s="73"/>
+    </row>
+    <row r="234" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X234" s="73"/>
+    </row>
+    <row r="235" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X235" s="73"/>
+    </row>
+    <row r="236" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X236" s="73"/>
+    </row>
+    <row r="237" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X237" s="73"/>
+    </row>
+    <row r="238" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X238" s="73"/>
+    </row>
+    <row r="239" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X239" s="73"/>
+    </row>
+    <row r="240" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X240" s="73"/>
+    </row>
+    <row r="241" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X241" s="73"/>
+    </row>
+    <row r="242" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X242" s="73"/>
+    </row>
+    <row r="243" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X243" s="73"/>
+    </row>
+    <row r="244" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X244" s="73"/>
+    </row>
+    <row r="245" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X245" s="73"/>
+    </row>
+    <row r="246" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X246" s="73"/>
+    </row>
+    <row r="247" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X247" s="73"/>
+    </row>
+    <row r="248" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X248" s="73"/>
+    </row>
+    <row r="249" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X249" s="73"/>
+    </row>
+    <row r="250" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X250" s="73"/>
+    </row>
+    <row r="251" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X251" s="73"/>
+    </row>
+    <row r="252" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X252" s="73"/>
+    </row>
+    <row r="253" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X253" s="73"/>
+    </row>
+    <row r="254" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X254" s="73"/>
+    </row>
+    <row r="255" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X255" s="73"/>
+    </row>
+    <row r="256" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X256" s="73"/>
+    </row>
+    <row r="257" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X257" s="73"/>
+    </row>
+    <row r="258" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X258" s="73"/>
+    </row>
+    <row r="259" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X259" s="73"/>
+    </row>
+    <row r="260" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X260" s="73"/>
+    </row>
+    <row r="261" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X261" s="73"/>
+    </row>
+    <row r="262" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X262" s="73"/>
+    </row>
+    <row r="263" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X263" s="73"/>
+    </row>
+    <row r="264" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X264" s="73"/>
+    </row>
+    <row r="265" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X265" s="73"/>
+    </row>
+    <row r="266" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X266" s="73"/>
+    </row>
+    <row r="267" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X267" s="73"/>
+    </row>
+    <row r="268" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X268" s="73"/>
+    </row>
+    <row r="269" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X269" s="73"/>
+    </row>
+    <row r="270" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X270" s="73"/>
+    </row>
+    <row r="271" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X271" s="73"/>
+    </row>
+    <row r="272" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X272" s="73"/>
+    </row>
+    <row r="273" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X273" s="73"/>
+    </row>
+    <row r="274" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X274" s="73"/>
+    </row>
+    <row r="275" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X275" s="73"/>
+    </row>
+    <row r="276" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X276" s="73"/>
+    </row>
+    <row r="277" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X277" s="73"/>
+    </row>
+    <row r="278" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X278" s="73"/>
+    </row>
+    <row r="279" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X279" s="73"/>
+    </row>
+    <row r="280" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X280" s="73"/>
+    </row>
+    <row r="281" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X281" s="73"/>
+    </row>
+    <row r="282" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X282" s="73"/>
+    </row>
+    <row r="283" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X283" s="73"/>
+    </row>
+    <row r="284" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X284" s="73"/>
+    </row>
+    <row r="285" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X285" s="73"/>
+    </row>
+    <row r="286" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X286" s="73"/>
+    </row>
+    <row r="287" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X287" s="73"/>
+    </row>
+    <row r="288" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X288" s="73"/>
+    </row>
+    <row r="289" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X289" s="73"/>
+    </row>
+    <row r="290" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X290" s="73"/>
+    </row>
+    <row r="291" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X291" s="73"/>
+    </row>
+    <row r="292" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X292" s="73"/>
+    </row>
+    <row r="293" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X293" s="73"/>
+    </row>
+    <row r="294" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X294" s="73"/>
+    </row>
+    <row r="295" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X295" s="73"/>
+    </row>
+    <row r="296" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X296" s="73"/>
+    </row>
+    <row r="297" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X297" s="73"/>
+    </row>
+    <row r="298" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X298" s="73"/>
+    </row>
+    <row r="299" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X299" s="73"/>
+    </row>
+    <row r="300" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X300" s="73"/>
+    </row>
+    <row r="301" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X301" s="73"/>
+    </row>
+    <row r="302" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X302" s="73"/>
+    </row>
+    <row r="303" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X303" s="73"/>
+    </row>
+    <row r="304" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X304" s="73"/>
+    </row>
+    <row r="305" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X305" s="73"/>
+    </row>
+    <row r="306" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X306" s="73"/>
+    </row>
+    <row r="307" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X307" s="73"/>
+    </row>
+    <row r="308" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X308" s="73"/>
+    </row>
+    <row r="309" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X309" s="73"/>
+    </row>
+    <row r="310" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X310" s="73"/>
+    </row>
+    <row r="311" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X311" s="73"/>
+    </row>
+    <row r="312" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X312" s="73"/>
+    </row>
+    <row r="313" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X313" s="73"/>
+    </row>
+    <row r="314" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X314" s="73"/>
+    </row>
+    <row r="315" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X315" s="73"/>
+    </row>
+    <row r="316" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X316" s="73"/>
+    </row>
+    <row r="317" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X317" s="73"/>
+    </row>
+    <row r="318" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X318" s="73"/>
+    </row>
+    <row r="319" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X319" s="73"/>
+    </row>
+    <row r="320" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X320" s="73"/>
+    </row>
+    <row r="321" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X321" s="73"/>
+    </row>
+    <row r="322" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X322" s="73"/>
+    </row>
+    <row r="323" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X323" s="73"/>
+    </row>
+    <row r="324" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X324" s="73"/>
+    </row>
+    <row r="325" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X325" s="73"/>
+    </row>
+    <row r="326" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X326" s="73"/>
+    </row>
+    <row r="327" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X327" s="73"/>
+    </row>
+    <row r="328" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X328" s="73"/>
+    </row>
+    <row r="329" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X329" s="73"/>
+    </row>
+    <row r="330" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X330" s="73"/>
+    </row>
+    <row r="331" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X331" s="73"/>
+    </row>
+    <row r="332" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X332" s="73"/>
+    </row>
+    <row r="333" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X333" s="73"/>
+    </row>
+    <row r="334" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X334" s="73"/>
+    </row>
+    <row r="335" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X335" s="73"/>
+    </row>
+    <row r="336" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X336" s="73"/>
+    </row>
+    <row r="337" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X337" s="73"/>
+    </row>
+    <row r="338" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X338" s="73"/>
+    </row>
+    <row r="339" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X339" s="73"/>
+    </row>
+    <row r="340" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X340" s="73"/>
+    </row>
+    <row r="341" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X341" s="73"/>
+    </row>
+    <row r="342" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X342" s="73"/>
+    </row>
+    <row r="343" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X343" s="73"/>
+    </row>
+    <row r="344" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X344" s="73"/>
+    </row>
+    <row r="345" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X345" s="73"/>
+    </row>
+    <row r="346" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X346" s="73"/>
+    </row>
+    <row r="347" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X347" s="73"/>
+    </row>
+    <row r="348" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X348" s="73"/>
+    </row>
+    <row r="349" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X349" s="73"/>
+    </row>
+    <row r="350" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X350" s="73"/>
+    </row>
+    <row r="351" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X351" s="73"/>
+    </row>
+    <row r="352" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X352" s="73"/>
+    </row>
+    <row r="353" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X353" s="73"/>
+    </row>
+    <row r="354" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X354" s="73"/>
+    </row>
+    <row r="355" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X355" s="73"/>
+    </row>
+    <row r="356" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X356" s="73"/>
+    </row>
+    <row r="357" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X357" s="73"/>
+    </row>
+    <row r="358" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X358" s="73"/>
+    </row>
+    <row r="359" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X359" s="73"/>
+    </row>
+    <row r="360" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X360" s="73"/>
+    </row>
+    <row r="361" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X361" s="73"/>
+    </row>
+    <row r="362" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X362" s="73"/>
+    </row>
+    <row r="363" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X363" s="73"/>
+    </row>
+    <row r="364" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X364" s="73"/>
+    </row>
+    <row r="365" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X365" s="73"/>
+    </row>
+    <row r="366" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X366" s="73"/>
+    </row>
+    <row r="367" spans="24:24" x14ac:dyDescent="0.3">
+      <c r="X367" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27642,343 +31772,342 @@
   <sheetData>
     <row r="1" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="72" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D1" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>248</v>
+      <c r="D2" s="76" t="s">
+        <v>237</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>205</v>
+      <c r="B6" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>194</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>249</v>
+      <c r="B9" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>238</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
       <c r="E11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="E12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>250</v>
+      <c r="B13" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>239</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
       <c r="E16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>172</v>
+      <c r="B17" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>161</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>221</v>
+      <c r="B19" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
       <c r="E21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>257</v>
+      <c r="B22" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>246</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
       <c r="E24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
       <c r="E25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>258</v>
+      <c r="B27" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>247</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>260</v>
+      <c r="B30" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>249</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>261</v>
+      <c r="B32" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>250</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B19:B21"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="D2:D5"/>
@@ -28002,12 +32131,13 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28036,16 +32166,16 @@
     <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.4">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -28058,14 +32188,14 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="74" t="s">
-        <v>172</v>
+      <c r="J3" s="76" t="s">
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -28078,12 +32208,12 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="74"/>
+      <c r="J4" s="76"/>
       <c r="K4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -28091,26 +32221,26 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="69">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="74"/>
+        <v>16</v>
+      </c>
+      <c r="J5" s="76"/>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -28119,23 +32249,23 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="69">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="74"/>
+        <v>74</v>
+      </c>
+      <c r="J6" s="76"/>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="L6" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -28145,13 +32275,13 @@
       <c r="B7" s="21"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="69">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -28161,13 +32291,13 @@
       <c r="B8" s="21"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="69">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -28176,7 +32306,7 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="17"/>
       <c r="G9" s="69">
@@ -28188,10 +32318,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="17"/>
       <c r="G10" s="69">
@@ -28214,7 +32344,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
@@ -28227,19 +32357,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="69">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -28247,19 +32377,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="69">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -28267,19 +32397,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="69">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -28287,19 +32417,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="69">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -28311,124 +32441,124 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="G18" s="70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="G19" s="70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="G20" s="70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="G22" s="70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="G23" s="70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="G24" s="71" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G25" s="71" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -28461,50 +32591,50 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="I1" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>221</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -28512,20 +32642,20 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" t="s">
         <v>207</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="74"/>
-      <c r="J3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -28533,22 +32663,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="74" t="s">
-        <v>222</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -28556,20 +32686,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="74"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="76"/>
       <c r="J5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -28577,22 +32707,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>199</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -28600,20 +32730,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="I7" s="76"/>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -28621,20 +32751,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I8" s="74"/>
+        <v>204</v>
+      </c>
+      <c r="I8" s="76"/>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -28642,40 +32772,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="74"/>
+        <v>70</v>
+      </c>
+      <c r="I9" s="76"/>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="74" t="s">
-        <v>226</v>
+      <c r="I10" s="76" t="s">
+        <v>215</v>
       </c>
       <c r="J10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="74"/>
+      <c r="I11" s="76"/>
       <c r="J11" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="74"/>
+      <c r="I12" s="76"/>
       <c r="J12" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -28711,29 +32841,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="K3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>208</v>
@@ -28741,16 +32871,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -28758,45 +32888,45 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -28804,24 +32934,24 @@
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -28830,18 +32960,18 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <f>C13+1</f>
@@ -28852,19 +32982,19 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B19" si="0">C14+1</f>
@@ -28875,13 +33005,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -28892,13 +33022,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -28909,13 +33039,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -28926,13 +33056,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -28943,12 +33073,12 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:B26" si="2">C19+1</f>
@@ -28959,12 +33089,12 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
@@ -28975,12 +33105,12 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
@@ -29010,8 +33140,8 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="K24" s="76" t="s">
-        <v>127</v>
+      <c r="K24" s="78" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -29023,11 +33153,11 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="K25" s="76"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B26">
         <f t="shared" si="2"/>
@@ -29038,13 +33168,13 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="76"/>
+        <v>186</v>
+      </c>
+      <c r="K26" s="78"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="4">C26+1</f>
@@ -29055,12 +33185,12 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>198</v>
-      </c>
-      <c r="K27" s="76"/>
+        <v>187</v>
+      </c>
+      <c r="K27" s="78"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="76"/>
+      <c r="K28" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29077,15 +33207,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="10:11" ht="18" x14ac:dyDescent="0.35">
       <c r="J3" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.3">
@@ -29093,7 +33223,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.3">
@@ -29101,7 +33231,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.3">
@@ -29109,7 +33239,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.3">
@@ -29117,7 +33247,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.3">
@@ -29125,7 +33255,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -29150,79 +33280,79 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <f>B2*2.4</f>
         <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <f>1/B2</f>
         <v>0.01</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J3" s="60">
         <f>J2/2.4</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0.3</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J5" s="60">
         <f>J4*J3</f>
@@ -29231,14 +33361,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.3227069802254321E-3</v>
+        <v>9.4998821529796284E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -29250,10 +33380,10 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>107.26498238345565</v>
+        <v>105.26446369509448</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -29262,18 +33392,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.3750049466117622E-3</v>
+        <v>7.4320947126957741E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.3750049466117622E-3</v>
+        <v>7.4320947126957741E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>7.2649823834556454E-2</v>
+        <v>5.2644636950944769E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -29282,11 +33412,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6020276033095963E-2</v>
+        <v>1.8266787342354224E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>8.6452710864842013E-3</v>
+        <v>1.083469262965845E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -29295,11 +33425,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5873166906687325E-2</v>
+        <v>3.0679642808107567E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>9.852890873591362E-3</v>
+        <v>1.2412855465753343E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -29308,11 +33438,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4890552629936539E-2</v>
+        <v>3.8013637891385614E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0173857232492133E-3</v>
+        <v>7.3339950832780471E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -29321,11 +33451,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3027780609397749E-2</v>
+        <v>4.5428559317119185E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1372279794612104E-3</v>
+        <v>7.4149214257335713E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -29334,11 +33464,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0262650359473859E-2</v>
+        <v>5.3939609325086971E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2348697500761103E-3</v>
+        <v>8.5110500079677853E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -29347,11 +33477,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3143583791651012E-2</v>
+        <v>6.3407779934978203E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2880933432177152E-2</v>
+        <v>9.4681706098912327E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -29360,11 +33490,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0574932630306161E-2</v>
+        <v>7.3745608014471817E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4313488386551496E-3</v>
+        <v>1.0337828079493613E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -29373,11 +33503,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.812668830724287E-2</v>
+        <v>8.127344232308209E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5517556769367084E-3</v>
+        <v>7.5278343086102734E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -29386,11 +33516,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0780265023226656E-2</v>
+        <v>9.3264180373883981E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2653576715983786E-2</v>
+        <v>1.1990738050801891E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -29399,11 +33529,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8283913054801456E-2</v>
+        <v>0.10175879213420502</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5036480315748E-3</v>
+        <v>8.4946117603210414E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -29412,11 +33542,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11104175857540015</v>
+        <v>0.10990607574580859</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2757845520598693E-2</v>
+        <v>8.1472836116035646E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -29425,11 +33555,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11855077326404544</v>
+        <v>0.12016311351880798</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.509014688645288E-3</v>
+        <v>1.0257037772999397E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -29438,11 +33568,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13131034561625859</v>
+        <v>0.12820875187304895</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2759572352213158E-2</v>
+        <v>8.0456383542409637E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -29451,11 +33581,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14174551791671355</v>
+        <v>0.13808097480295173</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0435172300454959E-2</v>
+        <v>9.8722229299027797E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -29464,11 +33594,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15049792992819402</v>
+        <v>0.15069909363363942</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7524120114804704E-3</v>
+        <v>1.2618118830687697E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -29477,11 +33607,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15913561281313035</v>
+        <v>0.15878306165792364</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6376828849363263E-3</v>
+        <v>8.0839680242842105E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -29490,11 +33620,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16668166553763381</v>
+        <v>0.1697129607293881</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5460527245034548E-3</v>
+        <v>1.0929899071464466E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -29503,11 +33633,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17713143262428321</v>
+        <v>0.18049776090661293</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0449767086649409E-2</v>
+        <v>1.0784800177224829E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9DCB3A-116D-4982-8FC2-61C3F91F7B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A77D9-CEB9-4B2C-895E-EC576C403DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="-144" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="7" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="2904" yWindow="0" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste grandeur" sheetId="15" r:id="rId1"/>
-    <sheet name="Achat" sheetId="11" r:id="rId2"/>
-    <sheet name="conso" sheetId="3" r:id="rId3"/>
-    <sheet name="Liste connecteur" sheetId="19" r:id="rId4"/>
-    <sheet name="Pin des Arduino" sheetId="4" r:id="rId5"/>
-    <sheet name="Design carte Station" sheetId="18" r:id="rId6"/>
-    <sheet name="Radio" sheetId="9" r:id="rId7"/>
-    <sheet name="Ordre execution tache" sheetId="17" r:id="rId8"/>
-    <sheet name="Test mesure frequence" sheetId="5" r:id="rId9"/>
-    <sheet name="Direction Vent" sheetId="6" r:id="rId10"/>
-    <sheet name="dew frost point" sheetId="12" r:id="rId11"/>
-    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId12"/>
+    <sheet name="Achat" sheetId="11" r:id="rId1"/>
+    <sheet name="conso" sheetId="3" r:id="rId2"/>
+    <sheet name="Liste connecteur" sheetId="19" r:id="rId3"/>
+    <sheet name="Pin des Arduino" sheetId="4" r:id="rId4"/>
+    <sheet name="Radio" sheetId="9" r:id="rId5"/>
+    <sheet name="Codage-décodage Radio" sheetId="15" r:id="rId6"/>
+    <sheet name="Ordre execution tache" sheetId="17" r:id="rId7"/>
+    <sheet name="Test mesure frequence" sheetId="5" r:id="rId8"/>
+    <sheet name="Direction Vent" sheetId="6" r:id="rId9"/>
+    <sheet name="dew frost point" sheetId="12" r:id="rId10"/>
+    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="284">
   <si>
     <t>Produit</t>
   </si>
@@ -573,24 +572,6 @@
     <t>Vitesse vent</t>
   </si>
   <si>
-    <t>battery temp</t>
-  </si>
-  <si>
-    <t>battery voltage</t>
-  </si>
-  <si>
-    <t>Grandeur calculée</t>
-  </si>
-  <si>
-    <t>Grandeur mesurée</t>
-  </si>
-  <si>
-    <t>Wind chill</t>
-  </si>
-  <si>
-    <t>Heat index</t>
-  </si>
-  <si>
     <t>shield ethernet sunfounder</t>
   </si>
   <si>
@@ -648,103 +629,19 @@
     <t>°C</t>
   </si>
   <si>
-    <t>Connecteur</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Nbre de pin</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Vent+pluie</t>
-  </si>
-  <si>
-    <t>3 signaux et 1G</t>
-  </si>
-  <si>
     <t>DHT22</t>
-  </si>
-  <si>
-    <t>BMP</t>
-  </si>
-  <si>
-    <t>+5/S/G</t>
   </si>
   <si>
     <t>BH1745</t>
   </si>
   <si>
-    <t>Radio Data</t>
-  </si>
-  <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>Radio</t>
-  </si>
-  <si>
-    <t>Radion Alim</t>
-  </si>
-  <si>
-    <t>+5/G/+3,3</t>
-  </si>
-  <si>
-    <t>Alim General</t>
-  </si>
-  <si>
-    <t>Solar MPTT</t>
-  </si>
-  <si>
-    <t>Pour carte arduino :</t>
-  </si>
-  <si>
     <t>+5V</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>SCA</t>
-  </si>
-  <si>
-    <t>Csradio</t>
   </si>
   <si>
     <t>Alim</t>
   </si>
   <si>
-    <t>I2C</t>
-  </si>
-  <si>
-    <t>Wind dir</t>
-  </si>
-  <si>
-    <t>Wind Speed</t>
-  </si>
-  <si>
-    <t>Pluvio</t>
-  </si>
-  <si>
-    <t>Signaux</t>
-  </si>
-  <si>
     <t>Sensor Nano</t>
-  </si>
-  <si>
-    <t>+X/G/SDA/SCL</t>
-  </si>
-  <si>
-    <t>+3,3/G/SDA/SCL</t>
-  </si>
-  <si>
-    <t>+5/G/SDA/SCL</t>
-  </si>
-  <si>
-    <t>+5/+3,3V/G</t>
   </si>
   <si>
     <t>WindDir</t>
@@ -798,12 +695,6 @@
     <t>Pluie-vent sensor</t>
   </si>
   <si>
-    <t>RTC/BH1745/BMP280</t>
-  </si>
-  <si>
-    <t>Sensor to Nano</t>
-  </si>
-  <si>
     <t>carte Nano</t>
   </si>
   <si>
@@ -837,18 +728,6 @@
     <t>Bat T+V</t>
   </si>
   <si>
-    <t>tempDHT22</t>
-  </si>
-  <si>
-    <t>HumiditéDHT22</t>
-  </si>
-  <si>
-    <t>TempBMP280</t>
-  </si>
-  <si>
-    <t>PressionBMP</t>
-  </si>
-  <si>
     <t>Luminosité</t>
   </si>
   <si>
@@ -862,12 +741,6 @@
   </si>
   <si>
     <t>Lux</t>
-  </si>
-  <si>
-    <t>DewPoint</t>
-  </si>
-  <si>
-    <t>Icing point</t>
   </si>
   <si>
     <t>Altitude</t>
@@ -935,6 +808,132 @@
   <si>
     <t>prix/an</t>
   </si>
+  <si>
+    <t>groupe 1</t>
+  </si>
+  <si>
+    <t>groupe 2</t>
+  </si>
+  <si>
+    <t>groupe 3</t>
+  </si>
+  <si>
+    <t>groupe 4</t>
+  </si>
+  <si>
+    <t>groupe 5</t>
+  </si>
+  <si>
+    <t>groupe 6</t>
+  </si>
+  <si>
+    <t>groupe 7</t>
+  </si>
+  <si>
+    <t>groupe 8</t>
+  </si>
+  <si>
+    <t>groupe 9</t>
+  </si>
+  <si>
+    <t>groupe 10</t>
+  </si>
+  <si>
+    <t>groupe 11</t>
+  </si>
+  <si>
+    <t>groupe 12</t>
+  </si>
+  <si>
+    <t>groupe 13</t>
+  </si>
+  <si>
+    <t>groupe 14</t>
+  </si>
+  <si>
+    <t>groupe 15</t>
+  </si>
+  <si>
+    <t>Direction Vent</t>
+  </si>
+  <si>
+    <t>Vitesse Vent</t>
+  </si>
+  <si>
+    <t>Température DHT</t>
+  </si>
+  <si>
+    <t>Température BMP</t>
+  </si>
+  <si>
+    <t>Température RTC</t>
+  </si>
+  <si>
+    <t>Byte début</t>
+  </si>
+  <si>
+    <t>byte fin</t>
+  </si>
+  <si>
+    <t>brut</t>
+  </si>
+  <si>
+    <t>décimal</t>
+  </si>
+  <si>
+    <t>traduit</t>
+  </si>
+  <si>
+    <t>Temp Batterie</t>
+  </si>
+  <si>
+    <t>Voltage Batterie</t>
+  </si>
+  <si>
+    <t>Température</t>
+  </si>
+  <si>
+    <t>Décodage</t>
+  </si>
+  <si>
+    <t>Message :</t>
+  </si>
+  <si>
+    <t>Codage</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>transformé</t>
+  </si>
+  <si>
+    <t>Hexa</t>
+  </si>
+  <si>
+    <t>Sur 4 bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message codé : </t>
+  </si>
+  <si>
+    <t>00F005460140027B032002892A300BB8006402BC000000000000002503E8</t>
+  </si>
+  <si>
+    <t>Sensor + I²C to Nano</t>
+  </si>
+  <si>
+    <t>+3,3V</t>
+  </si>
+  <si>
+    <t>RTC/BH1745</t>
+  </si>
+  <si>
+    <t>Signal DHT22</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
 </sst>
 </file>
 
@@ -943,9 +942,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,8 +1070,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,8 +1124,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1426,15 +1474,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1560,14 +1629,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1575,14 +1642,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutre" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{8224FC39-9A96-4EC5-882B-B0053D1383BC}"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
+    <cellStyle name="Satisfaisant" xfId="5" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14543,16 +14647,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14567,10 +14671,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7612380" y="327660"/>
-          <a:ext cx="1577340" cy="3002280"/>
-          <a:chOff x="487680" y="266700"/>
-          <a:chExt cx="1577340" cy="3002280"/>
+          <a:off x="6096000" y="137160"/>
+          <a:ext cx="1645920" cy="3489960"/>
+          <a:chOff x="342900" y="562200"/>
+          <a:chExt cx="1645920" cy="2706780"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -14586,8 +14690,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="487680" y="266700"/>
-            <a:ext cx="1577340" cy="510540"/>
+            <a:off x="342900" y="562200"/>
+            <a:ext cx="1645920" cy="437340"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -14622,14 +14726,14 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:rPr lang="fr-FR" sz="1400"/>
               <a:t>Comment</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+              <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
               <a:t> son numéroter les pins :</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1100"/>
+            <a:endParaRPr lang="fr-FR" sz="1400"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -15010,30 +15114,25 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100244</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>177665</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>61940</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191721</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 9">
+        <xdr:cNvPr id="13" name="ZoneTexte 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377DB948-6A07-4F5D-944F-F9328A8C7D45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3406AF69-30CE-45B7-BDCE-8E0A57D089A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15041,7 +15140,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9853844" y="0"/>
+          <a:off x="6080760" y="3749040"/>
           <a:ext cx="3125421" cy="1765234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15124,10 +15223,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856D0056-41D8-4CF2-A2F8-C452D57DA6B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="3017520"/>
+          <a:ext cx="1943100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800"/>
+            <a:t>Vers design carte</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17840,7 +18004,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17917,7 +18081,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18364,1501 +18528,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
-  <dimension ref="B2:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD938B0-AAD0-4704-8E5E-161EFEAC2362}">
+  <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="61"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="64">
+        <f>SUM(D5:D19)</f>
+        <v>487.51</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="64">
+        <f>SUM(J5:J19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1">
+        <v>163.81</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.69</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40.76</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="1">
+        <v>57</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>164</v>
-      </c>
+      <c r="D19" s="1">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
-  <dimension ref="A2:S58"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>3.84</v>
-      </c>
-      <c r="B3" s="9">
-        <f>A3*1023/5</f>
-        <v>785.66399999999999</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3.99</v>
-      </c>
-      <c r="E3" s="11">
-        <f>D3*1024/5</f>
-        <v>817.15200000000004</v>
-      </c>
-      <c r="F3" s="12">
-        <f>ABS(D3-A3)/A3</f>
-        <v>3.9062500000000097E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H18" si="0">INT(C3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="str">
-        <f>CONCATENATE(D20,",""", R3, """")</f>
-        <v>,"N"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1.98</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" ref="B4:B17" si="1">A4*1023/5</f>
-        <v>405.108</v>
-      </c>
-      <c r="C4" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2.06</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E18" si="2">D4*1024/5</f>
-        <v>421.88800000000003</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F18" si="3">ABS(D4-A4)/A4</f>
-        <v>4.0404040404040442E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, </v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="str">
-        <f>CONCATENATE(S3,",""", R4, """")</f>
-        <v>,"N","NNE"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="1"/>
-        <v>460.35</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
-        <v>479.23199999999997</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999938E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
-        <v>,"N","NNE","NE"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>0.41</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" si="1"/>
-        <v>83.885999999999996</v>
-      </c>
-      <c r="C6" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
-        <v>86.015999999999991</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="3"/>
-        <v>2.4390243902439046E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6" si="5">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="1"/>
-        <v>92.070000000000007</v>
-      </c>
-      <c r="C7" s="9">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
-        <v>95.231999999999999</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333361E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="1"/>
-        <v>65.472000000000008</v>
-      </c>
-      <c r="C8" s="9">
-        <v>112.5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" ref="J8" si="6">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
-      </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="B9" s="9">
-        <f t="shared" si="1"/>
-        <v>184.14000000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>135</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>190.464</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333361E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="1"/>
-        <v>126.852</v>
-      </c>
-      <c r="C10" s="9">
-        <v>157.5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
-        <v>131.072</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129059E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" ref="J10" si="7">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
-      </c>
-      <c r="R10" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="B11" s="9">
-        <f t="shared" si="1"/>
-        <v>286.43999999999994</v>
-      </c>
-      <c r="C11" s="9">
-        <v>180</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>296.95999999999998</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285747E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="R11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="B12" s="9">
-        <f t="shared" si="1"/>
-        <v>243.47399999999999</v>
-      </c>
-      <c r="C12" s="9">
-        <v>202.5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>251.904</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3613445378151294E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" ref="J12" si="8">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
-      </c>
-      <c r="R12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3.08</v>
-      </c>
-      <c r="B13" s="9">
-        <f t="shared" si="1"/>
-        <v>630.16800000000001</v>
-      </c>
-      <c r="C13" s="9">
-        <v>225</v>
-      </c>
-      <c r="D13" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="2"/>
-        <v>655.36</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>3.8961038961038995E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="R13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>2.93</v>
-      </c>
-      <c r="B14" s="9">
-        <f t="shared" si="1"/>
-        <v>599.47800000000007</v>
-      </c>
-      <c r="C14" s="9">
-        <v>247.5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3.04</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="2"/>
-        <v>622.59199999999998</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>3.754266211604091E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" ref="J14" si="9">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
-      </c>
-      <c r="R14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="B15" s="9">
-        <f t="shared" si="1"/>
-        <v>945.25200000000007</v>
-      </c>
-      <c r="C15" s="9">
-        <v>270</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4.79</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="2"/>
-        <v>980.99199999999996</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>3.6796536796536779E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="R15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4.04</v>
-      </c>
-      <c r="B16" s="9">
-        <f t="shared" si="1"/>
-        <v>826.58400000000006</v>
-      </c>
-      <c r="C16" s="9">
-        <v>292.5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="2"/>
-        <v>860.16000000000008</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9603960396039639E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16" si="10">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
-      </c>
-      <c r="R16" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>4.33</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" si="1"/>
-        <v>885.91800000000001</v>
-      </c>
-      <c r="C17" s="9">
-        <v>315</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="2"/>
-        <v>921.6</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9260969976905293E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="R17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>3.43</v>
-      </c>
-      <c r="B18" s="9">
-        <f>A18*1023/5</f>
-        <v>701.77800000000002</v>
-      </c>
-      <c r="C18" s="9">
-        <v>337.5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>3.57</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="2"/>
-        <v>731.13599999999997</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>4.0816326530612151E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>337</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" ref="J18" si="11">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
-      </c>
-      <c r="R18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW","NNW"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="9">
-        <v>360</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>65.471999999999994</v>
-      </c>
-      <c r="B22" s="7">
-        <v>115</v>
-      </c>
-      <c r="D22">
-        <f>(A23+A22)/2</f>
-        <v>74.679000000000002</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D22,0), ") return(", ROUND(B22, 1), ");")</f>
-        <v>if (WindAnalog &lt; 75) return(115);</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
-        <v>if(WindAngle &lt; 5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>83.885999999999996</v>
-      </c>
-      <c r="B23" s="7">
-        <v>70</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23">
-        <f t="shared" ref="D23:D37" si="12">(A24+A23)/2</f>
-        <v>87.978000000000009</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D23,0), ") return(", ROUND(B23, 1), ");")</f>
-        <v>if (WindAnalog &lt; 88) return(70);</v>
-      </c>
-      <c r="K23">
-        <v>22.5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
-        <v>if(WindAngle &lt; 27,5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>92.070000000000007</v>
-      </c>
-      <c r="B24" s="7">
-        <v>90</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24">
-        <f t="shared" si="12"/>
-        <v>109.46100000000001</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="str">
-        <f t="shared" ref="G24:G37" si="14">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
-        <v>if (WindAnalog &lt; 109) return(90);</v>
-      </c>
-      <c r="K24">
-        <v>45</v>
-      </c>
-      <c r="M24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>126.852</v>
-      </c>
-      <c r="B25" s="7">
-        <v>160</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25">
-        <f t="shared" si="12"/>
-        <v>155.49600000000001</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 155) return(160);</v>
-      </c>
-      <c r="K25">
-        <v>67.5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 72,5) return("Est");</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>184.14000000000001</v>
-      </c>
-      <c r="B26" s="7">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26">
-        <f t="shared" si="12"/>
-        <v>213.80700000000002</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 214) return(135);</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="M26" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 95) return("Est");</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>243.47399999999999</v>
-      </c>
-      <c r="B27" s="7">
-        <v>200</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27">
-        <f t="shared" si="12"/>
-        <v>264.95699999999999</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 265) return(200);</v>
-      </c>
-      <c r="K27">
-        <v>112.5</v>
-      </c>
-      <c r="M27" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 117,5) return("Est");</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>286.43999999999994</v>
-      </c>
-      <c r="B28" s="7">
-        <v>180</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28">
-        <f t="shared" si="12"/>
-        <v>345.774</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 346) return(180);</v>
-      </c>
-      <c r="K28">
-        <v>135</v>
-      </c>
-      <c r="M28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>405.108</v>
-      </c>
-      <c r="B29" s="7">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29">
-        <f t="shared" si="12"/>
-        <v>432.72900000000004</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 433) return(20);</v>
-      </c>
-      <c r="K29">
-        <v>157.5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 162,5) return("Sud");</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>460.35</v>
-      </c>
-      <c r="B30" s="7">
-        <v>45</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30">
-        <f t="shared" si="12"/>
-        <v>529.91399999999999</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 530) return(45);</v>
-      </c>
-      <c r="K30">
-        <v>180</v>
-      </c>
-      <c r="M30" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 185) return("Sud");</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>599.47800000000007</v>
-      </c>
-      <c r="B31" s="7">
-        <v>250</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31">
-        <f t="shared" si="12"/>
-        <v>614.82300000000009</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 615) return(250);</v>
-      </c>
-      <c r="K31">
-        <v>202.5</v>
-      </c>
-      <c r="M31" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 207,5) return("Sud");</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>630.16800000000001</v>
-      </c>
-      <c r="B32" s="7">
-        <v>225</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32">
-        <f t="shared" si="12"/>
-        <v>665.97299999999996</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 666) return(225);</v>
-      </c>
-      <c r="K32">
-        <v>225</v>
-      </c>
-      <c r="M32" t="s">
-        <v>67</v>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>701.77800000000002</v>
-      </c>
-      <c r="B33" s="7">
-        <v>340</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33">
-        <f t="shared" si="12"/>
-        <v>743.721</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 744) return(340);</v>
-      </c>
-      <c r="K33">
-        <v>247.5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>785.66399999999999</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34">
-        <f t="shared" si="12"/>
-        <v>806.12400000000002</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 806) return(0);</v>
-      </c>
-      <c r="K34">
-        <v>270</v>
-      </c>
-      <c r="M34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 275) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>826.58400000000006</v>
-      </c>
-      <c r="B35" s="7">
-        <v>290</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35">
-        <f t="shared" si="12"/>
-        <v>856.25099999999998</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 856) return(290);</v>
-      </c>
-      <c r="K35">
-        <v>292.5</v>
-      </c>
-      <c r="M35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>885.91800000000001</v>
-      </c>
-      <c r="B36" s="7">
-        <v>315</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36">
-        <f t="shared" si="12"/>
-        <v>915.58500000000004</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 916) return(315);</v>
-      </c>
-      <c r="K36">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s">
-        <v>69</v>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>945.25200000000007</v>
-      </c>
-      <c r="B37" s="7">
-        <v>270</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37">
-        <f t="shared" si="12"/>
-        <v>984.12599999999998</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 984) return(270);</v>
-      </c>
-      <c r="K37">
-        <v>337.5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 342,5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>65.536000000000001</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ref="B43:B57" si="15">(A43+A44)/2</f>
-        <v>75.775999999999996</v>
-      </c>
-      <c r="C43" s="7">
-        <v>112.5</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B43,0), ") return(", ROUND(C43, 1), ");")</f>
-        <v>if (WindAnalog &lt; 76) return(112,5);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>86.015999999999991</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="15"/>
-        <v>90.623999999999995</v>
-      </c>
-      <c r="C44" s="7">
-        <v>67.5</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="str">
-        <f t="shared" ref="G44:G58" si="16">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
-        <v>if (WindAnalog &lt; 91) return(67,5);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>95.231999999999999</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="15"/>
-        <v>113.152</v>
-      </c>
-      <c r="C45" s="7">
-        <v>90</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 113) return(90);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>131.072</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="15"/>
-        <v>160.768</v>
-      </c>
-      <c r="C46" s="7">
-        <v>157.5</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 161) return(157,5);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>190.464</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="15"/>
-        <v>221.184</v>
-      </c>
-      <c r="C47" s="7">
-        <v>135</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 221) return(135);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>251.904</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="15"/>
-        <v>274.43200000000002</v>
-      </c>
-      <c r="C48" s="7">
-        <v>202.5</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 274) return(202,5);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>296.95999999999998</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="15"/>
-        <v>359.42399999999998</v>
-      </c>
-      <c r="C49" s="7">
-        <v>180</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 359) return(180);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>421.88800000000003</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="15"/>
-        <v>450.56</v>
-      </c>
-      <c r="C50" s="7">
-        <v>22.5</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 451) return(22,5);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>479.23199999999997</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="15"/>
-        <v>550.91200000000003</v>
-      </c>
-      <c r="C51" s="7">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 551) return(45);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>622.59199999999998</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="15"/>
-        <v>638.976</v>
-      </c>
-      <c r="C52" s="7">
-        <v>247.5</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 639) return(247,5);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>655.36</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="15"/>
-        <v>693.24800000000005</v>
-      </c>
-      <c r="C53" s="7">
-        <v>225</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 693) return(225);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>731.13599999999997</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="15"/>
-        <v>774.14400000000001</v>
-      </c>
-      <c r="C54" s="7">
-        <v>337.5</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 774) return(337,5);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>817.15200000000004</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="15"/>
-        <v>838.65600000000006</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 839) return(0);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>860.16000000000008</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="15"/>
-        <v>890.88000000000011</v>
-      </c>
-      <c r="C56" s="7">
-        <v>292.5</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 891) return(292,5);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>921.6</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="15"/>
-        <v>951.29600000000005</v>
-      </c>
-      <c r="C57" s="7">
-        <v>315</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 951) return(315);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>980.99199999999996</v>
-      </c>
-      <c r="B58">
-        <v>1023</v>
-      </c>
-      <c r="C58" s="7">
-        <v>270</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 1023) return(270);</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B58">
-    <sortCondition ref="A43:A58"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -20305,7 +19257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEA360-918D-49DA-A94F-EC74570144D0}">
   <dimension ref="A1:R242"/>
   <sheetViews>
@@ -29527,289 +28479,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD938B0-AAD0-4704-8E5E-161EFEAC2362}">
-  <dimension ref="B1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="61"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="64">
-        <f>SUM(D5:D19)</f>
-        <v>487.51</v>
-      </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="64">
-        <f>SUM(J5:J19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="1">
-        <v>163.81</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.72</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.69</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.35</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40.76</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8.99</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8.02</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="1">
-        <v>57</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="1">
-        <v>144</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A01A1-7AB8-40C2-A8AE-985E0D56E443}">
   <dimension ref="A1:X367"/>
   <sheetViews>
@@ -29835,10 +28504,10 @@
         <v>76</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
@@ -29873,25 +28542,25 @@
         <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="L3" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="M3" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="N3" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -29913,15 +28582,15 @@
         <v>21</v>
       </c>
       <c r="L4" s="6">
-        <f>-((K4-0)*(K4-24))^2/(144^2)</f>
+        <f t="shared" ref="L4:L27" si="0">-((K4-0)*(K4-24))^2/(144^2)</f>
         <v>0.19140625</v>
       </c>
       <c r="M4" s="7">
-        <f>B$21/N$2*L4*M$2*1000</f>
+        <f t="shared" ref="M4:M27" si="1">B$21/N$2*L4*M$2*1000</f>
         <v>68.906249999999986</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N27" si="0">B$11</f>
+        <f t="shared" ref="N4:N27" si="2">B$11</f>
         <v>100.22222222222223</v>
       </c>
       <c r="O4" s="7">
@@ -29936,7 +28605,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -29959,15 +28628,15 @@
         <v>22</v>
       </c>
       <c r="L5" s="6">
-        <f>-((K5-0)*(K5-24))^2/(144^2)</f>
+        <f t="shared" si="0"/>
         <v>9.3364197530864196E-2</v>
       </c>
       <c r="M5" s="7">
-        <f>B$21/N$2*L5*M$2*1000</f>
+        <f t="shared" si="1"/>
         <v>33.611111111111107</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O5" s="7">
@@ -29975,14 +28644,14 @@
         <v>2968.6840277777778</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" ref="P5:P27" si="1">MAX(0, MIN(O5,O$4))</f>
+        <f t="shared" ref="P5:P27" si="3">MAX(0, MIN(O5,O$4))</f>
         <v>2968.6840277777778</v>
       </c>
       <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>80</v>
@@ -30001,27 +28670,27 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K27" si="2">MOD(K5+1,24)</f>
+        <f t="shared" ref="K6:K27" si="4">MOD(K5+1,24)</f>
         <v>23</v>
       </c>
       <c r="L6" s="6">
-        <f>-((K6-0)*(K6-24))^2/(144^2)</f>
+        <f t="shared" si="0"/>
         <v>2.5511188271604937E-2</v>
       </c>
       <c r="M6" s="7">
-        <f>B$21/N$2*L6*M$2*1000</f>
+        <f t="shared" si="1"/>
         <v>9.1840277777777768</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" ref="O6:O27" si="3">O5-N5+M5</f>
+        <f t="shared" ref="O6:O27" si="5">O5-N5+M5</f>
         <v>2902.072916666667</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2902.072916666667</v>
       </c>
       <c r="X6" s="73"/>
@@ -30029,65 +28698,65 @@
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F7" s="6"/>
       <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <f>-((K7-0)*(K7-24))^2/(144^2)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <f>B$21/N$2*L7*M$2*1000</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O7" s="7">
+        <f t="shared" si="5"/>
+        <v>2811.0347222222226</v>
+      </c>
+      <c r="P7" s="7">
         <f t="shared" si="3"/>
         <v>2811.0347222222226</v>
       </c>
-      <c r="P7" s="7">
-        <f t="shared" si="1"/>
-        <v>2811.0347222222226</v>
-      </c>
       <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F8" s="6">
-        <f t="shared" ref="F8" si="4">(E8*D8)/3600</f>
+        <f t="shared" ref="F8" si="6">(E8*D8)/3600</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5511188271604937E-2</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="1"/>
+        <v>9.1840277777777768</v>
+      </c>
+      <c r="N8" s="7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <f>-((K8-0)*(K8-24))^2/(144^2)</f>
-        <v>2.5511188271604937E-2</v>
-      </c>
-      <c r="M8" s="7">
-        <f>B$21/N$2*L8*M$2*1000</f>
-        <v>9.1840277777777768</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O8" s="7">
+        <f t="shared" si="5"/>
+        <v>2710.8125000000005</v>
+      </c>
+      <c r="P8" s="7">
         <f t="shared" si="3"/>
         <v>2710.8125000000005</v>
       </c>
-      <c r="P8" s="7">
-        <f t="shared" si="1"/>
-        <v>2710.8125000000005</v>
-      </c>
       <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B9" s="60">
         <f>SUMPRODUCT(B4:B8,F4:F8)*0.1</f>
@@ -30104,115 +28773,115 @@
         <v>1</v>
       </c>
       <c r="K9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3364197530864196E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="1"/>
+        <v>33.611111111111107</v>
+      </c>
+      <c r="N9" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="6">
-        <f>-((K9-0)*(K9-24))^2/(144^2)</f>
-        <v>9.3364197530864196E-2</v>
-      </c>
-      <c r="M9" s="7">
-        <f>B$21/N$2*L9*M$2*1000</f>
-        <v>33.611111111111107</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O9" s="7">
+        <f t="shared" si="5"/>
+        <v>2619.7743055555561</v>
+      </c>
+      <c r="P9" s="7">
         <f t="shared" si="3"/>
         <v>2619.7743055555561</v>
       </c>
-      <c r="P9" s="7">
-        <f t="shared" si="1"/>
-        <v>2619.7743055555561</v>
-      </c>
       <c r="X9" s="73"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19140625</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="1"/>
+        <v>68.906249999999986</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L10" s="6">
-        <f>-((K10-0)*(K10-24))^2/(144^2)</f>
-        <v>0.19140625</v>
-      </c>
-      <c r="M10" s="7">
-        <f>B$21/N$2*L10*M$2*1000</f>
-        <v>68.906249999999986</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O10" s="7">
+        <f t="shared" si="5"/>
+        <v>2553.1631944444453</v>
+      </c>
+      <c r="P10" s="7">
         <f t="shared" si="3"/>
         <v>2553.1631944444453</v>
       </c>
-      <c r="P10" s="7">
-        <f t="shared" si="1"/>
-        <v>2553.1631944444453</v>
-      </c>
       <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="B11" s="60">
         <f>SUMPRODUCT(B4:B9,F4:F9)</f>
         <v>100.22222222222223</v>
       </c>
       <c r="K11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="1"/>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L11" s="6">
-        <f>-((K11-0)*(K11-24))^2/(144^2)</f>
-        <v>0.30864197530864196</v>
-      </c>
-      <c r="M11" s="7">
-        <f>B$21/N$2*L11*M$2*1000</f>
-        <v>111.1111111111111</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O11" s="7">
+        <f t="shared" si="5"/>
+        <v>2521.8472222222231</v>
+      </c>
+      <c r="P11" s="7">
         <f t="shared" si="3"/>
         <v>2521.8472222222231</v>
       </c>
-      <c r="P11" s="7">
-        <f t="shared" si="1"/>
-        <v>2521.8472222222231</v>
-      </c>
       <c r="X11" s="73"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K12">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43523341049382713</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="1"/>
+        <v>156.68402777777777</v>
+      </c>
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="6">
-        <f>-((K12-0)*(K12-24))^2/(144^2)</f>
-        <v>0.43523341049382713</v>
-      </c>
-      <c r="M12" s="7">
-        <f>B$21/N$2*L12*M$2*1000</f>
-        <v>156.68402777777777</v>
-      </c>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O12" s="7">
+        <f t="shared" si="5"/>
+        <v>2532.7361111111122</v>
+      </c>
+      <c r="P12" s="7">
         <f t="shared" si="3"/>
-        <v>2532.7361111111122</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="1"/>
         <v>2532.7361111111122</v>
       </c>
       <c r="X12" s="73"/>
@@ -30234,27 +28903,27 @@
         <v>91</v>
       </c>
       <c r="K13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="1"/>
+        <v>202.49999999999997</v>
+      </c>
+      <c r="N13" s="7">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L13" s="6">
-        <f>-((K13-0)*(K13-24))^2/(144^2)</f>
-        <v>0.5625</v>
-      </c>
-      <c r="M13" s="7">
-        <f>B$21/N$2*L13*M$2*1000</f>
-        <v>202.49999999999997</v>
-      </c>
-      <c r="N13" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O13" s="7">
+        <f t="shared" si="5"/>
+        <v>2589.1979166666679</v>
+      </c>
+      <c r="P13" s="7">
         <f t="shared" si="3"/>
-        <v>2589.1979166666679</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="1"/>
         <v>2589.1979166666679</v>
       </c>
       <c r="X13" s="73"/>
@@ -30277,135 +28946,135 @@
         <v>54</v>
       </c>
       <c r="K14">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68291859567901236</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="1"/>
+        <v>245.85069444444443</v>
+      </c>
+      <c r="N14" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L14" s="6">
-        <f>-((K14-0)*(K14-24))^2/(144^2)</f>
-        <v>0.68291859567901236</v>
-      </c>
-      <c r="M14" s="7">
-        <f>B$21/N$2*L14*M$2*1000</f>
-        <v>245.85069444444443</v>
-      </c>
-      <c r="N14" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O14" s="7">
+        <f t="shared" si="5"/>
+        <v>2691.4756944444457</v>
+      </c>
+      <c r="P14" s="7">
         <f t="shared" si="3"/>
         <v>2691.4756944444457</v>
       </c>
-      <c r="P14" s="7">
-        <f t="shared" si="1"/>
-        <v>2691.4756944444457</v>
-      </c>
       <c r="X14" s="73"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="1"/>
+        <v>284.4444444444444</v>
+      </c>
+      <c r="N15" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L15" s="6">
-        <f>-((K15-0)*(K15-24))^2/(144^2)</f>
-        <v>0.79012345679012341</v>
-      </c>
-      <c r="M15" s="7">
-        <f>B$21/N$2*L15*M$2*1000</f>
-        <v>284.4444444444444</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O15" s="7">
+        <f t="shared" si="5"/>
+        <v>2837.1041666666679</v>
+      </c>
+      <c r="P15" s="7">
         <f t="shared" si="3"/>
         <v>2837.1041666666679</v>
       </c>
-      <c r="P15" s="7">
-        <f t="shared" si="1"/>
-        <v>2837.1041666666679</v>
-      </c>
       <c r="X15" s="73"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K16">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.87890625</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="1"/>
+        <v>316.40625</v>
+      </c>
+      <c r="N16" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="L16" s="6">
-        <f>-((K16-0)*(K16-24))^2/(144^2)</f>
-        <v>0.87890625</v>
-      </c>
-      <c r="M16" s="7">
-        <f>B$21/N$2*L16*M$2*1000</f>
-        <v>316.40625</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O16" s="7">
+        <f t="shared" si="5"/>
+        <v>3021.3263888888901</v>
+      </c>
+      <c r="P16" s="7">
         <f t="shared" si="3"/>
-        <v>3021.3263888888901</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X16" s="73"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K17">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94521604938271608</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="1"/>
+        <v>340.27777777777777</v>
+      </c>
+      <c r="N17" s="7">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="L17" s="6">
-        <f>-((K17-0)*(K17-24))^2/(144^2)</f>
-        <v>0.94521604938271608</v>
-      </c>
-      <c r="M17" s="7">
-        <f>B$21/N$2*L17*M$2*1000</f>
-        <v>340.27777777777777</v>
-      </c>
-      <c r="N17" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O17" s="7">
+        <f t="shared" si="5"/>
+        <v>3237.5104166666679</v>
+      </c>
+      <c r="P17" s="7">
         <f t="shared" si="3"/>
-        <v>3237.5104166666679</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X17" s="73"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K18">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98615933641975306</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="1"/>
+        <v>355.01736111111103</v>
+      </c>
+      <c r="N18" s="7">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="L18" s="6">
-        <f>-((K18-0)*(K18-24))^2/(144^2)</f>
-        <v>0.98615933641975306</v>
-      </c>
-      <c r="M18" s="7">
-        <f>B$21/N$2*L18*M$2*1000</f>
-        <v>355.01736111111103</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O18" s="7">
+        <f t="shared" si="5"/>
+        <v>3477.5659722222235</v>
+      </c>
+      <c r="P18" s="7">
         <f t="shared" si="3"/>
-        <v>3477.5659722222235</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X18" s="73"/>
@@ -30415,27 +29084,27 @@
         <v>79</v>
       </c>
       <c r="K19">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="N19" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="L19" s="6">
-        <f>-((K19-0)*(K19-24))^2/(144^2)</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
-        <f>B$21/N$2*L19*M$2*1000</f>
-        <v>360</v>
-      </c>
-      <c r="N19" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O19" s="7">
+        <f t="shared" si="5"/>
+        <v>3732.3611111111122</v>
+      </c>
+      <c r="P19" s="7">
         <f t="shared" si="3"/>
-        <v>3732.3611111111122</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X19" s="73"/>
@@ -30451,27 +29120,27 @@
         <v>90</v>
       </c>
       <c r="K20">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98615933641975306</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="1"/>
+        <v>355.01736111111103</v>
+      </c>
+      <c r="N20" s="7">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="L20" s="6">
-        <f>-((K20-0)*(K20-24))^2/(144^2)</f>
-        <v>0.98615933641975306</v>
-      </c>
-      <c r="M20" s="7">
-        <f>B$21/N$2*L20*M$2*1000</f>
-        <v>355.01736111111103</v>
-      </c>
-      <c r="N20" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O20" s="7">
+        <f t="shared" si="5"/>
+        <v>3992.1388888888901</v>
+      </c>
+      <c r="P20" s="7">
         <f t="shared" si="3"/>
-        <v>3992.1388888888901</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X20" s="73"/>
@@ -30491,251 +29160,251 @@
         <v>129.6</v>
       </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.94521604938271608</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="1"/>
+        <v>340.27777777777777</v>
+      </c>
+      <c r="N21" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L21" s="6">
-        <f>-((K21-0)*(K21-24))^2/(144^2)</f>
-        <v>0.94521604938271608</v>
-      </c>
-      <c r="M21" s="7">
-        <f>B$21/N$2*L21*M$2*1000</f>
-        <v>340.27777777777777</v>
-      </c>
-      <c r="N21" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O21" s="7">
+        <f t="shared" si="5"/>
+        <v>4246.9340277777792</v>
+      </c>
+      <c r="P21" s="7">
         <f t="shared" si="3"/>
-        <v>4246.9340277777792</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X21" s="73"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.87890625</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="1"/>
+        <v>316.40625</v>
+      </c>
+      <c r="N22" s="7">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="L22" s="6">
-        <f>-((K22-0)*(K22-24))^2/(144^2)</f>
-        <v>0.87890625</v>
-      </c>
-      <c r="M22" s="7">
-        <f>B$21/N$2*L22*M$2*1000</f>
-        <v>316.40625</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O22" s="7">
+        <f t="shared" si="5"/>
+        <v>4486.9895833333339</v>
+      </c>
+      <c r="P22" s="7">
         <f t="shared" si="3"/>
-        <v>4486.9895833333339</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X22" s="73"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="1"/>
+        <v>284.4444444444444</v>
+      </c>
+      <c r="N23" s="7">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="L23" s="6">
-        <f>-((K23-0)*(K23-24))^2/(144^2)</f>
-        <v>0.79012345679012341</v>
-      </c>
-      <c r="M23" s="7">
-        <f>B$21/N$2*L23*M$2*1000</f>
-        <v>284.4444444444444</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O23" s="7">
+        <f t="shared" si="5"/>
+        <v>4703.1736111111113</v>
+      </c>
+      <c r="P23" s="7">
         <f t="shared" si="3"/>
-        <v>4703.1736111111113</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X23" s="73"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68291859567901236</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="1"/>
+        <v>245.85069444444443</v>
+      </c>
+      <c r="N24" s="7">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L24" s="6">
-        <f>-((K24-0)*(K24-24))^2/(144^2)</f>
-        <v>0.68291859567901236</v>
-      </c>
-      <c r="M24" s="7">
-        <f>B$21/N$2*L24*M$2*1000</f>
-        <v>245.85069444444443</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O24" s="7">
+        <f t="shared" si="5"/>
+        <v>4887.395833333333</v>
+      </c>
+      <c r="P24" s="7">
         <f t="shared" si="3"/>
-        <v>4887.395833333333</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X24" s="73"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="1"/>
+        <v>202.49999999999997</v>
+      </c>
+      <c r="N25" s="7">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="L25" s="6">
-        <f>-((K25-0)*(K25-24))^2/(144^2)</f>
-        <v>0.5625</v>
-      </c>
-      <c r="M25" s="7">
-        <f>B$21/N$2*L25*M$2*1000</f>
-        <v>202.49999999999997</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O25" s="7">
+        <f t="shared" si="5"/>
+        <v>5033.0243055555547</v>
+      </c>
+      <c r="P25" s="7">
         <f t="shared" si="3"/>
-        <v>5033.0243055555547</v>
-      </c>
-      <c r="P25" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X25" s="73"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43523341049382713</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="1"/>
+        <v>156.68402777777777</v>
+      </c>
+      <c r="N26" s="7">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L26" s="6">
-        <f>-((K26-0)*(K26-24))^2/(144^2)</f>
-        <v>0.43523341049382713</v>
-      </c>
-      <c r="M26" s="7">
-        <f>B$21/N$2*L26*M$2*1000</f>
-        <v>156.68402777777777</v>
-      </c>
-      <c r="N26" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O26" s="7">
+        <f t="shared" si="5"/>
+        <v>5135.3020833333321</v>
+      </c>
+      <c r="P26" s="7">
         <f t="shared" si="3"/>
-        <v>5135.3020833333321</v>
-      </c>
-      <c r="P26" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27" s="80">
+        <v>237</v>
+      </c>
+      <c r="B27" s="75">
         <f>B11/1000*C4/1000</f>
         <v>5.0111111111111114E-4</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="1"/>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="N27" s="7">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="L27" s="6">
-        <f>-((K27-0)*(K27-24))^2/(144^2)</f>
-        <v>0.30864197530864196</v>
-      </c>
-      <c r="M27" s="7">
-        <f>B$21/N$2*L27*M$2*1000</f>
-        <v>111.1111111111111</v>
-      </c>
-      <c r="N27" s="7">
-        <f t="shared" si="0"/>
         <v>100.22222222222223</v>
       </c>
       <c r="O27" s="7">
+        <f t="shared" si="5"/>
+        <v>5191.7638888888869</v>
+      </c>
+      <c r="P27" s="7">
         <f t="shared" si="3"/>
-        <v>5191.7638888888869</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="X27" s="73"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B28">
         <v>0.15459999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="X28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B29" s="60">
         <f>B28*B27</f>
         <v>7.7471777777777775E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="X29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="B30" s="60">
         <f>B29*24</f>
         <v>1.8593226666666666E-3</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="B31" s="60">
         <f>B30*365</f>
         <v>0.67865277333333329</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="X31" s="73"/>
     </row>
@@ -31754,12 +30423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31770,374 +30439,477 @@
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="72" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3">
+      <c r="F2" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="82">
+        <v>1</v>
+      </c>
+      <c r="N2" s="82"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="97"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="68">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4">
+      <c r="F3" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="68">
+        <v>2</v>
+      </c>
+      <c r="N3" s="68"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="97"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="68">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5">
+      <c r="F4" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="68">
+        <v>3</v>
+      </c>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="98"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6">
+      <c r="F5" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="68">
+        <v>4</v>
+      </c>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7">
+      <c r="F6" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="85">
+        <v>5</v>
+      </c>
+      <c r="N6" s="85"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="97"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="68">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8">
+      <c r="F7" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="82">
+        <v>1</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="98"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9">
+      <c r="F8" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="68">
+        <v>2</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10">
+      <c r="F9" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="85">
+        <v>3</v>
+      </c>
+      <c r="N9" s="87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="97"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="68">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11">
+      <c r="F10" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="97"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="68">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12">
+      <c r="F11" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="98"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13">
+      <c r="F12" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="M12" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14">
+      <c r="N12" s="82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="82">
+        <v>1</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="68">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15">
+      <c r="N13" s="86" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="97"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="68">
+        <v>2</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="97"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="68">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16">
+      <c r="F15" s="89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="98"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17">
+      <c r="F16" s="91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18">
+      <c r="F17" s="92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="97"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="68">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19">
+      <c r="F18" s="93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="97"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="68">
+        <v>3</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="97"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="68">
+        <v>4</v>
+      </c>
+      <c r="F20" s="94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="97"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="68">
+        <v>5</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="98"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85">
+        <v>6</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20">
+      <c r="F23" s="90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="97"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="68">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21">
+      <c r="F24" s="89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="98"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33">
-        <v>2</v>
+      <c r="F25" s="91" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D17:D22"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32146,11 +30918,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -32175,7 +30947,7 @@
         <v>73</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -32188,14 +30960,14 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="77" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -32208,12 +30980,12 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="77"/>
       <c r="K4" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="L4" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -32235,12 +31007,12 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -32260,12 +31032,12 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="76"/>
+      <c r="J6" s="77"/>
       <c r="K6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="L6" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -32281,7 +31053,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -32297,7 +31069,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -32474,7 +31246,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -32494,7 +31266,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -32531,7 +31303,7 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -32539,7 +31311,7 @@
         <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -32571,258 +31343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A664257A-0F67-44AC-9C68-02D0555FD849}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="10.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="76"/>
-      <c r="J3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="76"/>
-      <c r="J5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="76"/>
-      <c r="J9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="76"/>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="76"/>
-      <c r="J12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I10:I12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L28"/>
   <sheetViews>
@@ -32960,7 +31481,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
         <v>150</v>
@@ -32982,7 +31503,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
         <v>152</v>
@@ -33005,13 +31526,13 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -33022,7 +31543,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J16" s="66"/>
     </row>
@@ -33045,7 +31566,7 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -33056,13 +31577,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -33073,12 +31594,12 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:B26" si="2">C19+1</f>
@@ -33094,7 +31615,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
@@ -33105,12 +31626,12 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
@@ -33168,7 +31689,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K26" s="78"/>
     </row>
@@ -33185,7 +31706,7 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K27" s="78"/>
     </row>
@@ -33203,11 +31724,1168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="D1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(K4:K18)</f>
+        <v>00F005460140027B032002892A300BB8006402BC000000000000002503E8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <f>IF(ISBLANK(F4),0,IF(E4,(F4+40)*10,F4*10))</f>
+        <v>240</v>
+      </c>
+      <c r="H4" t="str">
+        <f>DEC2HEX(G4)</f>
+        <v>F0</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(LEN(H4)=4,H4,_xlfn.CONCAT("0",H4))</f>
+        <v>0F0</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(LEN(I4)=4,I4,_xlfn.CONCAT("0",I4))</f>
+        <v>00F0</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(LEN(J4)=4,J4,_xlfn.CONCAT("0",J4))</f>
+        <v>00F0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5">
+        <f>B4+4</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>C4+4</f>
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G18" si="0">IF(ISBLANK(F5),0,IF(E5,(F5+40)*10,F5*10))</f>
+        <v>1350</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H18" si="1">DEC2HEX(G5)</f>
+        <v>546</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:J18" si="2">IF(LEN(H5)=4,H5,_xlfn.CONCAT("0",H5))</f>
+        <v>0546</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>0546</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5" si="3">IF(LEN(J5)=4,J5,_xlfn.CONCAT("0",J5))</f>
+        <v>0546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B16" si="4">B5+4</f>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C16" si="5">C5+4</f>
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>0140</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>0140</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6" si="6">IF(LEN(J6)=4,J6,_xlfn.CONCAT("0",J6))</f>
+        <v>0140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>23.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>635</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>27B</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>027B</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>027B</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7" si="7">IF(LEN(J7)=4,J7,_xlfn.CONCAT("0",J7))</f>
+        <v>027B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>0320</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>0320</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ref="K8" si="8">IF(LEN(J8)=4,J8,_xlfn.CONCAT("0",J8))</f>
+        <v>0320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>24.9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>649</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>0289</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>0289</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9" si="9">IF(LEN(J9)=4,J9,_xlfn.CONCAT("0",J9))</f>
+        <v>0289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1080</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>2A30</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>2A30</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>2A30</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10" si="10">IF(LEN(J10)=4,J10,_xlfn.CONCAT("0",J10))</f>
+        <v>2A30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>BB8</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>0BB8</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>0BB8</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ref="K11" si="11">IF(LEN(J11)=4,J11,_xlfn.CONCAT("0",J11))</f>
+        <v>0BB8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>064</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>0064</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12" si="12">IF(LEN(J12)=4,J12,_xlfn.CONCAT("0",J12))</f>
+        <v>0064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>2BC</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>02BC</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>02BC</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13" si="13">IF(LEN(J13)=4,J13,_xlfn.CONCAT("0",J13))</f>
+        <v>02BC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>IF(ISBLANK(F14),0,IF(E14,(F14+40)*10,F14*10))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ref="K14" si="14">IF(LEN(J14)=4,J14,_xlfn.CONCAT("0",J14))</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ref="K15" si="15">IF(LEN(J15)=4,J15,_xlfn.CONCAT("0",J15))</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>000</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16" si="16">IF(LEN(J16)=4,J16,_xlfn.CONCAT("0",J16))</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17">
+        <f>B16+4</f>
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <f>C16+4</f>
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3.7</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>025</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>0025</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17" si="17">IF(LEN(J17)=4,J17,_xlfn.CONCAT("0",J17))</f>
+        <v>0025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18">
+        <f>B17+4</f>
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <f>C17+4</f>
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>3E8</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>03E8</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>03E8</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ref="K18" si="18">IF(LEN(J18)=4,J18,_xlfn.CONCAT("0",J18))</f>
+        <v>03E8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A22" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>MID(D$22,B25+1,4)</f>
+        <v>00F0</v>
+      </c>
+      <c r="G25">
+        <f>HEX2DEC(F25)</f>
+        <v>240</v>
+      </c>
+      <c r="H25">
+        <f>IF('Codage-décodage Radio'!E25,'Codage-décodage Radio'!G25/10-40,'Codage-décodage Radio'!G25/10)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26">
+        <f>B25+4</f>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>C25+4</f>
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f>MID(D$22,B26+1,4)</f>
+        <v>0546</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G39" si="19">HEX2DEC(F26)</f>
+        <v>1350</v>
+      </c>
+      <c r="H26">
+        <f>IF('Codage-décodage Radio'!E26,'Codage-décodage Radio'!G26/10-40,'Codage-décodage Radio'!G26/10)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B37" si="20">B26+4</f>
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C37" si="21">C26+4</f>
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>MID(D$22,B27+1,4)</f>
+        <v>0140</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>320</v>
+      </c>
+      <c r="H27">
+        <f>IF('Codage-décodage Radio'!E27,'Codage-décodage Radio'!G27/10-40,'Codage-décodage Radio'!G27/10)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f>MID(D$22,B28+1,4)</f>
+        <v>027B</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="19"/>
+        <v>635</v>
+      </c>
+      <c r="H28">
+        <f>IF('Codage-décodage Radio'!E28,'Codage-décodage Radio'!G28/10-40,'Codage-décodage Radio'!G28/10)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <f>MID(D$22,B29+1,4)</f>
+        <v>0320</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="19"/>
+        <v>800</v>
+      </c>
+      <c r="H29">
+        <f>IF('Codage-décodage Radio'!E29,'Codage-décodage Radio'!G29/10-40,'Codage-décodage Radio'!G29/10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f>MID(D$22,B30+1,4)</f>
+        <v>0289</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="19"/>
+        <v>649</v>
+      </c>
+      <c r="H30">
+        <f>IF('Codage-décodage Radio'!E30,'Codage-décodage Radio'!G30/10-40,'Codage-décodage Radio'!G30/10)</f>
+        <v>24.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <f>MID(D$22,B31+1,4)</f>
+        <v>2A30</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="19"/>
+        <v>10800</v>
+      </c>
+      <c r="H31">
+        <f>IF('Codage-décodage Radio'!E31,'Codage-décodage Radio'!G31/10-40,'Codage-décodage Radio'!G31/10)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f>MID(D$22,B32+1,4)</f>
+        <v>0BB8</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="H32">
+        <f>IF('Codage-décodage Radio'!E32,'Codage-décodage Radio'!G32/10-40,'Codage-décodage Radio'!G32/10)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f>MID(D$22,B33+1,4)</f>
+        <v>0064</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <f>IF('Codage-décodage Radio'!E33,'Codage-décodage Radio'!G33/10-40,'Codage-décodage Radio'!G33/10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f>MID(D$22,B34+1,4)</f>
+        <v>02BC</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>700</v>
+      </c>
+      <c r="H34">
+        <f>IF('Codage-décodage Radio'!E34,'Codage-décodage Radio'!G34/10-40,'Codage-décodage Radio'!G34/10)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="21"/>
+        <v>43</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <f>MID(D$22,B35+1,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>IF('Codage-décodage Radio'!E35,'Codage-décodage Radio'!G35/10-40,'Codage-décodage Radio'!G35/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="20"/>
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <f>MID(D$22,B36+1,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>IF('Codage-décodage Radio'!E36,'Codage-décodage Radio'!G36/10-40,'Codage-décodage Radio'!G36/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="20"/>
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="21"/>
+        <v>51</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <f>MID(D$22,B37+1,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>IF('Codage-décodage Radio'!E37,'Codage-décodage Radio'!G37/10-40,'Codage-décodage Radio'!G37/10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38">
+        <f>B37+4</f>
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <f>C37+4</f>
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
+        <f>MID(D$22,B38+1,4)</f>
+        <v>0025</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <f>IF('Codage-décodage Radio'!E38,'Codage-décodage Radio'!G38/10-40,'Codage-décodage Radio'!G38/10)</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f>B38+4</f>
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <f>C38+4</f>
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f>MID(D$22,B39+1,4)</f>
+        <v>03E8</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="19"/>
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <f>IF('Codage-décodage Radio'!E39,'Codage-décodage Radio'!G39/10-40,'Codage-décodage Radio'!G39/10)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -33215,7 +32893,7 @@
   <sheetData>
     <row r="3" spans="10:11" ht="18" x14ac:dyDescent="0.35">
       <c r="J3" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.3">
@@ -33223,7 +32901,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.3">
@@ -33231,7 +32909,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.3">
@@ -33239,7 +32917,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.3">
@@ -33247,7 +32925,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.3">
@@ -33255,7 +32933,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -33265,7 +32943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD9B7D-59EE-42F5-ACB8-0201936EFCF0}">
   <dimension ref="A2:K26"/>
   <sheetViews>
@@ -33365,7 +33043,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.4998821529796284E-3</v>
+        <v>9.8725239675447728E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -33380,7 +33058,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>105.26446369509448</v>
+        <v>101.29122028849254</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -33392,18 +33070,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.4320947126957741E-3</v>
+        <v>7.9825393492710447E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.4320947126957741E-3</v>
+        <v>7.9825393492710447E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>5.2644636950944769E-2</v>
+        <v>1.2912202884925393E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -33412,11 +33090,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8266787342354224E-2</v>
+        <v>1.7543390421934982E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.083469262965845E-2</v>
+        <v>9.5608510726639378E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -33425,11 +33103,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0679642808107567E-2</v>
+        <v>2.9948791236490847E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.2412855465753343E-2</v>
+        <v>1.2405400814555864E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -33438,11 +33116,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8013637891385614E-2</v>
+        <v>3.731646444582977E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3339950832780471E-3</v>
+        <v>7.3676732093389229E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -33451,11 +33129,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5428559317119185E-2</v>
+        <v>5.0257121364178925E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4149214257335713E-3</v>
+        <v>1.2940656918349155E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -33464,11 +33142,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3939609325086971E-2</v>
+        <v>5.7585849620118597E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5110500079677853E-3</v>
+        <v>7.3287282559396719E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -33477,11 +33155,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3407779934978203E-2</v>
+        <v>6.727871520974564E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4681706098912327E-3</v>
+        <v>9.6928655896270435E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33490,11 +33168,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3745608014471817E-2</v>
+        <v>7.7654029130117264E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0337828079493613E-2</v>
+        <v>1.0375313920371623E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -33503,11 +33181,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.127344232308209E-2</v>
+        <v>8.7386286916993489E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5278343086102734E-3</v>
+        <v>9.732257786876225E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -33516,11 +33194,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3264180373883981E-2</v>
+        <v>0.10019951140173675</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1990738050801891E-2</v>
+        <v>1.2813224484743257E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -33529,11 +33207,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10175879213420502</v>
+        <v>0.10979410986939131</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4946117603210414E-3</v>
+        <v>9.5945984676545637E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -33542,11 +33220,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10990607574580859</v>
+        <v>0.11689786336581179</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1472836116035646E-3</v>
+        <v>7.1037534964204785E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -33555,11 +33233,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12016311351880798</v>
+        <v>0.12526162053291653</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0257037772999397E-2</v>
+        <v>8.3637571671047461E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -33568,11 +33246,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12820875187304895</v>
+        <v>0.13454997484667919</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0456383542409637E-3</v>
+        <v>9.2883543137626534E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -33581,11 +33259,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13808097480295173</v>
+        <v>0.14567955808650287</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8722229299027797E-3</v>
+        <v>1.1129583239823687E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -33594,11 +33272,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15069909363363942</v>
+        <v>0.15432656579751405</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2618118830687697E-2</v>
+        <v>8.6470077110111787E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -33607,11 +33285,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15878306165792364</v>
+        <v>0.16728822317333117</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0839680242842105E-3</v>
+        <v>1.2961657375817115E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -33620,11 +33298,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1697129607293881</v>
+        <v>0.17776426881449073</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0929899071464466E-2</v>
+        <v>1.0476045641159559E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -33633,14 +33311,1414 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18049776090661293</v>
+        <v>0.18757795538335068</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0784800177224829E-2</v>
+        <v>9.8136865688599473E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
+  <dimension ref="A2:S58"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="B3" s="9">
+        <f>A3*1023/5</f>
+        <v>785.66399999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*1024/5</f>
+        <v>817.15200000000004</v>
+      </c>
+      <c r="F3" s="12">
+        <f>ABS(D3-A3)/A3</f>
+        <v>3.9062500000000097E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H18" si="0">INT(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(D20,",""", R3, """")</f>
+        <v>,"N"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:B17" si="1">A4*1023/5</f>
+        <v>405.108</v>
+      </c>
+      <c r="C4" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E18" si="2">D4*1024/5</f>
+        <v>421.88800000000003</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F18" si="3">ABS(D4-A4)/A4</f>
+        <v>4.0404040404040442E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, </v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="str">
+        <f>CONCATENATE(S3,",""", R4, """")</f>
+        <v>,"N","NNE"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="1"/>
+        <v>460.35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="2"/>
+        <v>479.23199999999997</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999938E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
+        <v>,"N","NNE","NE"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>83.885999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="2"/>
+        <v>86.015999999999991</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="5">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="1"/>
+        <v>92.070000000000007</v>
+      </c>
+      <c r="C7" s="9">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
+        <v>95.231999999999999</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="1"/>
+        <v>65.472000000000008</v>
+      </c>
+      <c r="C8" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="6">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="1"/>
+        <v>184.14000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>135</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>190.464</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="1"/>
+        <v>126.852</v>
+      </c>
+      <c r="C10" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>131.072</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129059E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="7">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="1"/>
+        <v>286.43999999999994</v>
+      </c>
+      <c r="C11" s="9">
+        <v>180</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>296.95999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="1"/>
+        <v>243.47399999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>202.5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>251.904</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3613445378151294E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="8">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
+      </c>
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3.08</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="1"/>
+        <v>630.16800000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>225</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>655.36</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>3.8961038961038995E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="1"/>
+        <v>599.47800000000007</v>
+      </c>
+      <c r="C14" s="9">
+        <v>247.5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3.04</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>622.59199999999998</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>3.754266211604091E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14" si="9">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="1"/>
+        <v>945.25200000000007</v>
+      </c>
+      <c r="C15" s="9">
+        <v>270</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.79</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>980.99199999999996</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>3.6796536796536779E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="1"/>
+        <v>826.58400000000006</v>
+      </c>
+      <c r="C16" s="9">
+        <v>292.5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>860.16000000000008</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9603960396039639E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16" si="10">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="1"/>
+        <v>885.91800000000001</v>
+      </c>
+      <c r="C17" s="9">
+        <v>315</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="2"/>
+        <v>921.6</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9260969976905293E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="R17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="B18" s="9">
+        <f>A18*1023/5</f>
+        <v>701.77800000000002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>337.5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3.57</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="2"/>
+        <v>731.13599999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>4.0816326530612151E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18" si="11">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
+      </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW","NNW"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="9">
+        <v>360</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>65.471999999999994</v>
+      </c>
+      <c r="B22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22">
+        <f>(A23+A22)/2</f>
+        <v>74.679000000000002</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D22,0), ") return(", ROUND(B22, 1), ");")</f>
+        <v>if (WindAnalog &lt; 75) return(115);</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
+        <v>if(WindAngle &lt; 5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>83.885999999999996</v>
+      </c>
+      <c r="B23" s="7">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23">
+        <f t="shared" ref="D23:D37" si="12">(A24+A23)/2</f>
+        <v>87.978000000000009</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D23,0), ") return(", ROUND(B23, 1), ");")</f>
+        <v>if (WindAnalog &lt; 88) return(70);</v>
+      </c>
+      <c r="K23">
+        <v>22.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
+        <v>if(WindAngle &lt; 27,5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>92.070000000000007</v>
+      </c>
+      <c r="B24" s="7">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24">
+        <f t="shared" si="12"/>
+        <v>109.46100000000001</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="str">
+        <f t="shared" ref="G24:G37" si="14">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
+        <v>if (WindAnalog &lt; 109) return(90);</v>
+      </c>
+      <c r="K24">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>126.852</v>
+      </c>
+      <c r="B25" s="7">
+        <v>160</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25">
+        <f t="shared" si="12"/>
+        <v>155.49600000000001</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 155) return(160);</v>
+      </c>
+      <c r="K25">
+        <v>67.5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 72,5) return("Est");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>184.14000000000001</v>
+      </c>
+      <c r="B26" s="7">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26">
+        <f t="shared" si="12"/>
+        <v>213.80700000000002</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 214) return(135);</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 95) return("Est");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>243.47399999999999</v>
+      </c>
+      <c r="B27" s="7">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27">
+        <f t="shared" si="12"/>
+        <v>264.95699999999999</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 265) return(200);</v>
+      </c>
+      <c r="K27">
+        <v>112.5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 117,5) return("Est");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>286.43999999999994</v>
+      </c>
+      <c r="B28" s="7">
+        <v>180</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28">
+        <f t="shared" si="12"/>
+        <v>345.774</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 346) return(180);</v>
+      </c>
+      <c r="K28">
+        <v>135</v>
+      </c>
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>405.108</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29">
+        <f t="shared" si="12"/>
+        <v>432.72900000000004</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 433) return(20);</v>
+      </c>
+      <c r="K29">
+        <v>157.5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 162,5) return("Sud");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>460.35</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30">
+        <f t="shared" si="12"/>
+        <v>529.91399999999999</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 530) return(45);</v>
+      </c>
+      <c r="K30">
+        <v>180</v>
+      </c>
+      <c r="M30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 185) return("Sud");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>599.47800000000007</v>
+      </c>
+      <c r="B31" s="7">
+        <v>250</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31">
+        <f t="shared" si="12"/>
+        <v>614.82300000000009</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 615) return(250);</v>
+      </c>
+      <c r="K31">
+        <v>202.5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 207,5) return("Sud");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>630.16800000000001</v>
+      </c>
+      <c r="B32" s="7">
+        <v>225</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32">
+        <f t="shared" si="12"/>
+        <v>665.97299999999996</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 666) return(225);</v>
+      </c>
+      <c r="K32">
+        <v>225</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>701.77800000000002</v>
+      </c>
+      <c r="B33" s="7">
+        <v>340</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33">
+        <f t="shared" si="12"/>
+        <v>743.721</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 744) return(340);</v>
+      </c>
+      <c r="K33">
+        <v>247.5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>785.66399999999999</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34">
+        <f t="shared" si="12"/>
+        <v>806.12400000000002</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 806) return(0);</v>
+      </c>
+      <c r="K34">
+        <v>270</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 275) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>826.58400000000006</v>
+      </c>
+      <c r="B35" s="7">
+        <v>290</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>856.25099999999998</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 856) return(290);</v>
+      </c>
+      <c r="K35">
+        <v>292.5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>885.91800000000001</v>
+      </c>
+      <c r="B36" s="7">
+        <v>315</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36">
+        <f t="shared" si="12"/>
+        <v>915.58500000000004</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 916) return(315);</v>
+      </c>
+      <c r="K36">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="O36" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>945.25200000000007</v>
+      </c>
+      <c r="B37" s="7">
+        <v>270</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37">
+        <f t="shared" si="12"/>
+        <v>984.12599999999998</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if (WindAnalog &lt; 984) return(270);</v>
+      </c>
+      <c r="K37">
+        <v>337.5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>if(WindAngle &lt; 342,5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>65.536000000000001</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B57" si="15">(A43+A44)/2</f>
+        <v>75.775999999999996</v>
+      </c>
+      <c r="C43" s="7">
+        <v>112.5</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B43,0), ") return(", ROUND(C43, 1), ");")</f>
+        <v>if (WindAnalog &lt; 76) return(112,5);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>86.015999999999991</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="15"/>
+        <v>90.623999999999995</v>
+      </c>
+      <c r="C44" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="str">
+        <f t="shared" ref="G44:G58" si="16">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
+        <v>if (WindAnalog &lt; 91) return(67,5);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>95.231999999999999</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="15"/>
+        <v>113.152</v>
+      </c>
+      <c r="C45" s="7">
+        <v>90</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 113) return(90);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>131.072</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="15"/>
+        <v>160.768</v>
+      </c>
+      <c r="C46" s="7">
+        <v>157.5</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 161) return(157,5);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>190.464</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="15"/>
+        <v>221.184</v>
+      </c>
+      <c r="C47" s="7">
+        <v>135</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 221) return(135);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>251.904</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="15"/>
+        <v>274.43200000000002</v>
+      </c>
+      <c r="C48" s="7">
+        <v>202.5</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 274) return(202,5);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>296.95999999999998</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="15"/>
+        <v>359.42399999999998</v>
+      </c>
+      <c r="C49" s="7">
+        <v>180</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 359) return(180);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>421.88800000000003</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="15"/>
+        <v>450.56</v>
+      </c>
+      <c r="C50" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 451) return(22,5);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>479.23199999999997</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="15"/>
+        <v>550.91200000000003</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 551) return(45);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>622.59199999999998</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="15"/>
+        <v>638.976</v>
+      </c>
+      <c r="C52" s="7">
+        <v>247.5</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 639) return(247,5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>655.36</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="15"/>
+        <v>693.24800000000005</v>
+      </c>
+      <c r="C53" s="7">
+        <v>225</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 693) return(225);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>731.13599999999997</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="15"/>
+        <v>774.14400000000001</v>
+      </c>
+      <c r="C54" s="7">
+        <v>337.5</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 774) return(337,5);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>817.15200000000004</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>838.65600000000006</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 839) return(0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>860.16000000000008</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="15"/>
+        <v>890.88000000000011</v>
+      </c>
+      <c r="C56" s="7">
+        <v>292.5</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 891) return(292,5);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>921.6</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="15"/>
+        <v>951.29600000000005</v>
+      </c>
+      <c r="C57" s="7">
+        <v>315</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 951) return(315);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>980.99199999999996</v>
+      </c>
+      <c r="B58">
+        <v>1023</v>
+      </c>
+      <c r="C58" s="7">
+        <v>270</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>if (WindAnalog &lt; 1023) return(270);</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B58">
+    <sortCondition ref="A43:A58"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A77D9-CEB9-4B2C-895E-EC576C403DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A149D57-FB58-44C2-A206-CFBBE06314A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="0" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="299">
   <si>
     <t>Produit</t>
   </si>
@@ -934,6 +934,51 @@
   <si>
     <t>XXXX</t>
   </si>
+  <si>
+    <t>Couleur fil</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>jaune</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>bleu</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>carte</t>
+  </si>
+  <si>
+    <t>Noir</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Jaune</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>gris</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
 </sst>
 </file>
 
@@ -1503,7 +1548,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1630,8 +1675,40 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="7" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1645,38 +1722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="6" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="26" xfId="6" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="7" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
@@ -14647,16 +14693,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14671,7 +14717,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6096000" y="137160"/>
+          <a:off x="13936980" y="297180"/>
           <a:ext cx="1645920" cy="3489960"/>
           <a:chOff x="342900" y="562200"/>
           <a:chExt cx="1645920" cy="2706780"/>
@@ -15116,16 +15162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>191721</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>237441</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>20254</xdr:rowOff>
+      <xdr:rowOff>142174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15140,7 +15186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6080760" y="3749040"/>
+          <a:off x="12466320" y="3870960"/>
           <a:ext cx="3125421" cy="1765234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18549,21 +18595,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="64">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -30425,10 +30471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
-  <dimension ref="B1:N25"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30437,6 +30483,7 @@
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
@@ -30455,431 +30502,574 @@
       <c r="F1" s="72" t="s">
         <v>200</v>
       </c>
+      <c r="G1" s="72" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="76">
         <v>1</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="82">
+      <c r="M2" s="76">
         <v>1</v>
       </c>
-      <c r="N2" s="82"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="97"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="68">
         <v>2</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="97"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="68">
         <v>3</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="68">
         <v>3</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="98"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85">
+      <c r="B5" s="96"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="77">
         <v>4</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="68">
         <v>4</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="76">
         <v>1</v>
       </c>
-      <c r="F6" s="90" t="s">
+      <c r="F6" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85">
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="77">
         <v>5</v>
       </c>
-      <c r="N6" s="85"/>
+      <c r="N6" s="77"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="68">
         <v>2</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="76">
         <v>1</v>
       </c>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="76" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="98"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85">
+      <c r="B8" s="96"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="77">
         <v>3</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
       <c r="M8" s="68">
         <v>2</v>
       </c>
-      <c r="N8" s="99" t="s">
+      <c r="N8" s="88" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="76">
         <v>1</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="85">
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="77">
         <v>3</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="79" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="97"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="68">
         <v>2</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="91" t="s">
         <v>213</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="78" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="97"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="68">
         <v>3</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" s="100" t="s">
+      <c r="N11" s="89" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="98"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85">
+      <c r="B12" s="96"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="77">
         <v>4</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="81" t="s">
+      <c r="K12" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="76">
         <v>1</v>
       </c>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="76" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="76">
         <v>1</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="68">
         <v>2</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="N13" s="78" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="68">
         <v>2</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="85" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="68">
         <v>3</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="81" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85">
+      <c r="B16" s="96"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="77">
         <v>4</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="83" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="76">
         <v>1</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="84" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+      <c r="G17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="95"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="68">
         <v>2</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="G18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="95"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="68">
         <v>3</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="86" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="97"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
+      <c r="G19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="95"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="68">
         <v>4</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="86" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
+      <c r="G20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="95"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="68">
         <v>5</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="86" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="98"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85">
+      <c r="G21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="96"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="77">
         <v>6</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="86" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="96" t="s">
+      <c r="G22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="76">
         <v>1</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="82" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="G23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="95"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="68">
         <v>2</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="81" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="98"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85">
+      <c r="G24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="96"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="77">
         <v>3</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="83" t="s">
         <v>280</v>
       </c>
+      <c r="G25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
+      <c r="B31" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="97"/>
+      <c r="B32" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="97"/>
+      <c r="B33" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="97"/>
+      <c r="B35" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="97"/>
+      <c r="B36" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="97"/>
+      <c r="B37" s="83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" t="s">
+        <v>298</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="J12:J13"/>
@@ -30897,13 +31087,13 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="B17:B22"/>
+    <mergeCell ref="D17:D22"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D17:D22"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="B13:B16"/>
@@ -30922,8 +31112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -30960,7 +31150,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="97" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
@@ -30980,7 +31170,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="77"/>
+      <c r="J4" s="97"/>
       <c r="K4" t="s">
         <v>192</v>
       </c>
@@ -31007,7 +31197,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="97"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -31032,7 +31222,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="77"/>
+      <c r="J6" s="97"/>
       <c r="K6" t="s">
         <v>183</v>
       </c>
@@ -31362,13 +31552,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
@@ -31416,11 +31606,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
       <c r="D7" t="s">
         <v>135</v>
       </c>
@@ -31661,7 +31851,7 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="98" t="s">
         <v>116</v>
       </c>
     </row>
@@ -31674,7 +31864,7 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="98"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -31691,7 +31881,7 @@
       <c r="D26" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="78"/>
+      <c r="K26" s="98"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -31708,10 +31898,10 @@
       <c r="D27" t="s">
         <v>181</v>
       </c>
-      <c r="K27" s="78"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="78"/>
+      <c r="K28" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31739,10 +31929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="100"/>
       <c r="D1" t="s">
         <v>277</v>
       </c>
@@ -32385,10 +32575,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="100" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="100"/>
       <c r="C22" t="s">
         <v>271</v>
       </c>
@@ -32433,7 +32623,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <f>MID(D$22,B25+1,4)</f>
+        <f t="shared" ref="F25:F39" si="19">MID(D$22,B25+1,4)</f>
         <v>00F0</v>
       </c>
       <c r="G25">
@@ -32464,11 +32654,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <f>MID(D$22,B26+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0546</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G39" si="19">HEX2DEC(F26)</f>
+        <f t="shared" ref="G26:G39" si="20">HEX2DEC(F26)</f>
         <v>1350</v>
       </c>
       <c r="H26">
@@ -32481,11 +32671,11 @@
         <v>244</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:B37" si="20">B26+4</f>
+        <f t="shared" ref="B27:B37" si="21">B26+4</f>
         <v>8</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C37" si="21">C26+4</f>
+        <f t="shared" ref="C27:C37" si="22">C26+4</f>
         <v>11</v>
       </c>
       <c r="D27" t="s">
@@ -32495,11 +32685,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <f>MID(D$22,B27+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0140</v>
       </c>
       <c r="G27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>320</v>
       </c>
       <c r="H27">
@@ -32512,11 +32702,11 @@
         <v>245</v>
       </c>
       <c r="B28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="C28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="D28" t="s">
@@ -32526,11 +32716,11 @@
         <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f>MID(D$22,B28+1,4)</f>
+        <f t="shared" si="19"/>
         <v>027B</v>
       </c>
       <c r="G28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>635</v>
       </c>
       <c r="H28">
@@ -32543,11 +32733,11 @@
         <v>246</v>
       </c>
       <c r="B29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="C29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="D29" t="s">
@@ -32557,11 +32747,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <f>MID(D$22,B29+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0320</v>
       </c>
       <c r="G29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="H29">
@@ -32574,11 +32764,11 @@
         <v>247</v>
       </c>
       <c r="B30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="C30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="D30" t="s">
@@ -32588,11 +32778,11 @@
         <v>1</v>
       </c>
       <c r="F30" t="str">
-        <f>MID(D$22,B30+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0289</v>
       </c>
       <c r="G30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>649</v>
       </c>
       <c r="H30">
@@ -32605,11 +32795,11 @@
         <v>248</v>
       </c>
       <c r="B31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="C31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="D31" t="s">
@@ -32619,11 +32809,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <f>MID(D$22,B31+1,4)</f>
+        <f t="shared" si="19"/>
         <v>2A30</v>
       </c>
       <c r="G31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10800</v>
       </c>
       <c r="H31">
@@ -32636,11 +32826,11 @@
         <v>249</v>
       </c>
       <c r="B32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="C32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="D32" t="s">
@@ -32650,11 +32840,11 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <f>MID(D$22,B32+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0BB8</v>
       </c>
       <c r="G32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3000</v>
       </c>
       <c r="H32">
@@ -32667,11 +32857,11 @@
         <v>250</v>
       </c>
       <c r="B33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="D33" t="s">
@@ -32681,11 +32871,11 @@
         <v>0</v>
       </c>
       <c r="F33" t="str">
-        <f>MID(D$22,B33+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0064</v>
       </c>
       <c r="G33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="H33">
@@ -32698,11 +32888,11 @@
         <v>251</v>
       </c>
       <c r="B34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="C34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="D34" t="s">
@@ -32712,11 +32902,11 @@
         <v>1</v>
       </c>
       <c r="F34" t="str">
-        <f>MID(D$22,B34+1,4)</f>
+        <f t="shared" si="19"/>
         <v>02BC</v>
       </c>
       <c r="G34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
       <c r="H34">
@@ -32729,22 +32919,22 @@
         <v>252</v>
       </c>
       <c r="B35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="C35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="str">
-        <f>MID(D$22,B35+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0000</v>
       </c>
       <c r="G35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H35">
@@ -32757,22 +32947,22 @@
         <v>253</v>
       </c>
       <c r="B36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="C36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <f>MID(D$22,B36+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0000</v>
       </c>
       <c r="G36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H36">
@@ -32785,22 +32975,22 @@
         <v>254</v>
       </c>
       <c r="B37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="C37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <f>MID(D$22,B37+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0000</v>
       </c>
       <c r="G37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H37">
@@ -32827,11 +33017,11 @@
         <v>0</v>
       </c>
       <c r="F38" t="str">
-        <f>MID(D$22,B38+1,4)</f>
+        <f t="shared" si="19"/>
         <v>0025</v>
       </c>
       <c r="G38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="H38">
@@ -32858,11 +33048,11 @@
         <v>1</v>
       </c>
       <c r="F39" t="str">
-        <f>MID(D$22,B39+1,4)</f>
+        <f t="shared" si="19"/>
         <v>03E8</v>
       </c>
       <c r="G39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="H39">
@@ -33043,7 +33233,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.8725239675447728E-3</v>
+        <v>9.9247741549602971E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -33058,7 +33248,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>101.29122028849254</v>
+        <v>100.75796027058314</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -33070,18 +33260,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.9825393492710447E-3</v>
+        <v>1.0576874966191455E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.9825393492710447E-3</v>
+        <v>1.0576874966191455E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>1.2912202884925393E-2</v>
+        <v>7.579602705831405E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -33090,11 +33280,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7543390421934982E-2</v>
+        <v>2.0323812632535652E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>9.5608510726639378E-3</v>
+        <v>9.7469376663441975E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -33103,11 +33293,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9948791236490847E-2</v>
+        <v>2.8763493374342364E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.2405400814555864E-2</v>
+        <v>8.4396807418067113E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -33116,11 +33306,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.731646444582977E-2</v>
+        <v>4.0028622149871657E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3676732093389229E-3</v>
+        <v>1.1265128775529293E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -33129,11 +33319,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0257121364178925E-2</v>
+        <v>4.8915458434067721E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2940656918349155E-2</v>
+        <v>8.8868362841960646E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -33142,11 +33332,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7585849620118597E-2</v>
+        <v>5.6895181812828079E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3287282559396719E-3</v>
+        <v>7.9797233787603575E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -33155,11 +33345,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.727871520974564E-2</v>
+        <v>6.6247562718540501E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6928655896270435E-3</v>
+        <v>9.3523809057124221E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33168,11 +33358,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7654029130117264E-2</v>
+        <v>7.3926485073214643E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0375313920371623E-2</v>
+        <v>7.678922354674142E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -33181,11 +33371,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7386286916993489E-2</v>
+        <v>8.5747937835073187E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.732257786876225E-3</v>
+        <v>1.1821452761858545E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -33194,11 +33384,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10019951140173675</v>
+        <v>9.5881910523806513E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2813224484743257E-2</v>
+        <v>1.0133972688733325E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -33207,11 +33397,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10979410986939131</v>
+        <v>0.10514673958882985</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5945984676545637E-3</v>
+        <v>9.2648290650233361E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -33220,11 +33410,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11689786336581179</v>
+        <v>0.11373883561533524</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1037534964204785E-3</v>
+        <v>8.5920960265053886E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -33233,11 +33423,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12526162053291653</v>
+        <v>0.1210235801283313</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3637571671047461E-3</v>
+        <v>7.2847445129960581E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -33246,11 +33436,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13454997484667919</v>
+        <v>0.13218223305150692</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2883543137626534E-3</v>
+        <v>1.1158652923175624E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -33259,11 +33449,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14567955808650287</v>
+        <v>0.14310002408175779</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1129583239823687E-2</v>
+        <v>1.0917791030250867E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -33272,11 +33462,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15432656579751405</v>
+        <v>0.15121934565591852</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6470077110111787E-3</v>
+        <v>8.1193215741607316E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -33285,11 +33475,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16728822317333117</v>
+        <v>0.16275285755826832</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2961657375817115E-2</v>
+        <v>1.1533511902349802E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -33298,11 +33488,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17776426881449073</v>
+        <v>0.17558911852321835</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0476045641159559E-2</v>
+        <v>1.2836260964950025E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -33311,11 +33501,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18757795538335068</v>
+        <v>0.18857070894424563</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8136865688599473E-3</v>
+        <v>1.2981590421027284E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A149D57-FB58-44C2-A206-CFBBE06314A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1461BFA-564F-4122-99E0-03E6F257208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="298">
   <si>
     <t>Produit</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Temp  °C</t>
   </si>
   <si>
-    <t>Pression Pa</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -917,9 +914,6 @@
     <t xml:space="preserve">Message codé : </t>
   </si>
   <si>
-    <t>00F005460140027B032002892A300BB8006402BC000000000000002503E8</t>
-  </si>
-  <si>
     <t>Sensor + I²C to Nano</t>
   </si>
   <si>
@@ -978,6 +972,9 @@
   </si>
   <si>
     <t>violet</t>
+  </si>
+  <si>
+    <t>Pression hPa (environ 1000hPa)</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1686,12 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,9 +1711,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,7 +1720,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
@@ -18595,21 +18592,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="64">
         <f>SUM(D5:D19)</f>
         <v>487.51</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -28550,10 +28547,10 @@
         <v>76</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
@@ -28588,25 +28585,25 @@
         <v>83</v>
       </c>
       <c r="K3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" t="s">
         <v>227</v>
       </c>
-      <c r="L3" t="s">
-        <v>228</v>
-      </c>
       <c r="M3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" t="s">
         <v>232</v>
-      </c>
-      <c r="N3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P3" t="s">
-        <v>233</v>
       </c>
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -28651,7 +28648,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -28697,7 +28694,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6">
         <v>80</v>
@@ -28802,7 +28799,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="60">
         <f>SUMPRODUCT(B4:B8,F4:F8)*0.1</f>
@@ -28873,7 +28870,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="60">
         <f>SUMPRODUCT(B4:B9,F4:F9)</f>
@@ -29368,14 +29365,14 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="75">
         <f>B11/1000*C4/1000</f>
         <v>5.0111111111111114E-4</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
@@ -29405,52 +29402,52 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28">
         <v>0.15459999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="60">
         <f>B28*B27</f>
         <v>7.7471777777777775E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="60">
         <f>B29*24</f>
         <v>1.8593226666666666E-3</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="60">
         <f>B30*365</f>
         <v>0.67865277333333329</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X31" s="73"/>
     </row>
@@ -30473,7 +30470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -30488,33 +30485,33 @@
   <sheetData>
     <row r="1" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="D1" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>203</v>
+      <c r="D2" s="93" t="s">
+        <v>202</v>
       </c>
       <c r="E2" s="76">
         <v>1</v>
@@ -30522,14 +30519,14 @@
       <c r="F2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="91" t="s">
+      <c r="J2" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="93" t="s">
         <v>209</v>
-      </c>
-      <c r="L2" s="91" t="s">
-        <v>210</v>
       </c>
       <c r="M2" s="76">
         <v>1</v>
@@ -30537,138 +30534,138 @@
       <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="68">
         <v>2</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
+        <v>256</v>
+      </c>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
       <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="95"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="68">
         <v>3</v>
       </c>
       <c r="F4" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="68">
         <v>3</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="96"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="77">
         <v>4</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
+        <v>201</v>
+      </c>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
       <c r="M5" s="68">
         <v>4</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>182</v>
+      <c r="B6" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>181</v>
       </c>
       <c r="E6" s="76">
         <v>1</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
+        <v>183</v>
+      </c>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="77">
         <v>5</v>
       </c>
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="68">
         <v>2</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="J7" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="K7" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="L7" s="91" t="s">
-        <v>211</v>
+        <v>280</v>
+      </c>
+      <c r="J7" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>210</v>
       </c>
       <c r="M7" s="76">
         <v>1</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="96"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="77">
         <v>3</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
+        <v>201</v>
+      </c>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="68">
         <v>2</v>
       </c>
       <c r="N8" s="88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>281</v>
+      <c r="B9" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>279</v>
       </c>
       <c r="E9" s="76">
         <v>1</v>
@@ -30676,97 +30673,97 @@
       <c r="F9" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="77">
         <v>3</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="68">
         <v>2</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="91" t="s">
+      <c r="J10" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="93" t="s">
         <v>212</v>
-      </c>
-      <c r="L10" s="91" t="s">
-        <v>213</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" s="78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="95"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="68">
         <v>3</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
+        <v>201</v>
+      </c>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" s="89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="96"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="77">
         <v>4</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="91" t="s">
-        <v>214</v>
+        <v>183</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="93" t="s">
+        <v>213</v>
       </c>
       <c r="M12" s="76">
         <v>1</v>
       </c>
       <c r="N12" s="76" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>192</v>
+      <c r="B13" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>191</v>
       </c>
       <c r="E13" s="76">
         <v>1</v>
@@ -30774,20 +30771,20 @@
       <c r="F13" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
       <c r="M13" s="68">
         <v>2</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="68">
         <v>2</v>
       </c>
@@ -30796,36 +30793,36 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="95"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="68">
         <v>3</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="77">
         <v>4</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>279</v>
+      <c r="B17" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>277</v>
       </c>
       <c r="E17" s="76">
         <v>1</v>
@@ -30834,13 +30831,13 @@
         <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="95"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="68">
         <v>2</v>
       </c>
@@ -30848,13 +30845,13 @@
         <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="95"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="68">
         <v>3</v>
       </c>
@@ -30862,27 +30859,27 @@
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="95"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="68">
         <v>4</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="95"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="68">
         <v>5</v>
       </c>
@@ -30890,195 +30887,184 @@
         <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="96"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="77">
         <v>6</v>
       </c>
       <c r="F22" s="86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>185</v>
+      <c r="B23" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>184</v>
       </c>
       <c r="E23" s="76">
         <v>1</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="95"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="68">
         <v>2</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="96"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="77">
         <v>3</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="92" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="84" t="s">
         <v>159</v>
       </c>
       <c r="C30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" t="s">
         <v>295</v>
       </c>
-      <c r="D30" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="85" t="s">
         <v>160</v>
       </c>
       <c r="C31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
+      <c r="B32" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="92"/>
+      <c r="B33" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" t="s">
         <v>296</v>
       </c>
-      <c r="D31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
-      <c r="B32" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="97"/>
-      <c r="B33" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D33" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="97" t="s">
-        <v>192</v>
+      <c r="A34" s="92" t="s">
+        <v>191</v>
       </c>
       <c r="B34" s="84" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="76" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="97"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="85" t="s">
         <v>160</v>
       </c>
       <c r="C35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="92"/>
+      <c r="B36" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="92"/>
+      <c r="B37" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" t="s">
         <v>296</v>
-      </c>
-      <c r="D35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="97"/>
-      <c r="B36" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="97"/>
-      <c r="B37" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D37" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
     <mergeCell ref="L2:L6"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="J2:J6"/>
@@ -31095,6 +31081,17 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B9:B12"/>
@@ -31112,8 +31109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -31137,7 +31134,7 @@
         <v>73</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -31150,14 +31147,14 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="92" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" t="s">
         <v>190</v>
-      </c>
-      <c r="L3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -31170,12 +31167,12 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="97"/>
+      <c r="J4" s="92"/>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -31197,12 +31194,12 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="92"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -31222,12 +31219,12 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="97"/>
+      <c r="J6" s="92"/>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -31243,7 +31240,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -31259,7 +31256,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -31436,7 +31433,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -31456,7 +31453,7 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -31493,7 +31490,7 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -31501,7 +31498,7 @@
         <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -31538,7 +31535,7 @@
   <dimension ref="A3:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31552,13 +31549,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
@@ -31606,11 +31603,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
       <c r="D7" t="s">
         <v>135</v>
       </c>
@@ -31722,7 +31719,7 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -31756,7 +31753,7 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -31773,7 +31770,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -31784,12 +31781,12 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:B26" si="2">C19+1</f>
@@ -31805,7 +31802,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
@@ -31816,12 +31813,12 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
@@ -31851,7 +31848,7 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="K24" s="98" t="s">
+      <c r="K24" s="99" t="s">
         <v>116</v>
       </c>
     </row>
@@ -31864,7 +31861,7 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="K25" s="98"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -31879,9 +31876,9 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="98"/>
+        <v>179</v>
+      </c>
+      <c r="K26" s="99"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -31896,12 +31893,12 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27" s="98"/>
+        <v>180</v>
+      </c>
+      <c r="K27" s="99"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="98"/>
+      <c r="K28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31918,8 +31915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31929,44 +31926,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="100"/>
+      <c r="A1" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="101"/>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(K4:K18)</f>
-        <v>00F005460140027B032002892A300BB8006402BC000000000000002503E8</v>
+        <v>00F005460140027B0320028928500BB8006402BC000000000000002503E8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
         <v>262</v>
       </c>
-      <c r="C3" t="s">
-        <v>263</v>
-      </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" t="s">
         <v>273</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>274</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>275</v>
-      </c>
-      <c r="I3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -32006,7 +32003,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5">
         <f>B4+4</f>
@@ -32017,7 +32014,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -32048,7 +32045,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B16" si="4">B5+4</f>
@@ -32059,7 +32056,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -32090,7 +32087,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7">
         <f t="shared" si="4"/>
@@ -32101,7 +32098,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -32132,7 +32129,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8">
         <f t="shared" si="4"/>
@@ -32174,7 +32171,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9">
         <f t="shared" si="4"/>
@@ -32185,7 +32182,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -32216,7 +32213,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10">
         <f t="shared" si="4"/>
@@ -32227,38 +32224,38 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1080</v>
+        <v>1032</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>10320</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>2A30</v>
+        <v>2850</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>2A30</v>
+        <v>2850</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>2A30</v>
+        <v>2850</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" ref="K10" si="10">IF(LEN(J10)=4,J10,_xlfn.CONCAT("0",J10))</f>
-        <v>2A30</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11">
         <f t="shared" si="4"/>
@@ -32269,7 +32266,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -32300,7 +32297,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12">
         <f t="shared" si="4"/>
@@ -32311,7 +32308,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -32342,7 +32339,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13">
         <f t="shared" si="4"/>
@@ -32353,7 +32350,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -32384,7 +32381,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B14">
         <f t="shared" si="4"/>
@@ -32420,7 +32417,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15">
         <f t="shared" si="4"/>
@@ -32456,7 +32453,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16">
         <f t="shared" si="4"/>
@@ -32492,7 +32489,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17">
         <f>B16+4</f>
@@ -32503,7 +32500,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -32534,7 +32531,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18">
         <f>B17+4</f>
@@ -32545,7 +32542,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -32575,40 +32572,41 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="101"/>
+      <c r="C22" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" t="s">
-        <v>278</v>
+      <c r="D22" t="str">
+        <f>E1</f>
+        <v>00F005460140027B0320028928500BB8006402BC000000000000002503E8</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="s">
         <v>262</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s">
         <v>263</v>
       </c>
-      <c r="E24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>264</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>265</v>
-      </c>
-      <c r="H24" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -32637,7 +32635,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26">
         <f>B25+4</f>
@@ -32648,7 +32646,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -32668,7 +32666,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:B37" si="21">B26+4</f>
@@ -32679,7 +32677,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -32699,7 +32697,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28">
         <f t="shared" si="21"/>
@@ -32710,7 +32708,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -32730,7 +32728,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B29">
         <f t="shared" si="21"/>
@@ -32761,7 +32759,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B30">
         <f t="shared" si="21"/>
@@ -32772,7 +32770,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -32792,7 +32790,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31">
         <f t="shared" si="21"/>
@@ -32803,27 +32801,27 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="19"/>
-        <v>2A30</v>
+        <v>2850</v>
       </c>
       <c r="G31">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>10320</v>
       </c>
       <c r="H31">
         <f>IF('Codage-décodage Radio'!E31,'Codage-décodage Radio'!G31/10-40,'Codage-décodage Radio'!G31/10)</f>
-        <v>1080</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32">
         <f t="shared" si="21"/>
@@ -32834,7 +32832,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -32854,7 +32852,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33">
         <f t="shared" si="21"/>
@@ -32865,7 +32863,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -32885,7 +32883,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34">
         <f t="shared" si="21"/>
@@ -32896,7 +32894,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -32916,7 +32914,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35">
         <f t="shared" si="21"/>
@@ -32944,7 +32942,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36">
         <f t="shared" si="21"/>
@@ -32972,7 +32970,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37">
         <f t="shared" si="21"/>
@@ -33000,7 +32998,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38">
         <f>B37+4</f>
@@ -33011,7 +33009,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -33031,7 +33029,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39">
         <f>B38+4</f>
@@ -33042,7 +33040,7 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -33233,7 +33231,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.9247741549602971E-3</v>
+        <v>9.7978622223663797E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -33248,7 +33246,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>100.75796027058314</v>
+        <v>102.06308042556655</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -33260,18 +33258,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.0576874966191455E-2</v>
+        <v>9.5021517761640396E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.0576874966191455E-2</v>
+        <v>9.5021517761640396E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>7.579602705831405E-3</v>
+        <v>2.0630804255665536E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -33280,11 +33278,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0323812632535652E-2</v>
+        <v>1.8205752605634999E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>9.7469376663441975E-3</v>
+        <v>8.7036008294709595E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -33293,11 +33291,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8763493374342364E-2</v>
+        <v>2.5664937645518058E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.4396807418067113E-3</v>
+        <v>7.4591850398830588E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -33306,11 +33304,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0028622149871657E-2</v>
+        <v>3.6629433309434918E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1265128775529293E-2</v>
+        <v>1.096449566391686E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -33319,11 +33317,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8915458434067721E-2</v>
+        <v>4.9117013794542835E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8868362841960646E-3</v>
+        <v>1.2487580485107917E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -33332,11 +33330,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6895181812828079E-2</v>
+        <v>6.0608157852936585E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9797233787603575E-3</v>
+        <v>1.149114405839375E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -33345,11 +33343,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6247562718540501E-2</v>
+        <v>6.7609628764998778E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3523809057124221E-3</v>
+        <v>7.0014709120621924E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33358,11 +33356,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3926485073214643E-2</v>
+        <v>7.5738352736541351E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.678922354674142E-3</v>
+        <v>8.128723971542573E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -33371,11 +33369,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5747937835073187E-2</v>
+        <v>8.4983294198751877E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1821452761858545E-2</v>
+        <v>9.2449414622105264E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -33384,11 +33382,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5881910523806513E-2</v>
+        <v>9.7930717511080151E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0133972688733325E-2</v>
+        <v>1.2947423312328274E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -33397,11 +33395,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10514673958882985</v>
+        <v>0.10839733838339517</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2648290650233361E-3</v>
+        <v>1.0466620872315022E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -33410,11 +33408,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11373883561533524</v>
+        <v>0.11988020017399791</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5920960265053886E-3</v>
+        <v>1.1482861790602733E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -33423,11 +33421,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1210235801283313</v>
+        <v>0.12751163016832187</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2847445129960581E-3</v>
+        <v>7.6314299943239655E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -33436,11 +33434,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13218223305150692</v>
+        <v>0.1378093815165046</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1158652923175624E-2</v>
+        <v>1.0297751348182727E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -33449,11 +33447,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14310002408175779</v>
+        <v>0.14790230195290038</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0917791030250867E-2</v>
+        <v>1.0092920436395786E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -33462,11 +33460,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15121934565591852</v>
+        <v>0.15629639624326067</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1193215741607316E-3</v>
+        <v>8.3940942903602822E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -33475,11 +33473,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16275285755826832</v>
+        <v>0.16405536932531875</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1533511902349802E-2</v>
+        <v>7.7589730820580849E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -33488,11 +33486,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17558911852321835</v>
+        <v>0.17534051897497396</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2836260964950025E-2</v>
+        <v>1.1285149649655213E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -33501,11 +33499,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18857070894424563</v>
+        <v>0.1861593822249612</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2981590421027284E-2</v>
+        <v>1.0818863249987237E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1461BFA-564F-4122-99E0-03E6F257208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89DADB-274B-4DC4-B123-B369A61FD8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="300">
   <si>
     <t>Produit</t>
   </si>
@@ -976,6 +976,12 @@
   <si>
     <t>Pression hPa (environ 1000hPa)</t>
   </si>
+  <si>
+    <t>FFFFFFF000046500401007B20020300FFFFFF89200502800FFFFFFB8B0064000FFFFFFBC20000000000000025000FFFFFFE830000</t>
+  </si>
+  <si>
+    <t>FFFFFFF0</t>
+  </si>
 </sst>
 </file>
 
@@ -1690,9 +1696,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1709,6 +1712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30504,13 +30510,13 @@
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="92" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="76">
@@ -30519,13 +30525,13 @@
       <c r="F2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="92" t="s">
         <v>209</v>
       </c>
       <c r="M2" s="76">
@@ -30534,67 +30540,67 @@
       <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="97"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="68">
         <v>2</v>
       </c>
       <c r="F3" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="97"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="68">
         <v>3</v>
       </c>
       <c r="F4" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="68">
         <v>3</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="98"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="77">
         <v>4</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
       <c r="M5" s="68">
         <v>4</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="92" t="s">
         <v>181</v>
       </c>
       <c r="E6" s="76">
@@ -30603,31 +30609,31 @@
       <c r="F6" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="77">
         <v>5</v>
       </c>
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="68">
         <v>2</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="92" t="s">
         <v>210</v>
       </c>
       <c r="M7" s="76">
@@ -30638,18 +30644,18 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="98"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="77">
         <v>3</v>
       </c>
       <c r="F8" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="68">
         <v>2</v>
       </c>
@@ -30658,13 +30664,13 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="92" t="s">
         <v>279</v>
       </c>
       <c r="E9" s="76">
@@ -30673,9 +30679,9 @@
       <c r="F9" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="77">
         <v>3</v>
       </c>
@@ -30684,22 +30690,22 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="97"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="68">
         <v>2</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="L10" s="92" t="s">
         <v>212</v>
       </c>
       <c r="M10">
@@ -30710,18 +30716,18 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="97"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="68">
         <v>3</v>
       </c>
       <c r="F11" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
       <c r="M11">
         <v>2</v>
       </c>
@@ -30730,22 +30736,22 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="98"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="77">
         <v>4</v>
       </c>
       <c r="F12" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="92" t="s">
         <v>213</v>
       </c>
       <c r="M12" s="76">
@@ -30756,13 +30762,13 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>191</v>
       </c>
       <c r="E13" s="76">
@@ -30771,9 +30777,9 @@
       <c r="F13" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="68">
         <v>2</v>
       </c>
@@ -30782,9 +30788,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="68">
         <v>2</v>
       </c>
@@ -30793,9 +30799,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="68">
         <v>3</v>
       </c>
@@ -30804,9 +30810,9 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="77">
         <v>4</v>
       </c>
@@ -30815,13 +30821,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="92" t="s">
         <v>277</v>
       </c>
       <c r="E17" s="76">
@@ -30835,9 +30841,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="97"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="68">
         <v>2</v>
       </c>
@@ -30849,9 +30855,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="68">
         <v>3</v>
       </c>
@@ -30863,9 +30869,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="97"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="68">
         <v>4</v>
       </c>
@@ -30877,9 +30883,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="97"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="68">
         <v>5</v>
       </c>
@@ -30891,9 +30897,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="98"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="77">
         <v>6</v>
       </c>
@@ -30905,13 +30911,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="92" t="s">
         <v>184</v>
       </c>
       <c r="E23" s="76">
@@ -30925,9 +30931,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="97"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
       <c r="E24" s="68">
         <v>2</v>
       </c>
@@ -30939,9 +30945,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="98"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
       <c r="E25" s="77">
         <v>3</v>
       </c>
@@ -30964,7 +30970,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="98" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="84" t="s">
@@ -30978,7 +30984,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="85" t="s">
         <v>160</v>
       </c>
@@ -30990,7 +30996,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="81" t="s">
         <v>201</v>
       </c>
@@ -31002,7 +31008,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="90" t="s">
         <v>183</v>
       </c>
@@ -31014,7 +31020,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="98" t="s">
         <v>191</v>
       </c>
       <c r="B34" s="84" t="s">
@@ -31028,7 +31034,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="92"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="85" t="s">
         <v>160</v>
       </c>
@@ -31040,7 +31046,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="81" t="s">
         <v>201</v>
       </c>
@@ -31052,7 +31058,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="92"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="83" t="s">
         <v>278</v>
       </c>
@@ -31065,6 +31071,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="L2:L6"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="J2:J6"/>
@@ -31081,22 +31103,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31109,7 +31115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -31147,7 +31153,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="98" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
@@ -31167,7 +31173,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="92"/>
+      <c r="J4" s="98"/>
       <c r="K4" t="s">
         <v>191</v>
       </c>
@@ -31194,7 +31200,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="98"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -31219,7 +31225,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="98"/>
       <c r="K6" t="s">
         <v>182</v>
       </c>
@@ -31913,10 +31919,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32579,9 +32585,8 @@
       <c r="C22" t="s">
         <v>270</v>
       </c>
-      <c r="D22" t="str">
-        <f>E1</f>
-        <v>00F005460140027B0320028928500BB8006402BC000000000000002503E8</v>
+      <c r="D22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -32620,17 +32625,16 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" ref="F25:F39" si="19">MID(D$22,B25+1,4)</f>
-        <v>00F0</v>
+      <c r="F25" t="s">
+        <v>299</v>
       </c>
       <c r="G25">
         <f>HEX2DEC(F25)</f>
-        <v>240</v>
+        <v>4294967280</v>
       </c>
       <c r="H25">
         <f>IF('Codage-décodage Radio'!E25,'Codage-décodage Radio'!G25/10-40,'Codage-décodage Radio'!G25/10)</f>
-        <v>24</v>
+        <v>429496728</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -32652,16 +32656,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="19"/>
-        <v>0546</v>
+        <f t="shared" ref="F26:F39" si="19">MID(D$22,2*(B26+1),2*4)</f>
+        <v>00465004</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:G39" si="20">HEX2DEC(F26)</f>
-        <v>1350</v>
+        <v>4608004</v>
       </c>
       <c r="H26">
         <f>IF('Codage-décodage Radio'!E26,'Codage-décodage Radio'!G26/10-40,'Codage-décodage Radio'!G26/10)</f>
-        <v>135</v>
+        <v>460800.4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -32684,15 +32688,15 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="19"/>
-        <v>0140</v>
+        <v>01007B20</v>
       </c>
       <c r="G27">
         <f t="shared" si="20"/>
-        <v>320</v>
+        <v>16808736</v>
       </c>
       <c r="H27">
         <f>IF('Codage-décodage Radio'!E27,'Codage-décodage Radio'!G27/10-40,'Codage-décodage Radio'!G27/10)</f>
-        <v>32</v>
+        <v>1680873.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -32715,15 +32719,15 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="19"/>
-        <v>027B</v>
+        <v>020300FF</v>
       </c>
       <c r="G28">
         <f t="shared" si="20"/>
-        <v>635</v>
+        <v>33751295</v>
       </c>
       <c r="H28">
         <f>IF('Codage-décodage Radio'!E28,'Codage-décodage Radio'!G28/10-40,'Codage-décodage Radio'!G28/10)</f>
-        <v>23.5</v>
+        <v>3375089.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -32746,15 +32750,15 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="19"/>
-        <v>0320</v>
+        <v>FFFF8920</v>
       </c>
       <c r="G29">
         <f t="shared" si="20"/>
-        <v>800</v>
+        <v>4294936864</v>
       </c>
       <c r="H29">
         <f>IF('Codage-décodage Radio'!E29,'Codage-décodage Radio'!G29/10-40,'Codage-décodage Radio'!G29/10)</f>
-        <v>80</v>
+        <v>429493686.39999998</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -32777,15 +32781,15 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="19"/>
-        <v>0289</v>
+        <v>0502800F</v>
       </c>
       <c r="G30">
         <f t="shared" si="20"/>
-        <v>649</v>
+        <v>84049935</v>
       </c>
       <c r="H30">
         <f>IF('Codage-décodage Radio'!E30,'Codage-décodage Radio'!G30/10-40,'Codage-décodage Radio'!G30/10)</f>
-        <v>24.900000000000006</v>
+        <v>8404953.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -32808,15 +32812,15 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="19"/>
-        <v>2850</v>
+        <v>FFFFFB8B</v>
       </c>
       <c r="G31">
         <f t="shared" si="20"/>
-        <v>10320</v>
+        <v>4294966155</v>
       </c>
       <c r="H31">
         <f>IF('Codage-décodage Radio'!E31,'Codage-décodage Radio'!G31/10-40,'Codage-décodage Radio'!G31/10)</f>
-        <v>1032</v>
+        <v>429496615.5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -32839,15 +32843,15 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="19"/>
-        <v>0BB8</v>
+        <v>0064000F</v>
       </c>
       <c r="G32">
         <f t="shared" si="20"/>
-        <v>3000</v>
+        <v>6553615</v>
       </c>
       <c r="H32">
         <f>IF('Codage-décodage Radio'!E32,'Codage-décodage Radio'!G32/10-40,'Codage-décodage Radio'!G32/10)</f>
-        <v>300</v>
+        <v>655361.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -32870,15 +32874,15 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="19"/>
-        <v>0064</v>
+        <v>FFFFFBC2</v>
       </c>
       <c r="G33">
         <f t="shared" si="20"/>
-        <v>100</v>
+        <v>4294966210</v>
       </c>
       <c r="H33">
         <f>IF('Codage-décodage Radio'!E33,'Codage-décodage Radio'!G33/10-40,'Codage-décodage Radio'!G33/10)</f>
-        <v>10</v>
+        <v>429496621</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -32901,15 +32905,15 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="19"/>
-        <v>02BC</v>
+        <v>00000000</v>
       </c>
       <c r="G34">
         <f t="shared" si="20"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f>IF('Codage-décodage Radio'!E34,'Codage-décodage Radio'!G34/10-40,'Codage-décodage Radio'!G34/10)</f>
-        <v>30</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -32929,15 +32933,15 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="19"/>
-        <v>0000</v>
+        <v>00000025</v>
       </c>
       <c r="G35">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <f>IF('Codage-décodage Radio'!E35,'Codage-décodage Radio'!G35/10-40,'Codage-décodage Radio'!G35/10)</f>
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -32957,15 +32961,15 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="19"/>
-        <v>0000</v>
+        <v>000FFFFF</v>
       </c>
       <c r="G36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1048575</v>
       </c>
       <c r="H36">
         <f>IF('Codage-décodage Radio'!E36,'Codage-décodage Radio'!G36/10-40,'Codage-décodage Radio'!G36/10)</f>
-        <v>0</v>
+        <v>104857.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -32985,15 +32989,15 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="19"/>
-        <v>0000</v>
+        <v>FE830000</v>
       </c>
       <c r="G37">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4269998080</v>
       </c>
       <c r="H37">
         <f>IF('Codage-décodage Radio'!E37,'Codage-décodage Radio'!G37/10-40,'Codage-décodage Radio'!G37/10)</f>
-        <v>0</v>
+        <v>426999808</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -33016,15 +33020,15 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="19"/>
-        <v>0025</v>
+        <v/>
       </c>
       <c r="G38">
         <f t="shared" si="20"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f>IF('Codage-décodage Radio'!E38,'Codage-décodage Radio'!G38/10-40,'Codage-décodage Radio'!G38/10)</f>
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -33047,15 +33051,25 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="19"/>
-        <v>03E8</v>
+        <v/>
       </c>
       <c r="G39">
         <f t="shared" si="20"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f>IF('Codage-décodage Radio'!E39,'Codage-décodage Radio'!G39/10-40,'Codage-décodage Radio'!G39/10)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f>B39+4</f>
         <v>60</v>
+      </c>
+      <c r="C40">
+        <f>C39+4</f>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -33231,7 +33245,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.7978622223663797E-3</v>
+        <v>1.0051609890995851E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -33246,7 +33260,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>102.06308042556655</v>
+        <v>99.486550994760719</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -33258,18 +33272,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>9.5021517761640396E-3</v>
+        <v>1.291265385046139E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>9.5021517761640396E-3</v>
+        <v>1.291265385046139E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>2.0630804255665536E-2</v>
+        <v>-5.1344900523928065E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -33278,11 +33292,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8205752605634999E-2</v>
+        <v>2.106675714830844E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>8.7036008294709595E-3</v>
+        <v>8.1541032978470502E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -33291,11 +33305,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5664937645518058E-2</v>
+        <v>2.9862774500316106E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>7.4591850398830588E-3</v>
+        <v>8.7960173520076658E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -33304,11 +33318,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6629433309434918E-2</v>
+        <v>4.0341745761296809E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.096449566391686E-2</v>
+        <v>1.0478971260980702E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -33317,11 +33331,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9117013794542835E-2</v>
+        <v>5.2686771903536211E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2487580485107917E-2</v>
+        <v>1.2345026142239403E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -33330,11 +33344,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0608157852936585E-2</v>
+        <v>6.218470307830732E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.149114405839375E-2</v>
+        <v>9.4979311747711084E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -33343,11 +33357,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7609628764998778E-2</v>
+        <v>7.0240866834778204E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0014709120621924E-3</v>
+        <v>8.0561637564708841E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33356,11 +33370,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5738352736541351E-2</v>
+        <v>7.7778402694171467E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.128723971542573E-3</v>
+        <v>7.5375358593932629E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -33369,11 +33383,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4983294198751877E-2</v>
+        <v>8.8930854158608158E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2449414622105264E-3</v>
+        <v>1.1152451464436691E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -33382,11 +33396,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7930717511080151E-2</v>
+        <v>9.8135539498220806E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2947423312328274E-2</v>
+        <v>9.2046853396126477E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -33395,11 +33409,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10839733838339517</v>
+        <v>0.10889480482865095</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0466620872315022E-2</v>
+        <v>1.0759265330430146E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -33408,11 +33422,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11988020017399791</v>
+        <v>0.11772823905109414</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1482861790602733E-2</v>
+        <v>8.83343422244319E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -33421,11 +33435,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12751163016832187</v>
+        <v>0.12948176619920576</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6314299943239655E-3</v>
+        <v>1.175352714811162E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -33434,11 +33448,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1378093815165046</v>
+        <v>0.13817228882067401</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0297751348182727E-2</v>
+        <v>8.6905226214682441E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -33447,11 +33461,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14790230195290038</v>
+        <v>0.15030386798577866</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0092920436395786E-2</v>
+        <v>1.2131579165104656E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -33460,11 +33474,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15629639624326067</v>
+        <v>0.16227852032526702</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3940942903602822E-3</v>
+        <v>1.1974652339488356E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -33473,11 +33487,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16405536932531875</v>
+        <v>0.1728642212256131</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7589730820580849E-3</v>
+        <v>1.0585700900346079E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -33486,11 +33500,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17534051897497396</v>
+        <v>0.18168051816520628</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1285149649655213E-2</v>
+        <v>8.8162969395931823E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -33499,11 +33513,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1861593822249612</v>
+        <v>0.19098058792892117</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0818863249987237E-2</v>
+        <v>9.300069763714891E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F89DADB-274B-4DC4-B123-B369A61FD8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735E73A8-6B79-4A1C-A99F-7D2C69CB6405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -1696,6 +1696,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,9 +1715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30476,8 +30476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30510,13 +30510,13 @@
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="93" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="76">
@@ -30525,13 +30525,13 @@
       <c r="F2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="93" t="s">
         <v>209</v>
       </c>
       <c r="M2" s="76">
@@ -30540,67 +30540,67 @@
       <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="96"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="68">
         <v>2</v>
       </c>
       <c r="F3" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
       <c r="M3" s="68">
         <v>2</v>
       </c>
       <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="68">
         <v>3</v>
       </c>
       <c r="F4" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="68">
         <v>3</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="97"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="77">
         <v>4</v>
       </c>
       <c r="F5" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
       <c r="M5" s="68">
         <v>4</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="93" t="s">
         <v>181</v>
       </c>
       <c r="E6" s="76">
@@ -30609,31 +30609,31 @@
       <c r="F6" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
       <c r="M6" s="77">
         <v>5</v>
       </c>
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="96"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="68">
         <v>2</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>210</v>
       </c>
       <c r="M7" s="76">
@@ -30644,18 +30644,18 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="97"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="77">
         <v>3</v>
       </c>
       <c r="F8" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
       <c r="M8" s="68">
         <v>2</v>
       </c>
@@ -30664,13 +30664,13 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>279</v>
       </c>
       <c r="E9" s="76">
@@ -30679,9 +30679,9 @@
       <c r="F9" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="77">
         <v>3</v>
       </c>
@@ -30690,22 +30690,22 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="96"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="68">
         <v>2</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="J10" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="93" t="s">
         <v>212</v>
       </c>
       <c r="M10">
@@ -30716,18 +30716,18 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="96"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="68">
         <v>3</v>
       </c>
       <c r="F11" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
       <c r="M11">
         <v>2</v>
       </c>
@@ -30736,22 +30736,22 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="97"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="77">
         <v>4</v>
       </c>
       <c r="F12" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="L12" s="92" t="s">
+      <c r="L12" s="93" t="s">
         <v>213</v>
       </c>
       <c r="M12" s="76">
@@ -30762,13 +30762,13 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="93" t="s">
         <v>191</v>
       </c>
       <c r="E13" s="76">
@@ -30777,9 +30777,9 @@
       <c r="F13" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
       <c r="M13" s="68">
         <v>2</v>
       </c>
@@ -30788,9 +30788,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="96"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="68">
         <v>2</v>
       </c>
@@ -30799,9 +30799,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="96"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="68">
         <v>3</v>
       </c>
@@ -30810,9 +30810,9 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="97"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="77">
         <v>4</v>
       </c>
@@ -30821,13 +30821,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="93" t="s">
         <v>277</v>
       </c>
       <c r="E17" s="76">
@@ -30841,9 +30841,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="96"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="68">
         <v>2</v>
       </c>
@@ -30855,9 +30855,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="96"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="68">
         <v>3</v>
       </c>
@@ -30869,9 +30869,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="96"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="68">
         <v>4</v>
       </c>
@@ -30883,9 +30883,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="96"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="68">
         <v>5</v>
       </c>
@@ -30897,9 +30897,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="97"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="77">
         <v>6</v>
       </c>
@@ -30911,13 +30911,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="93" t="s">
         <v>184</v>
       </c>
       <c r="E23" s="76">
@@ -30931,9 +30931,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="96"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="68">
         <v>2</v>
       </c>
@@ -30945,9 +30945,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="97"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="77">
         <v>3</v>
       </c>
@@ -30970,7 +30970,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="92" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="84" t="s">
@@ -30984,7 +30984,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="85" t="s">
         <v>160</v>
       </c>
@@ -30996,7 +30996,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="81" t="s">
         <v>201</v>
       </c>
@@ -31008,7 +31008,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="98"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="90" t="s">
         <v>183</v>
       </c>
@@ -31020,7 +31020,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="92" t="s">
         <v>191</v>
       </c>
       <c r="B34" s="84" t="s">
@@ -31034,7 +31034,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="85" t="s">
         <v>160</v>
       </c>
@@ -31046,7 +31046,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="81" t="s">
         <v>201</v>
       </c>
@@ -31058,7 +31058,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="98"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="83" t="s">
         <v>278</v>
       </c>
@@ -31071,6 +31071,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="L12:L13"/>
@@ -31087,22 +31103,6 @@
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31115,8 +31115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -31153,7 +31153,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="92" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
@@ -31173,7 +31173,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="98"/>
+      <c r="J4" s="92"/>
       <c r="K4" t="s">
         <v>191</v>
       </c>
@@ -31200,7 +31200,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="92"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -31225,7 +31225,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="98"/>
+      <c r="J6" s="92"/>
       <c r="K6" t="s">
         <v>182</v>
       </c>
@@ -31921,7 +31921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -33005,11 +33005,11 @@
         <v>254</v>
       </c>
       <c r="B38">
-        <f>B37+4</f>
+        <f t="shared" ref="B38:C40" si="23">B37+4</f>
         <v>52</v>
       </c>
       <c r="C38">
-        <f>C37+4</f>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="D38" t="s">
@@ -33036,11 +33036,11 @@
         <v>255</v>
       </c>
       <c r="B39">
-        <f>B38+4</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="C39">
-        <f>C38+4</f>
+        <f t="shared" si="23"/>
         <v>59</v>
       </c>
       <c r="D39" t="s">
@@ -33064,11 +33064,11 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40">
-        <f>B39+4</f>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="C40">
-        <f>C39+4</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
     </row>
@@ -33245,7 +33245,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0051609890995851E-2</v>
+        <v>9.8732050932364493E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -33260,7 +33260,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>99.486550994760719</v>
+        <v>101.28423248140982</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -33272,18 +33272,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.291265385046139E-2</v>
+        <v>1.1956318822002165E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.291265385046139E-2</v>
+        <v>1.1956318822002165E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-5.1344900523928065E-3</v>
+        <v>1.2842324814098163E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -33292,11 +33292,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.106675714830844E-2</v>
+        <v>2.1694553104806506E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>8.1541032978470502E-3</v>
+        <v>9.7382342828043408E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -33305,11 +33305,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9862774500316106E-2</v>
+        <v>2.9495779755394233E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.7960173520076658E-3</v>
+        <v>7.8012266505877274E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -33318,11 +33318,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0341745761296809E-2</v>
+        <v>3.9203290683806978E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0478971260980702E-2</v>
+        <v>9.707510928412745E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -33331,11 +33331,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2686771903536211E-2</v>
+        <v>4.7221631374983336E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2345026142239403E-2</v>
+        <v>8.018340691176358E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -33344,11 +33344,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.218470307830732E-2</v>
+        <v>5.8111045038033153E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4979311747711084E-3</v>
+        <v>1.0889413663049817E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -33357,11 +33357,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0240866834778204E-2</v>
+        <v>6.7438554478885027E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0561637564708841E-3</v>
+        <v>9.3275094408518736E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33370,11 +33370,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7778402694171467E-2</v>
+        <v>7.4763934677148064E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5375358593932629E-3</v>
+        <v>7.3253801982630373E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -33383,11 +33383,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8930854158608158E-2</v>
+        <v>8.296880988139417E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1152451464436691E-2</v>
+        <v>8.2048752042461065E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -33396,11 +33396,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8135539498220806E-2</v>
+        <v>9.4424854485291893E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2046853396126477E-3</v>
+        <v>1.1456044603897722E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -33409,11 +33409,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10889480482865095</v>
+        <v>0.10738386898444177</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0759265330430146E-2</v>
+        <v>1.2959014499149879E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -33422,11 +33422,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11772823905109414</v>
+        <v>0.11575784391098649</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.83343422244319E-3</v>
+        <v>8.3739749265447222E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -33435,11 +33435,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12948176619920576</v>
+        <v>0.127738284328414</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.175352714811162E-2</v>
+        <v>1.1980440417427504E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -33448,11 +33448,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13817228882067401</v>
+        <v>0.13679910082977542</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6905226214682441E-3</v>
+        <v>9.0608165013614239E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -33461,11 +33461,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15030386798577866</v>
+        <v>0.14841544781695951</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2131579165104656E-2</v>
+        <v>1.1616346987184084E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -33474,11 +33474,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16227852032526702</v>
+        <v>0.15851095763339867</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1974652339488356E-2</v>
+        <v>1.0095509816439169E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -33487,11 +33487,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1728642212256131</v>
+        <v>0.16812236898102237</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0585700900346079E-2</v>
+        <v>9.611411347623694E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -33500,11 +33500,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18168051816520628</v>
+        <v>0.18033640390292344</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8162969395931823E-3</v>
+        <v>1.2214034921901068E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -33513,11 +33513,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19098058792892117</v>
+        <v>0.18759089677149254</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.300069763714891E-3</v>
+        <v>7.2544928685691068E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1989AA12-7283-418D-9C97-F22CBA9D0E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51DC058-05BD-47E7-B7EE-2F61B3579A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Direction Vent" sheetId="6" r:id="rId9"/>
     <sheet name="dew frost point" sheetId="12" r:id="rId10"/>
     <sheet name="thermistance etalonnage" sheetId="14" r:id="rId11"/>
-    <sheet name="MesureVoltage" sheetId="20" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="314">
   <si>
     <t>Produit</t>
   </si>
@@ -1020,18 +1019,6 @@
     <t>T (°C)</t>
   </si>
   <si>
-    <t>analogRead</t>
-  </si>
-  <si>
-    <t>value (V)</t>
-  </si>
-  <si>
-    <t>Pin A3(ref)</t>
-  </si>
-  <si>
-    <t>Pin A7</t>
-  </si>
-  <si>
     <t>BH1745 Clear</t>
   </si>
   <si>
@@ -1776,6 +1763,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,9 +1773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -21880,8 +21867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12481560" y="1021080"/>
-          <a:ext cx="1645920" cy="4229100"/>
+          <a:off x="12468225" y="1009650"/>
+          <a:ext cx="1647825" cy="4200525"/>
           <a:chOff x="342900" y="562200"/>
           <a:chExt cx="1645920" cy="2706780"/>
         </a:xfrm>
@@ -26509,7 +26496,7 @@
   <dimension ref="A1:X1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44532,52 +44519,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFF8265-98AD-4142-9EDF-832D25C03E3C}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>3.2879999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <f>B3*C2/B2</f>
-        <v>1.0959999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -46530,7 +46471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18:D21"/>
     </sheetView>
   </sheetViews>
@@ -46577,7 +46518,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="100" t="s">
@@ -46609,7 +46550,7 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="101"/>
       <c r="D4" s="101"/>
       <c r="E4" s="68">
@@ -46629,7 +46570,7 @@
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="101"/>
       <c r="D5" s="101"/>
       <c r="E5" s="68">
@@ -46649,7 +46590,7 @@
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="102"/>
       <c r="D6" s="102"/>
       <c r="E6" s="77">
@@ -46669,7 +46610,7 @@
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="100" t="s">
@@ -46697,7 +46638,7 @@
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="101"/>
       <c r="D8" s="101"/>
       <c r="E8" s="68">
@@ -46727,7 +46668,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="102"/>
       <c r="D9" s="102"/>
       <c r="E9" s="77">
@@ -46751,7 +46692,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="100" t="s">
@@ -46783,7 +46724,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
       <c r="E11" s="68">
@@ -46815,7 +46756,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
       <c r="E12" s="68">
@@ -46830,9 +46771,9 @@
       <c r="H12" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -46841,7 +46782,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="102"/>
       <c r="D13" s="102"/>
       <c r="E13" s="77">
@@ -46873,7 +46814,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C14" s="100" t="s">
@@ -46901,7 +46842,7 @@
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
       <c r="E15" s="68">
@@ -46923,7 +46864,7 @@
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="101"/>
       <c r="D16" s="101"/>
       <c r="E16" s="68">
@@ -46945,7 +46886,7 @@
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="105"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
       <c r="E17" s="77">
@@ -46967,7 +46908,7 @@
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C18" s="100" t="s">
@@ -46999,7 +46940,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
       <c r="E19" s="68">
@@ -47016,7 +46957,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="101"/>
       <c r="D20" s="101"/>
       <c r="E20" s="68">
@@ -47033,7 +46974,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="105"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="102"/>
       <c r="D21" s="102"/>
       <c r="E21" s="77">
@@ -47050,7 +46991,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="100" t="s">
@@ -47071,7 +47012,7 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="101"/>
       <c r="D23" s="101"/>
       <c r="E23" s="68">
@@ -47086,7 +47027,7 @@
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
       <c r="E24" s="68">
@@ -47101,7 +47042,7 @@
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
       <c r="E25" s="68">
@@ -47116,7 +47057,7 @@
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="104"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
       <c r="E26" s="68">
@@ -47131,7 +47072,7 @@
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="105"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
       <c r="E27" s="77">
@@ -47146,7 +47087,7 @@
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="104" t="s">
         <v>200</v>
       </c>
       <c r="C28" s="100" t="s">
@@ -47167,7 +47108,7 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="104"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="101"/>
       <c r="D29" s="101"/>
       <c r="E29" s="68">
@@ -47182,7 +47123,7 @@
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="105"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="102"/>
       <c r="D30" s="102"/>
       <c r="E30" s="77">
@@ -47208,7 +47149,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="103" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="82" t="s">
@@ -47222,7 +47163,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="83" t="s">
         <v>160</v>
       </c>
@@ -47234,7 +47175,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="80" t="s">
         <v>201</v>
       </c>
@@ -47246,7 +47187,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="86" t="s">
         <v>183</v>
       </c>
@@ -47258,7 +47199,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="103" t="s">
         <v>191</v>
       </c>
       <c r="B39" s="82" t="s">
@@ -47272,7 +47213,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="83" t="s">
         <v>160</v>
       </c>
@@ -47284,7 +47225,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="106"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="80" t="s">
         <v>201</v>
       </c>
@@ -47296,7 +47237,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="81" t="s">
         <v>277</v>
       </c>
@@ -47309,6 +47250,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
@@ -47325,25 +47285,6 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -47390,8 +47331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -47428,7 +47369,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="103" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
@@ -47448,7 +47389,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="106"/>
+      <c r="J4" s="103"/>
       <c r="K4" t="s">
         <v>191</v>
       </c>
@@ -47475,7 +47416,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="103"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -47500,7 +47441,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="106"/>
+      <c r="J6" s="103"/>
       <c r="K6" t="s">
         <v>182</v>
       </c>
@@ -47592,7 +47533,7 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -47703,6 +47644,9 @@
       <c r="G19" s="70" t="s">
         <v>5</v>
       </c>
+      <c r="H19" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
@@ -47717,7 +47661,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -47735,9 +47679,6 @@
       </c>
       <c r="G21" s="70" t="s">
         <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -47774,7 +47715,7 @@
         <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -47782,7 +47723,7 @@
         <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -48102,7 +48043,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
@@ -49526,7 +49467,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.8067976057644429E-3</v>
+        <v>9.51233972960501E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -49541,7 +49482,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>101.97008648492952</v>
+        <v>105.12660695745819</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -49553,18 +49494,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>8.6642640202379499E-3</v>
+        <v>7.2317525574619717E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>8.6642640202379499E-3</v>
+        <v>7.2317525574619717E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>1.9700864849295244E-2</v>
+        <v>5.1266069574581935E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -49573,11 +49514,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0180903266915028E-2</v>
+        <v>1.8816768977008579E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.1516639246677078E-2</v>
+        <v>1.1585016419546608E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -49586,11 +49527,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7947056250517088E-2</v>
+        <v>2.6837164227158771E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>7.7661529836020593E-3</v>
+        <v>8.0203952501501918E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -49599,11 +49540,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5571401645137682E-2</v>
+        <v>3.7834271836981424E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6243453946205943E-3</v>
+        <v>1.0997107609822653E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -49612,11 +49553,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8078900156945124E-2</v>
+        <v>5.0459719552513611E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2507498511807442E-2</v>
+        <v>1.2625447715532187E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -49625,11 +49566,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0501218976369488E-2</v>
+        <v>5.765492378473977E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2422318819424363E-2</v>
+        <v>7.1952042322261586E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -49638,11 +49579,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8402319612240456E-2</v>
+        <v>6.8333406957230794E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9011006358709682E-3</v>
+        <v>1.0678483172491024E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -49651,11 +49592,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7495588223395584E-2</v>
+        <v>7.7680703139223539E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0932686111551281E-3</v>
+        <v>9.3472961819927453E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -49664,11 +49605,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7359967606581795E-2</v>
+        <v>8.784853875860793E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8643793831862114E-3</v>
+        <v>1.0167835619384391E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -49677,11 +49618,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7689557148745457E-2</v>
+        <v>9.5395080057135317E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0329589542163661E-2</v>
+        <v>7.5465412985273872E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -49690,11 +49631,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10815870069910494</v>
+        <v>0.10669827214235009</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.046914355035948E-2</v>
+        <v>1.1303192085214769E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -49703,11 +49644,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11587901273430175</v>
+        <v>0.11561362154138508</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7203120351968108E-3</v>
+        <v>8.9153493990349886E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -49716,11 +49657,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12456446110784632</v>
+        <v>0.12382452704966426</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6854483735445687E-3</v>
+        <v>8.2109055082791871E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -49729,11 +49670,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13617310918998876</v>
+        <v>0.13161756326369831</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1608648082142445E-2</v>
+        <v>7.7930362140340437E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -49742,11 +49683,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14895227218922069</v>
+        <v>0.14202942434920615</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.277916299923193E-2</v>
+        <v>1.0411861085507845E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -49755,11 +49696,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15683904344487493</v>
+        <v>0.15242028532267271</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8867712556542346E-3</v>
+        <v>1.0390860973466559E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -49768,11 +49709,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16688644813077286</v>
+        <v>0.16376398769199596</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0047404685897932E-2</v>
+        <v>1.134370236932325E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -49781,11 +49722,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17391695886556952</v>
+        <v>0.17121835036387886</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0305107347966578E-3</v>
+        <v>7.4543626718829026E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -49794,11 +49735,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18632915450952442</v>
+        <v>0.1807344548624952</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2412195643954904E-2</v>
+        <v>9.5161044986163401E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6DC56A-F2C7-44B7-AA4A-8662491E3394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A041B732-C66F-4D52-A0CE-F14DFFD79B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="3180" yWindow="-156" windowWidth="13824" windowHeight="7176" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
-    <sheet name="conso" sheetId="3" r:id="rId2"/>
-    <sheet name="Liste connecteur" sheetId="19" r:id="rId3"/>
-    <sheet name="Pin des Arduino" sheetId="4" r:id="rId4"/>
-    <sheet name="Radio" sheetId="9" r:id="rId5"/>
-    <sheet name="Codage-décodage Radio" sheetId="15" r:id="rId6"/>
-    <sheet name="Ordre execution tache" sheetId="17" r:id="rId7"/>
-    <sheet name="Test mesure frequence" sheetId="5" r:id="rId8"/>
-    <sheet name="Direction Vent" sheetId="6" r:id="rId9"/>
-    <sheet name="dew frost point" sheetId="12" r:id="rId10"/>
-    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId11"/>
+    <sheet name="Passage en feather ada" sheetId="20" r:id="rId2"/>
+    <sheet name="conso" sheetId="3" r:id="rId3"/>
+    <sheet name="Liste connecteur" sheetId="19" r:id="rId4"/>
+    <sheet name="Pin des Arduino" sheetId="4" r:id="rId5"/>
+    <sheet name="Radio" sheetId="9" r:id="rId6"/>
+    <sheet name="Codage-décodage Radio" sheetId="15" r:id="rId7"/>
+    <sheet name="Ordre execution tache" sheetId="17" r:id="rId8"/>
+    <sheet name="Test mesure frequence" sheetId="5" r:id="rId9"/>
+    <sheet name="Direction Vent" sheetId="6" r:id="rId10"/>
+    <sheet name="dew frost point" sheetId="12" r:id="rId11"/>
+    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="341">
   <si>
     <t>Produit</t>
   </si>
@@ -1024,6 +1025,87 @@
   <si>
     <t>CS arduino</t>
   </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>divers connecteur</t>
+  </si>
+  <si>
+    <t>BMP et dht22</t>
+  </si>
+  <si>
+    <t>batterie</t>
+  </si>
+  <si>
+    <t>Passage avec des feathers de adafruit :</t>
+  </si>
+  <si>
+    <t>Maison</t>
+  </si>
+  <si>
+    <t>Feather LoRa</t>
+  </si>
+  <si>
+    <t>wings wifi</t>
+  </si>
+  <si>
+    <t>feather lora</t>
+  </si>
+  <si>
+    <t>adalogger</t>
+  </si>
+  <si>
+    <t>tripple</t>
+  </si>
+  <si>
+    <t>gestion de la batterie dans la maison aussi</t>
+  </si>
+  <si>
+    <t>données à envoyer</t>
+  </si>
+  <si>
+    <t>direction vent</t>
+  </si>
+  <si>
+    <t>température</t>
+  </si>
+  <si>
+    <t>humidité</t>
+  </si>
+  <si>
+    <t>pression</t>
+  </si>
+  <si>
+    <t>Voltage Batterie station</t>
+  </si>
+  <si>
+    <t>Voltage batterie recepteur</t>
+  </si>
+  <si>
+    <t>pluie sur 24h</t>
+  </si>
+  <si>
+    <t>pluie sur 7j</t>
+  </si>
+  <si>
+    <t>Icone adafruit :</t>
+  </si>
+  <si>
+    <t>valeur possible de X</t>
+  </si>
+  <si>
+    <t>w:wind__from-X-deg</t>
+  </si>
+  <si>
+    <t>atttention le 0 indique le sud</t>
+  </si>
+  <si>
+    <t>pluie 15min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesure </t>
+  </si>
 </sst>
 </file>
 
@@ -1034,7 +1116,7 @@
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1272,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1599,7 +1689,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1751,6 +1841,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1784,7 +1875,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
@@ -1797,16 +1888,6 @@
     <cellStyle name="Satisfaisant" xfId="5" builtinId="26"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1906,6 +1987,16 @@
       <fill>
         <patternFill>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -26564,16 +26655,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>178904</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13253</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>715617</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>775252</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>159027</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291547</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27126,7 +27217,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27143,21 +27234,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="99"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="64">
-        <f>SUM(D5:D19)</f>
-        <v>487.51</v>
+        <f>SUM(D5:D22)</f>
+        <v>534.23</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -27381,14 +27472,41 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15.25</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="1">
+        <v>18.48</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12.99</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -27405,6 +27523,1583 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
+  <dimension ref="A2:AA58"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>335</v>
+      </c>
+      <c r="V2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="B3" s="9">
+        <f>A3*1023/5</f>
+        <v>785.66399999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*1024/5</f>
+        <v>817.15200000000004</v>
+      </c>
+      <c r="F3" s="12">
+        <f>ABS(D3-A3)/A3</f>
+        <v>3.9062500000000097E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H18" si="0">INT(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(D20,",""", R3, """")</f>
+        <v>,"N"</v>
+      </c>
+      <c r="V3" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:B17" si="1">A4*1023/5</f>
+        <v>405.108</v>
+      </c>
+      <c r="C4" s="9">
+        <v>22.5</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.06</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E18" si="2">D4*1024/5</f>
+        <v>421.88800000000003</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F18" si="3">ABS(D4-A4)/A4</f>
+        <v>4.0404040404040442E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, </v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="str">
+        <f>CONCATENATE(S3,",""", R4, """")</f>
+        <v>,"N","NNE"</v>
+      </c>
+      <c r="U4" t="s">
+        <v>336</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>MOD(Z4+180,360)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="1"/>
+        <v>460.35</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.34</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="2"/>
+        <v>479.23199999999997</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999938E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
+        <v>,"N","NNE","NE"</v>
+      </c>
+      <c r="V5">
+        <v>23</v>
+      </c>
+      <c r="Z5">
+        <v>23</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA19" si="5">MOD(Z5+180,360)</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>83.885999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="2"/>
+        <v>86.015999999999991</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="6">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE"</v>
+      </c>
+      <c r="V6">
+        <v>45</v>
+      </c>
+      <c r="Z6">
+        <v>45</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="1"/>
+        <v>92.070000000000007</v>
+      </c>
+      <c r="C7" s="9">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="2"/>
+        <v>95.231999999999999</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E"</v>
+      </c>
+      <c r="V7">
+        <v>68</v>
+      </c>
+      <c r="Z7">
+        <v>68</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="1"/>
+        <v>65.472000000000008</v>
+      </c>
+      <c r="C8" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
+        <v>65.536000000000001</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="7">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE"</v>
+      </c>
+      <c r="V8">
+        <v>90</v>
+      </c>
+      <c r="Z8">
+        <v>90</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="1"/>
+        <v>184.14000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>135</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>190.464</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE"</v>
+      </c>
+      <c r="V9">
+        <v>113</v>
+      </c>
+      <c r="Z9">
+        <v>113</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="1"/>
+        <v>126.852</v>
+      </c>
+      <c r="C10" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>131.072</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>3.2258064516129059E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10" si="8">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE"</v>
+      </c>
+      <c r="V10">
+        <v>135</v>
+      </c>
+      <c r="Z10">
+        <v>135</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="1"/>
+        <v>286.43999999999994</v>
+      </c>
+      <c r="C11" s="9">
+        <v>180</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="2"/>
+        <v>296.95999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285747E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S"</v>
+      </c>
+      <c r="V11">
+        <v>158</v>
+      </c>
+      <c r="Z11">
+        <v>156</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="1"/>
+        <v>243.47399999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>202.5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>251.904</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3613445378151294E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ref="J12" si="9">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
+      </c>
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW"</v>
+      </c>
+      <c r="V12">
+        <v>180</v>
+      </c>
+      <c r="Z12">
+        <v>180</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3.08</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="1"/>
+        <v>630.16800000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>225</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>655.36</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>3.8961038961038995E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW"</v>
+      </c>
+      <c r="V13">
+        <v>203</v>
+      </c>
+      <c r="Z13">
+        <v>203</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2.93</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="1"/>
+        <v>599.47800000000007</v>
+      </c>
+      <c r="C14" s="9">
+        <v>247.5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3.04</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>622.59199999999998</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>3.754266211604091E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14" si="10">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW"</v>
+      </c>
+      <c r="V14">
+        <v>225</v>
+      </c>
+      <c r="Z14">
+        <v>225</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="1"/>
+        <v>945.25200000000007</v>
+      </c>
+      <c r="C15" s="9">
+        <v>270</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.79</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>980.99199999999996</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>3.6796536796536779E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW"</v>
+      </c>
+      <c r="V15">
+        <v>248</v>
+      </c>
+      <c r="Z15">
+        <v>248</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="1"/>
+        <v>826.58400000000006</v>
+      </c>
+      <c r="C16" s="9">
+        <v>292.5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>860.16000000000008</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9603960396039639E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16" si="11">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
+      </c>
+      <c r="R16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW"</v>
+      </c>
+      <c r="V16">
+        <v>270</v>
+      </c>
+      <c r="Z16">
+        <v>270</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="1"/>
+        <v>885.91800000000001</v>
+      </c>
+      <c r="C17" s="9">
+        <v>315</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="2"/>
+        <v>921.6</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9260969976905293E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="R17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW"</v>
+      </c>
+      <c r="V17">
+        <v>293</v>
+      </c>
+      <c r="Z17">
+        <v>293</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="B18" s="9">
+        <f>A18*1023/5</f>
+        <v>701.77800000000002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>337.5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3.57</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="2"/>
+        <v>731.13599999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>4.0816326530612151E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18" si="12">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
+        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
+      </c>
+      <c r="R18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW","NNW"</v>
+      </c>
+      <c r="V18">
+        <v>313</v>
+      </c>
+      <c r="Z18">
+        <v>315</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="9">
+        <v>360</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="V19">
+        <v>336</v>
+      </c>
+      <c r="Z19">
+        <v>338</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>65.471999999999994</v>
+      </c>
+      <c r="B22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22">
+        <f>(A23+A22)/2</f>
+        <v>74.679000000000002</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D22,0), ") return(", ROUND(B22, 1), ");")</f>
+        <v>if (WindAnalog &lt; 75) return(115);</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="7" t="str">
+        <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
+        <v>if(WindAngle &lt; 5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>83.885999999999996</v>
+      </c>
+      <c r="B23" s="7">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23">
+        <f t="shared" ref="D23:D37" si="13">(A24+A23)/2</f>
+        <v>87.978000000000009</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D23,0), ") return(", ROUND(B23, 1), ");")</f>
+        <v>if (WindAnalog &lt; 88) return(70);</v>
+      </c>
+      <c r="K23">
+        <v>22.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" ref="O23:O37" si="14">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
+        <v>if(WindAngle &lt; 27,5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>92.070000000000007</v>
+      </c>
+      <c r="B24" s="7">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24">
+        <f t="shared" si="13"/>
+        <v>109.46100000000001</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="str">
+        <f t="shared" ref="G24:G37" si="15">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
+        <v>if (WindAnalog &lt; 109) return(90);</v>
+      </c>
+      <c r="K24">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>126.852</v>
+      </c>
+      <c r="B25" s="7">
+        <v>160</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25">
+        <f t="shared" si="13"/>
+        <v>155.49600000000001</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 155) return(160);</v>
+      </c>
+      <c r="K25">
+        <v>67.5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 72,5) return("Est");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>184.14000000000001</v>
+      </c>
+      <c r="B26" s="7">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26">
+        <f t="shared" si="13"/>
+        <v>213.80700000000002</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 214) return(135);</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="M26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 95) return("Est");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>243.47399999999999</v>
+      </c>
+      <c r="B27" s="7">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27">
+        <f t="shared" si="13"/>
+        <v>264.95699999999999</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 265) return(200);</v>
+      </c>
+      <c r="K27">
+        <v>112.5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 117,5) return("Est");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>286.43999999999994</v>
+      </c>
+      <c r="B28" s="7">
+        <v>180</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28">
+        <f t="shared" si="13"/>
+        <v>345.774</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 346) return(180);</v>
+      </c>
+      <c r="K28">
+        <v>135</v>
+      </c>
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>405.108</v>
+      </c>
+      <c r="B29" s="7">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29">
+        <f t="shared" si="13"/>
+        <v>432.72900000000004</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 433) return(20);</v>
+      </c>
+      <c r="K29">
+        <v>157.5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 162,5) return("Sud");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>460.35</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30">
+        <f t="shared" si="13"/>
+        <v>529.91399999999999</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 530) return(45);</v>
+      </c>
+      <c r="K30">
+        <v>180</v>
+      </c>
+      <c r="M30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 185) return("Sud");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>599.47800000000007</v>
+      </c>
+      <c r="B31" s="7">
+        <v>250</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31">
+        <f t="shared" si="13"/>
+        <v>614.82300000000009</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 615) return(250);</v>
+      </c>
+      <c r="K31">
+        <v>202.5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 207,5) return("Sud");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>630.16800000000001</v>
+      </c>
+      <c r="B32" s="7">
+        <v>225</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32">
+        <f t="shared" si="13"/>
+        <v>665.97299999999996</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 666) return(225);</v>
+      </c>
+      <c r="K32">
+        <v>225</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>701.77800000000002</v>
+      </c>
+      <c r="B33" s="7">
+        <v>340</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33">
+        <f t="shared" si="13"/>
+        <v>743.721</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 744) return(340);</v>
+      </c>
+      <c r="K33">
+        <v>247.5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>785.66399999999999</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34">
+        <f t="shared" si="13"/>
+        <v>806.12400000000002</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 806) return(0);</v>
+      </c>
+      <c r="K34">
+        <v>270</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 275) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>826.58400000000006</v>
+      </c>
+      <c r="B35" s="7">
+        <v>290</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35">
+        <f t="shared" si="13"/>
+        <v>856.25099999999998</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 856) return(290);</v>
+      </c>
+      <c r="K35">
+        <v>292.5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>885.91800000000001</v>
+      </c>
+      <c r="B36" s="7">
+        <v>315</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>915.58500000000004</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 916) return(315);</v>
+      </c>
+      <c r="K36">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="O36" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>945.25200000000007</v>
+      </c>
+      <c r="B37" s="7">
+        <v>270</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37">
+        <f t="shared" si="13"/>
+        <v>984.12599999999998</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>if (WindAnalog &lt; 984) return(270);</v>
+      </c>
+      <c r="K37">
+        <v>337.5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>if(WindAngle &lt; 342,5) return("Nord");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>65.536000000000001</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B57" si="16">(A43+A44)/2</f>
+        <v>75.775999999999996</v>
+      </c>
+      <c r="C43" s="7">
+        <v>112.5</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="str">
+        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B43,0), ") return(", ROUND(C43, 1), ");")</f>
+        <v>if (WindAnalog &lt; 76) return(112,5);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>86.015999999999991</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="16"/>
+        <v>90.623999999999995</v>
+      </c>
+      <c r="C44" s="7">
+        <v>67.5</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="str">
+        <f t="shared" ref="G44:G58" si="17">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
+        <v>if (WindAnalog &lt; 91) return(67,5);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>95.231999999999999</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="16"/>
+        <v>113.152</v>
+      </c>
+      <c r="C45" s="7">
+        <v>90</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 113) return(90);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>131.072</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="16"/>
+        <v>160.768</v>
+      </c>
+      <c r="C46" s="7">
+        <v>157.5</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 161) return(157,5);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>190.464</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="16"/>
+        <v>221.184</v>
+      </c>
+      <c r="C47" s="7">
+        <v>135</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 221) return(135);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>251.904</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="16"/>
+        <v>274.43200000000002</v>
+      </c>
+      <c r="C48" s="7">
+        <v>202.5</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 274) return(202,5);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>296.95999999999998</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="16"/>
+        <v>359.42399999999998</v>
+      </c>
+      <c r="C49" s="7">
+        <v>180</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 359) return(180);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>421.88800000000003</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="16"/>
+        <v>450.56</v>
+      </c>
+      <c r="C50" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 451) return(22,5);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>479.23199999999997</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="16"/>
+        <v>550.91200000000003</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 551) return(45);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>622.59199999999998</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="16"/>
+        <v>638.976</v>
+      </c>
+      <c r="C52" s="7">
+        <v>247.5</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 639) return(247,5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>655.36</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="16"/>
+        <v>693.24800000000005</v>
+      </c>
+      <c r="C53" s="7">
+        <v>225</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 693) return(225);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>731.13599999999997</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="16"/>
+        <v>774.14400000000001</v>
+      </c>
+      <c r="C54" s="7">
+        <v>337.5</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 774) return(337,5);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>817.15200000000004</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="16"/>
+        <v>838.65600000000006</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 839) return(0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>860.16000000000008</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="16"/>
+        <v>890.88000000000011</v>
+      </c>
+      <c r="C56" s="7">
+        <v>292.5</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 891) return(292,5);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>921.6</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="16"/>
+        <v>951.29600000000005</v>
+      </c>
+      <c r="C57" s="7">
+        <v>315</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 951) return(315);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>980.99199999999996</v>
+      </c>
+      <c r="B58">
+        <v>1023</v>
+      </c>
+      <c r="C58" s="7">
+        <v>270</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>if (WindAnalog &lt; 1023) return(270);</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B58">
+    <sortCondition ref="A43:A58"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -27851,7 +29546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEA360-918D-49DA-A94F-EC74570144D0}">
   <dimension ref="A1:X1026"/>
   <sheetViews>
@@ -45883,6 +47578,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A01A1-7AB8-40C2-A8AE-985E0D56E443}">
   <dimension ref="A1:X367"/>
   <sheetViews>
@@ -46133,7 +47981,7 @@
         <f t="shared" ref="F8" si="6">(E8*D8)/3600</f>
         <v>0</v>
       </c>
-      <c r="H8" s="110"/>
+      <c r="H8" s="99"/>
       <c r="K8">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -50968,7 +52816,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O158">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50978,7 +52826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D1C501-6ABF-4FF7-B1E1-C49F27E96A4F}">
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -51029,13 +52877,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="101" t="s">
         <v>202</v>
       </c>
       <c r="E3" s="76">
@@ -51046,13 +52894,13 @@
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="101" t="s">
         <v>209</v>
       </c>
       <c r="M3" s="76">
@@ -51061,9 +52909,9 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="104"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="68">
         <v>2</v>
       </c>
@@ -51072,18 +52920,18 @@
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="68">
         <v>2</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="104"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="68">
         <v>3</v>
       </c>
@@ -51092,18 +52940,18 @@
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="68">
         <v>3</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="105"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="77">
         <v>4</v>
       </c>
@@ -51112,22 +52960,22 @@
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="68">
         <v>4</v>
       </c>
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="101" t="s">
         <v>181</v>
       </c>
       <c r="E7" s="76">
@@ -51140,18 +52988,18 @@
         <v>290</v>
       </c>
       <c r="H7" s="76"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="77">
         <v>5</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="68">
         <v>2</v>
       </c>
@@ -51162,13 +53010,13 @@
         <v>298</v>
       </c>
       <c r="H8" s="68"/>
-      <c r="J8" s="100" t="s">
+      <c r="J8" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="100" t="s">
+      <c r="K8" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="101" t="s">
         <v>210</v>
       </c>
       <c r="M8" s="76">
@@ -51179,9 +53027,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="105"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="77">
         <v>3</v>
       </c>
@@ -51192,9 +53040,9 @@
         <v>289</v>
       </c>
       <c r="H9" s="77"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="68">
         <v>2</v>
       </c>
@@ -51203,13 +53051,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="101" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="76">
@@ -51224,9 +53072,9 @@
       <c r="H10" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
       <c r="M10" s="77">
         <v>3</v>
       </c>
@@ -51235,9 +53083,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="104"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="68">
         <v>2</v>
       </c>
@@ -51250,13 +53098,13 @@
       <c r="H11" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="100" t="s">
+      <c r="K11" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="100" t="s">
+      <c r="L11" s="101" t="s">
         <v>212</v>
       </c>
       <c r="M11">
@@ -51267,9 +53115,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="104"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="68">
         <v>3</v>
       </c>
@@ -51282,9 +53130,9 @@
       <c r="H12" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -51293,9 +53141,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="105"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="77">
         <v>4</v>
       </c>
@@ -51308,13 +53156,13 @@
       <c r="H13" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="L13" s="100" t="s">
+      <c r="L13" s="101" t="s">
         <v>213</v>
       </c>
       <c r="M13" s="76">
@@ -51325,13 +53173,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="101" t="s">
         <v>182</v>
       </c>
       <c r="E14" s="76">
@@ -51346,16 +53194,16 @@
       <c r="H14" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="104"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="68">
         <v>2</v>
       </c>
@@ -51368,16 +53216,16 @@
       <c r="H15" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="104"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="68">
         <v>3</v>
       </c>
@@ -51390,16 +53238,16 @@
       <c r="H16" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="105"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="77">
         <v>4</v>
       </c>
@@ -51412,20 +53260,20 @@
       <c r="H17" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="101" t="s">
         <v>191</v>
       </c>
       <c r="E18" s="76">
@@ -51440,9 +53288,9 @@
       <c r="H18" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="68">
         <v>2</v>
       </c>
@@ -51451,9 +53299,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="104"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="68">
         <v>2</v>
       </c>
@@ -51468,9 +53316,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="104"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="68">
         <v>3</v>
       </c>
@@ -51485,9 +53333,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="105"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="77">
         <v>4</v>
       </c>
@@ -51502,13 +53350,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="101" t="s">
         <v>276</v>
       </c>
       <c r="E22" s="76">
@@ -51523,9 +53371,9 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="104"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="68">
         <v>2</v>
       </c>
@@ -51538,9 +53386,9 @@
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="68">
         <v>3</v>
       </c>
@@ -51553,9 +53401,9 @@
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="104"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="68">
         <v>4</v>
       </c>
@@ -51568,9 +53416,9 @@
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="104"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="68">
         <v>5</v>
       </c>
@@ -51583,9 +53431,9 @@
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="105"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="77">
         <v>6</v>
       </c>
@@ -51598,13 +53446,13 @@
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="100" t="s">
+      <c r="C28" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="101" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="76">
@@ -51619,9 +53467,9 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="104"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="68">
         <v>2</v>
       </c>
@@ -51634,9 +53482,9 @@
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="105"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="77">
         <v>3</v>
       </c>
@@ -51660,7 +53508,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="107" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="82" t="s">
@@ -51674,7 +53522,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="83" t="s">
         <v>160</v>
       </c>
@@ -51686,7 +53534,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="80" t="s">
         <v>201</v>
       </c>
@@ -51698,7 +53546,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="86" t="s">
         <v>183</v>
       </c>
@@ -51710,7 +53558,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="107" t="s">
         <v>191</v>
       </c>
       <c r="B39" s="82" t="s">
@@ -51724,7 +53572,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="83" t="s">
         <v>160</v>
       </c>
@@ -51736,7 +53584,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="106"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="80" t="s">
         <v>201</v>
       </c>
@@ -51748,7 +53596,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="81" t="s">
         <v>277</v>
       </c>
@@ -51799,36 +53647,36 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Bleu"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Jaune"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Noir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Vert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Rouge"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Bleu"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Jaune"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Noir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Vert"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Rouge"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51838,11 +53686,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -51880,7 +53728,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="107" t="s">
         <v>161</v>
       </c>
       <c r="K3" t="s">
@@ -51900,7 +53748,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="106"/>
+      <c r="J4" s="107"/>
       <c r="K4" t="s">
         <v>191</v>
       </c>
@@ -51927,7 +53775,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="107"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -51952,7 +53800,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="106"/>
+      <c r="J6" s="107"/>
       <c r="K6" t="s">
         <v>182</v>
       </c>
@@ -52266,7 +54114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L28"/>
   <sheetViews>
@@ -52285,13 +54133,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
@@ -52339,11 +54187,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
       <c r="D7" t="s">
         <v>135</v>
       </c>
@@ -52587,7 +54435,7 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="K24" s="107" t="s">
+      <c r="K24" s="108" t="s">
         <v>116</v>
       </c>
     </row>
@@ -52600,7 +54448,7 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="K25" s="107"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -52617,7 +54465,7 @@
       <c r="D26" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="107"/>
+      <c r="K26" s="108"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -52634,10 +54482,10 @@
       <c r="D27" t="s">
         <v>180</v>
       </c>
-      <c r="K27" s="107"/>
+      <c r="K27" s="108"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="107"/>
+      <c r="K28" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -52650,7 +54498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -52665,10 +54513,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="110"/>
       <c r="D1" t="s">
         <v>275</v>
       </c>
@@ -53311,10 +55159,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="109"/>
+      <c r="B22" s="110"/>
       <c r="C22" t="s">
         <v>269</v>
       </c>
@@ -53816,7 +55664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
@@ -53878,7 +55726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD9B7D-59EE-42F5-ACB8-0201936EFCF0}">
   <dimension ref="A2:K26"/>
   <sheetViews>
@@ -53978,7 +55826,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0000240370533691E-2</v>
+        <v>9.2337725934236985E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -53993,7 +55841,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>99.9975963524397</v>
+        <v>108.29809700015798</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -54005,18 +55853,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.1121692439054282E-2</v>
+        <v>9.1854800775527188E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.1121692439054282E-2</v>
+        <v>9.1854800775527188E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-2.4036475602997599E-5</v>
+        <v>8.2980970001579807E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -54025,11 +55873,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8187991497380606E-2</v>
+        <v>2.1739425256319812E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>7.0662990583263245E-3</v>
+        <v>1.2553945178767094E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -54038,11 +55886,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5936258819551347E-2</v>
+        <v>2.9948942842581851E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>7.7482673221707411E-3</v>
+        <v>8.2095175862620384E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -54051,11 +55899,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3467432494226949E-2</v>
+        <v>3.9321747012156065E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5311736746756022E-3</v>
+        <v>9.3728041695742143E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -54064,11 +55912,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5354570706765553E-2</v>
+        <v>4.6337943696107595E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1887138212538603E-2</v>
+        <v>7.0161966839515297E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -54077,11 +55925,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6769154510543623E-2</v>
+        <v>5.4265918359501494E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1414583803778071E-2</v>
+        <v>7.9279746633938997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -54090,11 +55938,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6087567528327798E-2</v>
+        <v>6.6051896064884652E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3184130177841745E-3</v>
+        <v>1.1785977705383158E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -54103,11 +55951,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4554483039981675E-2</v>
+        <v>7.4667706821522406E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4669155116538775E-3</v>
+        <v>8.615810756637754E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -54116,11 +55964,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4611427377728976E-2</v>
+        <v>8.5969731197766255E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0056944337747301E-2</v>
+        <v>1.1302024376243849E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -54129,11 +55977,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7230664768066591E-2</v>
+        <v>9.449048212042141E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2619237390337615E-2</v>
+        <v>8.5207509226551542E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -54142,11 +55990,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10553257754677964</v>
+        <v>0.10234211714262512</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.301912778713047E-3</v>
+        <v>7.8516350222037068E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -54155,11 +56003,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11608034574105888</v>
+        <v>0.11318199246440847</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0547768194279245E-2</v>
+        <v>1.0839875321783349E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -54168,11 +56016,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12563478268146058</v>
+        <v>0.12075904804119512</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5544369404017004E-3</v>
+        <v>7.5770555767866593E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -54181,11 +56029,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1374163115365104</v>
+        <v>0.13178482722918375</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1781528855049822E-2</v>
+        <v>1.1025779187988624E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -54194,11 +56042,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14928541702522527</v>
+        <v>0.14377032575209137</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1869105488714865E-2</v>
+        <v>1.1985498522907617E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -54207,11 +56055,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15955558530284861</v>
+        <v>0.15200600384033527</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0270168277623337E-2</v>
+        <v>8.2356780882439085E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -54220,11 +56068,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16804911405611211</v>
+        <v>0.16031258573338236</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4935287532635073E-3</v>
+        <v>8.306581893047088E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -54233,11 +56081,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17961954115527304</v>
+        <v>0.16737908401408189</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1570427099160924E-2</v>
+        <v>7.0664982806995236E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -54246,1414 +56094,14 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19000456704014013</v>
+        <v>0.17544167927505028</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0385025884867088E-2</v>
+        <v>8.0625952609683915E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
-  <dimension ref="A2:S58"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>3.84</v>
-      </c>
-      <c r="B3" s="9">
-        <f>A3*1023/5</f>
-        <v>785.66399999999999</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3.99</v>
-      </c>
-      <c r="E3" s="11">
-        <f>D3*1024/5</f>
-        <v>817.15200000000004</v>
-      </c>
-      <c r="F3" s="12">
-        <f>ABS(D3-A3)/A3</f>
-        <v>3.9062500000000097E-2</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H18" si="0">INT(C3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="str">
-        <f>CONCATENATE(D20,",""", R3, """")</f>
-        <v>,"N"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1.98</v>
-      </c>
-      <c r="B4" s="9">
-        <f t="shared" ref="B4:B17" si="1">A4*1023/5</f>
-        <v>405.108</v>
-      </c>
-      <c r="C4" s="9">
-        <v>22.5</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2.06</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E18" si="2">D4*1024/5</f>
-        <v>421.88800000000003</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F18" si="3">ABS(D4-A4)/A4</f>
-        <v>4.0404040404040442E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE(F2, H3, ", ", H4, I4, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, </v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="str">
-        <f>CONCATENATE(S3,",""", R4, """")</f>
-        <v>,"N","NNE"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="B5" s="9">
-        <f t="shared" si="1"/>
-        <v>460.35</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="E5" s="11">
-        <f t="shared" si="2"/>
-        <v>479.23199999999997</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999938E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S18" si="4">CONCATENATE(S4,",""", R5, """")</f>
-        <v>,"N","NNE","NE"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>0.41</v>
-      </c>
-      <c r="B6" s="9">
-        <f t="shared" si="1"/>
-        <v>83.885999999999996</v>
-      </c>
-      <c r="C6" s="9">
-        <v>67.5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="2"/>
-        <v>86.015999999999991</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="3"/>
-        <v>2.4390243902439046E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6" si="5">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="1"/>
-        <v>92.070000000000007</v>
-      </c>
-      <c r="C7" s="9">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="2"/>
-        <v>95.231999999999999</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333361E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="B8" s="9">
-        <f t="shared" si="1"/>
-        <v>65.472000000000008</v>
-      </c>
-      <c r="C8" s="9">
-        <v>112.5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="2"/>
-        <v>65.536000000000001</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" ref="J8" si="6">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
-      </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="B9" s="9">
-        <f t="shared" si="1"/>
-        <v>184.14000000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>135</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="2"/>
-        <v>190.464</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333361E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="B10" s="9">
-        <f t="shared" si="1"/>
-        <v>126.852</v>
-      </c>
-      <c r="C10" s="9">
-        <v>157.5</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="2"/>
-        <v>131.072</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129059E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" ref="J10" si="7">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
-      </c>
-      <c r="R10" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="B11" s="9">
-        <f t="shared" si="1"/>
-        <v>286.43999999999994</v>
-      </c>
-      <c r="C11" s="9">
-        <v>180</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="2"/>
-        <v>296.95999999999998</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="3"/>
-        <v>3.5714285714285747E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="R11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="B12" s="9">
-        <f t="shared" si="1"/>
-        <v>243.47399999999999</v>
-      </c>
-      <c r="C12" s="9">
-        <v>202.5</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="2"/>
-        <v>251.904</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="3"/>
-        <v>3.3613445378151294E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" ref="J12" si="8">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
-      </c>
-      <c r="R12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3.08</v>
-      </c>
-      <c r="B13" s="9">
-        <f t="shared" si="1"/>
-        <v>630.16800000000001</v>
-      </c>
-      <c r="C13" s="9">
-        <v>225</v>
-      </c>
-      <c r="D13" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="2"/>
-        <v>655.36</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="3"/>
-        <v>3.8961038961038995E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="R13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>2.93</v>
-      </c>
-      <c r="B14" s="9">
-        <f t="shared" si="1"/>
-        <v>599.47800000000007</v>
-      </c>
-      <c r="C14" s="9">
-        <v>247.5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>3.04</v>
-      </c>
-      <c r="E14" s="11">
-        <f t="shared" si="2"/>
-        <v>622.59199999999998</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="3"/>
-        <v>3.754266211604091E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" ref="J14" si="9">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
-      </c>
-      <c r="R14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="B15" s="9">
-        <f t="shared" si="1"/>
-        <v>945.25200000000007</v>
-      </c>
-      <c r="C15" s="9">
-        <v>270</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4.79</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="2"/>
-        <v>980.99199999999996</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="3"/>
-        <v>3.6796536796536779E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="R15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4.04</v>
-      </c>
-      <c r="B16" s="9">
-        <f t="shared" si="1"/>
-        <v>826.58400000000006</v>
-      </c>
-      <c r="C16" s="9">
-        <v>292.5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="2"/>
-        <v>860.16000000000008</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9603960396039639E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" ref="J16" si="10">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
-      </c>
-      <c r="R16" t="s">
-        <v>54</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>4.33</v>
-      </c>
-      <c r="B17" s="9">
-        <f t="shared" si="1"/>
-        <v>885.91800000000001</v>
-      </c>
-      <c r="C17" s="9">
-        <v>315</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="2"/>
-        <v>921.6</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="3"/>
-        <v>3.9260969976905293E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="R17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>3.43</v>
-      </c>
-      <c r="B18" s="9">
-        <f>A18*1023/5</f>
-        <v>701.77800000000002</v>
-      </c>
-      <c r="C18" s="9">
-        <v>337.5</v>
-      </c>
-      <c r="D18" s="10">
-        <v>3.57</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="2"/>
-        <v>731.13599999999997</v>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="3"/>
-        <v>4.0816326530612151E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="0"/>
-        <v>337</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" ref="J18" si="11">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
-        <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
-      </c>
-      <c r="R18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="4"/>
-        <v>,"N","NNE","NE","ENE","E","ESE","SE","SSE","S","SSW","SW","WSW","WSW","WNW","NW","NNW"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="9">
-        <v>360</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>65.471999999999994</v>
-      </c>
-      <c r="B22" s="7">
-        <v>115</v>
-      </c>
-      <c r="D22">
-        <f>(A23+A22)/2</f>
-        <v>74.679000000000002</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D22,0), ") return(", ROUND(B22, 1), ");")</f>
-        <v>if (WindAnalog &lt; 75) return(115);</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" s="7" t="str">
-        <f>_xlfn.CONCAT("if(WindAngle &lt; ",K22+5, ") return(""",M22,""");")</f>
-        <v>if(WindAngle &lt; 5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>83.885999999999996</v>
-      </c>
-      <c r="B23" s="7">
-        <v>70</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23">
-        <f t="shared" ref="D23:D37" si="12">(A24+A23)/2</f>
-        <v>87.978000000000009</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D23,0), ") return(", ROUND(B23, 1), ");")</f>
-        <v>if (WindAnalog &lt; 88) return(70);</v>
-      </c>
-      <c r="K23">
-        <v>22.5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>62</v>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f t="shared" ref="O23:O37" si="13">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
-        <v>if(WindAngle &lt; 27,5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>92.070000000000007</v>
-      </c>
-      <c r="B24" s="7">
-        <v>90</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24">
-        <f t="shared" si="12"/>
-        <v>109.46100000000001</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="str">
-        <f t="shared" ref="G24:G37" si="14">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
-        <v>if (WindAnalog &lt; 109) return(90);</v>
-      </c>
-      <c r="K24">
-        <v>45</v>
-      </c>
-      <c r="M24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>126.852</v>
-      </c>
-      <c r="B25" s="7">
-        <v>160</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25">
-        <f t="shared" si="12"/>
-        <v>155.49600000000001</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 155) return(160);</v>
-      </c>
-      <c r="K25">
-        <v>67.5</v>
-      </c>
-      <c r="M25" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 72,5) return("Est");</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>184.14000000000001</v>
-      </c>
-      <c r="B26" s="7">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26">
-        <f t="shared" si="12"/>
-        <v>213.80700000000002</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 214) return(135);</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="M26" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 95) return("Est");</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>243.47399999999999</v>
-      </c>
-      <c r="B27" s="7">
-        <v>200</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27">
-        <f t="shared" si="12"/>
-        <v>264.95699999999999</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 265) return(200);</v>
-      </c>
-      <c r="K27">
-        <v>112.5</v>
-      </c>
-      <c r="M27" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 117,5) return("Est");</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>286.43999999999994</v>
-      </c>
-      <c r="B28" s="7">
-        <v>180</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28">
-        <f t="shared" si="12"/>
-        <v>345.774</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 346) return(180);</v>
-      </c>
-      <c r="K28">
-        <v>135</v>
-      </c>
-      <c r="M28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>405.108</v>
-      </c>
-      <c r="B29" s="7">
-        <v>20</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29">
-        <f t="shared" si="12"/>
-        <v>432.72900000000004</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 433) return(20);</v>
-      </c>
-      <c r="K29">
-        <v>157.5</v>
-      </c>
-      <c r="M29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 162,5) return("Sud");</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>460.35</v>
-      </c>
-      <c r="B30" s="7">
-        <v>45</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30">
-        <f t="shared" si="12"/>
-        <v>529.91399999999999</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 530) return(45);</v>
-      </c>
-      <c r="K30">
-        <v>180</v>
-      </c>
-      <c r="M30" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 185) return("Sud");</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>599.47800000000007</v>
-      </c>
-      <c r="B31" s="7">
-        <v>250</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31">
-        <f t="shared" si="12"/>
-        <v>614.82300000000009</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 615) return(250);</v>
-      </c>
-      <c r="K31">
-        <v>202.5</v>
-      </c>
-      <c r="M31" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 207,5) return("Sud");</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>630.16800000000001</v>
-      </c>
-      <c r="B32" s="7">
-        <v>225</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32">
-        <f t="shared" si="12"/>
-        <v>665.97299999999996</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 666) return(225);</v>
-      </c>
-      <c r="K32">
-        <v>225</v>
-      </c>
-      <c r="M32" t="s">
-        <v>67</v>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>701.77800000000002</v>
-      </c>
-      <c r="B33" s="7">
-        <v>340</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33">
-        <f t="shared" si="12"/>
-        <v>743.721</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 744) return(340);</v>
-      </c>
-      <c r="K33">
-        <v>247.5</v>
-      </c>
-      <c r="M33" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>785.66399999999999</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34">
-        <f t="shared" si="12"/>
-        <v>806.12400000000002</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 806) return(0);</v>
-      </c>
-      <c r="K34">
-        <v>270</v>
-      </c>
-      <c r="M34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 275) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>826.58400000000006</v>
-      </c>
-      <c r="B35" s="7">
-        <v>290</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35">
-        <f t="shared" si="12"/>
-        <v>856.25099999999998</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 856) return(290);</v>
-      </c>
-      <c r="K35">
-        <v>292.5</v>
-      </c>
-      <c r="M35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>885.91800000000001</v>
-      </c>
-      <c r="B36" s="7">
-        <v>315</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36">
-        <f t="shared" si="12"/>
-        <v>915.58500000000004</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 916) return(315);</v>
-      </c>
-      <c r="K36">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s">
-        <v>69</v>
-      </c>
-      <c r="O36" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>945.25200000000007</v>
-      </c>
-      <c r="B37" s="7">
-        <v>270</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37">
-        <f t="shared" si="12"/>
-        <v>984.12599999999998</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>if (WindAnalog &lt; 984) return(270);</v>
-      </c>
-      <c r="K37">
-        <v>337.5</v>
-      </c>
-      <c r="M37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>if(WindAngle &lt; 342,5) return("Nord");</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>65.536000000000001</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ref="B43:B57" si="15">(A43+A44)/2</f>
-        <v>75.775999999999996</v>
-      </c>
-      <c r="C43" s="7">
-        <v>112.5</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="str">
-        <f>_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B43,0), ") return(", ROUND(C43, 1), ");")</f>
-        <v>if (WindAnalog &lt; 76) return(112,5);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>86.015999999999991</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="15"/>
-        <v>90.623999999999995</v>
-      </c>
-      <c r="C44" s="7">
-        <v>67.5</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="str">
-        <f t="shared" ref="G44:G58" si="16">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
-        <v>if (WindAnalog &lt; 91) return(67,5);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>95.231999999999999</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="15"/>
-        <v>113.152</v>
-      </c>
-      <c r="C45" s="7">
-        <v>90</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 113) return(90);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>131.072</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="15"/>
-        <v>160.768</v>
-      </c>
-      <c r="C46" s="7">
-        <v>157.5</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 161) return(157,5);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>190.464</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="15"/>
-        <v>221.184</v>
-      </c>
-      <c r="C47" s="7">
-        <v>135</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 221) return(135);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>251.904</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="15"/>
-        <v>274.43200000000002</v>
-      </c>
-      <c r="C48" s="7">
-        <v>202.5</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 274) return(202,5);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>296.95999999999998</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="15"/>
-        <v>359.42399999999998</v>
-      </c>
-      <c r="C49" s="7">
-        <v>180</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 359) return(180);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>421.88800000000003</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="15"/>
-        <v>450.56</v>
-      </c>
-      <c r="C50" s="7">
-        <v>22.5</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 451) return(22,5);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>479.23199999999997</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="15"/>
-        <v>550.91200000000003</v>
-      </c>
-      <c r="C51" s="7">
-        <v>45</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 551) return(45);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>622.59199999999998</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="15"/>
-        <v>638.976</v>
-      </c>
-      <c r="C52" s="7">
-        <v>247.5</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 639) return(247,5);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>655.36</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="15"/>
-        <v>693.24800000000005</v>
-      </c>
-      <c r="C53" s="7">
-        <v>225</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 693) return(225);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>731.13599999999997</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="15"/>
-        <v>774.14400000000001</v>
-      </c>
-      <c r="C54" s="7">
-        <v>337.5</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 774) return(337,5);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>817.15200000000004</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="15"/>
-        <v>838.65600000000006</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 839) return(0);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>860.16000000000008</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="15"/>
-        <v>890.88000000000011</v>
-      </c>
-      <c r="C56" s="7">
-        <v>292.5</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 891) return(292,5);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>921.6</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="15"/>
-        <v>951.29600000000005</v>
-      </c>
-      <c r="C57" s="7">
-        <v>315</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 951) return(315);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>980.99199999999996</v>
-      </c>
-      <c r="B58">
-        <v>1023</v>
-      </c>
-      <c r="C58" s="7">
-        <v>270</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v>if (WindAnalog &lt; 1023) return(270);</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B58">
-    <sortCondition ref="A43:A58"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A041B732-C66F-4D52-A0CE-F14DFFD79B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C831AFA-F128-43D5-9DC6-4594BD782BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="-156" windowWidth="13824" windowHeight="7176" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="351">
   <si>
     <t>Produit</t>
   </si>
@@ -416,9 +416,6 @@
     <t>fer à souder</t>
   </si>
   <si>
-    <t>Travailler avec les byte d'un char[61]</t>
-  </si>
-  <si>
     <t>Communication radio avec utilisation des bytes</t>
   </si>
   <si>
@@ -468,9 +465,6 @@
   </si>
   <si>
     <t>vitesse vent</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>idem pour unsigned int</t>
@@ -1059,9 +1053,6 @@
     <t>tripple</t>
   </si>
   <si>
-    <t>gestion de la batterie dans la maison aussi</t>
-  </si>
-  <si>
     <t>données à envoyer</t>
   </si>
   <si>
@@ -1105,6 +1096,45 @@
   </si>
   <si>
     <t xml:space="preserve">mesure </t>
+  </si>
+  <si>
+    <t>Travailler avec les byte d'un char[251]</t>
+  </si>
+  <si>
+    <t>Pluie 24h</t>
+  </si>
+  <si>
+    <t>Pluie 7 jours</t>
+  </si>
+  <si>
+    <t>BH1745 Red</t>
+  </si>
+  <si>
+    <t>BH1745 Green</t>
+  </si>
+  <si>
+    <t>BH1745 blue</t>
+  </si>
+  <si>
+    <t>données à enregistrer</t>
+  </si>
+  <si>
+    <t>lumière claire</t>
+  </si>
+  <si>
+    <t>lumière rouge</t>
+  </si>
+  <si>
+    <t>lumière verte</t>
+  </si>
+  <si>
+    <t>lumière bleue</t>
+  </si>
+  <si>
+    <t>température moyenne</t>
+  </si>
+  <si>
+    <t>temperature batterie</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1719,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1842,8 +1872,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1863,9 +1900,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,7 +1909,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
@@ -2366,76 +2399,76 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>220</c:v>
+                  <c:v>122.83333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,37 +9332,37 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1580</c:v>
+                  <c:v>1677.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1372.2453703703704</c:v>
+                  <c:v>1566.5787037037039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1197.0601851851852</c:v>
+                  <c:v>1488.5601851851854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1068.9351851851852</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>997.08333333333337</c:v>
+                  <c:v>1482.916666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1568.9953703703707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1035.9953703703704</c:v>
+                  <c:v>1716.1620370370374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1143.7962962962965</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1303.0555555555557</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1504.9305555555557</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1738.6342592592594</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1800</c:v>
@@ -9356,16 +9389,16 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9773,37 +9806,37 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1580</c:v>
+                  <c:v>1677.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1372.2453703703704</c:v>
+                  <c:v>1566.5787037037039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1197.0601851851852</c:v>
+                  <c:v>1488.5601851851854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1068.9351851851852</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>997.08333333333337</c:v>
+                  <c:v>1482.916666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1568.9953703703707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1035.9953703703704</c:v>
+                  <c:v>1716.1620370370374</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1143.7962962962965</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1303.0555555555557</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1504.9305555555557</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1738.6342592592594</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1800</c:v>
@@ -9830,58 +9863,58 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1205.9953703703704</c:v>
+                  <c:v>1580.4351851851854</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>778.24074074074076</c:v>
+                  <c:v>1347.0138888888894</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>603.05555555555554</c:v>
+                  <c:v>1268.9953703703709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>474.93055555555554</c:v>
+                  <c:v>1238.0370370370376</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403.0787037037037</c:v>
+                  <c:v>1263.3518518518526</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>391.99074074074076</c:v>
+                  <c:v>1349.4305555555563</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>441.9907407407407</c:v>
+                  <c:v>1496.5972222222231</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>549.79166666666674</c:v>
+                  <c:v>1701.5648148148157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>709.05092592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>910.92592592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1144.6296296296296</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1397.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1657.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1800</c:v>
@@ -9902,58 +9935,58 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1205.9953703703704</c:v>
+                  <c:v>1580.4351851851854</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>778.24074074074076</c:v>
+                  <c:v>1347.0138888888894</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>603.05555555555554</c:v>
+                  <c:v>1268.9953703703709</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>474.93055555555554</c:v>
+                  <c:v>1238.0370370370376</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>403.0787037037037</c:v>
+                  <c:v>1263.3518518518526</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>391.99074074074076</c:v>
+                  <c:v>1349.4305555555563</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>441.9907407407407</c:v>
+                  <c:v>1496.5972222222231</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>549.79166666666674</c:v>
+                  <c:v>1701.5648148148157</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>709.05092592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>910.92592592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1144.6296296296296</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1397.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1657.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1800</c:v>
@@ -9974,58 +10007,58 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1205.9953703703704</c:v>
+                  <c:v>1580.4351851851854</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>778.24074074074076</c:v>
+                  <c:v>1347.0138888888894</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>603.05555555555554</c:v>
+                  <c:v>1268.9953703703709</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>474.93055555555554</c:v>
+                  <c:v>1238.0370370370376</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>403.0787037037037</c:v>
+                  <c:v>1263.3518518518526</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>391.99074074074076</c:v>
+                  <c:v>1349.4305555555563</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>441.9907407407407</c:v>
+                  <c:v>1496.5972222222231</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>549.79166666666674</c:v>
+                  <c:v>1701.5648148148157</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>709.05092592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>910.92592592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1144.6296296296296</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1397.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1657.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1800</c:v>
@@ -10046,58 +10079,58 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1205.9953703703704</c:v>
+                  <c:v>1580.4351851851854</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>778.24074074074076</c:v>
+                  <c:v>1347.0138888888894</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>603.05555555555554</c:v>
+                  <c:v>1268.9953703703709</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>474.93055555555554</c:v>
+                  <c:v>1238.0370370370376</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>403.0787037037037</c:v>
+                  <c:v>1263.3518518518526</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>391.99074074074076</c:v>
+                  <c:v>1349.4305555555563</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>441.9907407407407</c:v>
+                  <c:v>1496.5972222222231</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>549.79166666666674</c:v>
+                  <c:v>1701.5648148148157</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>709.05092592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>910.92592592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1144.6296296296296</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1397.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1657.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>1800</c:v>
@@ -10118,58 +10151,58 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1205.9953703703704</c:v>
+                  <c:v>1580.4351851851854</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>778.24074074074076</c:v>
+                  <c:v>1347.0138888888894</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>603.05555555555554</c:v>
+                  <c:v>1268.9953703703709</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>474.93055555555554</c:v>
+                  <c:v>1238.0370370370376</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>403.0787037037037</c:v>
+                  <c:v>1263.3518518518526</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>391.99074074074076</c:v>
+                  <c:v>1349.4305555555563</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>441.9907407407407</c:v>
+                  <c:v>1496.5972222222231</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>549.79166666666674</c:v>
+                  <c:v>1701.5648148148157</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>709.05092592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>910.92592592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1144.6296296296296</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1397.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1657.9861111111111</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>1800</c:v>
@@ -10190,49 +10223,49 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1788.912037037037</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1717.0601851851852</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1588.9351851851852</c:v>
+                  <c:v>1769.0416666666667</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1413.75</c:v>
+                  <c:v>1691.0231481481483</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1205.9953703703704</c:v>
+                  <c:v>1580.4351851851854</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>985.99537037037044</c:v>
+                  <c:v>1457.6018518518522</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>778.24074074074076</c:v>
+                  <c:v>1347.0138888888894</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>603.05555555555554</c:v>
+                  <c:v>1268.9953703703709</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>474.93055555555554</c:v>
+                  <c:v>1238.0370370370376</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>403.0787037037037</c:v>
+                  <c:v>1263.3518518518526</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>391.99074074074076</c:v>
+                  <c:v>1349.4305555555563</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>441.9907407407407</c:v>
+                  <c:v>1496.5972222222231</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>549.79166666666674</c:v>
+                  <c:v>1701.5648148148157</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>709.05092592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>910.92592592592598</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27234,21 +27267,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="100"/>
+      <c r="B2" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="102"/>
       <c r="D2" s="64">
         <f>SUM(D5:D22)</f>
         <v>534.23</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="G2" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -27265,7 +27298,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>95</v>
@@ -27274,7 +27307,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -27397,10 +27430,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -27409,7 +27442,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
@@ -27421,10 +27454,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" s="1">
         <v>8.02</v>
@@ -27434,10 +27467,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1">
         <v>1.49</v>
@@ -27450,7 +27483,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1">
         <v>57</v>
@@ -27463,7 +27496,7 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1">
         <v>144</v>
@@ -27473,10 +27506,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D20" s="1">
         <v>15.25</v>
@@ -27486,10 +27519,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D21" s="1">
         <v>18.48</v>
@@ -27499,10 +27532,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D22" s="1">
         <v>12.99</v>
@@ -27559,10 +27592,10 @@
         <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="V2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
@@ -27598,11 +27631,11 @@
         <f>CONCATENATE(D20,",""", R3, """")</f>
         <v>,"N"</v>
       </c>
-      <c r="V3" s="111" t="s">
-        <v>338</v>
+      <c r="V3" s="101" t="s">
+        <v>335</v>
       </c>
       <c r="Z3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -27646,7 +27679,7 @@
         <v>,"N","NNE"</v>
       </c>
       <c r="U4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -29568,30 +29601,30 @@
   <sheetData>
     <row r="1" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" s="46"/>
       <c r="F1" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K1" s="47" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
@@ -29637,7 +29670,7 @@
       </c>
       <c r="M2" s="43"/>
       <c r="R2" s="46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -29684,16 +29717,16 @@
         <v>2.7916102977683802E-3</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S3" s="46">
         <v>500</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -29734,13 +29767,13 @@
       </c>
       <c r="N4" s="43"/>
       <c r="R4" s="46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S4" s="97">
         <v>10</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W4" s="46">
         <v>1</v>
@@ -29788,13 +29821,13 @@
       </c>
       <c r="N5" s="43"/>
       <c r="R5" s="46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S5" s="46">
         <v>5</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W5" s="46">
         <v>2</v>
@@ -29842,14 +29875,14 @@
       </c>
       <c r="M6" s="43"/>
       <c r="R6" s="46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S6" s="98">
         <f>S3*S5/1023</f>
         <v>2.4437927663734116</v>
       </c>
       <c r="T6" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W6" s="46">
         <v>3</v>
@@ -29942,14 +29975,14 @@
       </c>
       <c r="M8" s="43"/>
       <c r="R8" s="46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S8" s="97">
         <f>S4/((S5/S6)-1)</f>
         <v>9.5602294455066943</v>
       </c>
       <c r="T8" s="46" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W8" s="46">
         <v>5</v>
@@ -29997,7 +30030,7 @@
       </c>
       <c r="M9" s="43"/>
       <c r="R9" s="46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S9" s="97">
         <f>O3</f>
@@ -30049,7 +30082,7 @@
       </c>
       <c r="M10" s="43"/>
       <c r="R10" s="46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="S10" s="97">
         <f>N3</f>
@@ -30101,7 +30134,7 @@
       </c>
       <c r="M11" s="43"/>
       <c r="R11" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S11" s="97">
         <f>S9+S10*LN(S8)</f>
@@ -30153,14 +30186,14 @@
       </c>
       <c r="M12" s="43"/>
       <c r="R12" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S12" s="98">
         <f>1/S11-273.15</f>
         <v>24.03956960185991</v>
       </c>
       <c r="T12" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="W12" s="46">
         <v>9</v>
@@ -47579,22 +47612,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -47602,13 +47635,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G4">
         <v>34</v>
@@ -47616,7 +47649,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -47624,7 +47657,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -47632,17 +47665,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="F12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -47650,7 +47681,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="F13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -47658,7 +47692,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -47666,7 +47703,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="F15" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -47674,55 +47714,101 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="F16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="F20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -47735,7 +47821,7 @@
   <dimension ref="A1:X367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47756,10 +47842,10 @@
         <v>76</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
@@ -47794,41 +47880,41 @@
         <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P3" t="s">
         <v>229</v>
-      </c>
-      <c r="P3" t="s">
-        <v>231</v>
       </c>
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6">
         <f>(E4*D4)/3600</f>
-        <v>1.1111111111111112E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -47843,7 +47929,7 @@
       </c>
       <c r="N4" s="7">
         <f t="shared" ref="N4:N27" si="2">B$11</f>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O4" s="7">
         <f>B14</f>
@@ -47857,23 +47943,23 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="6">
         <f>(E5*D5)/3600</f>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K5">
         <f>MOD(K4+1,24)</f>
@@ -47889,38 +47975,38 @@
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O5" s="7">
         <f>P4-N4+M4</f>
-        <v>1580</v>
+        <v>1677.1666666666667</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" ref="P5:P27" si="3">MAX(0, MIN(O5,O$4))</f>
-        <v>1580</v>
+        <v>1677.1666666666667</v>
       </c>
       <c r="X5" s="73"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <f>3600-D4*E4-D5*E5</f>
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F6" s="6">
         <f>(E6*D6)/3600</f>
-        <v>0.94444444444444442</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K69" si="4">MOD(K5+1,24)</f>
@@ -47936,15 +48022,15 @@
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" ref="O6:O69" si="5">P5-N5+M5</f>
-        <v>1372.2453703703704</v>
+        <v>1566.5787037037039</v>
       </c>
       <c r="P6" s="7">
         <f t="shared" si="3"/>
-        <v>1372.2453703703704</v>
+        <v>1566.5787037037039</v>
       </c>
       <c r="X6" s="73"/>
     </row>
@@ -47964,15 +48050,15 @@
       </c>
       <c r="N7" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="5"/>
-        <v>1197.0601851851852</v>
+        <v>1488.5601851851854</v>
       </c>
       <c r="P7" s="7">
         <f t="shared" si="3"/>
-        <v>1197.0601851851852</v>
+        <v>1488.5601851851854</v>
       </c>
       <c r="X7" s="73"/>
     </row>
@@ -47996,25 +48082,25 @@
       </c>
       <c r="N8" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O8" s="7">
         <f t="shared" si="5"/>
-        <v>1068.9351851851852</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" si="3"/>
-        <v>1068.9351851851852</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="60">
         <f>SUMPRODUCT(B4:B8,F4:F8)*0.1</f>
-        <v>20</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="D9">
         <v>3600</v>
@@ -48040,15 +48126,15 @@
       </c>
       <c r="N9" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="5"/>
-        <v>997.08333333333337</v>
+        <v>1482.916666666667</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="3"/>
-        <v>997.08333333333337</v>
+        <v>1482.916666666667</v>
       </c>
       <c r="X9" s="73"/>
     </row>
@@ -48067,25 +48153,25 @@
       </c>
       <c r="N10" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="5"/>
-        <v>985.99537037037044</v>
+        <v>1568.9953703703707</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="3"/>
-        <v>985.99537037037044</v>
+        <v>1568.9953703703707</v>
       </c>
       <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="60">
         <f>SUMPRODUCT(B4:B9,F4:F9)</f>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
@@ -48101,15 +48187,15 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O11" s="7">
         <f t="shared" si="5"/>
-        <v>1035.9953703703704</v>
+        <v>1716.1620370370374</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="3"/>
-        <v>1035.9953703703704</v>
+        <v>1716.1620370370374</v>
       </c>
       <c r="X11" s="73"/>
     </row>
@@ -48128,15 +48214,15 @@
       </c>
       <c r="N12" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O12" s="7">
         <f t="shared" si="5"/>
-        <v>1143.7962962962965</v>
+        <v>1921.12962962963</v>
       </c>
       <c r="P12" s="7">
         <f t="shared" si="3"/>
-        <v>1143.7962962962965</v>
+        <v>1800</v>
       </c>
       <c r="X12" s="73"/>
     </row>
@@ -48170,15 +48256,15 @@
       </c>
       <c r="N13" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O13" s="7">
         <f t="shared" si="5"/>
-        <v>1303.0555555555557</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="3"/>
-        <v>1303.0555555555557</v>
+        <v>1800</v>
       </c>
       <c r="X13" s="73"/>
     </row>
@@ -48190,14 +48276,14 @@
         <v>1800</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
         <f>D14*B14*C14/1000*3600/1000</f>
-        <v>32.4</v>
+        <v>23.975999999999999</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
@@ -48213,15 +48299,15 @@
       </c>
       <c r="N14" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="5"/>
-        <v>1504.9305555555557</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="3"/>
-        <v>1504.9305555555557</v>
+        <v>1800</v>
       </c>
       <c r="X14" s="73"/>
     </row>
@@ -48240,15 +48326,15 @@
       </c>
       <c r="N15" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O15" s="7">
         <f t="shared" si="5"/>
-        <v>1738.6342592592594</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P15" s="7">
         <f t="shared" si="3"/>
-        <v>1738.6342592592594</v>
+        <v>1800</v>
       </c>
       <c r="X15" s="73"/>
     </row>
@@ -48267,11 +48353,11 @@
       </c>
       <c r="N16" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O16" s="7">
         <f t="shared" si="5"/>
-        <v>1991.9907407407409</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P16" s="7">
         <f t="shared" si="3"/>
@@ -48294,11 +48380,11 @@
       </c>
       <c r="N17" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O17" s="7">
         <f t="shared" si="5"/>
-        <v>2060</v>
+        <v>2157.166666666667</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="3"/>
@@ -48321,11 +48407,11 @@
       </c>
       <c r="N18" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O18" s="7">
         <f t="shared" si="5"/>
-        <v>2053.3564814814813</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" si="3"/>
@@ -48351,11 +48437,11 @@
       </c>
       <c r="N19" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" si="5"/>
-        <v>2033.7037037037037</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P19" s="7">
         <f t="shared" si="3"/>
@@ -48387,11 +48473,11 @@
       </c>
       <c r="N20" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O20" s="7">
         <f t="shared" si="5"/>
-        <v>2001.875</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="3"/>
@@ -48427,11 +48513,11 @@
       </c>
       <c r="N21" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="5"/>
-        <v>1959.2592592592591</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P21" s="7">
         <f t="shared" si="3"/>
@@ -48454,11 +48540,11 @@
       </c>
       <c r="N22" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O22" s="7">
         <f t="shared" si="5"/>
-        <v>1907.8009259259261</v>
+        <v>2004.9675925925926</v>
       </c>
       <c r="P22" s="7">
         <f t="shared" si="3"/>
@@ -48481,11 +48567,11 @@
       </c>
       <c r="N23" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O23" s="7">
         <f t="shared" si="5"/>
-        <v>1850</v>
+        <v>1947.1666666666667</v>
       </c>
       <c r="P23" s="7">
         <f t="shared" si="3"/>
@@ -48508,15 +48594,15 @@
       </c>
       <c r="N24" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O24" s="7">
         <f t="shared" si="5"/>
-        <v>1788.912037037037</v>
+        <v>1886.0787037037037</v>
       </c>
       <c r="P24" s="7">
         <f t="shared" si="3"/>
-        <v>1788.912037037037</v>
+        <v>1800</v>
       </c>
       <c r="X24" s="73"/>
     </row>
@@ -48535,15 +48621,15 @@
       </c>
       <c r="N25" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="5"/>
-        <v>1717.0601851851852</v>
+        <v>1825.3148148148148</v>
       </c>
       <c r="P25" s="7">
         <f t="shared" si="3"/>
-        <v>1717.0601851851852</v>
+        <v>1800</v>
       </c>
       <c r="X25" s="73"/>
     </row>
@@ -48562,28 +48648,28 @@
       </c>
       <c r="N26" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O26" s="7">
         <f t="shared" si="5"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="P26" s="7">
         <f t="shared" si="3"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="X26" s="73"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B27" s="75">
         <f>B11/1000*C4/1000</f>
-        <v>1.1000000000000001E-3</v>
+        <v>4.0534999999999996E-4</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
@@ -48599,27 +48685,27 @@
       </c>
       <c r="N27" s="7">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O27" s="7">
         <f t="shared" si="5"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="P27" s="7">
         <f t="shared" si="3"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="X27" s="73"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28">
         <v>0.15459999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
@@ -48635,28 +48721,28 @@
       </c>
       <c r="N28" s="7">
         <f t="shared" ref="N28:N46" si="9">B$11</f>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="5"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" ref="P28:P46" si="10">MAX(0, MIN(O28,O$4))</f>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="X28" s="73"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="60">
         <f>B28*B27</f>
-        <v>1.7006000000000001E-4</v>
+        <v>6.2667109999999982E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
@@ -48672,28 +48758,28 @@
       </c>
       <c r="N29" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O29" s="7">
         <f t="shared" si="5"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P29" s="7">
         <f t="shared" si="10"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X29" s="73"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B30" s="60">
         <f>B29*24</f>
-        <v>4.0814400000000004E-3</v>
+        <v>1.5040106399999997E-3</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
@@ -48709,28 +48795,28 @@
       </c>
       <c r="N30" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O30" s="7">
         <f t="shared" si="5"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="10"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B31" s="60">
         <f>B30*365</f>
-        <v>1.4897256000000001</v>
+        <v>0.54896388359999992</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
@@ -48746,15 +48832,15 @@
       </c>
       <c r="N31" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O31" s="7">
         <f t="shared" si="5"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="P31" s="7">
         <f t="shared" si="10"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="X31" s="73"/>
     </row>
@@ -48773,15 +48859,15 @@
       </c>
       <c r="N32" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O32" s="7">
         <f t="shared" si="5"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="P32" s="7">
         <f t="shared" si="10"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="X32" s="73"/>
     </row>
@@ -48800,15 +48886,15 @@
       </c>
       <c r="N33" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O33" s="7">
         <f t="shared" si="5"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="P33" s="7">
         <f t="shared" si="10"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="X33" s="73"/>
     </row>
@@ -48827,15 +48913,15 @@
       </c>
       <c r="N34" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="5"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="P34" s="7">
         <f t="shared" si="10"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="X34" s="73"/>
     </row>
@@ -48854,15 +48940,15 @@
       </c>
       <c r="N35" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="5"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="P35" s="7">
         <f t="shared" si="10"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="X35" s="73"/>
     </row>
@@ -48881,15 +48967,15 @@
       </c>
       <c r="N36" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" si="5"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="P36" s="7">
         <f t="shared" si="10"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="X36" s="73"/>
     </row>
@@ -48908,15 +48994,15 @@
       </c>
       <c r="N37" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" si="5"/>
-        <v>709.05092592592598</v>
+        <v>1957.9907407407418</v>
       </c>
       <c r="P37" s="7">
         <f t="shared" si="10"/>
-        <v>709.05092592592598</v>
+        <v>1800</v>
       </c>
       <c r="X37" s="73"/>
     </row>
@@ -48935,15 +49021,15 @@
       </c>
       <c r="N38" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" si="5"/>
-        <v>910.92592592592598</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P38" s="7">
         <f t="shared" si="10"/>
-        <v>910.92592592592598</v>
+        <v>1800</v>
       </c>
       <c r="X38" s="73"/>
     </row>
@@ -48962,15 +49048,15 @@
       </c>
       <c r="N39" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O39" s="7">
         <f t="shared" si="5"/>
-        <v>1144.6296296296296</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P39" s="7">
         <f t="shared" si="10"/>
-        <v>1144.6296296296296</v>
+        <v>1800</v>
       </c>
       <c r="X39" s="73"/>
     </row>
@@ -48989,15 +49075,15 @@
       </c>
       <c r="N40" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O40" s="7">
         <f t="shared" si="5"/>
-        <v>1397.9861111111111</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P40" s="7">
         <f t="shared" si="10"/>
-        <v>1397.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X40" s="73"/>
     </row>
@@ -49016,15 +49102,15 @@
       </c>
       <c r="N41" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O41" s="7">
         <f t="shared" si="5"/>
-        <v>1657.9861111111111</v>
+        <v>2157.166666666667</v>
       </c>
       <c r="P41" s="7">
         <f t="shared" si="10"/>
-        <v>1657.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X41" s="73"/>
     </row>
@@ -49043,11 +49129,11 @@
       </c>
       <c r="N42" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O42" s="7">
         <f t="shared" si="5"/>
-        <v>1911.3425925925926</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P42" s="7">
         <f t="shared" si="10"/>
@@ -49070,11 +49156,11 @@
       </c>
       <c r="N43" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O43" s="7">
         <f t="shared" si="5"/>
-        <v>2033.7037037037037</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P43" s="7">
         <f t="shared" si="10"/>
@@ -49097,11 +49183,11 @@
       </c>
       <c r="N44" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O44" s="7">
         <f t="shared" si="5"/>
-        <v>2001.875</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P44" s="7">
         <f t="shared" si="10"/>
@@ -49124,11 +49210,11 @@
       </c>
       <c r="N45" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O45" s="7">
         <f t="shared" si="5"/>
-        <v>1959.2592592592591</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P45" s="7">
         <f t="shared" si="10"/>
@@ -49151,11 +49237,11 @@
       </c>
       <c r="N46" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O46" s="7">
         <f t="shared" si="5"/>
-        <v>1907.8009259259261</v>
+        <v>2004.9675925925926</v>
       </c>
       <c r="P46" s="7">
         <f t="shared" si="10"/>
@@ -49178,11 +49264,11 @@
       </c>
       <c r="N47" s="7">
         <f t="shared" ref="N47:N110" si="13">B$11</f>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O47" s="7">
         <f t="shared" si="5"/>
-        <v>1850</v>
+        <v>1947.1666666666667</v>
       </c>
       <c r="P47" s="7">
         <f t="shared" ref="P47:P110" si="14">MAX(0, MIN(O47,O$4))</f>
@@ -49205,15 +49291,15 @@
       </c>
       <c r="N48" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O48" s="7">
         <f t="shared" si="5"/>
-        <v>1788.912037037037</v>
+        <v>1886.0787037037037</v>
       </c>
       <c r="P48" s="7">
         <f t="shared" si="14"/>
-        <v>1788.912037037037</v>
+        <v>1800</v>
       </c>
       <c r="X48" s="73"/>
     </row>
@@ -49232,15 +49318,15 @@
       </c>
       <c r="N49" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O49" s="7">
         <f t="shared" si="5"/>
-        <v>1717.0601851851852</v>
+        <v>1825.3148148148148</v>
       </c>
       <c r="P49" s="7">
         <f t="shared" si="14"/>
-        <v>1717.0601851851852</v>
+        <v>1800</v>
       </c>
       <c r="X49" s="73"/>
     </row>
@@ -49259,15 +49345,15 @@
       </c>
       <c r="N50" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O50" s="7">
         <f t="shared" si="5"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="P50" s="7">
         <f t="shared" si="14"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="X50" s="73"/>
     </row>
@@ -49286,15 +49372,15 @@
       </c>
       <c r="N51" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O51" s="7">
         <f t="shared" si="5"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="P51" s="7">
         <f t="shared" si="14"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="X51" s="73"/>
     </row>
@@ -49313,15 +49399,15 @@
       </c>
       <c r="N52" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O52" s="7">
         <f t="shared" si="5"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="P52" s="7">
         <f t="shared" si="14"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="X52" s="73"/>
     </row>
@@ -49340,15 +49426,15 @@
       </c>
       <c r="N53" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O53" s="7">
         <f t="shared" si="5"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P53" s="7">
         <f t="shared" si="14"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X53" s="73"/>
     </row>
@@ -49367,15 +49453,15 @@
       </c>
       <c r="N54" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O54" s="7">
         <f t="shared" si="5"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="P54" s="7">
         <f t="shared" si="14"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="X54" s="73"/>
     </row>
@@ -49394,15 +49480,15 @@
       </c>
       <c r="N55" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O55" s="7">
         <f t="shared" si="5"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="P55" s="7">
         <f t="shared" si="14"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="X55" s="73"/>
     </row>
@@ -49421,15 +49507,15 @@
       </c>
       <c r="N56" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O56" s="7">
         <f t="shared" si="5"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="P56" s="7">
         <f t="shared" si="14"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="X56" s="73"/>
     </row>
@@ -49448,15 +49534,15 @@
       </c>
       <c r="N57" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O57" s="7">
         <f t="shared" si="5"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="P57" s="7">
         <f t="shared" si="14"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="X57" s="73"/>
     </row>
@@ -49475,15 +49561,15 @@
       </c>
       <c r="N58" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O58" s="7">
         <f t="shared" si="5"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="P58" s="7">
         <f t="shared" si="14"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="X58" s="73"/>
     </row>
@@ -49502,15 +49588,15 @@
       </c>
       <c r="N59" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O59" s="7">
         <f t="shared" si="5"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="P59" s="7">
         <f t="shared" si="14"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="X59" s="73"/>
     </row>
@@ -49529,15 +49615,15 @@
       </c>
       <c r="N60" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O60" s="7">
         <f t="shared" si="5"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="P60" s="7">
         <f t="shared" si="14"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="X60" s="73"/>
     </row>
@@ -49556,15 +49642,15 @@
       </c>
       <c r="N61" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O61" s="7">
         <f t="shared" si="5"/>
-        <v>709.05092592592598</v>
+        <v>1957.9907407407418</v>
       </c>
       <c r="P61" s="7">
         <f t="shared" si="14"/>
-        <v>709.05092592592598</v>
+        <v>1800</v>
       </c>
       <c r="X61" s="73"/>
     </row>
@@ -49583,15 +49669,15 @@
       </c>
       <c r="N62" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O62" s="7">
         <f t="shared" si="5"/>
-        <v>910.92592592592598</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P62" s="7">
         <f t="shared" si="14"/>
-        <v>910.92592592592598</v>
+        <v>1800</v>
       </c>
       <c r="X62" s="73"/>
     </row>
@@ -49610,15 +49696,15 @@
       </c>
       <c r="N63" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O63" s="7">
         <f t="shared" si="5"/>
-        <v>1144.6296296296296</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P63" s="7">
         <f t="shared" si="14"/>
-        <v>1144.6296296296296</v>
+        <v>1800</v>
       </c>
       <c r="X63" s="73"/>
     </row>
@@ -49637,15 +49723,15 @@
       </c>
       <c r="N64" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O64" s="7">
         <f t="shared" si="5"/>
-        <v>1397.9861111111111</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P64" s="7">
         <f t="shared" si="14"/>
-        <v>1397.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X64" s="73"/>
     </row>
@@ -49664,15 +49750,15 @@
       </c>
       <c r="N65" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O65" s="7">
         <f t="shared" si="5"/>
-        <v>1657.9861111111111</v>
+        <v>2157.166666666667</v>
       </c>
       <c r="P65" s="7">
         <f t="shared" si="14"/>
-        <v>1657.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X65" s="73"/>
     </row>
@@ -49691,11 +49777,11 @@
       </c>
       <c r="N66" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O66" s="7">
         <f t="shared" si="5"/>
-        <v>1911.3425925925926</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P66" s="7">
         <f t="shared" si="14"/>
@@ -49718,11 +49804,11 @@
       </c>
       <c r="N67" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O67" s="7">
         <f t="shared" si="5"/>
-        <v>2033.7037037037037</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P67" s="7">
         <f t="shared" si="14"/>
@@ -49745,11 +49831,11 @@
       </c>
       <c r="N68" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O68" s="7">
         <f t="shared" si="5"/>
-        <v>2001.875</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P68" s="7">
         <f t="shared" si="14"/>
@@ -49772,11 +49858,11 @@
       </c>
       <c r="N69" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O69" s="7">
         <f t="shared" si="5"/>
-        <v>1959.2592592592591</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P69" s="7">
         <f t="shared" si="14"/>
@@ -49799,11 +49885,11 @@
       </c>
       <c r="N70" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O70" s="7">
         <f t="shared" ref="O70:O133" si="16">P69-N69+M69</f>
-        <v>1907.8009259259261</v>
+        <v>2004.9675925925926</v>
       </c>
       <c r="P70" s="7">
         <f t="shared" si="14"/>
@@ -49826,11 +49912,11 @@
       </c>
       <c r="N71" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O71" s="7">
         <f t="shared" si="16"/>
-        <v>1850</v>
+        <v>1947.1666666666667</v>
       </c>
       <c r="P71" s="7">
         <f t="shared" si="14"/>
@@ -49853,15 +49939,15 @@
       </c>
       <c r="N72" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O72" s="7">
         <f t="shared" si="16"/>
-        <v>1788.912037037037</v>
+        <v>1886.0787037037037</v>
       </c>
       <c r="P72" s="7">
         <f t="shared" si="14"/>
-        <v>1788.912037037037</v>
+        <v>1800</v>
       </c>
       <c r="X72" s="73"/>
     </row>
@@ -49880,15 +49966,15 @@
       </c>
       <c r="N73" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O73" s="7">
         <f t="shared" si="16"/>
-        <v>1717.0601851851852</v>
+        <v>1825.3148148148148</v>
       </c>
       <c r="P73" s="7">
         <f t="shared" si="14"/>
-        <v>1717.0601851851852</v>
+        <v>1800</v>
       </c>
       <c r="X73" s="73"/>
     </row>
@@ -49907,15 +49993,15 @@
       </c>
       <c r="N74" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O74" s="7">
         <f t="shared" si="16"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="P74" s="7">
         <f t="shared" si="14"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="X74" s="73"/>
     </row>
@@ -49934,15 +50020,15 @@
       </c>
       <c r="N75" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O75" s="7">
         <f t="shared" si="16"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="P75" s="7">
         <f t="shared" si="14"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="X75" s="73"/>
     </row>
@@ -49961,15 +50047,15 @@
       </c>
       <c r="N76" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O76" s="7">
         <f t="shared" si="16"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="P76" s="7">
         <f t="shared" si="14"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="X76" s="73"/>
     </row>
@@ -49988,15 +50074,15 @@
       </c>
       <c r="N77" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O77" s="7">
         <f t="shared" si="16"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P77" s="7">
         <f t="shared" si="14"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X77" s="73"/>
     </row>
@@ -50015,15 +50101,15 @@
       </c>
       <c r="N78" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O78" s="7">
         <f t="shared" si="16"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="P78" s="7">
         <f t="shared" si="14"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="X78" s="73"/>
     </row>
@@ -50042,15 +50128,15 @@
       </c>
       <c r="N79" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O79" s="7">
         <f t="shared" si="16"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="P79" s="7">
         <f t="shared" si="14"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="X79" s="73"/>
     </row>
@@ -50069,15 +50155,15 @@
       </c>
       <c r="N80" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O80" s="7">
         <f t="shared" si="16"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="P80" s="7">
         <f t="shared" si="14"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="X80" s="73"/>
     </row>
@@ -50096,15 +50182,15 @@
       </c>
       <c r="N81" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O81" s="7">
         <f t="shared" si="16"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="P81" s="7">
         <f t="shared" si="14"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="X81" s="73"/>
     </row>
@@ -50123,15 +50209,15 @@
       </c>
       <c r="N82" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O82" s="7">
         <f t="shared" si="16"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="P82" s="7">
         <f t="shared" si="14"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="X82" s="73"/>
     </row>
@@ -50150,15 +50236,15 @@
       </c>
       <c r="N83" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O83" s="7">
         <f t="shared" si="16"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="P83" s="7">
         <f t="shared" si="14"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="X83" s="73"/>
     </row>
@@ -50177,15 +50263,15 @@
       </c>
       <c r="N84" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O84" s="7">
         <f t="shared" si="16"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="P84" s="7">
         <f t="shared" si="14"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="X84" s="73"/>
     </row>
@@ -50204,15 +50290,15 @@
       </c>
       <c r="N85" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O85" s="7">
         <f t="shared" si="16"/>
-        <v>709.05092592592598</v>
+        <v>1957.9907407407418</v>
       </c>
       <c r="P85" s="7">
         <f t="shared" si="14"/>
-        <v>709.05092592592598</v>
+        <v>1800</v>
       </c>
       <c r="X85" s="73"/>
     </row>
@@ -50231,15 +50317,15 @@
       </c>
       <c r="N86" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O86" s="7">
         <f t="shared" si="16"/>
-        <v>910.92592592592598</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P86" s="7">
         <f t="shared" si="14"/>
-        <v>910.92592592592598</v>
+        <v>1800</v>
       </c>
       <c r="X86" s="73"/>
     </row>
@@ -50258,15 +50344,15 @@
       </c>
       <c r="N87" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O87" s="7">
         <f t="shared" si="16"/>
-        <v>1144.6296296296296</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P87" s="7">
         <f t="shared" si="14"/>
-        <v>1144.6296296296296</v>
+        <v>1800</v>
       </c>
       <c r="X87" s="73"/>
     </row>
@@ -50285,15 +50371,15 @@
       </c>
       <c r="N88" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O88" s="7">
         <f t="shared" si="16"/>
-        <v>1397.9861111111111</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P88" s="7">
         <f t="shared" si="14"/>
-        <v>1397.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X88" s="73"/>
     </row>
@@ -50312,15 +50398,15 @@
       </c>
       <c r="N89" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O89" s="7">
         <f t="shared" si="16"/>
-        <v>1657.9861111111111</v>
+        <v>2157.166666666667</v>
       </c>
       <c r="P89" s="7">
         <f t="shared" si="14"/>
-        <v>1657.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X89" s="73"/>
     </row>
@@ -50339,11 +50425,11 @@
       </c>
       <c r="N90" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O90" s="7">
         <f t="shared" si="16"/>
-        <v>1911.3425925925926</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P90" s="7">
         <f t="shared" si="14"/>
@@ -50366,11 +50452,11 @@
       </c>
       <c r="N91" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O91" s="7">
         <f t="shared" si="16"/>
-        <v>2033.7037037037037</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P91" s="7">
         <f t="shared" si="14"/>
@@ -50393,11 +50479,11 @@
       </c>
       <c r="N92" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O92" s="7">
         <f t="shared" si="16"/>
-        <v>2001.875</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P92" s="7">
         <f t="shared" si="14"/>
@@ -50420,11 +50506,11 @@
       </c>
       <c r="N93" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O93" s="7">
         <f t="shared" si="16"/>
-        <v>1959.2592592592591</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P93" s="7">
         <f t="shared" si="14"/>
@@ -50447,11 +50533,11 @@
       </c>
       <c r="N94" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O94" s="7">
         <f t="shared" si="16"/>
-        <v>1907.8009259259261</v>
+        <v>2004.9675925925926</v>
       </c>
       <c r="P94" s="7">
         <f t="shared" si="14"/>
@@ -50474,11 +50560,11 @@
       </c>
       <c r="N95" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O95" s="7">
         <f t="shared" si="16"/>
-        <v>1850</v>
+        <v>1947.1666666666667</v>
       </c>
       <c r="P95" s="7">
         <f t="shared" si="14"/>
@@ -50501,15 +50587,15 @@
       </c>
       <c r="N96" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O96" s="7">
         <f t="shared" si="16"/>
-        <v>1788.912037037037</v>
+        <v>1886.0787037037037</v>
       </c>
       <c r="P96" s="7">
         <f t="shared" si="14"/>
-        <v>1788.912037037037</v>
+        <v>1800</v>
       </c>
       <c r="X96" s="73"/>
     </row>
@@ -50528,15 +50614,15 @@
       </c>
       <c r="N97" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O97" s="7">
         <f t="shared" si="16"/>
-        <v>1717.0601851851852</v>
+        <v>1825.3148148148148</v>
       </c>
       <c r="P97" s="7">
         <f t="shared" si="14"/>
-        <v>1717.0601851851852</v>
+        <v>1800</v>
       </c>
       <c r="X97" s="73"/>
     </row>
@@ -50555,15 +50641,15 @@
       </c>
       <c r="N98" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O98" s="7">
         <f t="shared" si="16"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="P98" s="7">
         <f t="shared" si="14"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="X98" s="73"/>
     </row>
@@ -50582,15 +50668,15 @@
       </c>
       <c r="N99" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O99" s="7">
         <f t="shared" si="16"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="P99" s="7">
         <f t="shared" si="14"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="X99" s="73"/>
     </row>
@@ -50609,15 +50695,15 @@
       </c>
       <c r="N100" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O100" s="7">
         <f t="shared" si="16"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="P100" s="7">
         <f t="shared" si="14"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="X100" s="73"/>
     </row>
@@ -50636,15 +50722,15 @@
       </c>
       <c r="N101" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O101" s="7">
         <f t="shared" si="16"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P101" s="7">
         <f t="shared" si="14"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X101" s="73"/>
     </row>
@@ -50663,15 +50749,15 @@
       </c>
       <c r="N102" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O102" s="7">
         <f t="shared" si="16"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="P102" s="7">
         <f t="shared" si="14"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="X102" s="73"/>
     </row>
@@ -50690,15 +50776,15 @@
       </c>
       <c r="N103" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O103" s="7">
         <f t="shared" si="16"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="P103" s="7">
         <f t="shared" si="14"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="X103" s="73"/>
     </row>
@@ -50717,15 +50803,15 @@
       </c>
       <c r="N104" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O104" s="7">
         <f t="shared" si="16"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="P104" s="7">
         <f t="shared" si="14"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="X104" s="73"/>
     </row>
@@ -50744,15 +50830,15 @@
       </c>
       <c r="N105" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O105" s="7">
         <f t="shared" si="16"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="P105" s="7">
         <f t="shared" si="14"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="X105" s="73"/>
     </row>
@@ -50771,15 +50857,15 @@
       </c>
       <c r="N106" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O106" s="7">
         <f t="shared" si="16"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="P106" s="7">
         <f t="shared" si="14"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="X106" s="73"/>
     </row>
@@ -50798,15 +50884,15 @@
       </c>
       <c r="N107" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O107" s="7">
         <f t="shared" si="16"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="P107" s="7">
         <f t="shared" si="14"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="X107" s="73"/>
     </row>
@@ -50825,15 +50911,15 @@
       </c>
       <c r="N108" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O108" s="7">
         <f t="shared" si="16"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="P108" s="7">
         <f t="shared" si="14"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="X108" s="73"/>
     </row>
@@ -50852,15 +50938,15 @@
       </c>
       <c r="N109" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O109" s="7">
         <f t="shared" si="16"/>
-        <v>709.05092592592598</v>
+        <v>1957.9907407407418</v>
       </c>
       <c r="P109" s="7">
         <f t="shared" si="14"/>
-        <v>709.05092592592598</v>
+        <v>1800</v>
       </c>
       <c r="X109" s="73"/>
     </row>
@@ -50879,15 +50965,15 @@
       </c>
       <c r="N110" s="7">
         <f t="shared" si="13"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O110" s="7">
         <f t="shared" si="16"/>
-        <v>910.92592592592598</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P110" s="7">
         <f t="shared" si="14"/>
-        <v>910.92592592592598</v>
+        <v>1800</v>
       </c>
       <c r="X110" s="73"/>
     </row>
@@ -50906,15 +50992,15 @@
       </c>
       <c r="N111" s="7">
         <f t="shared" ref="N111:N158" si="19">B$11</f>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O111" s="7">
         <f t="shared" si="16"/>
-        <v>1144.6296296296296</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P111" s="7">
         <f t="shared" ref="P111:P158" si="20">MAX(0, MIN(O111,O$4))</f>
-        <v>1144.6296296296296</v>
+        <v>1800</v>
       </c>
       <c r="X111" s="73"/>
     </row>
@@ -50933,15 +51019,15 @@
       </c>
       <c r="N112" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O112" s="7">
         <f t="shared" si="16"/>
-        <v>1397.9861111111111</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P112" s="7">
         <f t="shared" si="20"/>
-        <v>1397.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X112" s="73"/>
     </row>
@@ -50960,15 +51046,15 @@
       </c>
       <c r="N113" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O113" s="7">
         <f t="shared" si="16"/>
-        <v>1657.9861111111111</v>
+        <v>2157.166666666667</v>
       </c>
       <c r="P113" s="7">
         <f t="shared" si="20"/>
-        <v>1657.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X113" s="73"/>
     </row>
@@ -50987,11 +51073,11 @@
       </c>
       <c r="N114" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O114" s="7">
         <f t="shared" si="16"/>
-        <v>1911.3425925925926</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P114" s="7">
         <f t="shared" si="20"/>
@@ -51014,11 +51100,11 @@
       </c>
       <c r="N115" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O115" s="7">
         <f t="shared" si="16"/>
-        <v>2033.7037037037037</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P115" s="7">
         <f t="shared" si="20"/>
@@ -51041,11 +51127,11 @@
       </c>
       <c r="N116" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O116" s="7">
         <f t="shared" si="16"/>
-        <v>2001.875</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P116" s="7">
         <f t="shared" si="20"/>
@@ -51068,11 +51154,11 @@
       </c>
       <c r="N117" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O117" s="7">
         <f t="shared" si="16"/>
-        <v>1959.2592592592591</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P117" s="7">
         <f t="shared" si="20"/>
@@ -51095,11 +51181,11 @@
       </c>
       <c r="N118" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O118" s="7">
         <f t="shared" si="16"/>
-        <v>1907.8009259259261</v>
+        <v>2004.9675925925926</v>
       </c>
       <c r="P118" s="7">
         <f t="shared" si="20"/>
@@ -51122,11 +51208,11 @@
       </c>
       <c r="N119" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O119" s="7">
         <f t="shared" si="16"/>
-        <v>1850</v>
+        <v>1947.1666666666667</v>
       </c>
       <c r="P119" s="7">
         <f t="shared" si="20"/>
@@ -51149,15 +51235,15 @@
       </c>
       <c r="N120" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O120" s="7">
         <f t="shared" si="16"/>
-        <v>1788.912037037037</v>
+        <v>1886.0787037037037</v>
       </c>
       <c r="P120" s="7">
         <f t="shared" si="20"/>
-        <v>1788.912037037037</v>
+        <v>1800</v>
       </c>
       <c r="X120" s="73"/>
     </row>
@@ -51176,15 +51262,15 @@
       </c>
       <c r="N121" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O121" s="7">
         <f t="shared" si="16"/>
-        <v>1717.0601851851852</v>
+        <v>1825.3148148148148</v>
       </c>
       <c r="P121" s="7">
         <f t="shared" si="20"/>
-        <v>1717.0601851851852</v>
+        <v>1800</v>
       </c>
       <c r="X121" s="73"/>
     </row>
@@ -51203,15 +51289,15 @@
       </c>
       <c r="N122" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O122" s="7">
         <f t="shared" si="16"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="P122" s="7">
         <f t="shared" si="20"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="X122" s="73"/>
     </row>
@@ -51230,15 +51316,15 @@
       </c>
       <c r="N123" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O123" s="7">
         <f t="shared" si="16"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="P123" s="7">
         <f t="shared" si="20"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="X123" s="73"/>
     </row>
@@ -51257,15 +51343,15 @@
       </c>
       <c r="N124" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O124" s="7">
         <f t="shared" si="16"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="P124" s="7">
         <f t="shared" si="20"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="X124" s="73"/>
     </row>
@@ -51284,15 +51370,15 @@
       </c>
       <c r="N125" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O125" s="7">
         <f t="shared" si="16"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P125" s="7">
         <f t="shared" si="20"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X125" s="73"/>
     </row>
@@ -51311,15 +51397,15 @@
       </c>
       <c r="N126" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O126" s="7">
         <f t="shared" si="16"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="P126" s="7">
         <f t="shared" si="20"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="X126" s="73"/>
     </row>
@@ -51338,15 +51424,15 @@
       </c>
       <c r="N127" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O127" s="7">
         <f t="shared" si="16"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="P127" s="7">
         <f t="shared" si="20"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="X127" s="73"/>
     </row>
@@ -51365,15 +51451,15 @@
       </c>
       <c r="N128" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O128" s="7">
         <f t="shared" si="16"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="P128" s="7">
         <f t="shared" si="20"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="X128" s="73"/>
     </row>
@@ -51392,15 +51478,15 @@
       </c>
       <c r="N129" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O129" s="7">
         <f t="shared" si="16"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="P129" s="7">
         <f t="shared" si="20"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="X129" s="73"/>
     </row>
@@ -51419,15 +51505,15 @@
       </c>
       <c r="N130" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O130" s="7">
         <f t="shared" si="16"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="P130" s="7">
         <f t="shared" si="20"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="X130" s="73"/>
     </row>
@@ -51446,15 +51532,15 @@
       </c>
       <c r="N131" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O131" s="7">
         <f t="shared" si="16"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="P131" s="7">
         <f t="shared" si="20"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="X131" s="73"/>
     </row>
@@ -51473,15 +51559,15 @@
       </c>
       <c r="N132" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O132" s="7">
         <f t="shared" si="16"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="P132" s="7">
         <f t="shared" si="20"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="X132" s="73"/>
     </row>
@@ -51500,15 +51586,15 @@
       </c>
       <c r="N133" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O133" s="7">
         <f t="shared" si="16"/>
-        <v>709.05092592592598</v>
+        <v>1957.9907407407418</v>
       </c>
       <c r="P133" s="7">
         <f t="shared" si="20"/>
-        <v>709.05092592592598</v>
+        <v>1800</v>
       </c>
       <c r="X133" s="73"/>
     </row>
@@ -51527,15 +51613,15 @@
       </c>
       <c r="N134" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O134" s="7">
         <f t="shared" ref="O134:O158" si="22">P133-N133+M133</f>
-        <v>910.92592592592598</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P134" s="7">
         <f t="shared" si="20"/>
-        <v>910.92592592592598</v>
+        <v>1800</v>
       </c>
       <c r="X134" s="73"/>
     </row>
@@ -51554,15 +51640,15 @@
       </c>
       <c r="N135" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O135" s="7">
         <f t="shared" si="22"/>
-        <v>1144.6296296296296</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P135" s="7">
         <f t="shared" si="20"/>
-        <v>1144.6296296296296</v>
+        <v>1800</v>
       </c>
       <c r="X135" s="73"/>
     </row>
@@ -51581,15 +51667,15 @@
       </c>
       <c r="N136" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O136" s="7">
         <f t="shared" si="22"/>
-        <v>1397.9861111111111</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P136" s="7">
         <f t="shared" si="20"/>
-        <v>1397.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X136" s="73"/>
     </row>
@@ -51608,15 +51694,15 @@
       </c>
       <c r="N137" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O137" s="7">
         <f t="shared" si="22"/>
-        <v>1657.9861111111111</v>
+        <v>2157.166666666667</v>
       </c>
       <c r="P137" s="7">
         <f t="shared" si="20"/>
-        <v>1657.9861111111111</v>
+        <v>1800</v>
       </c>
       <c r="X137" s="73"/>
     </row>
@@ -51635,11 +51721,11 @@
       </c>
       <c r="N138" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O138" s="7">
         <f t="shared" si="22"/>
-        <v>1911.3425925925926</v>
+        <v>2150.5231481481483</v>
       </c>
       <c r="P138" s="7">
         <f t="shared" si="20"/>
@@ -51662,11 +51748,11 @@
       </c>
       <c r="N139" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O139" s="7">
         <f t="shared" si="22"/>
-        <v>2033.7037037037037</v>
+        <v>2130.8703703703704</v>
       </c>
       <c r="P139" s="7">
         <f t="shared" si="20"/>
@@ -51689,11 +51775,11 @@
       </c>
       <c r="N140" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O140" s="7">
         <f t="shared" si="22"/>
-        <v>2001.875</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P140" s="7">
         <f t="shared" si="20"/>
@@ -51716,11 +51802,11 @@
       </c>
       <c r="N141" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O141" s="7">
         <f t="shared" si="22"/>
-        <v>1959.2592592592591</v>
+        <v>2056.4259259259261</v>
       </c>
       <c r="P141" s="7">
         <f t="shared" si="20"/>
@@ -51743,11 +51829,11 @@
       </c>
       <c r="N142" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O142" s="7">
         <f t="shared" si="22"/>
-        <v>1907.8009259259261</v>
+        <v>2004.9675925925926</v>
       </c>
       <c r="P142" s="7">
         <f t="shared" si="20"/>
@@ -51770,11 +51856,11 @@
       </c>
       <c r="N143" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O143" s="7">
         <f t="shared" si="22"/>
-        <v>1850</v>
+        <v>1947.1666666666667</v>
       </c>
       <c r="P143" s="7">
         <f t="shared" si="20"/>
@@ -51797,15 +51883,15 @@
       </c>
       <c r="N144" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O144" s="7">
         <f t="shared" si="22"/>
-        <v>1788.912037037037</v>
+        <v>1886.0787037037037</v>
       </c>
       <c r="P144" s="7">
         <f t="shared" si="20"/>
-        <v>1788.912037037037</v>
+        <v>1800</v>
       </c>
       <c r="X144" s="73"/>
     </row>
@@ -51824,15 +51910,15 @@
       </c>
       <c r="N145" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O145" s="7">
         <f t="shared" si="22"/>
-        <v>1717.0601851851852</v>
+        <v>1825.3148148148148</v>
       </c>
       <c r="P145" s="7">
         <f t="shared" si="20"/>
-        <v>1717.0601851851852</v>
+        <v>1800</v>
       </c>
       <c r="X145" s="73"/>
     </row>
@@ -51851,15 +51937,15 @@
       </c>
       <c r="N146" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O146" s="7">
         <f t="shared" si="22"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="P146" s="7">
         <f t="shared" si="20"/>
-        <v>1588.9351851851852</v>
+        <v>1769.0416666666667</v>
       </c>
       <c r="X146" s="73"/>
     </row>
@@ -51878,15 +51964,15 @@
       </c>
       <c r="N147" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O147" s="7">
         <f t="shared" si="22"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="P147" s="7">
         <f t="shared" si="20"/>
-        <v>1413.75</v>
+        <v>1691.0231481481483</v>
       </c>
       <c r="X147" s="73"/>
     </row>
@@ -51905,15 +51991,15 @@
       </c>
       <c r="N148" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O148" s="7">
         <f t="shared" si="22"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="P148" s="7">
         <f t="shared" si="20"/>
-        <v>1205.9953703703704</v>
+        <v>1580.4351851851854</v>
       </c>
       <c r="X148" s="73"/>
     </row>
@@ -51932,15 +52018,15 @@
       </c>
       <c r="N149" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O149" s="7">
         <f t="shared" si="22"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="P149" s="7">
         <f t="shared" si="20"/>
-        <v>985.99537037037044</v>
+        <v>1457.6018518518522</v>
       </c>
       <c r="X149" s="73"/>
     </row>
@@ -51959,15 +52045,15 @@
       </c>
       <c r="N150" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O150" s="7">
         <f t="shared" si="22"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="P150" s="7">
         <f t="shared" si="20"/>
-        <v>778.24074074074076</v>
+        <v>1347.0138888888894</v>
       </c>
       <c r="X150" s="73"/>
     </row>
@@ -51986,15 +52072,15 @@
       </c>
       <c r="N151" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O151" s="7">
         <f t="shared" si="22"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="P151" s="7">
         <f t="shared" si="20"/>
-        <v>603.05555555555554</v>
+        <v>1268.9953703703709</v>
       </c>
       <c r="X151" s="73"/>
     </row>
@@ -52013,15 +52099,15 @@
       </c>
       <c r="N152" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O152" s="7">
         <f t="shared" si="22"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="P152" s="7">
         <f t="shared" si="20"/>
-        <v>474.93055555555554</v>
+        <v>1238.0370370370376</v>
       </c>
       <c r="X152" s="73"/>
     </row>
@@ -52040,15 +52126,15 @@
       </c>
       <c r="N153" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O153" s="7">
         <f t="shared" si="22"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="P153" s="7">
         <f t="shared" si="20"/>
-        <v>403.0787037037037</v>
+        <v>1263.3518518518526</v>
       </c>
       <c r="X153" s="73"/>
     </row>
@@ -52067,15 +52153,15 @@
       </c>
       <c r="N154" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O154" s="7">
         <f t="shared" si="22"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="P154" s="7">
         <f t="shared" si="20"/>
-        <v>391.99074074074076</v>
+        <v>1349.4305555555563</v>
       </c>
       <c r="X154" s="73"/>
     </row>
@@ -52094,15 +52180,15 @@
       </c>
       <c r="N155" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O155" s="7">
         <f t="shared" si="22"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="P155" s="7">
         <f t="shared" si="20"/>
-        <v>441.9907407407407</v>
+        <v>1496.5972222222231</v>
       </c>
       <c r="X155" s="73"/>
     </row>
@@ -52121,15 +52207,15 @@
       </c>
       <c r="N156" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O156" s="7">
         <f t="shared" si="22"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="P156" s="7">
         <f t="shared" si="20"/>
-        <v>549.79166666666674</v>
+        <v>1701.5648148148157</v>
       </c>
       <c r="X156" s="73"/>
     </row>
@@ -52148,15 +52234,15 @@
       </c>
       <c r="N157" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O157" s="7">
         <f t="shared" si="22"/>
-        <v>709.05092592592598</v>
+        <v>1957.9907407407418</v>
       </c>
       <c r="P157" s="7">
         <f t="shared" si="20"/>
-        <v>709.05092592592598</v>
+        <v>1800</v>
       </c>
       <c r="X157" s="73"/>
     </row>
@@ -52175,15 +52261,15 @@
       </c>
       <c r="N158" s="7">
         <f t="shared" si="19"/>
-        <v>220</v>
+        <v>122.83333333333333</v>
       </c>
       <c r="O158" s="7">
         <f t="shared" si="22"/>
-        <v>910.92592592592598</v>
+        <v>2099.041666666667</v>
       </c>
       <c r="P158" s="7">
         <f t="shared" si="20"/>
-        <v>910.92592592592598</v>
+        <v>1800</v>
       </c>
       <c r="X158" s="73"/>
     </row>
@@ -52845,22 +52931,22 @@
   <sheetData>
     <row r="1" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D1" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>199</v>
-      </c>
       <c r="G1" s="72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -52870,21 +52956,21 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="87" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>202</v>
       </c>
       <c r="E3" s="76">
         <v>1</v>
@@ -52894,14 +52980,14 @@
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
-      <c r="J3" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="K3" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="101" t="s">
-        <v>209</v>
+      <c r="J3" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="104" t="s">
+        <v>207</v>
       </c>
       <c r="M3" s="76">
         <v>1</v>
@@ -52909,486 +52995,486 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="105"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="68">
         <v>2</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
       <c r="M4" s="68">
         <v>2</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="105"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="68">
         <v>3</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="68">
         <v>3</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="106"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="77">
         <v>4</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="68">
         <v>4</v>
       </c>
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>181</v>
+      <c r="B7" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>179</v>
       </c>
       <c r="E7" s="76">
         <v>1</v>
       </c>
       <c r="F7" s="91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H7" s="76"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="77">
         <v>5</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="105"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="68">
         <v>2</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" s="68"/>
-      <c r="J8" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="101" t="s">
+      <c r="J8" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="104" t="s">
         <v>208</v>
-      </c>
-      <c r="L8" s="101" t="s">
-        <v>210</v>
       </c>
       <c r="M8" s="76">
         <v>1</v>
       </c>
       <c r="N8" s="76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="106"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="77">
         <v>3</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H9" s="77"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="68">
         <v>2</v>
       </c>
       <c r="N9" s="84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="101" t="s">
+      <c r="B10" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="104" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="76">
         <v>1</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
+        <v>291</v>
+      </c>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="77">
         <v>3</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="105"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="68">
         <v>2</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="J11" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="K11" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="101" t="s">
-        <v>212</v>
+        <v>282</v>
+      </c>
+      <c r="J11" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="104" t="s">
+        <v>210</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="105"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="68">
         <v>3</v>
       </c>
       <c r="F12" s="94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
+        <v>281</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" s="85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="106"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="77">
         <v>4</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="J13" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="K13" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="L13" s="101" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="76">
         <v>1</v>
       </c>
       <c r="N13" s="76" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>182</v>
+      <c r="B14" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>180</v>
       </c>
       <c r="E14" s="76">
         <v>1</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
+        <v>291</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="105"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="68">
         <v>2</v>
       </c>
       <c r="F15" s="93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
+        <v>282</v>
+      </c>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="105"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="68">
         <v>3</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
+        <v>281</v>
+      </c>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="106"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="77">
         <v>4</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
+        <v>292</v>
+      </c>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>191</v>
+      <c r="B18" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>189</v>
       </c>
       <c r="E18" s="76">
         <v>1</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
+        <v>291</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="68">
         <v>2</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="105"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="68">
         <v>2</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="105"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="68">
         <v>3</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H20" s="68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="106"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="77">
         <v>4</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>276</v>
+      <c r="B22" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="104" t="s">
+        <v>274</v>
       </c>
       <c r="E22" s="76">
         <v>1</v>
       </c>
       <c r="F22" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="105"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="68">
         <v>2</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="105"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="68">
         <v>3</v>
       </c>
@@ -53396,219 +53482,238 @@
         <v>24</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="105"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="68">
         <v>4</v>
       </c>
       <c r="F25" s="89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="105"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="68">
         <v>5</v>
       </c>
       <c r="F26" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="106"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="77">
         <v>6</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>184</v>
+      <c r="B28" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>182</v>
       </c>
       <c r="E28" s="76">
         <v>1</v>
       </c>
       <c r="F28" s="91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="105"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="68">
         <v>2</v>
       </c>
       <c r="F29" s="94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="106"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="77">
         <v>3</v>
       </c>
       <c r="F30" s="95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H30" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="103"/>
+      <c r="B36" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="103"/>
+      <c r="B37" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
         <v>287</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="103"/>
+      <c r="B38" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
         <v>288</v>
       </c>
-      <c r="D34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="D35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="103"/>
+      <c r="B40" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="103"/>
+      <c r="B41" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="103"/>
+      <c r="B42" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" t="s">
         <v>292</v>
-      </c>
-      <c r="D36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="107"/>
-      <c r="B37" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="107"/>
-      <c r="B38" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="76" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="107"/>
-      <c r="B40" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
-      <c r="B41" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="C41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="107"/>
-      <c r="B42" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -53625,25 +53730,6 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -53690,7 +53776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -53715,7 +53801,7 @@
         <v>73</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -53728,14 +53814,14 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="107" t="s">
-        <v>161</v>
+      <c r="J3" s="103" t="s">
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -53748,12 +53834,12 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="107"/>
+      <c r="J4" s="103"/>
       <c r="K4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" t="s">
         <v>191</v>
-      </c>
-      <c r="L4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -53775,12 +53861,12 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="103"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -53800,12 +53886,12 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="103"/>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -53821,7 +53907,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -53837,7 +53923,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -53892,7 +53978,7 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -53932,7 +54018,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -53952,7 +54038,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -53972,7 +54058,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -54004,7 +54090,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -54020,7 +54106,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -54051,7 +54137,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -54065,24 +54151,24 @@
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="G24" s="71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G25" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -54118,8 +54204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54133,26 +54219,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -54163,13 +54249,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
@@ -54187,63 +54273,70 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
+      <c r="A7" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="K10" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="K9" s="110" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="110"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="110"/>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>124</v>
-      </c>
       <c r="F12" s="42" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -54252,58 +54345,55 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="K13" s="110"/>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="B14">
-        <f>C13+1</f>
+        <f>B13+4</f>
         <v>4</v>
       </c>
       <c r="C14">
-        <f>B14+3</f>
+        <f>C13+4</f>
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="66"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="K14" s="100"/>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B19" si="0">C14+1</f>
+        <f t="shared" ref="B15:B28" si="0">B14+4</f>
         <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C19" si="1">B15+3</f>
+        <f t="shared" ref="C15:C28" si="1">C14+4</f>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="66"/>
+        <v>173</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="K15" s="100"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -54314,13 +54404,19 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>151</v>
       </c>
       <c r="J16" s="66"/>
     </row>
-    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -54331,13 +54427,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="J17" s="66"/>
     </row>
-    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -54348,13 +54444,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J18" s="66"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -54365,131 +54461,149 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="66"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>218</v>
       </c>
-      <c r="B20">
-        <f t="shared" ref="B20:B26" si="2">C19+1</f>
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:C26" si="3">B20+3</f>
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>312</v>
-      </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>310</v>
+      </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>341</v>
+      </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K24" s="108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>342</v>
+      </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K25" s="108"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>343</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D26" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" s="108"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="4">C26+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27" si="5">B27+3</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="108"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="108"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K9:K13"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
@@ -54503,7 +54617,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54513,12 +54627,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="110"/>
+      <c r="A1" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="112"/>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(K4:K18)</f>
@@ -54527,30 +54641,30 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" t="s">
         <v>271</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>272</v>
-      </c>
-      <c r="H3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -54590,7 +54704,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B5">
         <f>B4+4</f>
@@ -54601,7 +54715,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -54632,7 +54746,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B16" si="4">B5+4</f>
@@ -54643,7 +54757,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -54674,7 +54788,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <f t="shared" si="4"/>
@@ -54685,7 +54799,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -54716,7 +54830,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8">
         <f t="shared" si="4"/>
@@ -54758,7 +54872,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9">
         <f t="shared" si="4"/>
@@ -54769,7 +54883,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -54800,7 +54914,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B10">
         <f t="shared" si="4"/>
@@ -54811,7 +54925,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -54842,7 +54956,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B11">
         <f t="shared" si="4"/>
@@ -54853,7 +54967,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -54884,7 +54998,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B12">
         <f t="shared" si="4"/>
@@ -54895,7 +55009,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -54926,7 +55040,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B13">
         <f t="shared" si="4"/>
@@ -54937,7 +55051,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -54968,7 +55082,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B14">
         <f t="shared" si="4"/>
@@ -55004,7 +55118,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B15">
         <f t="shared" si="4"/>
@@ -55040,7 +55154,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B16">
         <f t="shared" si="4"/>
@@ -55076,7 +55190,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B17">
         <f>B16+4</f>
@@ -55087,7 +55201,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -55118,7 +55232,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B18">
         <f>B17+4</f>
@@ -55129,7 +55243,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -55159,40 +55273,40 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="110"/>
+      <c r="A22" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="112"/>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" t="s">
         <v>260</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>261</v>
       </c>
-      <c r="E24" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>262</v>
-      </c>
-      <c r="G24" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -55207,7 +55321,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G25">
         <f>HEX2DEC(F25)</f>
@@ -55220,7 +55334,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26">
         <f>B25+4</f>
@@ -55231,7 +55345,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -55251,7 +55365,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:B37" si="21">B26+4</f>
@@ -55262,7 +55376,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -55282,7 +55396,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28">
         <f t="shared" si="21"/>
@@ -55293,7 +55407,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -55313,7 +55427,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B29">
         <f t="shared" si="21"/>
@@ -55344,7 +55458,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B30">
         <f t="shared" si="21"/>
@@ -55355,7 +55469,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -55375,7 +55489,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31">
         <f t="shared" si="21"/>
@@ -55386,7 +55500,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -55406,7 +55520,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32">
         <f t="shared" si="21"/>
@@ -55417,7 +55531,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -55437,7 +55551,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33">
         <f t="shared" si="21"/>
@@ -55448,7 +55562,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -55468,7 +55582,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34">
         <f t="shared" si="21"/>
@@ -55479,7 +55593,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -55499,7 +55613,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35">
         <f t="shared" si="21"/>
@@ -55527,7 +55641,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B36">
         <f t="shared" si="21"/>
@@ -55555,7 +55669,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37">
         <f t="shared" si="21"/>
@@ -55583,7 +55697,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B38">
         <f t="shared" ref="B38:C40" si="23">B37+4</f>
@@ -55594,7 +55708,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -55614,7 +55728,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B39">
         <f t="shared" si="23"/>
@@ -55625,7 +55739,7 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -55676,7 +55790,7 @@
   <sheetData>
     <row r="3" spans="10:11" ht="18" x14ac:dyDescent="0.35">
       <c r="J3" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.3">
@@ -55684,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.3">
@@ -55692,7 +55806,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.3">
@@ -55700,7 +55814,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.3">
@@ -55708,7 +55822,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.3">
@@ -55716,7 +55830,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -55826,7 +55940,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.2337725934236985E-3</v>
+        <v>1.0583471845461285E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -55841,7 +55955,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>108.29809700015798</v>
+        <v>94.486952353810949</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -55853,18 +55967,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>9.1854800775527188E-3</v>
+        <v>9.7877947117580213E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>9.1854800775527188E-3</v>
+        <v>9.7877947117580213E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>8.2980970001579807E-2</v>
+        <v>-5.513047646189051E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -55873,11 +55987,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1739425256319812E-2</v>
+        <v>1.9736157312612371E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.2553945178767094E-2</v>
+        <v>9.9483626008543494E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -55886,11 +56000,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9948942842581851E-2</v>
+        <v>3.2526465534751685E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.2095175862620384E-3</v>
+        <v>1.2790308222139314E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -55899,11 +56013,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9321747012156065E-2</v>
+        <v>4.0790598398484777E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3728041695742143E-3</v>
+        <v>8.2641328637330924E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -55912,11 +56026,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6337943696107595E-2</v>
+        <v>5.0764044027637692E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0161966839515297E-3</v>
+        <v>9.9734456291529147E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -55925,11 +56039,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4265918359501494E-2</v>
+        <v>6.3180148376435957E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9279746633938997E-3</v>
+        <v>1.2416104348798265E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -55938,11 +56052,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6051896064884652E-2</v>
+        <v>7.3616821232176569E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1785977705383158E-2</v>
+        <v>1.0436672855740611E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -55951,11 +56065,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4667706821522406E-2</v>
+        <v>8.3565168127073056E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.615810756637754E-3</v>
+        <v>9.948346894896487E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -55964,11 +56078,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5969731197766255E-2</v>
+        <v>9.413036561132701E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1302024376243849E-2</v>
+        <v>1.0565197484253955E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -55977,11 +56091,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.449048212042141E-2</v>
+        <v>0.10622337739309519</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5207509226551542E-3</v>
+        <v>1.2093011781768179E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -55990,11 +56104,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10234211714262512</v>
+        <v>0.1190937689633251</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8516350222037068E-3</v>
+        <v>1.2870391570229914E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -56003,11 +56117,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11318199246440847</v>
+        <v>0.13011009155538075</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0839875321783349E-2</v>
+        <v>1.101632259205565E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -56016,11 +56130,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12075904804119512</v>
+        <v>0.14282170379650175</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5770555767866593E-3</v>
+        <v>1.2711612241120995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -56029,11 +56143,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13178482722918375</v>
+        <v>0.15303667812592461</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1025779187988624E-2</v>
+        <v>1.0214974329422866E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -56042,11 +56156,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14377032575209137</v>
+        <v>0.16008765971947334</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1985498522907617E-2</v>
+        <v>7.0509815935487219E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -56055,11 +56169,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15200600384033527</v>
+        <v>0.16950663015516201</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2356780882439085E-3</v>
+        <v>9.4189704356886783E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -56068,11 +56182,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16031258573338236</v>
+        <v>0.18055294219851536</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.306581893047088E-3</v>
+        <v>1.1046312043353351E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -56081,11 +56195,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16737908401408189</v>
+        <v>0.19329485461484508</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0664982806995236E-3</v>
+        <v>1.2741912416329715E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -56094,11 +56208,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17544167927505028</v>
+        <v>0.20108596506376442</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0625952609683915E-3</v>
+        <v>7.7911104489193361E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C831AFA-F128-43D5-9DC6-4594BD782BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98388C67-04E4-4B59-9F62-D943016943EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="346">
   <si>
     <t>Produit</t>
   </si>
@@ -422,15 +422,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>d'utilisables</t>
-  </si>
-  <si>
     <t>debut</t>
   </si>
   <si>
@@ -727,9 +718,6 @@
   </si>
   <si>
     <t>Température (BMP280)</t>
-  </si>
-  <si>
-    <t>Lux</t>
   </si>
   <si>
     <t>Altitude</t>
@@ -1101,12 +1089,6 @@
     <t>Travailler avec les byte d'un char[251]</t>
   </si>
   <si>
-    <t>Pluie 24h</t>
-  </si>
-  <si>
-    <t>Pluie 7 jours</t>
-  </si>
-  <si>
     <t>BH1745 Red</t>
   </si>
   <si>
@@ -1135,6 +1117,9 @@
   </si>
   <si>
     <t>temperature batterie</t>
+  </si>
+  <si>
+    <t>hLux</t>
   </si>
 </sst>
 </file>
@@ -1879,9 +1864,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1898,6 +1880,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27268,7 +27253,7 @@
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="102"/>
       <c r="D2" s="64">
@@ -27278,7 +27263,7 @@
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
       <c r="G2" s="102" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H2" s="102"/>
       <c r="I2" s="102"/>
@@ -27298,7 +27283,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>95</v>
@@ -27307,7 +27292,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -27430,10 +27415,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -27442,7 +27427,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
@@ -27454,10 +27439,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D16" s="1">
         <v>8.02</v>
@@ -27467,10 +27452,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1">
         <v>1.49</v>
@@ -27483,7 +27468,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1">
         <v>57</v>
@@ -27496,7 +27481,7 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1">
         <v>144</v>
@@ -27506,10 +27491,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D20" s="1">
         <v>15.25</v>
@@ -27519,10 +27504,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D21" s="1">
         <v>18.48</v>
@@ -27532,10 +27517,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D22" s="1">
         <v>12.99</v>
@@ -27592,10 +27577,10 @@
         <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="V2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
@@ -27632,10 +27617,10 @@
         <v>,"N"</v>
       </c>
       <c r="V3" s="101" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Z3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -27679,7 +27664,7 @@
         <v>,"N","NNE"</v>
       </c>
       <c r="U4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -29601,30 +29586,30 @@
   <sheetData>
     <row r="1" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" s="46"/>
       <c r="F1" s="48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K1" s="47" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
@@ -29670,7 +29655,7 @@
       </c>
       <c r="M2" s="43"/>
       <c r="R2" s="46" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -29717,16 +29702,16 @@
         <v>2.7916102977683802E-3</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S3" s="46">
         <v>500</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -29767,13 +29752,13 @@
       </c>
       <c r="N4" s="43"/>
       <c r="R4" s="46" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S4" s="97">
         <v>10</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="W4" s="46">
         <v>1</v>
@@ -29821,13 +29806,13 @@
       </c>
       <c r="N5" s="43"/>
       <c r="R5" s="46" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S5" s="46">
         <v>5</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="W5" s="46">
         <v>2</v>
@@ -29875,14 +29860,14 @@
       </c>
       <c r="M6" s="43"/>
       <c r="R6" s="46" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="S6" s="98">
         <f>S3*S5/1023</f>
         <v>2.4437927663734116</v>
       </c>
       <c r="T6" s="46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="W6" s="46">
         <v>3</v>
@@ -29975,14 +29960,14 @@
       </c>
       <c r="M8" s="43"/>
       <c r="R8" s="46" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="S8" s="97">
         <f>S4/((S5/S6)-1)</f>
         <v>9.5602294455066943</v>
       </c>
       <c r="T8" s="46" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="W8" s="46">
         <v>5</v>
@@ -30030,7 +30015,7 @@
       </c>
       <c r="M9" s="43"/>
       <c r="R9" s="46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S9" s="97">
         <f>O3</f>
@@ -30082,7 +30067,7 @@
       </c>
       <c r="M10" s="43"/>
       <c r="R10" s="46" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S10" s="97">
         <f>N3</f>
@@ -30134,7 +30119,7 @@
       </c>
       <c r="M11" s="43"/>
       <c r="R11" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S11" s="97">
         <f>S9+S10*LN(S8)</f>
@@ -30186,14 +30171,14 @@
       </c>
       <c r="M12" s="43"/>
       <c r="R12" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S12" s="98">
         <f>1/S11-273.15</f>
         <v>24.03956960185991</v>
       </c>
       <c r="T12" s="46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="W12" s="46">
         <v>9</v>
@@ -47614,7 +47599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -47622,12 +47607,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -47635,13 +47620,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G4">
         <v>34</v>
@@ -47649,7 +47634,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -47657,7 +47642,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -47665,15 +47650,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -47681,10 +47666,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -47692,10 +47677,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -47703,10 +47688,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -47714,10 +47699,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -47725,10 +47710,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -47736,10 +47721,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -47747,10 +47732,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -47758,10 +47743,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -47769,10 +47754,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -47780,35 +47765,35 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -47842,10 +47827,10 @@
         <v>76</v>
       </c>
       <c r="J1" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
@@ -47880,25 +47865,25 @@
         <v>83</v>
       </c>
       <c r="K3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" t="s">
         <v>223</v>
       </c>
-      <c r="L3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M3" t="s">
-        <v>228</v>
-      </c>
-      <c r="N3" t="s">
-        <v>227</v>
-      </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>400</v>
@@ -47943,7 +47928,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -47989,7 +47974,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -48096,7 +48081,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B9" s="60">
         <f>SUMPRODUCT(B4:B8,F4:F8)*0.1</f>
@@ -48167,7 +48152,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B11" s="60">
         <f>SUMPRODUCT(B4:B9,F4:F9)</f>
@@ -48662,14 +48647,14 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B27" s="75">
         <f>B11/1000*C4/1000</f>
         <v>4.0534999999999996E-4</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
@@ -48699,13 +48684,13 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B28">
         <v>0.15459999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
@@ -48735,14 +48720,14 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B29" s="60">
         <f>B28*B27</f>
         <v>6.2667109999999982E-5</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
@@ -48772,14 +48757,14 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B30" s="60">
         <f>B29*24</f>
         <v>1.5040106399999997E-3</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
@@ -48809,14 +48794,14 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B31" s="60">
         <f>B30*365</f>
         <v>0.54896388359999992</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
@@ -52931,22 +52916,22 @@
   <sheetData>
     <row r="1" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="72" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -52956,21 +52941,21 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
       <c r="G2" s="87" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>200</v>
+      <c r="B3" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>197</v>
       </c>
       <c r="E3" s="76">
         <v>1</v>
@@ -52980,14 +52965,14 @@
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
-      <c r="J3" s="104" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" s="104" t="s">
-        <v>207</v>
+      <c r="J3" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="103" t="s">
+        <v>204</v>
       </c>
       <c r="M3" s="76">
         <v>1</v>
@@ -52995,486 +52980,486 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="68">
         <v>2</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="68">
         <v>2</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="108"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="68">
         <v>3</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
       <c r="M5" s="68">
         <v>3</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="109"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="77">
         <v>4</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="68">
         <v>4</v>
       </c>
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>179</v>
+      <c r="B7" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>176</v>
       </c>
       <c r="E7" s="76">
         <v>1</v>
       </c>
       <c r="F7" s="91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H7" s="76"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="77">
         <v>5</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="68">
         <v>2</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H8" s="68"/>
-      <c r="J8" s="104" t="s">
-        <v>201</v>
-      </c>
-      <c r="K8" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>208</v>
+      <c r="J8" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="103" t="s">
+        <v>205</v>
       </c>
       <c r="M8" s="76">
         <v>1</v>
       </c>
       <c r="N8" s="76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="109"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="77">
         <v>3</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H9" s="77"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="68">
         <v>2</v>
       </c>
       <c r="N9" s="84" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="104" t="s">
+      <c r="B10" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="103" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="76">
         <v>1</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+        <v>287</v>
+      </c>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="77">
         <v>3</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="108"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="68">
         <v>2</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="J11" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="104" t="s">
-        <v>210</v>
+        <v>278</v>
+      </c>
+      <c r="J11" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="103" t="s">
+        <v>207</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="68">
         <v>3</v>
       </c>
       <c r="F12" s="94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
+        <v>277</v>
+      </c>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" s="85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="109"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="77">
         <v>4</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G13" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="H13" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="J13" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="K13" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="104" t="s">
-        <v>211</v>
+      <c r="J13" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" s="103" t="s">
+        <v>208</v>
       </c>
       <c r="M13" s="76">
         <v>1</v>
       </c>
       <c r="N13" s="76" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="104" t="s">
-        <v>180</v>
+      <c r="B14" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>177</v>
       </c>
       <c r="E14" s="76">
         <v>1</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+        <v>287</v>
+      </c>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="108"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="68">
         <v>2</v>
       </c>
       <c r="F15" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+        <v>278</v>
+      </c>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="108"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="68">
         <v>3</v>
       </c>
       <c r="F16" s="94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+        <v>277</v>
+      </c>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="109"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="77">
         <v>4</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G17" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>189</v>
+      <c r="B18" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>186</v>
       </c>
       <c r="E18" s="76">
         <v>1</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+        <v>287</v>
+      </c>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="68">
         <v>2</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="108"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="68">
         <v>2</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="108"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="68">
         <v>3</v>
       </c>
       <c r="F20" s="94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="109"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="77">
         <v>4</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G21" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="H21" s="77" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="104" t="s">
-        <v>274</v>
+      <c r="B22" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>270</v>
       </c>
       <c r="E22" s="76">
         <v>1</v>
       </c>
       <c r="F22" s="92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="108"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="68">
         <v>2</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="108"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="68">
         <v>3</v>
       </c>
@@ -53482,238 +53467,219 @@
         <v>24</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="108"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
       <c r="E25" s="68">
         <v>4</v>
       </c>
       <c r="F25" s="89" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="108"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
       <c r="E26" s="68">
         <v>5</v>
       </c>
       <c r="F26" s="89" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="109"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="77">
         <v>6</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>182</v>
+      <c r="B28" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>179</v>
       </c>
       <c r="E28" s="76">
         <v>1</v>
       </c>
       <c r="F28" s="91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="68">
         <v>2</v>
       </c>
       <c r="F29" s="94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="109"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="77">
         <v>3</v>
       </c>
       <c r="F30" s="95" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G30" s="77" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H30" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
         <v>285</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="109"/>
+      <c r="B36" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
         <v>286</v>
       </c>
-      <c r="D34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
-      <c r="B36" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" t="s">
-        <v>290</v>
-      </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="80" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="109"/>
+      <c r="B38" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="D37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
-      <c r="B38" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="109"/>
+      <c r="B40" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="109"/>
+      <c r="B41" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="109"/>
+      <c r="B42" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" t="s">
         <v>288</v>
-      </c>
-      <c r="D38" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="D39" s="76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
-      <c r="B40" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
-      <c r="B41" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="103"/>
-      <c r="B42" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" t="s">
-        <v>288</v>
-      </c>
-      <c r="D42" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -53730,6 +53696,25 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -53801,7 +53786,7 @@
         <v>73</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -53814,14 +53799,14 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="103" t="s">
-        <v>159</v>
+      <c r="J3" s="109" t="s">
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -53834,12 +53819,12 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="109"/>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -53861,12 +53846,12 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="109"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -53886,12 +53871,12 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="109"/>
       <c r="K6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -53907,7 +53892,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -53923,7 +53908,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -53978,7 +53963,7 @@
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -54018,7 +54003,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -54038,7 +54023,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -54058,7 +54043,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -54090,7 +54075,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -54106,7 +54091,7 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -54137,7 +54122,7 @@
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -54151,24 +54136,24 @@
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="G24" s="71" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G25" s="71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -54202,10 +54187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
-  <dimension ref="A3:L28"/>
+  <dimension ref="A3:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54235,10 +54220,10 @@
         <v>117</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -54248,15 +54233,6 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
       <c r="K5" t="s">
         <v>22</v>
       </c>
@@ -54274,40 +54250,40 @@
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="111" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="111"/>
       <c r="C7" s="111"/>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K9" s="110" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -54318,25 +54294,25 @@
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -54345,19 +54321,19 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K13" s="110"/>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <f>B13+4</f>
@@ -54368,14 +54344,14 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="59"/>
       <c r="K14" s="100"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B28" si="0">B14+4</f>
@@ -54386,14 +54362,14 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="59"/>
       <c r="K15" s="100"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -54404,19 +54380,19 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -54427,13 +54403,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -54444,13 +54420,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -54461,7 +54437,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="J19" s="66"/>
     </row>
@@ -54478,13 +54454,13 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -54495,12 +54471,12 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -54511,12 +54487,12 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -54527,12 +54503,12 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -54542,10 +54518,13 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -54555,10 +54534,13 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -54568,37 +54550,8 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>178</v>
+      <c r="D26" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -54628,11 +54581,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="112" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="112"/>
       <c r="D1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(K4:K18)</f>
@@ -54641,30 +54594,30 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" t="s">
         <v>265</v>
       </c>
-      <c r="F3" t="s">
-        <v>269</v>
-      </c>
       <c r="G3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -54704,7 +54657,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <f>B4+4</f>
@@ -54715,7 +54668,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -54746,7 +54699,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B16" si="4">B5+4</f>
@@ -54757,7 +54710,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -54788,7 +54741,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7">
         <f t="shared" si="4"/>
@@ -54799,7 +54752,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -54830,7 +54783,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B8">
         <f t="shared" si="4"/>
@@ -54872,7 +54825,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B9">
         <f t="shared" si="4"/>
@@ -54883,7 +54836,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -54914,7 +54867,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B10">
         <f t="shared" si="4"/>
@@ -54925,7 +54878,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -54956,7 +54909,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B11">
         <f t="shared" si="4"/>
@@ -54967,7 +54920,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -54998,7 +54951,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B12">
         <f t="shared" si="4"/>
@@ -55009,7 +54962,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -55040,7 +54993,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B13">
         <f t="shared" si="4"/>
@@ -55051,7 +55004,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -55082,7 +55035,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B14">
         <f t="shared" si="4"/>
@@ -55118,7 +55071,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B15">
         <f t="shared" si="4"/>
@@ -55154,7 +55107,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B16">
         <f t="shared" si="4"/>
@@ -55190,7 +55143,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B17">
         <f>B16+4</f>
@@ -55201,7 +55154,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -55232,7 +55185,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B18">
         <f>B17+4</f>
@@ -55243,7 +55196,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -55274,39 +55227,39 @@
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="112" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B22" s="112"/>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" t="s">
         <v>258</v>
-      </c>
-      <c r="C24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" t="s">
-        <v>261</v>
-      </c>
-      <c r="H24" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -55321,7 +55274,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G25">
         <f>HEX2DEC(F25)</f>
@@ -55334,7 +55287,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B26">
         <f>B25+4</f>
@@ -55345,7 +55298,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -55365,7 +55318,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:B37" si="21">B26+4</f>
@@ -55376,7 +55329,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -55396,7 +55349,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B28">
         <f t="shared" si="21"/>
@@ -55407,7 +55360,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -55427,7 +55380,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B29">
         <f t="shared" si="21"/>
@@ -55458,7 +55411,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B30">
         <f t="shared" si="21"/>
@@ -55469,7 +55422,7 @@
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -55489,7 +55442,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B31">
         <f t="shared" si="21"/>
@@ -55500,7 +55453,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -55520,7 +55473,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B32">
         <f t="shared" si="21"/>
@@ -55531,7 +55484,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -55551,7 +55504,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B33">
         <f t="shared" si="21"/>
@@ -55562,7 +55515,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -55582,7 +55535,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B34">
         <f t="shared" si="21"/>
@@ -55593,7 +55546,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -55613,7 +55566,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B35">
         <f t="shared" si="21"/>
@@ -55641,7 +55594,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B36">
         <f t="shared" si="21"/>
@@ -55669,7 +55622,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B37">
         <f t="shared" si="21"/>
@@ -55697,7 +55650,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38">
         <f t="shared" ref="B38:C40" si="23">B37+4</f>
@@ -55708,7 +55661,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -55728,7 +55681,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B39">
         <f t="shared" si="23"/>
@@ -55739,7 +55692,7 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -55790,7 +55743,7 @@
   <sheetData>
     <row r="3" spans="10:11" ht="18" x14ac:dyDescent="0.35">
       <c r="J3" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.3">
@@ -55798,7 +55751,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.3">
@@ -55806,7 +55759,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.3">
@@ -55814,7 +55767,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.3">
@@ -55822,7 +55775,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.3">
@@ -55830,7 +55783,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -55940,7 +55893,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0583471845461285E-2</v>
+        <v>1.0054552302954855E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -55955,7 +55908,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>94.486952353810949</v>
+        <v>99.457436777778526</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -55967,18 +55920,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>9.7877947117580213E-3</v>
+        <v>7.4694064547483081E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>9.7877947117580213E-3</v>
+        <v>7.4694064547483081E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-5.513047646189051E-2</v>
+        <v>-5.4256322222147445E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -55987,11 +55940,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9736157312612371E-2</v>
+        <v>1.840139407501944E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>9.9483626008543494E-3</v>
+        <v>1.0931987620271132E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -56000,11 +55953,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2526465534751685E-2</v>
+        <v>2.7959553487932665E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.2790308222139314E-2</v>
+        <v>9.5581594129132245E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -56013,11 +55966,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0790598398484777E-2</v>
+        <v>4.0037852549322191E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2641328637330924E-3</v>
+        <v>1.2078299061389526E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -56026,11 +55979,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0764044027637692E-2</v>
+        <v>4.8678079847408587E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9734456291529147E-3</v>
+        <v>8.6402272980863962E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -56039,11 +55992,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3180148376435957E-2</v>
+        <v>5.5777917744675713E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2416104348798265E-2</v>
+        <v>7.0998378972671264E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -56052,11 +56005,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3616821232176569E-2</v>
+        <v>6.5688678201506534E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0436672855740611E-2</v>
+        <v>9.9107604568308208E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -56065,11 +56018,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3565168127073056E-2</v>
+        <v>7.4014913369046087E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.948346894896487E-3</v>
+        <v>8.326235167539553E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -56078,11 +56031,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.413036561132701E-2</v>
+        <v>8.3266964652730466E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0565197484253955E-2</v>
+        <v>9.2520512836843788E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -56091,11 +56044,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10622337739309519</v>
+        <v>9.6234779561275088E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2093011781768179E-2</v>
+        <v>1.2967814908544623E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -56104,11 +56057,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1190937689633251</v>
+        <v>0.10614070617421879</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2870391570229914E-2</v>
+        <v>9.9059266129437051E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -56117,11 +56070,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13011009155538075</v>
+        <v>0.11759009590111613</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.101632259205565E-2</v>
+        <v>1.1449389726897338E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -56130,11 +56083,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14282170379650175</v>
+        <v>0.12480579224427533</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2711612241120995E-2</v>
+        <v>7.2156963431592031E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -56143,11 +56096,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15303667812592461</v>
+        <v>0.13494458082899075</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0214974329422866E-2</v>
+        <v>1.0138788584715411E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -56156,11 +56109,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16008765971947334</v>
+        <v>0.14537117888376178</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0509815935487219E-3</v>
+        <v>1.042659805477103E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -56169,11 +56122,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16950663015516201</v>
+        <v>0.15811557624933209</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4189704356886783E-3</v>
+        <v>1.2744397365570315E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -56182,11 +56135,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18055294219851536</v>
+        <v>0.16977694187836356</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1046312043353351E-2</v>
+        <v>1.1661365629031473E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -56195,11 +56148,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19329485461484508</v>
+        <v>0.1819997620366379</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2741912416329715E-2</v>
+        <v>1.2222820158274333E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -56208,11 +56161,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20108596506376442</v>
+        <v>0.19103649375614223</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7911104489193361E-3</v>
+        <v>9.0367317195043373E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98388C67-04E4-4B59-9F62-D943016943EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505EE4C0-3CA6-4EC9-A3F0-EE2595FF5665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -1864,6 +1864,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,9 +1883,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -47599,7 +47599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -52948,13 +52948,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="104" t="s">
         <v>197</v>
       </c>
       <c r="E3" s="76">
@@ -52965,13 +52965,13 @@
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="104" t="s">
         <v>204</v>
       </c>
       <c r="M3" s="76">
@@ -52980,9 +52980,9 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="107"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="68">
         <v>2</v>
       </c>
@@ -52991,18 +52991,18 @@
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
       <c r="M4" s="68">
         <v>2</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="68">
         <v>3</v>
       </c>
@@ -53011,18 +53011,18 @@
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="68">
         <v>3</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="108"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="77">
         <v>4</v>
       </c>
@@ -53031,22 +53031,22 @@
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="68">
         <v>4</v>
       </c>
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="104" t="s">
         <v>176</v>
       </c>
       <c r="E7" s="76">
@@ -53059,18 +53059,18 @@
         <v>284</v>
       </c>
       <c r="H7" s="76"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="77">
         <v>5</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="107"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="68">
         <v>2</v>
       </c>
@@ -53081,13 +53081,13 @@
         <v>292</v>
       </c>
       <c r="H8" s="68"/>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="103" t="s">
+      <c r="K8" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="103" t="s">
+      <c r="L8" s="104" t="s">
         <v>205</v>
       </c>
       <c r="M8" s="76">
@@ -53098,9 +53098,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="77">
         <v>3</v>
       </c>
@@ -53111,9 +53111,9 @@
         <v>283</v>
       </c>
       <c r="H9" s="77"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="68">
         <v>2</v>
       </c>
@@ -53122,13 +53122,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="104" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="76">
@@ -53143,9 +53143,9 @@
       <c r="H10" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="77">
         <v>3</v>
       </c>
@@ -53154,9 +53154,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="68">
         <v>2</v>
       </c>
@@ -53169,13 +53169,13 @@
       <c r="H11" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="103" t="s">
+      <c r="L11" s="104" t="s">
         <v>207</v>
       </c>
       <c r="M11">
@@ -53186,9 +53186,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="107"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="68">
         <v>3</v>
       </c>
@@ -53201,9 +53201,9 @@
       <c r="H12" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -53212,9 +53212,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="77">
         <v>4</v>
       </c>
@@ -53227,13 +53227,13 @@
       <c r="H13" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="104" t="s">
         <v>208</v>
       </c>
       <c r="M13" s="76">
@@ -53244,13 +53244,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="104" t="s">
         <v>177</v>
       </c>
       <c r="E14" s="76">
@@ -53265,16 +53265,16 @@
       <c r="H14" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="107"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="68">
         <v>2</v>
       </c>
@@ -53287,16 +53287,16 @@
       <c r="H15" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="68">
         <v>3</v>
       </c>
@@ -53309,16 +53309,16 @@
       <c r="H16" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="108"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="77">
         <v>4</v>
       </c>
@@ -53331,20 +53331,20 @@
       <c r="H17" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="104" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="76">
@@ -53359,9 +53359,9 @@
       <c r="H18" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="68">
         <v>2</v>
       </c>
@@ -53370,9 +53370,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="68">
         <v>2</v>
       </c>
@@ -53387,9 +53387,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="68">
         <v>3</v>
       </c>
@@ -53404,9 +53404,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="108"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="77">
         <v>4</v>
       </c>
@@ -53421,13 +53421,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="104" t="s">
         <v>270</v>
       </c>
       <c r="E22" s="76">
@@ -53442,9 +53442,9 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="68">
         <v>2</v>
       </c>
@@ -53457,9 +53457,9 @@
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="68">
         <v>3</v>
       </c>
@@ -53472,9 +53472,9 @@
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="68">
         <v>4</v>
       </c>
@@ -53487,9 +53487,9 @@
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="68">
         <v>5</v>
       </c>
@@ -53502,9 +53502,9 @@
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="108"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="77">
         <v>6</v>
       </c>
@@ -53517,13 +53517,13 @@
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="104" t="s">
         <v>179</v>
       </c>
       <c r="E28" s="76">
@@ -53538,9 +53538,9 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="68">
         <v>2</v>
       </c>
@@ -53553,9 +53553,9 @@
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="108"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="77">
         <v>3</v>
       </c>
@@ -53579,7 +53579,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="103" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="82" t="s">
@@ -53593,7 +53593,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="83" t="s">
         <v>155</v>
       </c>
@@ -53605,7 +53605,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="80" t="s">
         <v>196</v>
       </c>
@@ -53617,7 +53617,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="109"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="86" t="s">
         <v>178</v>
       </c>
@@ -53629,7 +53629,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="103" t="s">
         <v>186</v>
       </c>
       <c r="B39" s="82" t="s">
@@ -53643,7 +53643,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="83" t="s">
         <v>155</v>
       </c>
@@ -53655,7 +53655,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="80" t="s">
         <v>196</v>
       </c>
@@ -53667,7 +53667,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="109"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="81" t="s">
         <v>271</v>
       </c>
@@ -53680,6 +53680,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -53696,25 +53715,6 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -53799,7 +53799,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="103" t="s">
         <v>156</v>
       </c>
       <c r="K3" t="s">
@@ -53819,7 +53819,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="103"/>
       <c r="K4" t="s">
         <v>186</v>
       </c>
@@ -53846,7 +53846,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="109"/>
+      <c r="J5" s="103"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -53871,7 +53871,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="103"/>
       <c r="K6" t="s">
         <v>177</v>
       </c>
@@ -54189,8 +54189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54354,11 +54354,11 @@
         <v>129</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B28" si="0">B14+4</f>
+        <f t="shared" ref="B15:B26" si="0">B14+4</f>
         <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C28" si="1">C14+4</f>
+        <f t="shared" ref="C15:C26" si="1">C14+4</f>
         <v>11</v>
       </c>
       <c r="D15" t="s">
@@ -55893,7 +55893,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0054552302954855E-2</v>
+        <v>9.7634659255523611E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -55908,7 +55908,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>99.457436777778526</v>
+        <v>102.42264454294448</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -55920,18 +55920,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.4694064547483081E-3</v>
+        <v>1.1172021563293621E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.4694064547483081E-3</v>
+        <v>1.1172021563293621E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-5.4256322222147445E-3</v>
+        <v>2.4226445429444823E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -55940,11 +55940,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.840139407501944E-2</v>
+        <v>2.2596911117739166E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.0931987620271132E-2</v>
+        <v>1.1424889554445546E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -55953,11 +55953,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7959553487932665E-2</v>
+        <v>3.1622805453820457E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>9.5581594129132245E-3</v>
+        <v>9.0258943360812909E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -55966,11 +55966,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0037852549322191E-2</v>
+        <v>4.1130321821549409E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2078299061389526E-2</v>
+        <v>9.507516367728952E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -55979,11 +55979,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8678079847408587E-2</v>
+        <v>5.1143304792457052E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6402272980863962E-3</v>
+        <v>1.0012982970907643E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -55992,11 +55992,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5777917744675713E-2</v>
+        <v>6.103621176537375E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0998378972671264E-3</v>
+        <v>9.8929069729166985E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -56005,11 +56005,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5688678201506534E-2</v>
+        <v>6.8391623155258499E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9107604568308208E-3</v>
+        <v>7.3554113898847487E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -56018,11 +56018,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4014913369046087E-2</v>
+        <v>8.014319276934502E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.326235167539553E-3</v>
+        <v>1.1751569614086521E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -56031,11 +56031,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3266964652730466E-2</v>
+        <v>8.8076686245579253E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2520512836843788E-3</v>
+        <v>7.9334934762342324E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -56044,11 +56044,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6234779561275088E-2</v>
+        <v>9.8087260557275416E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2967814908544623E-2</v>
+        <v>1.0010574311696163E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -56057,11 +56057,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10614070617421879</v>
+        <v>0.10576656291658432</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9059266129437051E-3</v>
+        <v>7.679302359308901E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -56070,11 +56070,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11759009590111613</v>
+        <v>0.11465287600310954</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1449389726897338E-2</v>
+        <v>8.8863130865252243E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -56083,11 +56083,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12480579224427533</v>
+        <v>0.12299280840383767</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2156963431592031E-3</v>
+        <v>8.3399324007281256E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -56096,11 +56096,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13494458082899075</v>
+        <v>0.13166245420702519</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0138788584715411E-2</v>
+        <v>8.6696458031875201E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -56109,11 +56109,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14537117888376178</v>
+        <v>0.13986663404244976</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.042659805477103E-2</v>
+        <v>8.2041798354245687E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -56122,11 +56122,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15811557624933209</v>
+        <v>0.15056034170019186</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2744397365570315E-2</v>
+        <v>1.0693707657742108E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -56135,11 +56135,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16977694187836356</v>
+        <v>0.16153096735208206</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1661365629031473E-2</v>
+        <v>1.0970625651890192E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -56148,11 +56148,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1819997620366379</v>
+        <v>0.173284671186485</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2222820158274333E-2</v>
+        <v>1.175370383440294E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -56161,11 +56161,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19103649375614223</v>
+        <v>0.18550585258549487</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0367317195043373E-3</v>
+        <v>1.2221181399009878E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505EE4C0-3CA6-4EC9-A3F0-EE2595FF5665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1238F-ECD1-48F6-84CB-D6F4E8062AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-948" yWindow="10620" windowWidth="13824" windowHeight="7176" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -1864,9 +1864,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1883,6 +1880,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -23195,6 +23195,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324999</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171C7F47-00B1-4119-B970-2CBF59C632A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5989320" y="388620"/>
+          <a:ext cx="4637919" cy="3600778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -23308,7 +23357,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23956,7 +24005,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26669,7 +26718,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26746,7 +26795,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -47599,8 +47648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47798,6 +47847,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -52948,13 +52998,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="103" t="s">
         <v>197</v>
       </c>
       <c r="E3" s="76">
@@ -52965,13 +53015,13 @@
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="103" t="s">
         <v>204</v>
       </c>
       <c r="M3" s="76">
@@ -52980,9 +53030,9 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="68">
         <v>2</v>
       </c>
@@ -52991,18 +53041,18 @@
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
       <c r="M4" s="68">
         <v>2</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="108"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="68">
         <v>3</v>
       </c>
@@ -53011,18 +53061,18 @@
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
       <c r="M5" s="68">
         <v>3</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="109"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="77">
         <v>4</v>
       </c>
@@ -53031,22 +53081,22 @@
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="68">
         <v>4</v>
       </c>
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="103" t="s">
         <v>176</v>
       </c>
       <c r="E7" s="76">
@@ -53059,18 +53109,18 @@
         <v>284</v>
       </c>
       <c r="H7" s="76"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="77">
         <v>5</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="68">
         <v>2</v>
       </c>
@@ -53081,13 +53131,13 @@
         <v>292</v>
       </c>
       <c r="H8" s="68"/>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="103" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="103" t="s">
         <v>205</v>
       </c>
       <c r="M8" s="76">
@@ -53098,9 +53148,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="109"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="77">
         <v>3</v>
       </c>
@@ -53111,9 +53161,9 @@
         <v>283</v>
       </c>
       <c r="H9" s="77"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="68">
         <v>2</v>
       </c>
@@ -53122,13 +53172,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="76">
@@ -53143,9 +53193,9 @@
       <c r="H10" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="77">
         <v>3</v>
       </c>
@@ -53154,9 +53204,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="108"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="68">
         <v>2</v>
       </c>
@@ -53169,13 +53219,13 @@
       <c r="H11" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="103" t="s">
         <v>207</v>
       </c>
       <c r="M11">
@@ -53186,9 +53236,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="68">
         <v>3</v>
       </c>
@@ -53201,9 +53251,9 @@
       <c r="H12" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -53212,9 +53262,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="109"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="77">
         <v>4</v>
       </c>
@@ -53227,13 +53277,13 @@
       <c r="H13" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="103" t="s">
         <v>208</v>
       </c>
       <c r="M13" s="76">
@@ -53244,13 +53294,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="103" t="s">
         <v>177</v>
       </c>
       <c r="E14" s="76">
@@ -53265,16 +53315,16 @@
       <c r="H14" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="108"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="68">
         <v>2</v>
       </c>
@@ -53287,16 +53337,16 @@
       <c r="H15" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="108"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="68">
         <v>3</v>
       </c>
@@ -53309,16 +53359,16 @@
       <c r="H16" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="109"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="77">
         <v>4</v>
       </c>
@@ -53331,20 +53381,20 @@
       <c r="H17" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="103" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="76">
@@ -53359,9 +53409,9 @@
       <c r="H18" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="68">
         <v>2</v>
       </c>
@@ -53370,9 +53420,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="108"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="68">
         <v>2</v>
       </c>
@@ -53387,9 +53437,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="108"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="68">
         <v>3</v>
       </c>
@@ -53404,9 +53454,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="109"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="77">
         <v>4</v>
       </c>
@@ -53421,13 +53471,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="103" t="s">
         <v>270</v>
       </c>
       <c r="E22" s="76">
@@ -53442,9 +53492,9 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="108"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="68">
         <v>2</v>
       </c>
@@ -53457,9 +53507,9 @@
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="108"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="68">
         <v>3</v>
       </c>
@@ -53472,9 +53522,9 @@
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="108"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
       <c r="E25" s="68">
         <v>4</v>
       </c>
@@ -53487,9 +53537,9 @@
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="108"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
       <c r="E26" s="68">
         <v>5</v>
       </c>
@@ -53502,9 +53552,9 @@
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="109"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="77">
         <v>6</v>
       </c>
@@ -53517,13 +53567,13 @@
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="103" t="s">
         <v>179</v>
       </c>
       <c r="E28" s="76">
@@ -53538,9 +53588,9 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
       <c r="E29" s="68">
         <v>2</v>
       </c>
@@ -53553,9 +53603,9 @@
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="109"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="77">
         <v>3</v>
       </c>
@@ -53579,7 +53629,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="109" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="82" t="s">
@@ -53593,7 +53643,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="83" t="s">
         <v>155</v>
       </c>
@@ -53605,7 +53655,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="80" t="s">
         <v>196</v>
       </c>
@@ -53617,7 +53667,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="86" t="s">
         <v>178</v>
       </c>
@@ -53629,7 +53679,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="109" t="s">
         <v>186</v>
       </c>
       <c r="B39" s="82" t="s">
@@ -53643,7 +53693,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="83" t="s">
         <v>155</v>
       </c>
@@ -53655,7 +53705,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="80" t="s">
         <v>196</v>
       </c>
@@ -53667,7 +53717,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="103"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="81" t="s">
         <v>271</v>
       </c>
@@ -53680,25 +53730,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -53715,6 +53746,25 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -53799,7 +53849,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="109" t="s">
         <v>156</v>
       </c>
       <c r="K3" t="s">
@@ -53819,7 +53869,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="109"/>
       <c r="K4" t="s">
         <v>186</v>
       </c>
@@ -53846,7 +53896,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="109"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -53871,7 +53921,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="109"/>
       <c r="K6" t="s">
         <v>177</v>
       </c>
@@ -55893,7 +55943,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.7634659255523611E-3</v>
+        <v>1.0658505663181128E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -55908,7 +55958,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>102.42264454294448</v>
+        <v>93.821782490055071</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -55920,18 +55970,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.1172021563293621E-2</v>
+        <v>1.1632443647707626E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.1172021563293621E-2</v>
+        <v>1.1632443647707626E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>2.4226445429444823E-2</v>
+        <v>-6.1782175099449291E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -55940,11 +55990,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2596911117739166E-2</v>
+        <v>2.2994393040451876E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.1424889554445546E-2</v>
+        <v>1.136194939274425E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -55953,11 +56003,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1622805453820457E-2</v>
+        <v>3.1056310665964305E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>9.0258943360812909E-3</v>
+        <v>8.0619176255124284E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -55966,11 +56016,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1130321821549409E-2</v>
+        <v>3.9250518522211744E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.507516367728952E-3</v>
+        <v>8.1942078562474395E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -55979,11 +56029,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1143304792457052E-2</v>
+        <v>4.9090183580146753E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0012982970907643E-2</v>
+        <v>9.8396650579350084E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -55992,11 +56042,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.103621176537375E-2</v>
+        <v>6.1832360582107351E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8929069729166985E-3</v>
+        <v>1.2742177001960599E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -56005,11 +56055,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8391623155258499E-2</v>
+        <v>7.0803144297631751E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3554113898847487E-3</v>
+        <v>8.9707837155243997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -56018,11 +56068,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.014319276934502E-2</v>
+        <v>8.3551258913263482E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1751569614086521E-2</v>
+        <v>1.2748114615631731E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -56031,11 +56081,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8076686245579253E-2</v>
+        <v>9.6313033093838901E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9334934762342324E-3</v>
+        <v>1.2761774180575419E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -56044,11 +56094,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8087260557275416E-2</v>
+        <v>0.10585321440857554</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0010574311696163E-2</v>
+        <v>9.5401813147366343E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -56057,11 +56107,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10576656291658432</v>
+        <v>0.11706279500405965</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.679302359308901E-3</v>
+        <v>1.1209580595484117E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -56070,11 +56120,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11465287600310954</v>
+        <v>0.13003676934641004</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8863130865252243E-3</v>
+        <v>1.2973974342350383E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -56083,11 +56133,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12299280840383767</v>
+        <v>0.14003045902143196</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3399324007281256E-3</v>
+        <v>9.9936896750219273E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -56096,11 +56146,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13166245420702519</v>
+        <v>0.15219893228662651</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6696458031875201E-3</v>
+        <v>1.2168473265194546E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -56109,11 +56159,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13986663404244976</v>
+        <v>0.16383384166195283</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2041798354245687E-3</v>
+        <v>1.1634909375326324E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -56122,11 +56172,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15056034170019186</v>
+        <v>0.17421516441022744</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0693707657742108E-2</v>
+        <v>1.0381322748274607E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -56135,11 +56185,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16153096735208206</v>
+        <v>0.18319773390206939</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0970625651890192E-2</v>
+        <v>8.9825694918419519E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -56148,11 +56198,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.173284671186485</v>
+        <v>0.19196738381427733</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.175370383440294E-2</v>
+        <v>8.7696499122079385E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -56161,11 +56211,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18550585258549487</v>
+        <v>0.20251160760044146</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2221181399009878E-2</v>
+        <v>1.0544223786164125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\service cloud\OneDrive\Documents\5.Bricolage\5.StationMeteo\StationMeteo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DEA8F9-FECF-4508-898F-D5A65320F945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F98DBA7-53B2-4003-8019-AB278A2AE038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="5" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -1897,11 +1897,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1921,6 +1920,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1930,8 +1932,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
@@ -31648,21 +31648,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="64">
         <f>SUM(D5:D22)</f>
         <v>534.23</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -57386,13 +57386,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>197</v>
       </c>
       <c r="E3" s="76">
@@ -57403,13 +57403,13 @@
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="105" t="s">
         <v>204</v>
       </c>
       <c r="M3" s="76">
@@ -57418,9 +57418,9 @@
       <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="68">
         <v>2</v>
       </c>
@@ -57429,18 +57429,18 @@
       </c>
       <c r="G4" s="68"/>
       <c r="H4" s="68"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="68">
         <v>2</v>
       </c>
       <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="108"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="68">
         <v>3</v>
       </c>
@@ -57449,18 +57449,18 @@
       </c>
       <c r="G5" s="68"/>
       <c r="H5" s="68"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="68">
         <v>3</v>
       </c>
       <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="109"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="77">
         <v>4</v>
       </c>
@@ -57469,22 +57469,22 @@
       </c>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="68">
         <v>4</v>
       </c>
       <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="105" t="s">
         <v>176</v>
       </c>
       <c r="E7" s="76">
@@ -57497,18 +57497,18 @@
         <v>284</v>
       </c>
       <c r="H7" s="76"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="77">
         <v>5</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="68">
         <v>2</v>
       </c>
@@ -57519,13 +57519,13 @@
         <v>292</v>
       </c>
       <c r="H8" s="68"/>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="105" t="s">
         <v>205</v>
       </c>
       <c r="M8" s="76">
@@ -57536,9 +57536,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="109"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="77">
         <v>3</v>
       </c>
@@ -57549,9 +57549,9 @@
         <v>283</v>
       </c>
       <c r="H9" s="77"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="68">
         <v>2</v>
       </c>
@@ -57560,13 +57560,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="105" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="76">
@@ -57581,9 +57581,9 @@
       <c r="H10" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="77">
         <v>3</v>
       </c>
@@ -57592,9 +57592,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="108"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="68">
         <v>2</v>
       </c>
@@ -57607,13 +57607,13 @@
       <c r="H11" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="105" t="s">
         <v>207</v>
       </c>
       <c r="M11">
@@ -57624,9 +57624,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="68">
         <v>3</v>
       </c>
@@ -57639,9 +57639,9 @@
       <c r="H12" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -57650,9 +57650,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="109"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="77">
         <v>4</v>
       </c>
@@ -57665,13 +57665,13 @@
       <c r="H13" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="105" t="s">
         <v>208</v>
       </c>
       <c r="M13" s="76">
@@ -57682,13 +57682,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="105" t="s">
         <v>177</v>
       </c>
       <c r="E14" s="76">
@@ -57703,16 +57703,16 @@
       <c r="H14" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="108"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="68">
         <v>2</v>
       </c>
@@ -57725,16 +57725,16 @@
       <c r="H15" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="68"/>
       <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="108"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="68">
         <v>3</v>
       </c>
@@ -57747,16 +57747,16 @@
       <c r="H16" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
       <c r="M16" s="68"/>
       <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="109"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="77">
         <v>4</v>
       </c>
@@ -57769,20 +57769,20 @@
       <c r="H17" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="105" t="s">
         <v>186</v>
       </c>
       <c r="E18" s="76">
@@ -57797,9 +57797,9 @@
       <c r="H18" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
       <c r="M18" s="68">
         <v>2</v>
       </c>
@@ -57808,9 +57808,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="108"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="68">
         <v>2</v>
       </c>
@@ -57825,9 +57825,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="108"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="68">
         <v>3</v>
       </c>
@@ -57842,9 +57842,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="109"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="77">
         <v>4</v>
       </c>
@@ -57859,13 +57859,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="105" t="s">
         <v>270</v>
       </c>
       <c r="E22" s="76">
@@ -57880,9 +57880,9 @@
       <c r="H22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="108"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="68">
         <v>2</v>
       </c>
@@ -57895,9 +57895,9 @@
       <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="108"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="68">
         <v>3</v>
       </c>
@@ -57910,9 +57910,9 @@
       <c r="H24" s="68"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="108"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
       <c r="E25" s="68">
         <v>4</v>
       </c>
@@ -57925,9 +57925,9 @@
       <c r="H25" s="68"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="108"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
       <c r="E26" s="68">
         <v>5</v>
       </c>
@@ -57940,9 +57940,9 @@
       <c r="H26" s="68"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="109"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="77">
         <v>6</v>
       </c>
@@ -57955,13 +57955,13 @@
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="105" t="s">
         <v>179</v>
       </c>
       <c r="E28" s="76">
@@ -57976,9 +57976,9 @@
       <c r="H28" s="76"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
       <c r="E29" s="68">
         <v>2</v>
       </c>
@@ -57991,9 +57991,9 @@
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="109"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
       <c r="E30" s="77">
         <v>3</v>
       </c>
@@ -58017,7 +58017,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="111" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="82" t="s">
@@ -58031,7 +58031,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="83" t="s">
         <v>155</v>
       </c>
@@ -58043,7 +58043,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="80" t="s">
         <v>196</v>
       </c>
@@ -58055,7 +58055,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="86" t="s">
         <v>178</v>
       </c>
@@ -58067,7 +58067,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="111" t="s">
         <v>186</v>
       </c>
       <c r="B39" s="82" t="s">
@@ -58081,7 +58081,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="83" t="s">
         <v>155</v>
       </c>
@@ -58093,7 +58093,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="80" t="s">
         <v>196</v>
       </c>
@@ -58105,7 +58105,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="103"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="81" t="s">
         <v>271</v>
       </c>
@@ -58118,25 +58118,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -58153,6 +58134,25 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -58237,7 +58237,7 @@
       <c r="G3" s="69">
         <v>0</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="111" t="s">
         <v>156</v>
       </c>
       <c r="K3" t="s">
@@ -58257,7 +58257,7 @@
       <c r="G4" s="69">
         <v>1</v>
       </c>
-      <c r="J4" s="103"/>
+      <c r="J4" s="111"/>
       <c r="K4" t="s">
         <v>186</v>
       </c>
@@ -58284,7 +58284,7 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="111"/>
       <c r="K5" t="s">
         <v>70</v>
       </c>
@@ -58309,7 +58309,7 @@
       <c r="H6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="111"/>
       <c r="K6" t="s">
         <v>177</v>
       </c>
@@ -58627,8 +58627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58658,13 +58658,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
@@ -58679,7 +58679,7 @@
         <f>COUNTIF(P6:P245,"=2")/COUNT(P6:P245)</f>
         <v>0.4</v>
       </c>
-      <c r="R3" s="113"/>
+      <c r="R3" s="102"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -58737,14 +58737,14 @@
         <f>MOD(N6,O$2)</f>
         <v>1</v>
       </c>
-      <c r="S6" s="114"/>
+      <c r="S6" s="103"/>
     </row>
     <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" t="s">
         <v>130</v>
       </c>
@@ -58763,7 +58763,7 @@
         <f t="shared" ref="R7:R29" si="2">MOD(N7,O$2)</f>
         <v>2</v>
       </c>
-      <c r="S7" s="114"/>
+      <c r="S7" s="103"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -58804,7 +58804,7 @@
       <c r="D9" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="112" t="s">
         <v>334</v>
       </c>
       <c r="N9">
@@ -58824,7 +58824,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K10" s="110"/>
+      <c r="K10" s="112"/>
       <c r="N10">
         <v>5</v>
       </c>
@@ -58842,7 +58842,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K11" s="110"/>
+      <c r="K11" s="112"/>
       <c r="N11">
         <v>6</v>
       </c>
@@ -58875,7 +58875,7 @@
       <c r="F12" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="110"/>
+      <c r="K12" s="112"/>
       <c r="N12">
         <v>7</v>
       </c>
@@ -58911,7 +58911,7 @@
       <c r="G13" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="110"/>
+      <c r="K13" s="112"/>
       <c r="N13">
         <v>8</v>
       </c>
@@ -62232,10 +62232,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="114"/>
       <c r="D1" t="s">
         <v>269</v>
       </c>
@@ -62878,10 +62878,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="114" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="112"/>
+      <c r="B22" s="114"/>
       <c r="C22" t="s">
         <v>263</v>
       </c>
@@ -63545,7 +63545,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.1082718949271052E-2</v>
+        <v>1.0422644228664443E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -63560,7 +63560,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>90.230565674118566</v>
+        <v>95.944942383219001</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -63572,18 +63572,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.2681324326882635E-2</v>
+        <v>7.9919854188129635E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.2681324326882635E-2</v>
+        <v>7.9919854188129635E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-9.7694343258814348E-2</v>
+        <v>-4.0550576167809993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -63592,11 +63592,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1600434277607824E-2</v>
+        <v>1.7972750533567443E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>8.9191099507251893E-3</v>
+        <v>9.9807651147544793E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -63605,11 +63605,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2963473115538135E-2</v>
+        <v>2.9926145030120251E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.1363038837930311E-2</v>
+        <v>1.1953394496552808E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -63618,11 +63618,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5194249397483961E-2</v>
+        <v>4.2331081389093098E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2230776281945827E-2</v>
+        <v>1.2404936358972846E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -63631,11 +63631,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7165193551014945E-2</v>
+        <v>5.3524832925377616E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1970944153530984E-2</v>
+        <v>1.1193751536284519E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -63644,11 +63644,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4687789750799585E-2</v>
+        <v>6.5120103415611474E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5225961997846397E-3</v>
+        <v>1.1595270490233858E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -63657,11 +63657,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3796429195134502E-2</v>
+        <v>7.773547461833355E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1086394443349178E-3</v>
+        <v>1.2615371202722075E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -63670,11 +63670,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6701156104453878E-2</v>
+        <v>8.6448444127002616E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2904726909319375E-2</v>
+        <v>8.7129695086690662E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -63683,11 +63683,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8821948113513011E-2</v>
+        <v>9.5587742529743114E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2120792009059134E-2</v>
+        <v>9.1392984027404978E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -63696,11 +63696,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1113272376067504</v>
+        <v>0.10410014191718162</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2505289493237384E-2</v>
+        <v>8.5123993874385018E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -63709,11 +63709,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12385767087147538</v>
+        <v>0.11520377705109616</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2530433264724986E-2</v>
+        <v>1.1103635133914547E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -63722,11 +63722,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13567126021317186</v>
+        <v>0.12564214629496234</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1813589341696476E-2</v>
+        <v>1.043836924386618E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -63735,11 +63735,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14743359108481435</v>
+        <v>0.13513911495991784</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1762330871642496E-2</v>
+        <v>9.4969686649555018E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -63748,11 +63748,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15551009929592871</v>
+        <v>0.14398827976518119</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0765082111143582E-3</v>
+        <v>8.8491648052633487E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -63761,11 +63761,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16562045237394515</v>
+        <v>0.15115998837019118</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0110353078016443E-2</v>
+        <v>7.1717086050099854E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -63774,11 +63774,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17858830620713972</v>
+        <v>0.16262083630141083</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.296785383319457E-2</v>
+        <v>1.1460847931219653E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -63787,11 +63787,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18672827376430781</v>
+        <v>0.17361336873837308</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1399675571680874E-3</v>
+        <v>1.0992532436962243E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -63800,11 +63800,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19845419416709933</v>
+        <v>0.18628669304093479</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1725920402791523E-2</v>
+        <v>1.2673324302561711E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -63813,11 +63813,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21057166003614999</v>
+        <v>0.19803024034462441</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2117465869050659E-2</v>
+        <v>1.1743547303689622E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F895993F-2F06-4894-AB9C-9C9FCA553CEA}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{074831A9-236D-45F4-A08A-081DBF3D58AE}"/>
   <bookViews>
-    <workbookView xWindow="-10152" yWindow="5040" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -1951,6 +1951,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1967,9 +1970,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2246,7 +2246,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-30</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-90</c:v>
@@ -52056,8 +52056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52086,7 +52086,7 @@
         <v>336</v>
       </c>
       <c r="L3">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -52134,7 +52134,7 @@
         <v>338</v>
       </c>
       <c r="L6">
-        <v>-30</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -52147,7 +52147,7 @@
         <v>339</v>
       </c>
       <c r="L8" s="7">
-        <f>(5/3)*L6+150</f>
+        <f>(4/3)*L6+120</f>
         <v>100</v>
       </c>
     </row>
@@ -57447,13 +57447,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="104" t="s">
         <v>188</v>
       </c>
       <c r="E3" s="72">
@@ -57464,13 +57464,13 @@
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="104" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="72">
@@ -57479,9 +57479,9 @@
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="107"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="67">
         <v>2</v>
       </c>
@@ -57490,18 +57490,18 @@
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
       <c r="M4" s="67">
         <v>2</v>
       </c>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="67">
         <v>3</v>
       </c>
@@ -57510,18 +57510,18 @@
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="67">
         <v>3</v>
       </c>
       <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="108"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="73">
         <v>4</v>
       </c>
@@ -57530,22 +57530,22 @@
       </c>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="67">
         <v>4</v>
       </c>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="104" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="72">
@@ -57558,18 +57558,18 @@
         <v>275</v>
       </c>
       <c r="H7" s="72"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="73">
         <v>5</v>
       </c>
       <c r="N7" s="73"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="107"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -57580,13 +57580,13 @@
         <v>283</v>
       </c>
       <c r="H8" s="67"/>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="103" t="s">
+      <c r="K8" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="103" t="s">
+      <c r="L8" s="104" t="s">
         <v>196</v>
       </c>
       <c r="M8" s="72">
@@ -57597,9 +57597,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="73">
         <v>3</v>
       </c>
@@ -57610,9 +57610,9 @@
         <v>274</v>
       </c>
       <c r="H9" s="73"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="67">
         <v>2</v>
       </c>
@@ -57621,13 +57621,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="104" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="72">
@@ -57642,9 +57642,9 @@
       <c r="H10" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
       <c r="M10" s="73">
         <v>3</v>
       </c>
@@ -57653,9 +57653,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="67">
         <v>2</v>
       </c>
@@ -57668,13 +57668,13 @@
       <c r="H11" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="103" t="s">
+      <c r="L11" s="104" t="s">
         <v>198</v>
       </c>
       <c r="M11">
@@ -57685,9 +57685,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="107"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="67">
         <v>3</v>
       </c>
@@ -57700,9 +57700,9 @@
       <c r="H12" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -57711,9 +57711,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="73">
         <v>4</v>
       </c>
@@ -57726,13 +57726,13 @@
       <c r="H13" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="103" t="s">
+      <c r="L13" s="104" t="s">
         <v>199</v>
       </c>
       <c r="M13" s="72">
@@ -57743,13 +57743,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="104" t="s">
         <v>172</v>
       </c>
       <c r="E14" s="72">
@@ -57764,16 +57764,16 @@
       <c r="H14" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="107"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="67">
         <v>2</v>
       </c>
@@ -57786,16 +57786,16 @@
       <c r="H15" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="67">
         <v>3</v>
       </c>
@@ -57808,16 +57808,16 @@
       <c r="H16" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="108"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="73">
         <v>4</v>
       </c>
@@ -57830,20 +57830,20 @@
       <c r="H17" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="104" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="72">
@@ -57858,9 +57858,9 @@
       <c r="H18" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="67">
         <v>2</v>
       </c>
@@ -57869,9 +57869,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="67">
         <v>2</v>
       </c>
@@ -57886,9 +57886,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="67">
         <v>3</v>
       </c>
@@ -57903,9 +57903,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="108"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="73">
         <v>4</v>
       </c>
@@ -57920,13 +57920,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="104" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="72">
@@ -57941,9 +57941,9 @@
       <c r="H22" s="72"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="67">
         <v>2</v>
       </c>
@@ -57956,9 +57956,9 @@
       <c r="H23" s="67"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="67">
         <v>3</v>
       </c>
@@ -57971,9 +57971,9 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="67">
         <v>4</v>
       </c>
@@ -57986,9 +57986,9 @@
       <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="67">
         <v>5</v>
       </c>
@@ -58001,9 +58001,9 @@
       <c r="H26" s="67"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="108"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
       <c r="E27" s="73">
         <v>6</v>
       </c>
@@ -58016,13 +58016,13 @@
       <c r="H27" s="73"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="104" t="s">
         <v>174</v>
       </c>
       <c r="E28" s="72">
@@ -58037,9 +58037,9 @@
       <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
       <c r="E29" s="67">
         <v>2</v>
       </c>
@@ -58052,9 +58052,9 @@
       <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="108"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="73">
         <v>3</v>
       </c>
@@ -58078,7 +58078,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="103" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -58092,7 +58092,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="79" t="s">
         <v>150</v>
       </c>
@@ -58104,7 +58104,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="76" t="s">
         <v>187</v>
       </c>
@@ -58116,7 +58116,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="109"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="82" t="s">
         <v>173</v>
       </c>
@@ -58128,7 +58128,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="103" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -58142,7 +58142,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="79" t="s">
         <v>150</v>
       </c>
@@ -58154,7 +58154,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="76" t="s">
         <v>187</v>
       </c>
@@ -58166,7 +58166,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="109"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="77" t="s">
         <v>262</v>
       </c>
@@ -58179,6 +58179,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -58195,25 +58214,6 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -58260,7 +58260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -58308,7 +58308,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29"/>
-      <c r="L3" s="109" t="s">
+      <c r="L3" s="103" t="s">
         <v>151</v>
       </c>
       <c r="M3" t="s">
@@ -58332,7 +58332,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
-      <c r="L4" s="109"/>
+      <c r="L4" s="103"/>
       <c r="M4" t="s">
         <v>179</v>
       </c>
@@ -58360,7 +58360,7 @@
       <c r="I5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="109"/>
+      <c r="L5" s="103"/>
       <c r="M5" t="s">
         <v>70</v>
       </c>
@@ -58384,7 +58384,7 @@
       <c r="I6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="109"/>
+      <c r="L6" s="103"/>
       <c r="M6" t="s">
         <v>172</v>
       </c>
@@ -58737,7 +58737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -63655,7 +63655,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.6363465064491071E-3</v>
+        <v>1.0637577333653087E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -63670,7 +63670,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>103.77376937729998</v>
+        <v>94.006367111089816</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -63682,18 +63682,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.615277065266845E-3</v>
+        <v>1.0448140743311489E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.615277065266845E-3</v>
+        <v>1.0448140743311489E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>3.7737693772999847E-2</v>
+        <v>-5.9936328889101845E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -63702,11 +63702,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0556341416257878E-2</v>
+        <v>2.0248353299682987E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.2941064350991033E-2</v>
+        <v>9.8002125563714983E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -63715,11 +63715,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0456454445961859E-2</v>
+        <v>3.0384248931914666E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>9.9001130297039809E-3</v>
+        <v>1.0135895632231679E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -63728,11 +63728,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2217443604239832E-2</v>
+        <v>4.3093932944054079E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1760989158277974E-2</v>
+        <v>1.2709684012139413E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -63741,11 +63741,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3454988802460773E-2</v>
+        <v>5.211764129694977E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1237545198220941E-2</v>
+        <v>9.0237083528956902E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -63754,11 +63754,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1066728495171307E-2</v>
+        <v>6.0627182154882032E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6117396927105341E-3</v>
+        <v>8.5095408579322629E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -63767,11 +63767,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3080795892930123E-2</v>
+        <v>7.2310966441153077E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2014067397758815E-2</v>
+        <v>1.1683784286271044E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -63780,11 +63780,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3889859115354237E-2</v>
+        <v>8.3059845034726659E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0809063222424115E-2</v>
+        <v>1.0748878593573583E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -63793,11 +63793,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1162698299237468E-2</v>
+        <v>9.5839486698069631E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2728391838832313E-3</v>
+        <v>1.2779641663342972E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -63806,11 +63806,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10030710243236833</v>
+        <v>0.10726147909930868</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1444041331308623E-3</v>
+        <v>1.1421992401239048E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -63819,11 +63819,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10736027503596025</v>
+        <v>0.11512872507179769</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0531726035919229E-3</v>
+        <v>7.8672459724890148E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -63832,11 +63832,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11437175635621827</v>
+        <v>0.12245389477126274</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0114813202580145E-3</v>
+        <v>7.3251696994650478E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -63845,11 +63845,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12266224581931189</v>
+        <v>0.13412248353667916</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2904894630936171E-3</v>
+        <v>1.1668588765416418E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -63858,11 +63858,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13548368345587913</v>
+        <v>0.144449404952356</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2821437636567248E-2</v>
+        <v>1.0326921415676843E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -63871,11 +63871,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14612249984829051</v>
+        <v>0.15675217101045244</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0638816392411377E-2</v>
+        <v>1.2302766058096437E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -63884,11 +63884,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15412478011016065</v>
+        <v>0.1692366174887974</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0022802618701372E-3</v>
+        <v>1.2484446478344957E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -63897,11 +63897,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16459527234416424</v>
+        <v>0.18047905904114422</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0470492234003592E-2</v>
+        <v>1.1242441552346827E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -63910,11 +63910,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17487149432963386</v>
+        <v>0.1900852068567162</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0276221985469625E-2</v>
+        <v>9.6061478155719804E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -63923,11 +63923,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18309058362253303</v>
+        <v>0.20211396933940864</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2190892928991621E-3</v>
+        <v>1.202876248269244E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{074831A9-236D-45F4-A08A-081DBF3D58AE}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE61157B-F440-4362-AC6A-B70A829795F8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Ordre execution tache" sheetId="17" r:id="rId8"/>
     <sheet name="Test mesure frequence" sheetId="5" r:id="rId9"/>
     <sheet name="Direction Vent" sheetId="6" r:id="rId10"/>
-    <sheet name="dew frost point" sheetId="12" r:id="rId11"/>
-    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId12"/>
+    <sheet name="Barometre" sheetId="21" r:id="rId11"/>
+    <sheet name="dew frost point" sheetId="12" r:id="rId12"/>
+    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="374">
   <si>
     <t>Produit</t>
   </si>
@@ -1181,6 +1182,30 @@
   <si>
     <t>CS SD card</t>
   </si>
+  <si>
+    <t>SDA I²C n°2</t>
+  </si>
+  <si>
+    <t>SCL iC n°2</t>
+  </si>
+  <si>
+    <t>inférieur  à</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>pluieforte</t>
+  </si>
+  <si>
+    <t>pluie douce</t>
+  </si>
+  <si>
+    <t>beau</t>
+  </si>
+  <si>
+    <t>très beau</t>
+  </si>
 </sst>
 </file>
 
@@ -1191,7 +1216,7 @@
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1386,29 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1797,7 +1845,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1992,6 +2040,32 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -32001,7 +32075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
   <dimension ref="A2:AA58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
@@ -33575,6 +33649,232 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9436BC03-784B-476F-A932-B0ED42D567EF}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="124">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="123" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="124">
+        <v>1013</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="125">
+        <v>1020</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="120"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="122"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="119"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="122"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="122"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="119"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="122"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="122"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="119"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="122"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -34021,7 +34321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEA360-918D-49DA-A94F-EC74570144D0}">
   <dimension ref="A1:X1026"/>
   <sheetViews>
@@ -52056,7 +52356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C7B145-5B10-4776-B200-74A4976CCC04}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -58258,474 +58558,477 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
-  <dimension ref="A2:N27"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="5"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="5"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="2:15" ht="63" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="110" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="110"/>
       <c r="C2" s="110"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="110"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="101" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="C3" s="101" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="D3" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="F3" s="26">
+      <c r="G3" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="L3" s="103" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="M3" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>177</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="100">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="100">
         <v>0</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="C4" s="111" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="F4" s="23">
+      <c r="D4" s="112"/>
+      <c r="G4" s="23">
         <v>1</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="L4" s="103"/>
-      <c r="M4" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="M4" s="103"/>
+      <c r="N4" t="s">
         <v>179</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="100">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="C5" s="111" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="F5" s="23">
+      <c r="D5" s="112"/>
+      <c r="G5" s="23">
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="103"/>
-      <c r="M5" t="s">
+      <c r="M5" s="103"/>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="100">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="100">
         <v>2</v>
       </c>
-      <c r="B6" s="100"/>
       <c r="C6" s="100"/>
-      <c r="F6" s="23">
+      <c r="D6" s="100"/>
+      <c r="G6" s="23">
         <v>3</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="103"/>
-      <c r="M6" t="s">
+      <c r="M6" s="103"/>
+      <c r="N6" t="s">
         <v>172</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="100">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="100">
         <v>3</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="C7" s="111" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="F7" s="23">
+      <c r="D7" s="112"/>
+      <c r="G7" s="23">
         <v>4</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="100">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="100">
         <v>4</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="C8" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="F8" s="23">
+      <c r="D8" s="112"/>
+      <c r="G8" s="23">
         <v>5</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="100">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="100">
         <v>5</v>
       </c>
-      <c r="B9" s="100"/>
       <c r="C9" s="100"/>
-      <c r="F9" s="23">
+      <c r="D9" s="100"/>
+      <c r="G9" s="23">
         <v>6</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="100">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="100">
         <v>6</v>
       </c>
-      <c r="B10" s="100"/>
       <c r="C10" s="100"/>
-      <c r="F10" s="23">
+      <c r="D10" s="100"/>
+      <c r="G10" s="23">
         <v>7</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="100">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="100">
         <v>7</v>
       </c>
-      <c r="B11" s="100"/>
       <c r="C11" s="100"/>
-      <c r="F11" s="23">
+      <c r="D11" s="100"/>
+      <c r="G11" s="23">
         <v>8</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="100">
+      <c r="H11" s="21"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="100">
         <v>8</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="C12" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="F12" s="23">
+      <c r="D12" s="112"/>
+      <c r="G12" s="23">
         <v>9</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="100">
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="100">
         <v>9</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="C13" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="F13" s="23">
+      <c r="D13" s="112"/>
+      <c r="G13" s="23">
         <v>10</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="J13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="100">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="100">
         <v>10</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="F14" s="23">
+      <c r="G14" s="23">
         <v>11</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="J14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="100">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="100">
         <v>11</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="C15" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="F15" s="23">
+      <c r="D15" s="100" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" s="23">
         <v>12</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="J15" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="100">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="100">
         <v>12</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="C16" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="F16" s="33">
+      <c r="D16" s="100"/>
+      <c r="G16" s="33">
         <v>13</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="H16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="J16" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="100">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="100">
         <v>13</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="C17" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="D17" s="118" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="38"/>
       <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="100" t="s">
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="100"/>
       <c r="C18" s="100"/>
-      <c r="F18" s="37" t="s">
+      <c r="D18" s="100"/>
+      <c r="G18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="100" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="C19" s="100" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="F19" s="24" t="s">
+      <c r="D19" s="100"/>
+      <c r="G19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="100" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="100"/>
       <c r="C20" s="100"/>
-      <c r="F20" s="24" t="s">
+      <c r="D20" s="100"/>
+      <c r="G20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="100" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="100" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="100"/>
       <c r="C21" s="100"/>
-      <c r="F21" s="24" t="s">
+      <c r="D21" s="100"/>
+      <c r="G21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="100" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="100"/>
       <c r="C22" s="100"/>
-      <c r="F22" s="24" t="s">
+      <c r="D22" s="100"/>
+      <c r="G22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="100" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="100" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="C23" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="F23" s="25" t="s">
+      <c r="D23" s="100"/>
+      <c r="G23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="100">
+      <c r="H23" s="22"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="100">
         <v>20</v>
       </c>
-      <c r="B24" s="111" t="s">
+      <c r="C24" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="100">
+      <c r="D24" s="112"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="100">
         <v>21</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="C25" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="113"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F26" s="14" t="s">
+      <c r="D25" s="113"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>70</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G27" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
         <v>71</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="10">
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58737,7 +59040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -63655,7 +63958,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0637577333653087E-2</v>
+        <v>1.0640085487272357E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -63670,7 +63973,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>94.006367111089816</v>
+        <v>93.984207288202469</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -63682,18 +63985,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.0448140743311489E-2</v>
+        <v>9.4578356542076632E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.0448140743311489E-2</v>
+        <v>9.4578356542076632E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-5.9936328889101845E-2</v>
+        <v>-6.0157927117975303E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -63702,11 +64005,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0248353299682987E-2</v>
+        <v>1.9915546887222271E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>9.8002125563714983E-3</v>
+        <v>1.0457711233014607E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -63715,11 +64018,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0384248931914666E-2</v>
+        <v>2.8279754209885471E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.0135895632231679E-2</v>
+        <v>8.3642073226632002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -63728,11 +64031,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3093932944054079E-2</v>
+        <v>3.9961952338656535E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2709684012139413E-2</v>
+        <v>1.1682198128771065E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -63741,11 +64044,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.211764129694977E-2</v>
+        <v>5.2748813967650153E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0237083528956902E-3</v>
+        <v>1.2786861628993618E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -63754,11 +64057,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0627182154882032E-2</v>
+        <v>6.0788362112729859E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5095408579322629E-3</v>
+        <v>8.0395481450797057E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -63767,11 +64070,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2310966441153077E-2</v>
+        <v>7.0518296581879636E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1683784286271044E-2</v>
+        <v>9.7299344691497772E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -63780,11 +64083,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3059845034726659E-2</v>
+        <v>8.2388446421637007E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0748878593573583E-2</v>
+        <v>1.1870149839757371E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -63793,11 +64096,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5839486698069631E-2</v>
+        <v>9.5343422206792705E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2779641663342972E-2</v>
+        <v>1.2954975785155698E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -63806,11 +64109,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10726147909930868</v>
+        <v>0.10395543882229918</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1421992401239048E-2</v>
+        <v>8.6120166155064792E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -63819,11 +64122,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11512872507179769</v>
+        <v>0.11292376399222961</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8672459724890148E-3</v>
+        <v>8.9683251699304301E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -63832,11 +64135,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12245389477126274</v>
+        <v>0.12411867448536644</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3251696994650478E-3</v>
+        <v>1.1194910493136825E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -63845,11 +64148,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13412248353667916</v>
+        <v>0.13375349289166794</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1668588765416418E-2</v>
+        <v>9.6348184063014958E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -63858,11 +64161,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.144449404952356</v>
+        <v>0.14669196963081682</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0326921415676843E-2</v>
+        <v>1.2938476739148885E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -63871,11 +64174,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15675217101045244</v>
+        <v>0.15692261275451239</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2302766058096437E-2</v>
+        <v>1.0230643123695565E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -63884,11 +64187,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1692366174887974</v>
+        <v>0.16556170789443592</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2484446478344957E-2</v>
+        <v>8.6390951399235305E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -63897,11 +64200,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18047905904114422</v>
+        <v>0.17823596401012326</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1242441552346827E-2</v>
+        <v>1.2674256115687343E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -63910,11 +64213,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1900852068567162</v>
+        <v>0.18952039150106514</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6061478155719804E-3</v>
+        <v>1.1284427490941884E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -63923,11 +64226,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20211396933940864</v>
+        <v>0.20216162425817477</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.202876248269244E-2</v>
+        <v>1.2641232757109627E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE61157B-F440-4362-AC6A-B70A829795F8}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADBA781C-86A6-4A29-90A9-90546B8FE4FD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="11520" yWindow="588" windowWidth="11316" windowHeight="8184" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Liste connecteur" sheetId="19" r:id="rId4"/>
     <sheet name="Pin des Arduino" sheetId="4" r:id="rId5"/>
     <sheet name="Radio" sheetId="9" r:id="rId6"/>
-    <sheet name="Codage-décodage Radio" sheetId="15" r:id="rId7"/>
-    <sheet name="Ordre execution tache" sheetId="17" r:id="rId8"/>
-    <sheet name="Test mesure frequence" sheetId="5" r:id="rId9"/>
-    <sheet name="Direction Vent" sheetId="6" r:id="rId10"/>
-    <sheet name="Barometre" sheetId="21" r:id="rId11"/>
-    <sheet name="dew frost point" sheetId="12" r:id="rId12"/>
-    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId13"/>
+    <sheet name="Transfert I2C" sheetId="22" r:id="rId7"/>
+    <sheet name="Codage-décodage Radio" sheetId="15" r:id="rId8"/>
+    <sheet name="Ordre execution tache" sheetId="17" r:id="rId9"/>
+    <sheet name="Test mesure frequence" sheetId="5" r:id="rId10"/>
+    <sheet name="Direction Vent" sheetId="6" r:id="rId11"/>
+    <sheet name="Barometre" sheetId="21" r:id="rId12"/>
+    <sheet name="dew frost point" sheetId="12" r:id="rId13"/>
+    <sheet name="thermistance etalonnage" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="409">
   <si>
     <t>Produit</t>
   </si>
@@ -1206,6 +1207,111 @@
   <si>
     <t>très beau</t>
   </si>
+  <si>
+    <t>données à tranférer</t>
+  </si>
+  <si>
+    <t>rain 24h</t>
+  </si>
+  <si>
+    <t>rain 7d</t>
+  </si>
+  <si>
+    <t>previsions baro</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ordre d'émission</t>
+  </si>
+  <si>
+    <t>Voltage Battery</t>
+  </si>
+  <si>
+    <t>fonction pour convertir angle en direction</t>
+  </si>
+  <si>
+    <t>fonction pour convertir pression en prévision</t>
+  </si>
+  <si>
+    <t>rain24h;</t>
+  </si>
+  <si>
+    <t>rain7d;</t>
+  </si>
+  <si>
+    <t>windDir;</t>
+  </si>
+  <si>
+    <t>windSpeed;</t>
+  </si>
+  <si>
+    <t>temperature;</t>
+  </si>
+  <si>
+    <t>humidity;</t>
+  </si>
+  <si>
+    <t>batteryVoltage;</t>
+  </si>
+  <si>
+    <t>pressure;</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>Wake up</t>
+  </si>
+  <si>
+    <t>I²C SCL</t>
+  </si>
+  <si>
+    <t>I²C SDA</t>
+  </si>
+  <si>
+    <t>signal activité</t>
+  </si>
+  <si>
+    <t>Reveil ESP</t>
+  </si>
 </sst>
 </file>
 
@@ -1845,7 +1951,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1996,51 +2102,6 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2066,6 +2127,52 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -31783,21 +31890,21 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="102"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="64">
         <f>SUM(D5:D22)</f>
         <v>534.23</v>
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="65"/>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
       <c r="J2" s="64">
         <f>SUM(J5:J19)</f>
         <v>0</v>
@@ -32072,6 +32179,386 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD9B7D-59EE-42F5-ACB8-0201936EFCF0}">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <f>B2*2.4</f>
+        <v>240</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <f>1/B2</f>
+        <v>0.01</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="60">
+        <f>J2/2.4</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="60">
+        <f>J4*J3</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <f ca="1">AVERAGE(C8:C26)</f>
+        <v>9.7962018328539707E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f ca="1">1/F6</f>
+        <v>102.08037942279365</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
+        <v>7.2051097585201429E-3</v>
+      </c>
+      <c r="C8">
+        <f ca="1">B8-B7</f>
+        <v>7.2051097585201429E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6">
+        <f ca="1">(F7-B2)/B2</f>
+        <v>2.0803794227936549E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5050338954521181E-2</v>
+      </c>
+      <c r="C9">
+        <f ca="1">B9-B8</f>
+        <v>7.845229196001037E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4639065977398705E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
+        <v>9.5887270228775245E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3327711007559088E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6886450301603829E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3727220978668969E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0399509971109881E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2062407867209434E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3351868885404648E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9247246000381878E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1848381331724442E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8977137303467995E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.7298913030861162E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9392907708058222E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0415770404590227E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1244165453991138E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1851257745932917E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10211574412942202</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0871578675430885E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11446733050520444</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2351586375782417E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12721092135978709</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2743590854582654E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13691567135673174</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.7047499969446505E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14640734309291981</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.491671736188062E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15672438233262856</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0317039239708753E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16853822864133708</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.181384630870852E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17630433633389961</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7661076925625294E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18612783482422546</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8234984903258493E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
   <dimension ref="A2:AA58"/>
   <sheetViews>
@@ -33648,7 +34135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9436BC03-784B-476F-A932-B0ED42D567EF}">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -33676,197 +34163,197 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="124">
+      <c r="A3" s="109">
         <v>1006</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="108" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="124">
+      <c r="A4" s="109">
         <v>1013</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="108" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="125">
+      <c r="A5" s="110">
         <v>1020</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="111" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
     </row>
     <row r="6" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="110" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="120"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="105"/>
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="122"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
+      <c r="A11" s="104"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
     </row>
     <row r="15" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="122"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="119"/>
+      <c r="A19" s="104"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="122"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="122"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="107"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="122"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="119"/>
+      <c r="A28" s="104"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="122"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="122"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
     </row>
     <row r="34" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="122"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33874,7 +34361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ED8084-F7A6-4EC6-91BF-FA26D27417F0}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -34321,7 +34808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FEA360-918D-49DA-A94F-EC74570144D0}">
   <dimension ref="A1:X1026"/>
   <sheetViews>
@@ -57747,13 +58234,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="114" t="s">
         <v>188</v>
       </c>
       <c r="E3" s="72">
@@ -57764,13 +58251,13 @@
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="114" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="72">
@@ -57779,9 +58266,9 @@
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="67">
         <v>2</v>
       </c>
@@ -57790,18 +58277,18 @@
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="67">
         <v>2</v>
       </c>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="108"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="67">
         <v>3</v>
       </c>
@@ -57810,18 +58297,18 @@
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="67">
         <v>3</v>
       </c>
       <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="109"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="73">
         <v>4</v>
       </c>
@@ -57830,22 +58317,22 @@
       </c>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="67">
         <v>4</v>
       </c>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="114" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="72">
@@ -57858,18 +58345,18 @@
         <v>275</v>
       </c>
       <c r="H7" s="72"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="73">
         <v>5</v>
       </c>
       <c r="N7" s="73"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -57880,13 +58367,13 @@
         <v>283</v>
       </c>
       <c r="H8" s="67"/>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="114" t="s">
         <v>196</v>
       </c>
       <c r="M8" s="72">
@@ -57897,9 +58384,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="109"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="73">
         <v>3</v>
       </c>
@@ -57910,9 +58397,9 @@
         <v>274</v>
       </c>
       <c r="H9" s="73"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="67">
         <v>2</v>
       </c>
@@ -57921,13 +58408,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="72">
@@ -57942,9 +58429,9 @@
       <c r="H10" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
       <c r="M10" s="73">
         <v>3</v>
       </c>
@@ -57953,9 +58440,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="108"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="67">
         <v>2</v>
       </c>
@@ -57968,13 +58455,13 @@
       <c r="H11" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="114" t="s">
         <v>198</v>
       </c>
       <c r="M11">
@@ -57985,9 +58472,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="108"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="67">
         <v>3</v>
       </c>
@@ -58000,9 +58487,9 @@
       <c r="H12" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -58011,9 +58498,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="109"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="73">
         <v>4</v>
       </c>
@@ -58026,13 +58513,13 @@
       <c r="H13" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="114" t="s">
         <v>199</v>
       </c>
       <c r="M13" s="72">
@@ -58043,13 +58530,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="114" t="s">
         <v>172</v>
       </c>
       <c r="E14" s="72">
@@ -58064,16 +58551,16 @@
       <c r="H14" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="108"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="67">
         <v>2</v>
       </c>
@@ -58086,16 +58573,16 @@
       <c r="H15" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="108"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="67">
         <v>3</v>
       </c>
@@ -58108,16 +58595,16 @@
       <c r="H16" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="109"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="73">
         <v>4</v>
       </c>
@@ -58130,20 +58617,20 @@
       <c r="H17" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="114" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="72">
@@ -58158,9 +58645,9 @@
       <c r="H18" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
       <c r="M18" s="67">
         <v>2</v>
       </c>
@@ -58169,9 +58656,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="108"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="67">
         <v>2</v>
       </c>
@@ -58186,9 +58673,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="108"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="67">
         <v>3</v>
       </c>
@@ -58203,9 +58690,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="109"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="73">
         <v>4</v>
       </c>
@@ -58220,13 +58707,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="114" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="72">
@@ -58241,9 +58728,9 @@
       <c r="H22" s="72"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="108"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="67">
         <v>2</v>
       </c>
@@ -58256,9 +58743,9 @@
       <c r="H23" s="67"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="108"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="67">
         <v>3</v>
       </c>
@@ -58271,9 +58758,9 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="108"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="67">
         <v>4</v>
       </c>
@@ -58286,9 +58773,9 @@
       <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="108"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="67">
         <v>5</v>
       </c>
@@ -58301,9 +58788,9 @@
       <c r="H26" s="67"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="109"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="73">
         <v>6</v>
       </c>
@@ -58316,13 +58803,13 @@
       <c r="H27" s="73"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="114" t="s">
         <v>174</v>
       </c>
       <c r="E28" s="72">
@@ -58337,9 +58824,9 @@
       <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="67">
         <v>2</v>
       </c>
@@ -58352,9 +58839,9 @@
       <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="109"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="73">
         <v>3</v>
       </c>
@@ -58378,7 +58865,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="120" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -58392,7 +58879,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="79" t="s">
         <v>150</v>
       </c>
@@ -58404,7 +58891,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="76" t="s">
         <v>187</v>
       </c>
@@ -58416,7 +58903,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="82" t="s">
         <v>173</v>
       </c>
@@ -58428,7 +58915,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="120" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -58442,7 +58929,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="79" t="s">
         <v>150</v>
       </c>
@@ -58454,7 +58941,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="76" t="s">
         <v>187</v>
       </c>
@@ -58466,7 +58953,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="103"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="77" t="s">
         <v>262</v>
       </c>
@@ -58479,25 +58966,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -58514,6 +58982,25 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -58558,10 +59045,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -58569,30 +59056,33 @@
     <col min="2" max="2" width="7.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="5"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="5"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="110" t="s">
+    <row r="2" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="121" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="G2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="101" t="s">
         <v>349</v>
       </c>
@@ -58602,214 +59092,261 @@
       <c r="D3" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="G3" s="26">
+      <c r="F3" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="M3" s="103" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="O3" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>177</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="100">
         <v>0</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="122" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="G4" s="23">
+      <c r="D4" s="123"/>
+      <c r="F4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="23">
         <v>1</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="M4" s="103"/>
-      <c r="N4" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="O4" s="120"/>
+      <c r="P4" t="s">
         <v>179</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="100">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="122" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="G5" s="23">
+      <c r="D5" s="123"/>
+      <c r="F5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="23">
         <v>2</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" t="s">
+      <c r="O5" s="120"/>
+      <c r="P5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="100">
         <v>2</v>
       </c>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
-      <c r="G6" s="23">
+      <c r="F6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I6" s="23">
         <v>3</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="103"/>
-      <c r="N6" t="s">
+      <c r="O6" s="120"/>
+      <c r="P6" t="s">
         <v>172</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="100">
         <v>3</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="122" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="G7" s="23">
+      <c r="D7" s="123"/>
+      <c r="F7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I7" s="23">
         <v>4</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="100">
         <v>4</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="122" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="G8" s="23">
+      <c r="D8" s="123"/>
+      <c r="F8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="23">
         <v>5</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="100">
         <v>5</v>
       </c>
       <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="G9" s="23">
+      <c r="D9" s="100" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="23">
         <v>6</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="100">
         <v>6</v>
       </c>
       <c r="C10" s="100"/>
       <c r="D10" s="100"/>
-      <c r="G10" s="23">
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="23">
         <v>7</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="100">
         <v>7</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
-      <c r="G11" s="23">
+      <c r="F11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="23">
         <v>8</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="100">
         <v>8</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="122" t="s">
         <v>352</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="G12" s="23">
+      <c r="D12" s="123"/>
+      <c r="F12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I12" s="23">
         <v>9</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="100">
         <v>9</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="122" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="G13" s="23">
+      <c r="D13" s="123"/>
+      <c r="F13" t="s">
+        <v>401</v>
+      </c>
+      <c r="I13" s="23">
         <v>10</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="100">
         <v>10</v>
       </c>
@@ -58817,20 +59354,23 @@
       <c r="D14" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="G14" s="23">
+      <c r="F14" t="s">
+        <v>402</v>
+      </c>
+      <c r="I14" s="23">
         <v>11</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="J14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="100">
         <v>11</v>
       </c>
@@ -58840,20 +59380,20 @@
       <c r="D15" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="G15" s="23">
+      <c r="I15" s="23">
         <v>12</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="J15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="K15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="L15" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="100">
         <v>12</v>
       </c>
@@ -58861,48 +59401,48 @@
         <v>74</v>
       </c>
       <c r="D16" s="100"/>
-      <c r="G16" s="33">
+      <c r="I16" s="33">
         <v>13</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="J16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="K16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="L16" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="100">
         <v>13</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="100" t="s">
         <v>356</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
-      <c r="G18" s="37" t="s">
+      <c r="I18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="100" t="s">
         <v>357</v>
       </c>
@@ -58910,61 +59450,61 @@
         <v>362</v>
       </c>
       <c r="D19" s="100"/>
-      <c r="G19" s="24" t="s">
+      <c r="I19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="20"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="100" t="s">
         <v>358</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
-      <c r="G20" s="24" t="s">
+      <c r="I20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="J20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="100" t="s">
         <v>359</v>
       </c>
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
-      <c r="G21" s="24" t="s">
+      <c r="I21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="J21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="100" t="s">
         <v>360</v>
       </c>
       <c r="C22" s="100"/>
       <c r="D22" s="100"/>
-      <c r="G22" s="24" t="s">
+      <c r="I22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J22" s="20"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="100" t="s">
         <v>361</v>
       </c>
@@ -58972,54 +59512,54 @@
         <v>175</v>
       </c>
       <c r="D23" s="100"/>
-      <c r="G23" s="25" t="s">
+      <c r="I23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J23" s="22"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="100">
         <v>20</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D24" s="123"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="100">
         <v>21</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="113"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G26" s="14" t="s">
+      <c r="D25" s="124"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>70</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H27" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
         <v>71</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="O3:O6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C25:D25"/>
@@ -59040,8 +59580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C64E373-7692-4CBF-88B4-6ED8CB4BCA4C}">
   <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59071,13 +59611,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
       <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
@@ -59153,11 +59693,11 @@
       <c r="S6" s="99"/>
     </row>
     <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
       <c r="D7" t="s">
         <v>130</v>
       </c>
@@ -59217,7 +59757,7 @@
       <c r="D9" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="114" t="s">
+      <c r="K9" s="125" t="s">
         <v>324</v>
       </c>
       <c r="N9">
@@ -59237,7 +59777,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K10" s="114"/>
+      <c r="K10" s="125"/>
       <c r="N10">
         <v>5</v>
       </c>
@@ -59255,7 +59795,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K11" s="114"/>
+      <c r="K11" s="125"/>
       <c r="N11">
         <v>6</v>
       </c>
@@ -59288,7 +59828,7 @@
       <c r="F12" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="114"/>
+      <c r="K12" s="125"/>
       <c r="N12">
         <v>7</v>
       </c>
@@ -59324,7 +59864,7 @@
       <c r="G13" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="114"/>
+      <c r="K13" s="125"/>
       <c r="N13">
         <v>8</v>
       </c>
@@ -62631,6 +63171,158 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A531224-9F80-49EE-B461-407974656BA8}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526E76B6-68A2-48DF-95E8-365FAB976DDF}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -62645,10 +63337,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="127" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="127"/>
       <c r="D1" t="s">
         <v>260</v>
       </c>
@@ -63291,10 +63983,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="127"/>
       <c r="C22" t="s">
         <v>254</v>
       </c>
@@ -63796,7 +64488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFB5CD6-50DB-41D5-B30C-B619A61FAD6E}">
   <dimension ref="J3:K8"/>
   <sheetViews>
@@ -63856,384 +64548,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACD9B7D-59EE-42F5-ACB8-0201936EFCF0}">
-  <dimension ref="A2:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <f>B2*2.4</f>
-        <v>240</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <f>1/B2</f>
-        <v>0.01</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="60">
-        <f>J2/2.4</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="60">
-        <f>J4*J3</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0640085487272357E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f ca="1">1/F6</f>
-        <v>93.984207288202469</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>9.4578356542076632E-3</v>
-      </c>
-      <c r="C8">
-        <f ca="1">B8-B7</f>
-        <v>9.4578356542076632E-3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="6">
-        <f ca="1">(F7-B2)/B2</f>
-        <v>-6.0157927117975303E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9915546887222271E-2</v>
-      </c>
-      <c r="C9">
-        <f ca="1">B9-B8</f>
-        <v>1.0457711233014607E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8279754209885471E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.3642073226632002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9961952338656535E-2</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1682198128771065E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2748813967650153E-2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2786861628993618E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.0788362112729859E-2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0395481450797057E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0518296581879636E-2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.7299344691497772E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2388446421637007E-2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1870149839757371E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5343422206792705E-2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2954975785155698E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10395543882229918</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6120166155064792E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11292376399222961</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.9683251699304301E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12411867448536644</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1194910493136825E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13375349289166794</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.6348184063014958E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14669196963081682</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2938476739148885E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15692261275451239</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0230643123695565E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16556170789443592</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6390951399235305E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17823596401012326</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2674256115687343E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18952039150106514</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1284427490941884E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20216162425817477</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2641232757109627E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="114_{C9647BBB-41EC-4EA6-96B8-FA8F7AF2B1B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADBA781C-86A6-4A29-90A9-90546B8FE4FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6697A7-D972-4BCC-82E3-A4495661F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="588" windowWidth="11316" windowHeight="8184" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.7962018328539707E-3</v>
+        <v>1.0045257372787122E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -32293,7 +32293,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>102.08037942279365</v>
+        <v>99.54946527393389</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -32305,18 +32305,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.2051097585201429E-3</v>
+        <v>8.0569557899721079E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.2051097585201429E-3</v>
+        <v>8.0569557899721079E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>2.0803794227936549E-2</v>
+        <v>-4.5053472606610967E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -32325,11 +32325,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5050338954521181E-2</v>
+        <v>2.0492896296728277E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>7.845229196001037E-3</v>
+        <v>1.243594050675617E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -32338,11 +32338,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4639065977398705E-2</v>
+        <v>2.9278235221830283E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>9.5887270228775245E-3</v>
+        <v>8.7853389251020056E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -32351,11 +32351,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3327711007559088E-2</v>
+        <v>3.7997010487068897E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6886450301603829E-3</v>
+        <v>8.7187752652386138E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -32364,11 +32364,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3727220978668969E-2</v>
+        <v>4.9442095054663078E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0399509971109881E-2</v>
+        <v>1.1445084567594181E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -32377,11 +32377,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2062407867209434E-2</v>
+        <v>5.6723881785815264E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3351868885404648E-3</v>
+        <v>7.2817867311521858E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -32390,11 +32390,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9247246000381878E-2</v>
+        <v>6.7402930749807577E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1848381331724442E-3</v>
+        <v>1.0679048963992313E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -32403,11 +32403,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8977137303467995E-2</v>
+        <v>7.6755770772829829E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7298913030861162E-3</v>
+        <v>9.3528400230222519E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -32416,11 +32416,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9392907708058222E-2</v>
+        <v>8.4334480952172164E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0415770404590227E-2</v>
+        <v>7.578710179342335E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -32429,11 +32429,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1244165453991138E-2</v>
+        <v>9.5049324291741066E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1851257745932917E-2</v>
+        <v>1.0714843339568902E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -32442,11 +32442,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10211574412942202</v>
+        <v>0.1077439539230353</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0871578675430885E-2</v>
+        <v>1.2694629631294238E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -32455,11 +32455,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11446733050520444</v>
+        <v>0.11896777710051748</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2351586375782417E-2</v>
+        <v>1.1223823177482176E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -32468,11 +32468,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12721092135978709</v>
+        <v>0.12739258949113394</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2743590854582654E-2</v>
+        <v>8.4248123906164596E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -32481,11 +32481,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13691567135673174</v>
+        <v>0.13726350066544654</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7047499969446505E-3</v>
+        <v>9.8709111743126021E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -32494,11 +32494,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14640734309291981</v>
+        <v>0.14508902164453236</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.491671736188062E-3</v>
+        <v>7.8255209790858149E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -32507,11 +32507,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15672438233262856</v>
+        <v>0.15424837081569739</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0317039239708753E-2</v>
+        <v>9.1593491711650377E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -32520,11 +32520,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16853822864133708</v>
+        <v>0.16515649821480077</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.181384630870852E-2</v>
+        <v>1.0908127399103379E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -32533,11 +32533,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17630433633389961</v>
+        <v>0.17804854674794976</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7661076925625294E-3</v>
+        <v>1.2892048533148986E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -32546,11 +32546,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18612783482422546</v>
+        <v>0.19085989008295534</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8234984903258493E-3</v>
+        <v>1.2811343335005582E-2</v>
       </c>
     </row>
   </sheetData>
@@ -59047,8 +59047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6697A7-D972-4BCC-82E3-A4495661F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CD6697A7-D972-4BCC-82E3-A4495661F06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24DF6705-1DE3-4101-819F-B3D62AA811AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
@@ -2132,6 +2132,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,9 +2151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -32278,7 +32278,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0045257372787122E-2</v>
+        <v>1.0286160452821803E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -32293,7 +32293,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>99.54946527393389</v>
+        <v>97.21800516203983</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -32305,18 +32305,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>8.0569557899721079E-3</v>
+        <v>1.1662036407941634E-2</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>8.0569557899721079E-3</v>
+        <v>1.1662036407941634E-2</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-4.5053472606610967E-3</v>
+        <v>-2.7819948379601698E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -32325,11 +32325,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0492896296728277E-2</v>
+        <v>2.3236855554728968E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.243594050675617E-2</v>
+        <v>1.1574819146787334E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -32338,11 +32338,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9278235221830283E-2</v>
+        <v>3.1703691291407439E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.7853389251020056E-3</v>
+        <v>8.4668357366784706E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -32351,11 +32351,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7997010487068897E-2</v>
+        <v>3.8889575819330918E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7187752652386138E-3</v>
+        <v>7.1858845279234793E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -32364,11 +32364,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9442095054663078E-2</v>
+        <v>5.0847723311248406E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1445084567594181E-2</v>
+        <v>1.1958147491917488E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -32377,11 +32377,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6723881785815264E-2</v>
+        <v>5.9496185840499656E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2817867311521858E-3</v>
+        <v>8.6484625292512496E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -32390,11 +32390,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7402930749807577E-2</v>
+        <v>6.8724038417192282E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0679048963992313E-2</v>
+        <v>9.2278525766926259E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -32403,11 +32403,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6755770772829829E-2</v>
+        <v>8.1083791925512419E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3528400230222519E-3</v>
+        <v>1.2359753508320137E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -32416,11 +32416,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4334480952172164E-2</v>
+        <v>9.3307129894114868E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.578710179342335E-3</v>
+        <v>1.2223337968602449E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -32429,11 +32429,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5049324291741066E-2</v>
+        <v>0.10525645418045065</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0714843339568902E-2</v>
+        <v>1.1949324286335786E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -32442,11 +32442,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1077439539230353</v>
+        <v>0.11681964594515577</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2694629631294238E-2</v>
+        <v>1.1563191764705119E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -32455,11 +32455,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11896777710051748</v>
+        <v>0.12394087200540968</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1223823177482176E-2</v>
+        <v>7.1212260602539074E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -32468,11 +32468,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12739258949113394</v>
+        <v>0.13190243593994164</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4248123906164596E-3</v>
+        <v>7.9615639345319567E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -32481,11 +32481,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13726350066544654</v>
+        <v>0.14405640096240047</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8709111743126021E-3</v>
+        <v>1.2153965022458829E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -32494,11 +32494,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14508902164453236</v>
+        <v>0.15428679304554296</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8255209790858149E-3</v>
+        <v>1.0230392083142498E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -32507,11 +32507,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15424837081569739</v>
+        <v>0.16720737055955501</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1593491711650377E-3</v>
+        <v>1.2920577514012044E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -32520,11 +32520,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16515649821480077</v>
+        <v>0.17705596510636373</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0908127399103379E-2</v>
+        <v>9.8485945468087255E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -32533,11 +32533,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17804854674794976</v>
+        <v>0.18480451513038595</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2892048533148986E-2</v>
+        <v>7.7485500240222216E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -32546,11 +32546,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19085989008295534</v>
+        <v>0.19543704860361427</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2811343335005582E-2</v>
+        <v>1.0632533473228317E-2</v>
       </c>
     </row>
   </sheetData>
@@ -58234,13 +58234,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="115" t="s">
         <v>188</v>
       </c>
       <c r="E3" s="72">
@@ -58251,13 +58251,13 @@
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="114" t="s">
+      <c r="L3" s="115" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="72">
@@ -58266,9 +58266,9 @@
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="118"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="67">
         <v>2</v>
       </c>
@@ -58277,18 +58277,18 @@
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="67">
         <v>2</v>
       </c>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="118"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="67">
         <v>3</v>
       </c>
@@ -58297,18 +58297,18 @@
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
       <c r="M5" s="67">
         <v>3</v>
       </c>
       <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="73">
         <v>4</v>
       </c>
@@ -58317,22 +58317,22 @@
       </c>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
       <c r="M6" s="67">
         <v>4</v>
       </c>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="115" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="72">
@@ -58345,18 +58345,18 @@
         <v>275</v>
       </c>
       <c r="H7" s="72"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="73">
         <v>5</v>
       </c>
       <c r="N7" s="73"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -58367,13 +58367,13 @@
         <v>283</v>
       </c>
       <c r="H8" s="67"/>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="114" t="s">
+      <c r="K8" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="115" t="s">
         <v>196</v>
       </c>
       <c r="M8" s="72">
@@ -58384,9 +58384,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="119"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="73">
         <v>3</v>
       </c>
@@ -58397,9 +58397,9 @@
         <v>274</v>
       </c>
       <c r="H9" s="73"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
       <c r="M9" s="67">
         <v>2</v>
       </c>
@@ -58408,13 +58408,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="115" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="72">
@@ -58429,9 +58429,9 @@
       <c r="H10" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="73">
         <v>3</v>
       </c>
@@ -58440,9 +58440,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="67">
         <v>2</v>
       </c>
@@ -58455,13 +58455,13 @@
       <c r="H11" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="114" t="s">
+      <c r="L11" s="115" t="s">
         <v>198</v>
       </c>
       <c r="M11">
@@ -58472,9 +58472,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="67">
         <v>3</v>
       </c>
@@ -58487,9 +58487,9 @@
       <c r="H12" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -58498,9 +58498,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="119"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="73">
         <v>4</v>
       </c>
@@ -58513,13 +58513,13 @@
       <c r="H13" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="114" t="s">
+      <c r="L13" s="115" t="s">
         <v>199</v>
       </c>
       <c r="M13" s="72">
@@ -58530,13 +58530,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E14" s="72">
@@ -58551,16 +58551,16 @@
       <c r="H14" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="118"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="67">
         <v>2</v>
       </c>
@@ -58573,16 +58573,16 @@
       <c r="H15" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="118"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="67">
         <v>3</v>
       </c>
@@ -58595,16 +58595,16 @@
       <c r="H16" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="119"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="73">
         <v>4</v>
       </c>
@@ -58617,20 +58617,20 @@
       <c r="H17" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="115" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="72">
@@ -58645,9 +58645,9 @@
       <c r="H18" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
       <c r="M18" s="67">
         <v>2</v>
       </c>
@@ -58656,9 +58656,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="118"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="67">
         <v>2</v>
       </c>
@@ -58673,9 +58673,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="118"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="67">
         <v>3</v>
       </c>
@@ -58690,9 +58690,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="119"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="73">
         <v>4</v>
       </c>
@@ -58707,13 +58707,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="115" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="72">
@@ -58728,9 +58728,9 @@
       <c r="H22" s="72"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="118"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="67">
         <v>2</v>
       </c>
@@ -58743,9 +58743,9 @@
       <c r="H23" s="67"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="118"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="67">
         <v>3</v>
       </c>
@@ -58758,9 +58758,9 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="118"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="67">
         <v>4</v>
       </c>
@@ -58773,9 +58773,9 @@
       <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="118"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="67">
         <v>5</v>
       </c>
@@ -58788,9 +58788,9 @@
       <c r="H26" s="67"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="119"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
       <c r="E27" s="73">
         <v>6</v>
       </c>
@@ -58803,13 +58803,13 @@
       <c r="H27" s="73"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="115" t="s">
         <v>174</v>
       </c>
       <c r="E28" s="72">
@@ -58824,9 +58824,9 @@
       <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="118"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="67">
         <v>2</v>
       </c>
@@ -58839,9 +58839,9 @@
       <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="119"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="73">
         <v>3</v>
       </c>
@@ -58865,7 +58865,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="114" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -58879,7 +58879,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="120"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="79" t="s">
         <v>150</v>
       </c>
@@ -58891,7 +58891,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="76" t="s">
         <v>187</v>
       </c>
@@ -58903,7 +58903,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="120"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="82" t="s">
         <v>173</v>
       </c>
@@ -58915,7 +58915,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="114" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -58929,7 +58929,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="120"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="79" t="s">
         <v>150</v>
       </c>
@@ -58941,7 +58941,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="120"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="76" t="s">
         <v>187</v>
       </c>
@@ -58953,7 +58953,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="120"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="77" t="s">
         <v>262</v>
       </c>
@@ -58966,6 +58966,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -58982,25 +59001,6 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -59047,8 +59047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -59101,7 +59101,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
-      <c r="O3" s="120" t="s">
+      <c r="O3" s="114" t="s">
         <v>151</v>
       </c>
       <c r="P3" t="s">
@@ -59131,7 +59131,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
-      <c r="O4" s="120"/>
+      <c r="O4" s="114"/>
       <c r="P4" t="s">
         <v>179</v>
       </c>
@@ -59165,7 +59165,7 @@
       <c r="L5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="120"/>
+      <c r="O5" s="114"/>
       <c r="P5" t="s">
         <v>70</v>
       </c>
@@ -59195,7 +59195,7 @@
       <c r="L6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="120"/>
+      <c r="O6" s="114"/>
       <c r="P6" t="s">
         <v>172</v>
       </c>
@@ -59446,9 +59446,6 @@
       <c r="B19" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>362</v>
-      </c>
       <c r="D19" s="100"/>
       <c r="I19" s="24" t="s">
         <v>5</v>
@@ -59495,7 +59492,9 @@
       <c r="B22" s="100" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="100"/>
+      <c r="C22" s="100" t="s">
+        <v>362</v>
+      </c>
       <c r="D22" s="100"/>
       <c r="I22" s="24" t="s">
         <v>8</v>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="114_{1340477D-1E51-4084-91B9-DFF34E9BEA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A8CE77A-CB81-46F3-BA66-899740396A2B}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="114_{1340477D-1E51-4084-91B9-DFF34E9BEA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57F4E5C7-CE2E-42DD-88BC-1CA614A764DD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="11520" yWindow="540" windowWidth="11316" windowHeight="8184" firstSheet="5" activeTab="10" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="413">
   <si>
     <t>Produit</t>
   </si>
@@ -1295,9 +1295,6 @@
     <t>D0</t>
   </si>
   <si>
-    <t>Wake up</t>
-  </si>
-  <si>
     <t>I²C SCL</t>
   </si>
   <si>
@@ -1314,6 +1311,18 @@
   </si>
   <si>
     <t>Ready transfert</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Wake up (on RST)</t>
+  </si>
+  <si>
+    <t>mesure :</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -1494,13 +1503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,6 +1520,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2106,28 +2116,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2156,7 +2166,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -32281,7 +32291,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.6860012005028778E-3</v>
+        <v>9.2246226740240415E-3</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -32296,7 +32306,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>103.24177948151421</v>
+        <v>108.40551807240173</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -32308,18 +32318,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>1.1097321003934683E-2</v>
+        <v>7.9891741999420732E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>1.1097321003934683E-2</v>
+        <v>7.9891741999420732E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>3.2417794815142148E-2</v>
+        <v>8.4055180724017339E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -32328,11 +32338,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1431292346972244E-2</v>
+        <v>1.5391916492330973E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>1.0333971343037561E-2</v>
+        <v>7.4027422923888999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -32341,11 +32351,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1503022722577656E-2</v>
+        <v>2.4121427867210658E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.0071730375605412E-2</v>
+        <v>8.7295113748796851E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -32354,11 +32364,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.867836138775696E-2</v>
+        <v>3.2382193267706243E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1753386651793039E-3</v>
+        <v>8.2607654004955844E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -32367,11 +32377,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7607582467864167E-2</v>
+        <v>4.0237674625782024E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9292210801072067E-3</v>
+        <v>7.8554813580757818E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -32380,11 +32390,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7088767792706413E-2</v>
+        <v>5.2483987223428417E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4811853248422465E-3</v>
+        <v>1.2246312597646393E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -32393,11 +32403,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9090636839560696E-2</v>
+        <v>6.2940440653459204E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2001869046854283E-2</v>
+        <v>1.0456453430030786E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -32406,11 +32416,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7952219760664271E-2</v>
+        <v>7.0571927645758772E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8615829211035752E-3</v>
+        <v>7.6314869922995687E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -32419,11 +32429,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8083384937158074E-2</v>
+        <v>7.7896558423985199E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0131165176493803E-2</v>
+        <v>7.3246307782264264E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -32432,11 +32442,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6152224469678457E-2</v>
+        <v>8.6599384485343933E-2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0688395325203832E-3</v>
+        <v>8.7028260613587344E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -32445,11 +32455,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10488533286847726</v>
+        <v>9.4915838855129234E-2</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7331083987988029E-3</v>
+        <v>8.3164543697853005E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -32458,11 +32468,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11204436297472695</v>
+        <v>0.10339283440266003</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1590301062496864E-3</v>
+        <v>8.4769955475307995E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -32471,11 +32481,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12160268119198536</v>
+        <v>0.11156306136242883</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5583182172584158E-3</v>
+        <v>8.1702269597687949E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -32484,11 +32494,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13361628888299928</v>
+        <v>0.12038086002756172</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2013607691013922E-2</v>
+        <v>8.8177986651328949E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -32497,11 +32507,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14124212465426988</v>
+        <v>0.1330942239065763</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6258357712706004E-3</v>
+        <v>1.2713363879014575E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -32510,11 +32520,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15382432896050927</v>
+        <v>0.14485855217174182</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2582204306239381E-2</v>
+        <v>1.1764328265165519E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -32523,11 +32533,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16616976363016936</v>
+        <v>0.15710834839861765</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2345434669660094E-2</v>
+        <v>1.2249796226875831E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -32536,11 +32546,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17685396642902151</v>
+        <v>0.16452648859675353</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0684202798852155E-2</v>
+        <v>7.4181401981358863E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -32549,11 +32559,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18403402280955466</v>
+        <v>0.17526783080645678</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1800563805331508E-3</v>
+        <v>1.0741342209703242E-2</v>
       </c>
     </row>
   </sheetData>
@@ -32563,10 +32573,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
-  <dimension ref="A2:AA58"/>
+  <dimension ref="A2:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32578,7 +32588,7 @@
     <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -32603,8 +32613,14 @@
       <c r="V2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3.84</v>
       </c>
@@ -32640,11 +32656,14 @@
       <c r="V3" s="97" t="s">
         <v>321</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1.98</v>
       </c>
@@ -32690,15 +32709,19 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
+        <f>ABS(V4-Z$2)</f>
+        <v>359</v>
+      </c>
+      <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AA4">
-        <f>MOD(Z4+180,360)</f>
+      <c r="AC4">
+        <f>MOD(AB4+180,360)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2.25</v>
       </c>
@@ -32734,15 +32757,23 @@
       <c r="V5">
         <v>23</v>
       </c>
-      <c r="Z5">
+      <c r="W5">
+        <f>V5-V4</f>
         <v>23</v>
       </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AA19" si="5">MOD(Z5+180,360)</f>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y20" si="5">ABS(V5-Z$2)</f>
+        <v>336</v>
+      </c>
+      <c r="AB5">
+        <v>23</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AC20" si="6">MOD(AB5+180,360)</f>
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0.41</v>
       </c>
@@ -32772,7 +32803,7 @@
         <v>41</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ref="J6" si="6">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
+        <f t="shared" ref="J6" si="7">CONCATENATE(J4, H5, ", ", H6, I6, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, </v>
       </c>
       <c r="R6" t="s">
@@ -32785,15 +32816,23 @@
       <c r="V6">
         <v>45</v>
       </c>
-      <c r="Z6">
+      <c r="W6">
+        <f t="shared" ref="W6:W20" si="8">V6-V5</f>
+        <v>22</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>314</v>
+      </c>
+      <c r="AB6">
         <v>45</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="5"/>
+      <c r="AC6">
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.45</v>
       </c>
@@ -32829,15 +32868,23 @@
       <c r="V7">
         <v>68</v>
       </c>
-      <c r="Z7">
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="AB7">
         <v>68</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="5"/>
+      <c r="AC7">
+        <f t="shared" si="6"/>
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>0.32</v>
       </c>
@@ -32867,7 +32914,7 @@
         <v>41</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8" si="7">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
+        <f t="shared" ref="J8" si="9">CONCATENATE(J6, H7, ", ", H8, I8, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, </v>
       </c>
       <c r="R8" t="s">
@@ -32880,15 +32927,23 @@
       <c r="V8">
         <v>90</v>
       </c>
-      <c r="Z8">
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>269</v>
+      </c>
+      <c r="AB8">
         <v>90</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="5"/>
+      <c r="AC8">
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.9</v>
       </c>
@@ -32924,15 +32979,23 @@
       <c r="V9">
         <v>113</v>
       </c>
-      <c r="Z9">
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="AB9">
         <v>113</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="5"/>
+      <c r="AC9">
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>0.62</v>
       </c>
@@ -32962,7 +33025,7 @@
         <v>41</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10" si="8">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
+        <f t="shared" ref="J10" si="10">CONCATENATE(J8, H9, ", ", H10, I10, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, </v>
       </c>
       <c r="R10" t="s">
@@ -32975,15 +33038,23 @@
       <c r="V10">
         <v>135</v>
       </c>
-      <c r="Z10">
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="5"/>
+        <v>224</v>
+      </c>
+      <c r="AB10">
         <v>135</v>
       </c>
-      <c r="AA10">
-        <f t="shared" si="5"/>
+      <c r="AC10">
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1.4</v>
       </c>
@@ -33019,15 +33090,23 @@
       <c r="V11">
         <v>158</v>
       </c>
-      <c r="Z11">
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>201</v>
+      </c>
+      <c r="AB11">
         <v>156</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="5"/>
+      <c r="AC11">
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1.19</v>
       </c>
@@ -33057,7 +33136,7 @@
         <v>41</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12" si="9">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
+        <f t="shared" ref="J12" si="11">CONCATENATE(J10, H11, ", ", H12, I12, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, </v>
       </c>
       <c r="R12" t="s">
@@ -33070,15 +33149,23 @@
       <c r="V12">
         <v>180</v>
       </c>
-      <c r="Z12">
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="AB12">
         <v>180</v>
       </c>
-      <c r="AA12">
-        <f t="shared" si="5"/>
+      <c r="AC12">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3.08</v>
       </c>
@@ -33114,15 +33201,23 @@
       <c r="V13">
         <v>203</v>
       </c>
-      <c r="Z13">
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="AB13">
         <v>203</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="5"/>
+      <c r="AC13">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2.93</v>
       </c>
@@ -33152,7 +33247,7 @@
         <v>41</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ref="J14" si="10">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
+        <f t="shared" ref="J14" si="12">CONCATENATE(J12, H13, ", ", H14, I14, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, </v>
       </c>
       <c r="R14" t="s">
@@ -33165,15 +33260,23 @@
       <c r="V14">
         <v>225</v>
       </c>
-      <c r="Z14">
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="AB14">
         <v>225</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="5"/>
+      <c r="AC14">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>4.62</v>
       </c>
@@ -33209,15 +33312,23 @@
       <c r="V15">
         <v>248</v>
       </c>
-      <c r="Z15">
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="AB15">
         <v>248</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="5"/>
+      <c r="AC15">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4.04</v>
       </c>
@@ -33247,7 +33358,7 @@
         <v>41</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16" si="11">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
+        <f t="shared" ref="J16" si="13">CONCATENATE(J14, H15, ", ", H16, I16, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, </v>
       </c>
       <c r="R16" t="s">
@@ -33260,15 +33371,23 @@
       <c r="V16">
         <v>270</v>
       </c>
-      <c r="Z16">
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="AB16">
         <v>270</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="5"/>
+      <c r="AC16">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>4.33</v>
       </c>
@@ -33304,15 +33423,23 @@
       <c r="V17">
         <v>293</v>
       </c>
-      <c r="Z17">
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AB17">
         <v>293</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="5"/>
+      <c r="AC17">
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>3.43</v>
       </c>
@@ -33342,7 +33469,7 @@
         <v>41</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="12">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
+        <f t="shared" ref="J18" si="14">CONCATENATE(J16, H17, ", ", H18, I18, ", ")</f>
         <v xml:space="preserve">erreur0, 22.5, 45, 67.5, 90, 112.5, 135, 157.5, 180, 202.5, 225, 247.5, 270, 292.5, 315, 337.5, </v>
       </c>
       <c r="R18" t="s">
@@ -33355,15 +33482,23 @@
       <c r="V18">
         <v>313</v>
       </c>
-      <c r="Z18">
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AB18">
         <v>315</v>
       </c>
-      <c r="AA18">
-        <f t="shared" si="5"/>
+      <c r="AC18">
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C19" s="9">
         <v>360</v>
       </c>
@@ -33373,15 +33508,43 @@
       <c r="V19">
         <v>336</v>
       </c>
-      <c r="Z19">
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="AB19">
         <v>338</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <v>360</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="5"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>360</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>65.471999999999994</v>
       </c>
@@ -33407,7 +33570,7 @@
         <v>if(WindAngle &lt; 5) return("Nord");</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>83.885999999999996</v>
       </c>
@@ -33416,7 +33579,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23">
-        <f t="shared" ref="D23:D37" si="13">(A24+A23)/2</f>
+        <f t="shared" ref="D23:D37" si="15">(A24+A23)/2</f>
         <v>87.978000000000009</v>
       </c>
       <c r="F23" s="7"/>
@@ -33431,11 +33594,11 @@
         <v>62</v>
       </c>
       <c r="O23" s="7" t="str">
-        <f t="shared" ref="O23:O37" si="14">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
+        <f t="shared" ref="O23:O37" si="16">_xlfn.CONCAT("if(WindAngle &lt; ",K23+5, ") return(""",M23,""");")</f>
         <v>if(WindAngle &lt; 27,5) return("Nord");</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>92.070000000000007</v>
       </c>
@@ -33444,12 +33607,12 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>109.46100000000001</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="str">
-        <f t="shared" ref="G24:G37" si="15">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
+        <f t="shared" ref="G24:G37" si="17">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(D24,0), ") return(", ROUND(B24, 1), ");")</f>
         <v>if (WindAnalog &lt; 109) return(90);</v>
       </c>
       <c r="K24">
@@ -33459,11 +33622,11 @@
         <v>63</v>
       </c>
       <c r="O24" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 50) return("Nord-Est");</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>126.852</v>
       </c>
@@ -33472,12 +33635,12 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>155.49600000000001</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 155) return(160);</v>
       </c>
       <c r="K25">
@@ -33487,11 +33650,11 @@
         <v>64</v>
       </c>
       <c r="O25" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 72,5) return("Est");</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>184.14000000000001</v>
       </c>
@@ -33500,12 +33663,12 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>213.80700000000002</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 214) return(135);</v>
       </c>
       <c r="K26">
@@ -33515,11 +33678,11 @@
         <v>64</v>
       </c>
       <c r="O26" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 95) return("Est");</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>243.47399999999999</v>
       </c>
@@ -33528,12 +33691,12 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>264.95699999999999</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 265) return(200);</v>
       </c>
       <c r="K27">
@@ -33543,11 +33706,11 @@
         <v>64</v>
       </c>
       <c r="O27" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 117,5) return("Est");</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>286.43999999999994</v>
       </c>
@@ -33556,12 +33719,12 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>345.774</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 346) return(180);</v>
       </c>
       <c r="K28">
@@ -33571,11 +33734,11 @@
         <v>65</v>
       </c>
       <c r="O28" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 140) return("Sud-Est");</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>405.108</v>
       </c>
@@ -33584,12 +33747,12 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>432.72900000000004</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 433) return(20);</v>
       </c>
       <c r="K29">
@@ -33599,11 +33762,11 @@
         <v>66</v>
       </c>
       <c r="O29" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 162,5) return("Sud");</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>460.35</v>
       </c>
@@ -33612,12 +33775,12 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.91399999999999</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 530) return(45);</v>
       </c>
       <c r="K30">
@@ -33627,11 +33790,11 @@
         <v>66</v>
       </c>
       <c r="O30" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 185) return("Sud");</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>599.47800000000007</v>
       </c>
@@ -33640,12 +33803,12 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>614.82300000000009</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 615) return(250);</v>
       </c>
       <c r="K31">
@@ -33655,11 +33818,11 @@
         <v>66</v>
       </c>
       <c r="O31" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 207,5) return("Sud");</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>630.16800000000001</v>
       </c>
@@ -33668,12 +33831,12 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>665.97299999999996</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 666) return(225);</v>
       </c>
       <c r="K32">
@@ -33683,7 +33846,7 @@
         <v>67</v>
       </c>
       <c r="O32" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 230) return("Sud-Ouest");</v>
       </c>
     </row>
@@ -33696,12 +33859,12 @@
       </c>
       <c r="C33" s="7"/>
       <c r="D33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>743.721</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 744) return(340);</v>
       </c>
       <c r="K33">
@@ -33711,7 +33874,7 @@
         <v>68</v>
       </c>
       <c r="O33" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 252,5) return("Ouest");</v>
       </c>
     </row>
@@ -33724,12 +33887,12 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>806.12400000000002</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 806) return(0);</v>
       </c>
       <c r="K34">
@@ -33739,7 +33902,7 @@
         <v>68</v>
       </c>
       <c r="O34" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 275) return("Ouest");</v>
       </c>
     </row>
@@ -33752,12 +33915,12 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>856.25099999999998</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 856) return(290);</v>
       </c>
       <c r="K35">
@@ -33767,7 +33930,7 @@
         <v>68</v>
       </c>
       <c r="O35" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 297,5) return("Ouest");</v>
       </c>
     </row>
@@ -33780,12 +33943,12 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>915.58500000000004</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 916) return(315);</v>
       </c>
       <c r="K36">
@@ -33795,7 +33958,7 @@
         <v>69</v>
       </c>
       <c r="O36" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 320) return("Nord-Ouest");</v>
       </c>
     </row>
@@ -33808,12 +33971,12 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>984.12599999999998</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>if (WindAnalog &lt; 984) return(270);</v>
       </c>
       <c r="K37">
@@ -33823,7 +33986,7 @@
         <v>62</v>
       </c>
       <c r="O37" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>if(WindAngle &lt; 342,5) return("Nord");</v>
       </c>
     </row>
@@ -33845,7 +34008,7 @@
         <v>65.536000000000001</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:B57" si="16">(A43+A44)/2</f>
+        <f t="shared" ref="B43:B57" si="18">(A43+A44)/2</f>
         <v>75.775999999999996</v>
       </c>
       <c r="C43" s="7">
@@ -33863,7 +34026,7 @@
         <v>86.015999999999991</v>
       </c>
       <c r="B44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>90.623999999999995</v>
       </c>
       <c r="C44" s="7">
@@ -33872,7 +34035,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="str">
-        <f t="shared" ref="G44:G58" si="17">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
+        <f t="shared" ref="G44:G58" si="19">_xlfn.CONCAT("if (WindAnalog &lt; ", ROUND(B44,0), ") return(", ROUND(C44, 1), ");")</f>
         <v>if (WindAnalog &lt; 91) return(67,5);</v>
       </c>
     </row>
@@ -33881,7 +34044,7 @@
         <v>95.231999999999999</v>
       </c>
       <c r="B45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>113.152</v>
       </c>
       <c r="C45" s="7">
@@ -33890,7 +34053,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 113) return(90);</v>
       </c>
     </row>
@@ -33899,7 +34062,7 @@
         <v>131.072</v>
       </c>
       <c r="B46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>160.768</v>
       </c>
       <c r="C46" s="7">
@@ -33908,7 +34071,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 161) return(157,5);</v>
       </c>
     </row>
@@ -33917,7 +34080,7 @@
         <v>190.464</v>
       </c>
       <c r="B47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>221.184</v>
       </c>
       <c r="C47" s="7">
@@ -33926,7 +34089,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 221) return(135);</v>
       </c>
     </row>
@@ -33935,7 +34098,7 @@
         <v>251.904</v>
       </c>
       <c r="B48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>274.43200000000002</v>
       </c>
       <c r="C48" s="7">
@@ -33944,7 +34107,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 274) return(202,5);</v>
       </c>
     </row>
@@ -33953,7 +34116,7 @@
         <v>296.95999999999998</v>
       </c>
       <c r="B49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>359.42399999999998</v>
       </c>
       <c r="C49" s="7">
@@ -33962,7 +34125,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 359) return(180);</v>
       </c>
     </row>
@@ -33971,7 +34134,7 @@
         <v>421.88800000000003</v>
       </c>
       <c r="B50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>450.56</v>
       </c>
       <c r="C50" s="7">
@@ -33980,7 +34143,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 451) return(22,5);</v>
       </c>
     </row>
@@ -33989,7 +34152,7 @@
         <v>479.23199999999997</v>
       </c>
       <c r="B51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>550.91200000000003</v>
       </c>
       <c r="C51" s="7">
@@ -33998,7 +34161,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 551) return(45);</v>
       </c>
     </row>
@@ -34007,7 +34170,7 @@
         <v>622.59199999999998</v>
       </c>
       <c r="B52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>638.976</v>
       </c>
       <c r="C52" s="7">
@@ -34016,7 +34179,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 639) return(247,5);</v>
       </c>
     </row>
@@ -34025,7 +34188,7 @@
         <v>655.36</v>
       </c>
       <c r="B53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>693.24800000000005</v>
       </c>
       <c r="C53" s="7">
@@ -34034,7 +34197,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 693) return(225);</v>
       </c>
     </row>
@@ -34043,7 +34206,7 @@
         <v>731.13599999999997</v>
       </c>
       <c r="B54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>774.14400000000001</v>
       </c>
       <c r="C54" s="7">
@@ -34052,7 +34215,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 774) return(337,5);</v>
       </c>
     </row>
@@ -34061,7 +34224,7 @@
         <v>817.15200000000004</v>
       </c>
       <c r="B55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>838.65600000000006</v>
       </c>
       <c r="C55" s="7">
@@ -34070,7 +34233,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 839) return(0);</v>
       </c>
     </row>
@@ -34079,7 +34242,7 @@
         <v>860.16000000000008</v>
       </c>
       <c r="B56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>890.88000000000011</v>
       </c>
       <c r="C56" s="7">
@@ -34088,7 +34251,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 891) return(292,5);</v>
       </c>
     </row>
@@ -34097,7 +34260,7 @@
         <v>921.6</v>
       </c>
       <c r="B57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>951.29600000000005</v>
       </c>
       <c r="C57" s="7">
@@ -34106,7 +34269,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 951) return(315);</v>
       </c>
     </row>
@@ -34123,7 +34286,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>if (WindAnalog &lt; 1023) return(270);</v>
       </c>
     </row>
@@ -59048,44 +59211,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
-  <dimension ref="B2:Q27"/>
+  <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="7.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="5"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="5"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:19" ht="63" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="121" t="s">
         <v>348</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="121"/>
-      <c r="G2" t="s">
+      <c r="F2" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="M2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="101" t="s">
         <v>349</v>
       </c>
@@ -59098,23 +59264,26 @@
       <c r="F3" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="26">
+      <c r="G3" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="K3" s="26">
         <v>0</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="O3" s="114" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="Q3" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>177</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="100">
         <v>0</v>
       </c>
@@ -59125,24 +59294,27 @@
       <c r="F4" t="s">
         <v>402</v>
       </c>
-      <c r="G4" t="s">
-        <v>403</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K4" s="23">
         <v>1</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="O4" s="114"/>
-      <c r="P4" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="100">
         <v>1</v>
       </c>
@@ -59153,30 +59325,33 @@
       <c r="F5" t="s">
         <v>392</v>
       </c>
-      <c r="G5" t="s">
-        <v>404</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" s="23">
         <v>2</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="114"/>
-      <c r="P5" t="s">
+      <c r="Q5" s="114"/>
+      <c r="R5" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="100">
         <v>2</v>
       </c>
@@ -59185,28 +59360,31 @@
       <c r="F6" t="s">
         <v>393</v>
       </c>
-      <c r="G6" t="s">
-        <v>405</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K6" s="23">
         <v>3</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="21"/>
+      <c r="M6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="114"/>
-      <c r="P6" t="s">
+      <c r="Q6" s="114"/>
+      <c r="R6" t="s">
         <v>172</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="100">
         <v>3</v>
       </c>
@@ -59217,16 +59395,19 @@
       <c r="F7" t="s">
         <v>394</v>
       </c>
-      <c r="I7" s="23">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
         <v>4</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="100">
         <v>4</v>
       </c>
@@ -59237,16 +59418,19 @@
       <c r="F8" t="s">
         <v>395</v>
       </c>
-      <c r="I8" s="23">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="23">
         <v>5</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="100">
         <v>5</v>
       </c>
@@ -59255,41 +59439,47 @@
       <c r="F9" t="s">
         <v>396</v>
       </c>
-      <c r="G9" t="s">
-        <v>406</v>
-      </c>
-      <c r="I9" s="23">
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9" s="23">
         <v>6</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="100">
         <v>6</v>
       </c>
       <c r="C10" s="100"/>
       <c r="D10" s="100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" t="s">
         <v>397</v>
       </c>
-      <c r="I10" s="23">
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="K10" s="23">
         <v>7</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="100">
         <v>7</v>
       </c>
@@ -59298,14 +59488,17 @@
       <c r="F11" t="s">
         <v>398</v>
       </c>
-      <c r="I11" s="23">
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="K11" s="23">
         <v>8</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L11" s="21"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="100">
         <v>8</v>
       </c>
@@ -59316,16 +59509,19 @@
       <c r="F12" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="23">
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="K12" s="23">
         <v>9</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="L12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="100">
         <v>9</v>
       </c>
@@ -59336,20 +59532,20 @@
       <c r="F13" t="s">
         <v>400</v>
       </c>
-      <c r="I13" s="23">
+      <c r="K13" s="23">
         <v>10</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="L13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="N13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="100">
         <v>10</v>
       </c>
@@ -59360,20 +59556,20 @@
       <c r="F14" t="s">
         <v>401</v>
       </c>
-      <c r="I14" s="23">
+      <c r="K14" s="23">
         <v>11</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="L14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="M14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="N14" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="100">
         <v>11</v>
       </c>
@@ -59383,20 +59579,20 @@
       <c r="D15" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="I15" s="23">
+      <c r="K15" s="23">
         <v>12</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="L15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="100">
         <v>12</v>
       </c>
@@ -59404,22 +59600,22 @@
         <v>74</v>
       </c>
       <c r="D16" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="I16" s="33">
+        <v>408</v>
+      </c>
+      <c r="K16" s="33">
         <v>13</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="L16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="M16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="N16" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="100">
         <v>13</v>
       </c>
@@ -59427,73 +59623,73 @@
         <v>355</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>407</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="100" t="s">
         <v>356</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
-      <c r="I18" s="37" t="s">
+      <c r="K18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="100" t="s">
         <v>357</v>
       </c>
       <c r="D19" s="100"/>
-      <c r="I19" s="24" t="s">
+      <c r="K19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="20"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="100" t="s">
         <v>358</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
-      <c r="I20" s="24" t="s">
+      <c r="K20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="L20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="100" t="s">
         <v>359</v>
       </c>
       <c r="C21" s="100"/>
       <c r="D21" s="100"/>
-      <c r="I21" s="24" t="s">
+      <c r="K21" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="L21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="M21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="N21" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="100" t="s">
         <v>360</v>
       </c>
@@ -59501,14 +59697,14 @@
         <v>362</v>
       </c>
       <c r="D22" s="100"/>
-      <c r="I22" s="24" t="s">
+      <c r="K22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L22" s="20"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="100" t="s">
         <v>361</v>
       </c>
@@ -59516,14 +59712,14 @@
         <v>175</v>
       </c>
       <c r="D23" s="100"/>
-      <c r="I23" s="25" t="s">
+      <c r="K23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L23" s="22"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="100">
         <v>20</v>
       </c>
@@ -59531,9 +59727,9 @@
         <v>149</v>
       </c>
       <c r="D24" s="123"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="100">
         <v>21</v>
       </c>
@@ -59542,28 +59738,28 @@
       </c>
       <c r="D25" s="124"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="I26" s="14" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="K26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>70</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="J27" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
         <v>71</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O3:O6"/>
+  <mergeCells count="11">
+    <mergeCell ref="Q3:Q6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C25:D25"/>
@@ -59573,6 +59769,7 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="114_{1340477D-1E51-4084-91B9-DFF34E9BEA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57F4E5C7-CE2E-42DD-88BC-1CA614A764DD}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="114_{1340477D-1E51-4084-91B9-DFF34E9BEA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{313A8F64-7FFF-4A1E-A9A1-8787DAF392B9}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="540" windowWidth="11316" windowHeight="8184" firstSheet="5" activeTab="10" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -2145,9 +2145,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2164,6 +2161,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -27877,16 +27877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32291,7 +32291,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>9.2246226740240415E-3</v>
+        <v>1.0451619589581324E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>108.40551807240173</v>
+        <v>95.67895113565443</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -32318,18 +32318,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>7.9891741999420732E-3</v>
+        <v>9.8011232643114322E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>7.9891741999420732E-3</v>
+        <v>9.8011232643114322E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>8.4055180724017339E-2</v>
+        <v>-4.3210488643455704E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -32338,11 +32338,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5391916492330973E-2</v>
+        <v>1.9775089458388108E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>7.4027422923888999E-3</v>
+        <v>9.9739661940766756E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -32351,11 +32351,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4121427867210658E-2</v>
+        <v>3.068862964670856E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>8.7295113748796851E-3</v>
+        <v>1.0913540188320452E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -32364,11 +32364,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2382193267706243E-2</v>
+        <v>3.9911476923642185E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2607654004955844E-3</v>
+        <v>9.2228472769336246E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -32377,11 +32377,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0237674625782024E-2</v>
+        <v>4.7622308347983588E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8554813580757818E-3</v>
+        <v>7.7108314243414036E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -32390,11 +32390,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2483987223428417E-2</v>
+        <v>5.8023247261192512E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2246312597646393E-2</v>
+        <v>1.0400938913208924E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -32403,11 +32403,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2940440653459204E-2</v>
+        <v>6.8961849168713119E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0456453430030786E-2</v>
+        <v>1.0938601907520606E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -32416,11 +32416,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0571927645758772E-2</v>
+        <v>8.0663567658364632E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6314869922995687E-3</v>
+        <v>1.1701718489651514E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -32429,11 +32429,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7896558423985199E-2</v>
+        <v>9.3643603514269688E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3246307782264264E-3</v>
+        <v>1.2980035855905056E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -32442,11 +32442,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6599384485343933E-2</v>
+        <v>0.10352798631145425</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7028260613587344E-3</v>
+        <v>9.8843827971845655E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -32455,11 +32455,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4915838855129234E-2</v>
+        <v>0.11210133877686233</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3164543697853005E-3</v>
+        <v>8.5733524654080795E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -32468,11 +32468,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10339283440266003</v>
+        <v>0.1245714781891001</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4769955475307995E-3</v>
+        <v>1.2470139412237763E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -32481,11 +32481,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11156306136242883</v>
+        <v>0.13233269815666637</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1702269597687949E-3</v>
+        <v>7.7612199675662769E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -32494,11 +32494,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12038086002756172</v>
+        <v>0.1444679836499857</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8177986651328949E-3</v>
+        <v>1.2135285493319325E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -32507,11 +32507,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1330942239065763</v>
+        <v>0.15693957769784958</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2713363879014575E-2</v>
+        <v>1.2471594047863882E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -32520,11 +32520,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14485855217174182</v>
+        <v>0.16444949715328039</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1764328265165519E-2</v>
+        <v>7.509919455430808E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -32533,11 +32533,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15710834839861765</v>
+        <v>0.17616653057563758</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2249796226875831E-2</v>
+        <v>1.1717033422357193E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -32546,11 +32546,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16452648859675353</v>
+        <v>0.1867793718709666</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4181401981358863E-3</v>
+        <v>1.0612841295329023E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -32559,11 +32559,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17526783080645678</v>
+        <v>0.19858077220204515</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0741342209703242E-2</v>
+        <v>1.1801400331078543E-2</v>
       </c>
     </row>
   </sheetData>
@@ -32575,7 +32575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7DA879-7295-4B28-AB1F-AC4478E5196C}">
   <dimension ref="A2:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
@@ -53257,8 +53257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A01A1-7AB8-40C2-A8AE-985E0D56E443}">
   <dimension ref="A1:X367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58400,13 +58400,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="114" t="s">
         <v>188</v>
       </c>
       <c r="E3" s="72">
@@ -58417,13 +58417,13 @@
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="114" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="72">
@@ -58432,9 +58432,9 @@
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="119"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="67">
         <v>2</v>
       </c>
@@ -58443,18 +58443,18 @@
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="67">
         <v>2</v>
       </c>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="67">
         <v>3</v>
       </c>
@@ -58463,18 +58463,18 @@
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="67">
         <v>3</v>
       </c>
       <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="120"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="73">
         <v>4</v>
       </c>
@@ -58483,22 +58483,22 @@
       </c>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="67">
         <v>4</v>
       </c>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="114" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="72">
@@ -58511,18 +58511,18 @@
         <v>275</v>
       </c>
       <c r="H7" s="72"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
       <c r="M7" s="73">
         <v>5</v>
       </c>
       <c r="N7" s="73"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="119"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -58533,13 +58533,13 @@
         <v>283</v>
       </c>
       <c r="H8" s="67"/>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="114" t="s">
         <v>196</v>
       </c>
       <c r="M8" s="72">
@@ -58550,9 +58550,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="120"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="73">
         <v>3</v>
       </c>
@@ -58563,9 +58563,9 @@
         <v>274</v>
       </c>
       <c r="H9" s="73"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="67">
         <v>2</v>
       </c>
@@ -58574,13 +58574,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="114" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="72">
@@ -58595,9 +58595,9 @@
       <c r="H10" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
       <c r="M10" s="73">
         <v>3</v>
       </c>
@@ -58606,9 +58606,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="119"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="67">
         <v>2</v>
       </c>
@@ -58621,13 +58621,13 @@
       <c r="H11" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="114" t="s">
         <v>198</v>
       </c>
       <c r="M11">
@@ -58638,9 +58638,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="119"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="67">
         <v>3</v>
       </c>
@@ -58653,9 +58653,9 @@
       <c r="H12" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -58664,9 +58664,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="120"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="73">
         <v>4</v>
       </c>
@@ -58679,13 +58679,13 @@
       <c r="H13" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="115" t="s">
+      <c r="L13" s="114" t="s">
         <v>199</v>
       </c>
       <c r="M13" s="72">
@@ -58696,13 +58696,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="114" t="s">
         <v>172</v>
       </c>
       <c r="E14" s="72">
@@ -58717,16 +58717,16 @@
       <c r="H14" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="67">
         <v>2</v>
       </c>
@@ -58739,16 +58739,16 @@
       <c r="H15" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="119"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="67">
         <v>3</v>
       </c>
@@ -58761,16 +58761,16 @@
       <c r="H16" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="120"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="73">
         <v>4</v>
       </c>
@@ -58783,20 +58783,20 @@
       <c r="H17" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="114" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="72">
@@ -58811,9 +58811,9 @@
       <c r="H18" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
       <c r="M18" s="67">
         <v>2</v>
       </c>
@@ -58822,9 +58822,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="119"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
       <c r="E19" s="67">
         <v>2</v>
       </c>
@@ -58839,9 +58839,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="119"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="67">
         <v>3</v>
       </c>
@@ -58856,9 +58856,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="120"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="73">
         <v>4</v>
       </c>
@@ -58873,13 +58873,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="114" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="72">
@@ -58894,9 +58894,9 @@
       <c r="H22" s="72"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="119"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
       <c r="E23" s="67">
         <v>2</v>
       </c>
@@ -58909,9 +58909,9 @@
       <c r="H23" s="67"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="119"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="67">
         <v>3</v>
       </c>
@@ -58924,9 +58924,9 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="119"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="67">
         <v>4</v>
       </c>
@@ -58939,9 +58939,9 @@
       <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="119"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="67">
         <v>5</v>
       </c>
@@ -58954,9 +58954,9 @@
       <c r="H26" s="67"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="120"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="73">
         <v>6</v>
       </c>
@@ -58969,13 +58969,13 @@
       <c r="H27" s="73"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="114" t="s">
         <v>174</v>
       </c>
       <c r="E28" s="72">
@@ -58990,9 +58990,9 @@
       <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="119"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="67">
         <v>2</v>
       </c>
@@ -59005,9 +59005,9 @@
       <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="120"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="73">
         <v>3</v>
       </c>
@@ -59031,7 +59031,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="120" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -59045,7 +59045,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="114"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="79" t="s">
         <v>150</v>
       </c>
@@ -59057,7 +59057,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="114"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="76" t="s">
         <v>187</v>
       </c>
@@ -59069,7 +59069,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="114"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="82" t="s">
         <v>173</v>
       </c>
@@ -59081,7 +59081,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="114" t="s">
+      <c r="A39" s="120" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -59095,7 +59095,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="114"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="79" t="s">
         <v>150</v>
       </c>
@@ -59107,7 +59107,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="76" t="s">
         <v>187</v>
       </c>
@@ -59119,7 +59119,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="114"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="77" t="s">
         <v>262</v>
       </c>
@@ -59132,25 +59132,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -59167,6 +59148,25 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -59273,7 +59273,7 @@
       <c r="L3" s="27"/>
       <c r="M3" s="28"/>
       <c r="N3" s="29"/>
-      <c r="Q3" s="114" t="s">
+      <c r="Q3" s="120" t="s">
         <v>151</v>
       </c>
       <c r="R3" t="s">
@@ -59306,7 +59306,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="16"/>
       <c r="N4" s="17"/>
-      <c r="Q4" s="114"/>
+      <c r="Q4" s="120"/>
       <c r="R4" t="s">
         <v>179</v>
       </c>
@@ -59343,7 +59343,7 @@
       <c r="N5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="114"/>
+      <c r="Q5" s="120"/>
       <c r="R5" t="s">
         <v>70</v>
       </c>
@@ -59376,7 +59376,7 @@
       <c r="N6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="114"/>
+      <c r="Q6" s="120"/>
       <c r="R6" t="s">
         <v>172</v>
       </c>

--- a/SuiviProjet.xlsx
+++ b/SuiviProjet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/192d16467d0539cb/Documents/5.Bricolage/5.StationMeteo/StationMeteo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="114_{1340477D-1E51-4084-91B9-DFF34E9BEA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{313A8F64-7FFF-4A1E-A9A1-8787DAF392B9}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="114_{1340477D-1E51-4084-91B9-DFF34E9BEA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3177BDE6-E77C-4BD5-9F91-1AE8DB515FD4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
+    <workbookView xWindow="348" yWindow="4176" windowWidth="11316" windowHeight="8184" activeTab="4" xr2:uid="{700A1A7B-3F76-47D1-986E-B358D29F4025}"/>
   </bookViews>
   <sheets>
     <sheet name="Achat" sheetId="11" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="417">
   <si>
     <t>Produit</t>
   </si>
@@ -1324,6 +1324,18 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t>receptor airlift</t>
+  </si>
+  <si>
+    <t>wifi ACK</t>
+  </si>
+  <si>
+    <t>esp32 reset</t>
+  </si>
+  <si>
+    <t>esp32 ss</t>
+  </si>
 </sst>
 </file>
 
@@ -1964,7 +1976,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2145,6 +2157,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,9 +2176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2187,6 +2199,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Insatisfaisant" xfId="6" builtinId="27"/>
@@ -32291,7 +32311,7 @@
       </c>
       <c r="F6">
         <f ca="1">AVERAGE(C8:C26)</f>
-        <v>1.0451619589581324E-2</v>
+        <v>1.053462479224296E-2</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -32306,7 +32326,7 @@
       </c>
       <c r="F7">
         <f ca="1">1/F6</f>
-        <v>95.67895113565443</v>
+        <v>94.925070396084493</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -32318,18 +32338,18 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B26" ca="1" si="0">B7+B$3+(RAND()*2-1)*B$3*B$4</f>
-        <v>9.8011232643114322E-3</v>
+        <v>9.5575410075975451E-3</v>
       </c>
       <c r="C8">
         <f ca="1">B8-B7</f>
-        <v>9.8011232643114322E-3</v>
+        <v>9.5575410075975451E-3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6">
         <f ca="1">(F7-B2)/B2</f>
-        <v>-4.3210488643455704E-2</v>
+        <v>-5.0749296039155067E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -32338,11 +32358,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9775089458388108E-2</v>
+        <v>1.7345986960544329E-2</v>
       </c>
       <c r="C9">
         <f ca="1">B9-B8</f>
-        <v>9.9739661940766756E-3</v>
+        <v>7.7884459529467837E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -32351,11 +32371,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.068862964670856E-2</v>
+        <v>2.9669330340357306E-2</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:C26" ca="1" si="1">B10-B9</f>
-        <v>1.0913540188320452E-2</v>
+        <v>1.2323343379812977E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -32364,11 +32384,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9911476923642185E-2</v>
+        <v>4.1540320793793134E-2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2228472769336246E-3</v>
+        <v>1.1870990453435828E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -32377,11 +32397,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7622308347983588E-2</v>
+        <v>5.0997544392843146E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7108314243414036E-3</v>
+        <v>9.4572235990500117E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -32390,11 +32410,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8023247261192512E-2</v>
+        <v>6.1470902387841218E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0400938913208924E-2</v>
+        <v>1.0473357994998073E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -32403,11 +32423,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8961849168713119E-2</v>
+        <v>7.1250806920864287E-2</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0938601907520606E-2</v>
+        <v>9.7799045330230691E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -32416,11 +32436,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0663567658364632E-2</v>
+        <v>8.2414171564723041E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1701718489651514E-2</v>
+        <v>1.1163364643858753E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -32429,11 +32449,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3643603514269688E-2</v>
+        <v>9.3724558902448657E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2980035855905056E-2</v>
+        <v>1.1310387337725616E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -32442,11 +32462,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10352798631145425</v>
+        <v>0.10555727495854099</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8843827971845655E-3</v>
+        <v>1.1832716056092332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -32455,11 +32475,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11210133877686233</v>
+        <v>0.11575318785509815</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5733524654080795E-3</v>
+        <v>1.0195912896557163E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -32468,11 +32488,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1245714781891001</v>
+        <v>0.1235082299617402</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2470139412237763E-2</v>
+        <v>7.7550421066420461E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -32481,11 +32501,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13233269815666637</v>
+        <v>0.13578655098622552</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7612199675662769E-3</v>
+        <v>1.2278321024485325E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -32494,11 +32514,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1444679836499857</v>
+        <v>0.14588960744091559</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2135285493319325E-2</v>
+        <v>1.0103056454690063E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -32507,11 +32527,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15693957769784958</v>
+        <v>0.15845307374810921</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2471594047863882E-2</v>
+        <v>1.2563466307193627E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -32520,11 +32540,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16444949715328039</v>
+        <v>0.16951645615471081</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.509919455430808E-3</v>
+        <v>1.1063382406601596E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -32533,11 +32553,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17616653057563758</v>
+        <v>0.18073526159809666</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1717033422357193E-2</v>
+        <v>1.1218805443385854E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -32546,11 +32566,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1867793718709666</v>
+        <v>0.18782756847682655</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0612841295329023E-2</v>
+        <v>7.0923068787298871E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -32559,11 +32579,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19858077220204515</v>
+        <v>0.20015787105261623</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1801400331078543E-2</v>
+        <v>1.2330302575789681E-2</v>
       </c>
     </row>
   </sheetData>
@@ -53257,7 +53277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A01A1-7AB8-40C2-A8AE-985E0D56E443}">
   <dimension ref="A1:X367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -58400,13 +58420,13 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="115" t="s">
         <v>188</v>
       </c>
       <c r="E3" s="72">
@@ -58417,13 +58437,13 @@
       </c>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="L3" s="114" t="s">
+      <c r="L3" s="115" t="s">
         <v>195</v>
       </c>
       <c r="M3" s="72">
@@ -58432,9 +58452,9 @@
       <c r="N3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="118"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="67">
         <v>2</v>
       </c>
@@ -58443,18 +58463,18 @@
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
       <c r="M4" s="67">
         <v>2</v>
       </c>
       <c r="N4" s="67"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="118"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="67">
         <v>3</v>
       </c>
@@ -58463,18 +58483,18 @@
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
       <c r="M5" s="67">
         <v>3</v>
       </c>
       <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="73">
         <v>4</v>
       </c>
@@ -58483,22 +58503,22 @@
       </c>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
       <c r="M6" s="67">
         <v>4</v>
       </c>
       <c r="N6" s="67"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="115" t="s">
         <v>171</v>
       </c>
       <c r="E7" s="72">
@@ -58511,18 +58531,18 @@
         <v>275</v>
       </c>
       <c r="H7" s="72"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="73">
         <v>5</v>
       </c>
       <c r="N7" s="73"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -58533,13 +58553,13 @@
         <v>283</v>
       </c>
       <c r="H8" s="67"/>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="114" t="s">
+      <c r="K8" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="115" t="s">
         <v>196</v>
       </c>
       <c r="M8" s="72">
@@ -58550,9 +58570,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="119"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="73">
         <v>3</v>
       </c>
@@ -58563,9 +58583,9 @@
         <v>274</v>
       </c>
       <c r="H9" s="73"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
       <c r="M9" s="67">
         <v>2</v>
       </c>
@@ -58574,13 +58594,13 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="115" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="72">
@@ -58595,9 +58615,9 @@
       <c r="H10" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="73">
         <v>3</v>
       </c>
@@ -58606,9 +58626,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="67">
         <v>2</v>
       </c>
@@ -58621,13 +58641,13 @@
       <c r="H11" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="114" t="s">
+      <c r="K11" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="114" t="s">
+      <c r="L11" s="115" t="s">
         <v>198</v>
       </c>
       <c r="M11">
@@ -58638,9 +58658,9 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="67">
         <v>3</v>
       </c>
@@ -58653,9 +58673,9 @@
       <c r="H12" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
       <c r="M12">
         <v>2</v>
       </c>
@@ -58664,9 +58684,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="119"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="73">
         <v>4</v>
       </c>
@@ -58679,13 +58699,13 @@
       <c r="H13" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="114" t="s">
+      <c r="L13" s="115" t="s">
         <v>199</v>
       </c>
       <c r="M13" s="72">
@@ -58696,13 +58716,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="115" t="s">
         <v>172</v>
       </c>
       <c r="E14" s="72">
@@ -58717,16 +58737,16 @@
       <c r="H14" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="118"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="67">
         <v>2</v>
       </c>
@@ -58739,16 +58759,16 @@
       <c r="H15" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="118"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="67">
         <v>3</v>
       </c>
@@ -58761,16 +58781,16 @@
       <c r="H16" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
     </row>
     <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="119"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="73">
         <v>4</v>
       </c>
@@ -58783,20 +58803,20 @@
       <c r="H17" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="115" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="72">
@@ -58811,9 +58831,9 @@
       <c r="H18" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
       <c r="M18" s="67">
         <v>2</v>
       </c>
@@ -58822,9 +58842,9 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="118"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="67">
         <v>2</v>
       </c>
@@ -58839,9 +58859,9 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="118"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="67">
         <v>3</v>
       </c>
@@ -58856,9 +58876,9 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="119"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="73">
         <v>4</v>
       </c>
@@ -58873,13 +58893,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="115" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="72">
@@ -58894,9 +58914,9 @@
       <c r="H22" s="72"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="118"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="67">
         <v>2</v>
       </c>
@@ -58909,9 +58929,9 @@
       <c r="H23" s="67"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="118"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="67">
         <v>3</v>
       </c>
@@ -58924,9 +58944,9 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="118"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="67">
         <v>4</v>
       </c>
@@ -58939,9 +58959,9 @@
       <c r="H25" s="67"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="118"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="67">
         <v>5</v>
       </c>
@@ -58954,9 +58974,9 @@
       <c r="H26" s="67"/>
     </row>
     <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="119"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
       <c r="E27" s="73">
         <v>6</v>
       </c>
@@ -58969,13 +58989,13 @@
       <c r="H27" s="73"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="115" t="s">
         <v>174</v>
       </c>
       <c r="E28" s="72">
@@ -58990,9 +59010,9 @@
       <c r="H28" s="72"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="118"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="67">
         <v>2</v>
       </c>
@@ -59005,9 +59025,9 @@
       <c r="H29" s="67"/>
     </row>
     <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="119"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="73">
         <v>3</v>
       </c>
@@ -59031,7 +59051,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="114" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="78" t="s">
@@ -59045,7 +59065,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="120"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="79" t="s">
         <v>150</v>
       </c>
@@ -59057,7 +59077,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="76" t="s">
         <v>187</v>
       </c>
@@ -59069,7 +59089,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="120"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="82" t="s">
         <v>173</v>
       </c>
@@ -59081,7 +59101,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="114" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="78" t="s">
@@ -59095,7 +59115,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="120"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="79" t="s">
         <v>150</v>
       </c>
@@ -59107,7 +59127,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="120"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="76" t="s">
         <v>187</v>
       </c>
@@ -59119,7 +59139,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="120"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="77" t="s">
         <v>262</v>
       </c>
@@ -59132,6 +59152,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="L13:L18"/>
@@ -59148,25 +59187,6 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D22:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G3:H13 G18:H30">
@@ -59211,9 +59231,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7B9E23-8CD5-4E87-87C5-78B003674011}">
-  <dimension ref="B2:S27"/>
+  <dimension ref="B2:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -59222,36 +59242,38 @@
     <col min="2" max="2" width="7.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="5"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="5"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="63" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="121" t="s">
         <v>348</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="121"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="128"/>
+      <c r="G2" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="121"/>
       <c r="H2" s="121"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31" t="s">
+      <c r="I2" s="121"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="101" t="s">
         <v>349</v>
       </c>
@@ -59261,29 +59283,32 @@
       <c r="D3" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="E3" s="129" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="H3" s="111" t="s">
         <v>409</v>
       </c>
-      <c r="K3" s="26">
+      <c r="L3" s="26">
         <v>0</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="Q3" s="120" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="R3" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>177</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="100">
         <v>0</v>
       </c>
@@ -59291,30 +59316,31 @@
         <v>350</v>
       </c>
       <c r="D4" s="123"/>
-      <c r="F4" t="s">
+      <c r="E4" s="130"/>
+      <c r="G4" t="s">
         <v>402</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>410</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="23">
         <v>1</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="R4" s="114"/>
+      <c r="S4" t="s">
         <v>179</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="100">
         <v>1</v>
       </c>
@@ -59322,69 +59348,71 @@
         <v>351</v>
       </c>
       <c r="D5" s="123"/>
-      <c r="F5" t="s">
+      <c r="E5" s="130"/>
+      <c r="G5" t="s">
         <v>392</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>403</v>
       </c>
-      <c r="K5" s="23">
+      <c r="L5" s="23">
         <v>2</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="O5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" t="s">
+      <c r="R5" s="114"/>
+      <c r="S5" t="s">
         <v>70</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="100">
         <v>2</v>
       </c>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
-      <c r="F6" t="s">
+      <c r="E6" s="67"/>
+      <c r="G6" t="s">
         <v>393</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>404</v>
       </c>
-      <c r="K6" s="23">
+      <c r="L6" s="23">
         <v>3</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="120"/>
-      <c r="R6" t="s">
+      <c r="R6" s="114"/>
+      <c r="S6" t="s">
         <v>172</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="100">
         <v>3</v>
       </c>
@@ -59392,22 +59420,23 @@
         <v>353</v>
       </c>
       <c r="D7" s="123"/>
-      <c r="F7" t="s">
+      <c r="E7" s="130"/>
+      <c r="G7" t="s">
         <v>394</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="K7" s="23">
+      <c r="L7" s="23">
         <v>4</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="100">
         <v>4</v>
       </c>
@@ -59415,46 +59444,48 @@
         <v>354</v>
       </c>
       <c r="D8" s="123"/>
-      <c r="F8" t="s">
+      <c r="E8" s="130"/>
+      <c r="G8" t="s">
         <v>395</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="K8" s="23">
+      <c r="L8" s="23">
         <v>5</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="100">
         <v>5</v>
       </c>
       <c r="C9" s="100"/>
       <c r="D9" s="100"/>
-      <c r="F9" t="s">
+      <c r="E9" s="67"/>
+      <c r="G9" t="s">
         <v>396</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>405</v>
       </c>
-      <c r="K9" s="23">
+      <c r="L9" s="23">
         <v>6</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="100">
         <v>6</v>
       </c>
@@ -59462,43 +59493,45 @@
       <c r="D10" s="100" t="s">
         <v>407</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="67"/>
+      <c r="G10" t="s">
         <v>397</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="K10" s="23">
+      <c r="L10" s="23">
         <v>7</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="100">
         <v>7</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
-      <c r="F11" t="s">
+      <c r="E11" s="67"/>
+      <c r="G11" t="s">
         <v>398</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="K11" s="23">
+      <c r="L11" s="23">
         <v>8</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="M11" s="21"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="100">
         <v>8</v>
       </c>
@@ -59506,22 +59539,23 @@
         <v>352</v>
       </c>
       <c r="D12" s="123"/>
-      <c r="F12" t="s">
+      <c r="E12" s="130"/>
+      <c r="G12" t="s">
         <v>399</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>15</v>
       </c>
-      <c r="K12" s="23">
+      <c r="L12" s="23">
         <v>9</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="100">
         <v>9</v>
       </c>
@@ -59529,23 +59563,24 @@
         <v>251</v>
       </c>
       <c r="D13" s="123"/>
-      <c r="F13" t="s">
+      <c r="E13" s="130"/>
+      <c r="G13" t="s">
         <v>400</v>
       </c>
-      <c r="K13" s="23">
+      <c r="L13" s="23">
         <v>10</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="M13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="O13" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="100">
         <v>10</v>
       </c>
@@ -59553,23 +59588,24 @@
       <c r="D14" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="67"/>
+      <c r="G14" t="s">
         <v>401</v>
       </c>
-      <c r="K14" s="23">
+      <c r="L14" s="23">
         <v>11</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="N14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>13</v>
       </c>
     </ro